--- a/logs/OMG.xlsx
+++ b/logs/OMG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17235" windowHeight="12345" activeTab="9"/>
+    <workbookView windowWidth="17235" windowHeight="12345" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Dota" sheetId="10" r:id="rId1"/>
@@ -46,12 +46,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-阿古朵、典韦、后裔
-蔡文姬、橘右京、鲁班七号、姜子牙</t>
+后裔、鲁班七号、曹操老夫子、阿古朵、不知火舞、橘右京</t>
         </r>
       </text>
     </comment>
-    <comment ref="A33" authorId="0">
+    <comment ref="A35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,11 +68,12 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-后裔、鲁班七号、曹操老夫子、阿古朵、不知火舞、橘右京</t>
+阿古朵、典韦、后裔
+蔡文姬、橘右京、鲁班七号、姜子牙</t>
         </r>
       </text>
     </comment>
-    <comment ref="AK35" authorId="0">
+    <comment ref="AK37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A37" authorId="0">
+    <comment ref="AK39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J51" authorId="0">
+    <comment ref="J47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3182" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3175" uniqueCount="605">
   <si>
     <t>亚巴顿</t>
   </si>
@@ -2024,9 +2024,6 @@
     <t>孙膑</t>
   </si>
   <si>
-    <t>西斯</t>
-  </si>
-  <si>
     <t>安琪拉</t>
   </si>
 </sst>
@@ -2035,11 +2032,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="46">
     <font>
@@ -2214,6 +2211,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -2229,6 +2241,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -2239,9 +2297,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2256,35 +2314,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2319,40 +2348,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2642,7 +2639,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2672,25 +2687,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2732,12 +2771,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2751,24 +2784,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2793,24 +2808,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2961,11 +2958,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2987,24 +3014,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3032,42 +3055,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="59" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="66" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3076,133 +3073,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="57" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="61" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="57" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="61" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="48" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="53" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6008,8 +6005,8 @@
   <sheetPr/>
   <dimension ref="A1:AR52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q52" sqref="Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -6072,41 +6069,41 @@
         <v>581</v>
       </c>
       <c r="D1" s="6">
-        <v>4.89</v>
+        <v>4.87</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>590</v>
       </c>
       <c r="F1" s="7">
-        <v>4.27</v>
+        <v>4.065</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="H1" s="8">
-        <v>3.03</v>
+        <v>3.16</v>
       </c>
       <c r="J1" s="14" t="s">
         <v>572</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="M1" s="6">
+        <v>7.01</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="M1" s="6">
-        <v>8.26</v>
-      </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7">
+        <v>6.95</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="O1" s="7">
-        <v>6.99</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>600</v>
-      </c>
       <c r="Q1" s="8">
-        <v>6.34</v>
+        <v>6.8</v>
       </c>
       <c r="S1" s="14" t="s">
         <v>530</v>
@@ -6118,19 +6115,19 @@
         <v>581</v>
       </c>
       <c r="V1" s="6">
-        <v>6.79</v>
+        <v>6.58</v>
       </c>
       <c r="W1" s="7" t="s">
         <v>543</v>
       </c>
       <c r="X1" s="7">
-        <v>4.57</v>
+        <v>4.6</v>
       </c>
       <c r="Y1" s="7" t="s">
         <v>540</v>
       </c>
       <c r="Z1" s="8">
-        <v>4.08</v>
+        <v>4.16</v>
       </c>
       <c r="AB1" s="14" t="s">
         <v>591</v>
@@ -6142,19 +6139,19 @@
         <v>561</v>
       </c>
       <c r="AE1" s="6">
-        <v>3.24</v>
+        <v>3.07</v>
       </c>
       <c r="AF1" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="AG1" s="7">
+        <v>2.65</v>
+      </c>
+      <c r="AH1" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="AG1" s="7">
-        <v>2.67</v>
-      </c>
-      <c r="AH1" s="7" t="s">
-        <v>535</v>
-      </c>
       <c r="AI1" s="8">
-        <v>2.61</v>
+        <v>2.65</v>
       </c>
       <c r="AK1" s="3" t="s">
         <v>600</v>
@@ -6164,19 +6161,19 @@
         <v>437</v>
       </c>
       <c r="AN1" s="6">
-        <v>6.85</v>
+        <v>7.26</v>
       </c>
       <c r="AO1" s="7" t="s">
         <v>561</v>
       </c>
       <c r="AP1" s="7">
-        <v>6.28</v>
+        <v>6.62</v>
       </c>
       <c r="AQ1" s="7" t="s">
         <v>498</v>
       </c>
       <c r="AR1" s="8">
-        <v>5.24</v>
+        <v>5.49</v>
       </c>
     </row>
     <row r="2" ht="11.5" customHeight="1" spans="1:44">
@@ -6188,19 +6185,19 @@
         <v>447</v>
       </c>
       <c r="D2" s="12">
-        <v>4.8</v>
+        <v>4.81</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>497</v>
       </c>
       <c r="F2" s="12">
-        <v>4.01</v>
+        <v>4</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>598</v>
+        <v>494</v>
       </c>
       <c r="H2" s="13">
-        <v>3.59</v>
+        <v>3.57</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="10">
@@ -6210,19 +6207,19 @@
         <v>598</v>
       </c>
       <c r="M2" s="12">
-        <v>14.59</v>
+        <v>14.43</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>510</v>
       </c>
       <c r="O2" s="12">
-        <v>7.34</v>
+        <v>7.24</v>
       </c>
       <c r="P2" s="12" t="s">
         <v>587</v>
       </c>
       <c r="Q2" s="13">
-        <v>6.73</v>
+        <v>6.66</v>
       </c>
       <c r="S2" s="15"/>
       <c r="T2" s="10">
@@ -6232,41 +6229,41 @@
         <v>598</v>
       </c>
       <c r="V2" s="12">
-        <v>5.91</v>
+        <v>6.03</v>
       </c>
       <c r="W2" s="12" t="s">
         <v>452</v>
       </c>
       <c r="X2" s="12">
-        <v>5.62</v>
+        <v>5.79</v>
       </c>
       <c r="Y2" s="12" t="s">
         <v>573</v>
       </c>
       <c r="Z2" s="13">
-        <v>5.61</v>
+        <v>5.3</v>
       </c>
       <c r="AB2" s="15"/>
       <c r="AC2" s="10">
         <v>53.55</v>
       </c>
       <c r="AD2" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="AE2" s="12">
+        <v>4.1</v>
+      </c>
+      <c r="AF2" s="12" t="s">
         <v>589</v>
       </c>
-      <c r="AE2" s="12">
-        <v>4.09</v>
-      </c>
-      <c r="AF2" s="12" t="s">
-        <v>599</v>
-      </c>
       <c r="AG2" s="12">
-        <v>3.95</v>
+        <v>4.08</v>
       </c>
       <c r="AH2" s="12" t="s">
-        <v>478</v>
+        <v>602</v>
       </c>
       <c r="AI2" s="13">
-        <v>3.71</v>
+        <v>4.08</v>
       </c>
       <c r="AK2" s="9"/>
       <c r="AL2" s="10">
@@ -6276,19 +6273,19 @@
         <v>572</v>
       </c>
       <c r="AN2" s="12">
-        <v>6.34</v>
+        <v>5.82</v>
       </c>
       <c r="AO2" s="12" t="s">
         <v>599</v>
       </c>
       <c r="AP2" s="12">
-        <v>5.22</v>
+        <v>5.58</v>
       </c>
       <c r="AQ2" s="12" t="s">
         <v>507</v>
       </c>
       <c r="AR2" s="13">
-        <v>4.9</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="3" ht="11.5" customHeight="1" spans="1:44">
@@ -6302,19 +6299,19 @@
         <v>456</v>
       </c>
       <c r="D3" s="6">
-        <v>6.05</v>
+        <v>6.26</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>589</v>
       </c>
       <c r="F3" s="7">
-        <v>5.65</v>
+        <v>5.73</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>459</v>
       </c>
       <c r="H3" s="8">
-        <v>3.06</v>
+        <v>3.09</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>541</v>
@@ -6326,19 +6323,19 @@
         <v>565</v>
       </c>
       <c r="M3" s="6">
-        <v>8.26</v>
+        <v>7.13</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>543</v>
       </c>
       <c r="O3" s="7">
-        <v>5.86</v>
+        <v>7.04</v>
       </c>
       <c r="P3" s="7" t="s">
         <v>477</v>
       </c>
       <c r="Q3" s="8">
-        <v>5.35</v>
+        <v>6.53</v>
       </c>
       <c r="S3" s="14" t="s">
         <v>602</v>
@@ -6350,19 +6347,19 @@
         <v>542</v>
       </c>
       <c r="V3" s="6">
-        <v>6.68</v>
+        <v>7.23</v>
       </c>
       <c r="W3" s="7" t="s">
         <v>540</v>
       </c>
       <c r="X3" s="7">
-        <v>6.07</v>
+        <v>5.94</v>
       </c>
       <c r="Y3" s="7" t="s">
         <v>541</v>
       </c>
       <c r="Z3" s="8">
-        <v>5.76</v>
+        <v>5.93</v>
       </c>
       <c r="AB3" s="14" t="s">
         <v>599</v>
@@ -6374,19 +6371,19 @@
         <v>600</v>
       </c>
       <c r="AE3" s="6">
-        <v>5.04</v>
+        <v>5.58</v>
       </c>
       <c r="AF3" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="AG3" s="7">
+        <v>5.29</v>
+      </c>
+      <c r="AH3" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="AG3" s="7">
-        <v>4.97</v>
-      </c>
-      <c r="AH3" s="7" t="s">
-        <v>446</v>
-      </c>
       <c r="AI3" s="8">
-        <v>4.77</v>
+        <v>5.06</v>
       </c>
       <c r="AK3" s="14" t="s">
         <v>583</v>
@@ -6396,19 +6393,19 @@
         <v>587</v>
       </c>
       <c r="AN3" s="6">
-        <v>6.21</v>
+        <v>6.36</v>
       </c>
       <c r="AO3" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="AP3" s="7">
+        <v>4.97</v>
+      </c>
+      <c r="AQ3" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="AP3" s="7">
-        <v>5.74</v>
-      </c>
-      <c r="AQ3" s="7" t="s">
-        <v>539</v>
-      </c>
       <c r="AR3" s="8">
-        <v>5.08</v>
+        <v>4.89</v>
       </c>
     </row>
     <row r="4" ht="11.5" customHeight="1" spans="1:44">
@@ -6420,63 +6417,63 @@
         <v>447</v>
       </c>
       <c r="D4" s="12">
-        <v>5.38</v>
+        <v>5.19</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>576</v>
       </c>
       <c r="F4" s="12">
-        <v>4</v>
+        <v>3.83</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>602</v>
       </c>
       <c r="H4" s="13">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="10">
         <v>53.2</v>
       </c>
       <c r="L4" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="M4" s="12">
+        <v>5.93</v>
+      </c>
+      <c r="N4" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="M4" s="12">
-        <v>6.37</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>602</v>
-      </c>
       <c r="O4" s="12">
-        <v>5.76</v>
+        <v>5.57</v>
       </c>
       <c r="P4" s="12" t="s">
         <v>539</v>
       </c>
       <c r="Q4" s="13">
-        <v>5.21</v>
+        <v>4.27</v>
       </c>
       <c r="S4" s="15"/>
       <c r="T4" s="10">
         <v>54.26</v>
       </c>
       <c r="U4" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="V4" s="12">
+        <v>6.11</v>
+      </c>
+      <c r="W4" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="V4" s="12">
-        <v>5.83</v>
-      </c>
-      <c r="W4" s="12" t="s">
-        <v>497</v>
-      </c>
       <c r="X4" s="12">
-        <v>5.28</v>
+        <v>5.57</v>
       </c>
       <c r="Y4" s="12" t="s">
         <v>549</v>
       </c>
       <c r="Z4" s="13">
-        <v>4.11</v>
+        <v>4.55</v>
       </c>
       <c r="AB4" s="15"/>
       <c r="AC4" s="10">
@@ -6486,19 +6483,19 @@
         <v>497</v>
       </c>
       <c r="AE4" s="12">
-        <v>4.16</v>
+        <v>4.23</v>
       </c>
       <c r="AF4" s="12" t="s">
         <v>436</v>
       </c>
       <c r="AG4" s="12">
-        <v>4.02</v>
+        <v>4.03</v>
       </c>
       <c r="AH4" s="12" t="s">
         <v>495</v>
       </c>
       <c r="AI4" s="13">
-        <v>3.26</v>
+        <v>3.48</v>
       </c>
       <c r="AK4" s="15"/>
       <c r="AL4" s="10">
@@ -6508,19 +6505,19 @@
         <v>437</v>
       </c>
       <c r="AN4" s="12">
-        <v>5.37</v>
+        <v>5.48</v>
       </c>
       <c r="AO4" s="12" t="s">
         <v>453</v>
       </c>
       <c r="AP4" s="12">
-        <v>5.15</v>
+        <v>5.35</v>
       </c>
       <c r="AQ4" s="12" t="s">
         <v>582</v>
       </c>
       <c r="AR4" s="13">
-        <v>4.39</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="5" ht="11.5" customHeight="1" spans="1:44">
@@ -6534,19 +6531,19 @@
         <v>601</v>
       </c>
       <c r="D5" s="6">
-        <v>4.13</v>
+        <v>4.49</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="F5" s="7">
+        <v>3.34</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="F5" s="7">
-        <v>3.2</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>592</v>
-      </c>
       <c r="H5" s="8">
-        <v>3.14</v>
+        <v>3.16</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>555</v>
@@ -6580,19 +6577,19 @@
         <v>498</v>
       </c>
       <c r="V5" s="6">
-        <v>2.85</v>
+        <v>3.15</v>
       </c>
       <c r="W5" s="7" t="s">
         <v>447</v>
       </c>
       <c r="X5" s="7">
-        <v>2.47</v>
+        <v>2.66</v>
       </c>
       <c r="Y5" s="7" t="s">
         <v>437</v>
       </c>
       <c r="Z5" s="8">
-        <v>2.34</v>
+        <v>2.57</v>
       </c>
       <c r="AB5" s="14" t="s">
         <v>598</v>
@@ -6604,19 +6601,19 @@
         <v>572</v>
       </c>
       <c r="AE5" s="6">
-        <v>14.59</v>
+        <v>14.33</v>
       </c>
       <c r="AF5" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="AG5" s="7">
+        <v>6.06</v>
+      </c>
+      <c r="AH5" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="AG5" s="7">
-        <v>5.91</v>
-      </c>
-      <c r="AH5" s="7" t="s">
-        <v>564</v>
-      </c>
       <c r="AI5" s="8">
-        <v>5.82</v>
+        <v>6.03</v>
       </c>
       <c r="AK5" s="14" t="s">
         <v>434</v>
@@ -6628,19 +6625,19 @@
         <v>561</v>
       </c>
       <c r="AN5" s="6">
-        <v>7.18</v>
+        <v>7.58</v>
       </c>
       <c r="AO5" s="7" t="s">
-        <v>565</v>
+        <v>531</v>
       </c>
       <c r="AP5" s="7">
-        <v>6.94</v>
+        <v>6.41</v>
       </c>
       <c r="AQ5" s="7" t="s">
         <v>456</v>
       </c>
       <c r="AR5" s="8">
-        <v>6.27</v>
+        <v>5.91</v>
       </c>
     </row>
     <row r="6" ht="11.5" customHeight="1" spans="1:44">
@@ -6652,19 +6649,19 @@
         <v>599</v>
       </c>
       <c r="D6" s="12">
-        <v>5.16</v>
+        <v>5.29</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>586</v>
       </c>
       <c r="F6" s="12">
-        <v>5.03</v>
+        <v>4.93</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>565</v>
       </c>
       <c r="H6" s="13">
-        <v>4.45</v>
+        <v>4.58</v>
       </c>
       <c r="J6" s="15"/>
       <c r="K6" s="10">
@@ -6674,41 +6671,41 @@
         <v>599</v>
       </c>
       <c r="M6" s="12">
-        <v>5.02</v>
+        <v>5.06</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="O6" s="12">
-        <v>3.69</v>
+        <v>3.92</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>602</v>
+        <v>539</v>
       </c>
       <c r="Q6" s="13">
-        <v>3.43</v>
+        <v>3.71</v>
       </c>
       <c r="S6" s="15"/>
       <c r="T6" s="10">
         <v>53.71</v>
       </c>
       <c r="U6" s="11" t="s">
-        <v>565</v>
+        <v>598</v>
       </c>
       <c r="V6" s="12">
-        <v>6.28</v>
+        <v>6.06</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="X6" s="12">
-        <v>5.82</v>
+        <v>4.38</v>
       </c>
       <c r="Y6" s="12" t="s">
         <v>599</v>
       </c>
       <c r="Z6" s="13">
-        <v>3.72</v>
+        <v>4.19</v>
       </c>
       <c r="AB6" s="15"/>
       <c r="AC6" s="10">
@@ -6718,19 +6715,19 @@
         <v>436</v>
       </c>
       <c r="AE6" s="12">
-        <v>7.33</v>
+        <v>7.45</v>
       </c>
       <c r="AF6" s="12" t="s">
         <v>573</v>
       </c>
       <c r="AG6" s="12">
-        <v>6.91</v>
+        <v>7.06</v>
       </c>
       <c r="AH6" s="12" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AI6" s="13">
-        <v>4.17</v>
+        <v>4.31</v>
       </c>
       <c r="AK6" s="15"/>
       <c r="AL6" s="10">
@@ -6740,19 +6737,19 @@
         <v>454</v>
       </c>
       <c r="AN6" s="12">
-        <v>10.19</v>
+        <v>10.98</v>
       </c>
       <c r="AO6" s="12" t="s">
         <v>518</v>
       </c>
       <c r="AP6" s="12">
-        <v>9.66</v>
+        <v>10.04</v>
       </c>
       <c r="AQ6" s="12" t="s">
         <v>135</v>
       </c>
       <c r="AR6" s="13">
-        <v>7.31</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="7" ht="11.5" customHeight="1" spans="1:44">
@@ -6761,22 +6758,22 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="6">
+        <v>4.57</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="D7" s="6">
-        <v>5.15</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="F7" s="7">
-        <v>4.58</v>
+        <v>4.26</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>592</v>
       </c>
       <c r="H7" s="8">
-        <v>4.31</v>
+        <v>4.16</v>
       </c>
       <c r="J7" s="14" t="s">
         <v>494</v>
@@ -6788,19 +6785,19 @@
         <v>542</v>
       </c>
       <c r="M7" s="6">
-        <v>6.72</v>
+        <v>6.33</v>
       </c>
       <c r="N7" s="7" t="s">
         <v>536</v>
       </c>
       <c r="O7" s="7">
-        <v>5.29</v>
+        <v>6.09</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>590</v>
       </c>
       <c r="Q7" s="8">
-        <v>4.7</v>
+        <v>4.09</v>
       </c>
       <c r="S7" s="14" t="s">
         <v>135</v>
@@ -6810,19 +6807,19 @@
         <v>434</v>
       </c>
       <c r="V7" s="6">
-        <v>7.31</v>
+        <v>7.46</v>
       </c>
       <c r="W7" s="7" t="s">
         <v>552</v>
       </c>
       <c r="X7" s="25">
-        <v>5.5</v>
+        <v>5.45</v>
       </c>
       <c r="Y7" s="7" t="s">
         <v>561</v>
       </c>
       <c r="Z7" s="8">
-        <v>4.78</v>
+        <v>4.99</v>
       </c>
       <c r="AB7" s="14" t="s">
         <v>589</v>
@@ -6834,19 +6831,19 @@
         <v>456</v>
       </c>
       <c r="AE7" s="6">
-        <v>7.71</v>
+        <v>7.28</v>
       </c>
       <c r="AF7" s="7" t="s">
         <v>542</v>
       </c>
       <c r="AG7" s="7">
-        <v>4.92</v>
+        <v>4.62</v>
       </c>
       <c r="AH7" s="7" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="AI7" s="8">
-        <v>4.39</v>
+        <v>4.57</v>
       </c>
       <c r="AK7" s="14" t="s">
         <v>590</v>
@@ -6858,19 +6855,19 @@
         <v>443</v>
       </c>
       <c r="AN7" s="6">
-        <v>5.93</v>
+        <v>6.12</v>
       </c>
       <c r="AO7" s="7" t="s">
-        <v>508</v>
+        <v>543</v>
       </c>
       <c r="AP7" s="7">
-        <v>5.03</v>
+        <v>5.17</v>
       </c>
       <c r="AQ7" s="7" t="s">
         <v>574</v>
       </c>
       <c r="AR7" s="8">
-        <v>4.97</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="8" ht="11.5" customHeight="1" spans="1:44">
@@ -6882,19 +6879,19 @@
         <v>565</v>
       </c>
       <c r="D8" s="12">
-        <v>4.49</v>
+        <v>4.58</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>589</v>
       </c>
       <c r="F8" s="12">
-        <v>3.77</v>
+        <v>4.12</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>599</v>
       </c>
       <c r="H8" s="13">
-        <v>3.77</v>
+        <v>3.89</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="10">
@@ -6904,19 +6901,19 @@
         <v>550</v>
       </c>
       <c r="M8" s="12">
-        <v>7.06</v>
+        <v>8.21</v>
       </c>
       <c r="N8" s="12" t="s">
         <v>586</v>
       </c>
       <c r="O8" s="12">
-        <v>5.66</v>
+        <v>5.38</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>502</v>
+        <v>583</v>
       </c>
       <c r="Q8" s="13">
-        <v>4.83</v>
+        <v>4.7</v>
       </c>
       <c r="S8" s="15"/>
       <c r="T8" s="10">
@@ -6926,19 +6923,19 @@
         <v>522</v>
       </c>
       <c r="V8" s="12">
-        <v>5.29</v>
+        <v>5.23</v>
       </c>
       <c r="W8" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="X8" s="12">
+        <v>4.68</v>
+      </c>
+      <c r="Y8" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="X8" s="12">
-        <v>4.64</v>
-      </c>
-      <c r="Y8" s="12" t="s">
-        <v>445</v>
-      </c>
       <c r="Z8" s="13">
-        <v>4.58</v>
+        <v>4.63</v>
       </c>
       <c r="AB8" s="15"/>
       <c r="AC8" s="10">
@@ -6948,41 +6945,41 @@
         <v>442</v>
       </c>
       <c r="AE8" s="12">
-        <v>5.65</v>
+        <v>5.73</v>
       </c>
       <c r="AF8" s="12" t="s">
         <v>567</v>
       </c>
       <c r="AG8" s="12">
-        <v>3.82</v>
+        <v>4.04</v>
       </c>
       <c r="AH8" s="12" t="s">
         <v>495</v>
       </c>
       <c r="AI8" s="13">
-        <v>3.42</v>
+        <v>3.54</v>
       </c>
       <c r="AK8" s="15"/>
       <c r="AL8" s="10">
         <v>51.09</v>
       </c>
       <c r="AM8" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="AN8" s="12">
+        <v>5.27</v>
+      </c>
+      <c r="AO8" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="AN8" s="12">
-        <v>5.64</v>
-      </c>
-      <c r="AO8" s="12" t="s">
-        <v>536</v>
-      </c>
       <c r="AP8" s="12">
-        <v>50.09</v>
+        <v>5.22</v>
       </c>
       <c r="AQ8" s="12" t="s">
         <v>455</v>
       </c>
       <c r="AR8" s="13">
-        <v>4.95</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="9" ht="11.5" customHeight="1" spans="1:44">
@@ -6996,19 +6993,19 @@
         <v>536</v>
       </c>
       <c r="D9" s="6">
-        <v>4.09</v>
+        <v>4.24</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="F9" s="7">
+        <v>3.69</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="F9" s="7">
-        <v>3.66</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>522</v>
-      </c>
       <c r="H9" s="8">
-        <v>3.61</v>
+        <v>3.67</v>
       </c>
       <c r="J9" s="14" t="s">
         <v>543</v>
@@ -7018,19 +7015,19 @@
         <v>573</v>
       </c>
       <c r="M9" s="6">
-        <v>10.31</v>
+        <v>10.33</v>
       </c>
       <c r="N9" s="7" t="s">
         <v>498</v>
       </c>
       <c r="O9" s="7">
-        <v>5.7</v>
+        <v>5.23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>549</v>
+        <v>477</v>
       </c>
       <c r="Q9" s="8">
-        <v>4.97</v>
+        <v>5.12</v>
       </c>
       <c r="S9" s="14" t="s">
         <v>573</v>
@@ -7040,19 +7037,19 @@
         <v>598</v>
       </c>
       <c r="V9" s="6">
-        <v>6.91</v>
+        <v>7.06</v>
       </c>
       <c r="W9" s="7" t="s">
         <v>530</v>
       </c>
       <c r="X9" s="7">
-        <v>5.61</v>
+        <v>5.79</v>
       </c>
       <c r="Y9" s="7" t="s">
         <v>561</v>
       </c>
       <c r="Z9" s="8">
-        <v>3.54</v>
+        <v>3.52</v>
       </c>
       <c r="AB9" s="14" t="s">
         <v>575</v>
@@ -7064,41 +7061,41 @@
         <v>581</v>
       </c>
       <c r="AE9" s="6">
-        <v>3.77</v>
+        <v>3.72</v>
       </c>
       <c r="AF9" s="7" t="s">
         <v>453</v>
       </c>
       <c r="AG9" s="7">
-        <v>2.87</v>
+        <v>3.07</v>
       </c>
       <c r="AH9" s="7" t="s">
-        <v>535</v>
+        <v>466</v>
       </c>
       <c r="AI9" s="8">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AK9" s="14" t="s">
         <v>582</v>
       </c>
       <c r="AL9" s="4"/>
       <c r="AM9" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="AN9" s="6">
+        <v>6.49</v>
+      </c>
+      <c r="AO9" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="AN9" s="6">
-        <v>5.94</v>
-      </c>
-      <c r="AO9" s="7" t="s">
-        <v>443</v>
-      </c>
       <c r="AP9" s="7">
-        <v>5.72</v>
+        <v>6.47</v>
       </c>
       <c r="AQ9" s="7" t="s">
         <v>434</v>
       </c>
       <c r="AR9" s="8">
-        <v>5.2</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="10" ht="11.5" customHeight="1" spans="1:44">
@@ -7110,19 +7107,19 @@
         <v>456</v>
       </c>
       <c r="D10" s="12">
-        <v>10.37</v>
+        <v>10.5</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>477</v>
       </c>
       <c r="F10" s="12">
-        <v>6.63</v>
+        <v>6.9</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>497</v>
       </c>
       <c r="H10" s="13">
-        <v>5.88</v>
+        <v>5.8</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="10">
@@ -7132,19 +7129,19 @@
         <v>507</v>
       </c>
       <c r="M10" s="12">
-        <v>10.47</v>
+        <v>10.32</v>
       </c>
       <c r="N10" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="O10" s="12">
+        <v>7.04</v>
+      </c>
+      <c r="P10" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="O10" s="12">
-        <v>6.99</v>
-      </c>
-      <c r="P10" s="12" t="s">
-        <v>541</v>
-      </c>
       <c r="Q10" s="13">
-        <v>5.86</v>
+        <v>6.8</v>
       </c>
       <c r="S10" s="15"/>
       <c r="T10" s="10">
@@ -7154,41 +7151,41 @@
         <v>543</v>
       </c>
       <c r="V10" s="12">
-        <v>10.31</v>
+        <v>10.33</v>
       </c>
       <c r="W10" s="12" t="s">
         <v>567</v>
       </c>
       <c r="X10" s="12">
-        <v>5.81</v>
+        <v>5.76</v>
       </c>
       <c r="Y10" s="12" t="s">
         <v>510</v>
       </c>
       <c r="Z10" s="13">
-        <v>5.4</v>
+        <v>5.32</v>
       </c>
       <c r="AB10" s="15"/>
       <c r="AC10" s="10">
         <v>51.29</v>
       </c>
       <c r="AD10" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="AE10" s="12">
+        <v>4.07</v>
+      </c>
+      <c r="AF10" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="AE10" s="12">
-        <v>3.61</v>
-      </c>
-      <c r="AF10" s="12" t="s">
-        <v>602</v>
-      </c>
       <c r="AG10" s="12">
-        <v>3.38</v>
+        <v>3.59</v>
       </c>
       <c r="AH10" s="12" t="s">
-        <v>583</v>
+        <v>544</v>
       </c>
       <c r="AI10" s="13">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="AK10" s="15"/>
       <c r="AL10" s="10">
@@ -7198,19 +7195,19 @@
         <v>587</v>
       </c>
       <c r="AN10" s="12">
-        <v>8.92</v>
+        <v>8.56</v>
       </c>
       <c r="AO10" s="12" t="s">
         <v>510</v>
       </c>
       <c r="AP10" s="12">
-        <v>3.38</v>
+        <v>3.1</v>
       </c>
       <c r="AQ10" s="12" t="s">
         <v>590</v>
       </c>
       <c r="AR10" s="13">
-        <v>2.53</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="11" ht="11.5" customHeight="1" spans="1:44">
@@ -7224,19 +7221,19 @@
         <v>484</v>
       </c>
       <c r="D11" s="6">
-        <v>6.63</v>
+        <v>6.9</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="F11" s="7">
+        <v>3.11</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="F11" s="7">
-        <v>3.15</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>589</v>
-      </c>
       <c r="H11" s="8">
-        <v>3.06</v>
+        <v>3.11</v>
       </c>
       <c r="J11" s="14" t="s">
         <v>539</v>
@@ -7246,19 +7243,19 @@
         <v>547</v>
       </c>
       <c r="M11" s="6">
-        <v>6.17</v>
+        <v>6.09</v>
       </c>
       <c r="N11" s="7" t="s">
         <v>550</v>
       </c>
       <c r="O11" s="7">
-        <v>5.24</v>
+        <v>5.39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>541</v>
+        <v>447</v>
       </c>
       <c r="Q11" s="8">
-        <v>5.21</v>
+        <v>5</v>
       </c>
       <c r="S11" s="14" t="s">
         <v>577</v>
@@ -7276,13 +7273,13 @@
         <v>510</v>
       </c>
       <c r="X11" s="7">
-        <v>4.73</v>
+        <v>4.856</v>
       </c>
       <c r="Y11" s="7" t="s">
         <v>600</v>
       </c>
       <c r="Z11" s="8">
-        <v>4.52</v>
+        <v>4.798</v>
       </c>
       <c r="AB11" s="14" t="s">
         <v>586</v>
@@ -7292,19 +7289,19 @@
         <v>507</v>
       </c>
       <c r="AE11" s="6">
-        <v>6.05</v>
+        <v>5.97</v>
       </c>
       <c r="AF11" s="7" t="s">
         <v>602</v>
       </c>
       <c r="AG11" s="7">
-        <v>5.83</v>
+        <v>5.57</v>
       </c>
       <c r="AH11" s="7" t="s">
         <v>494</v>
       </c>
       <c r="AI11" s="8">
-        <v>5.66</v>
+        <v>5.38</v>
       </c>
       <c r="AK11" s="14" t="s">
         <v>518</v>
@@ -7316,19 +7313,19 @@
         <v>434</v>
       </c>
       <c r="AN11" s="6">
-        <v>9.66</v>
+        <v>10.04</v>
       </c>
       <c r="AO11" s="7" t="s">
         <v>454</v>
       </c>
       <c r="AP11" s="7">
-        <v>4.24</v>
+        <v>4.41</v>
       </c>
       <c r="AQ11" s="7" t="s">
-        <v>475</v>
+        <v>536</v>
       </c>
       <c r="AR11" s="8">
-        <v>2.94</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="12" ht="11.5" customHeight="1" spans="1:44">
@@ -7340,19 +7337,19 @@
         <v>541</v>
       </c>
       <c r="D12" s="12">
-        <v>5.35</v>
+        <v>6.53</v>
       </c>
       <c r="E12" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="F12" s="12">
+        <v>5.12</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="F12" s="12">
-        <v>4.96</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>568</v>
-      </c>
       <c r="H12" s="13">
-        <v>4.74</v>
+        <v>4.9</v>
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="10">
@@ -7362,19 +7359,19 @@
         <v>583</v>
       </c>
       <c r="M12" s="12">
-        <v>5.08</v>
+        <v>4.97</v>
       </c>
       <c r="N12" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="O12" s="12">
+        <v>4.47</v>
+      </c>
+      <c r="P12" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="O12" s="12">
-        <v>4.44</v>
-      </c>
-      <c r="P12" s="12" t="s">
-        <v>498</v>
-      </c>
       <c r="Q12" s="13">
-        <v>4.27</v>
+        <v>4.03</v>
       </c>
       <c r="S12" s="15"/>
       <c r="T12" s="10">
@@ -7384,7 +7381,7 @@
         <v>495</v>
       </c>
       <c r="V12" s="12">
-        <v>8.165</v>
+        <v>7.83</v>
       </c>
       <c r="W12" s="12" t="s">
         <v>520</v>
@@ -7396,7 +7393,7 @@
         <v>589</v>
       </c>
       <c r="Z12" s="13">
-        <v>4.39</v>
+        <v>4.78</v>
       </c>
       <c r="AB12" s="15"/>
       <c r="AC12" s="10">
@@ -7406,41 +7403,41 @@
         <v>135</v>
       </c>
       <c r="AE12" s="12">
-        <v>4.78</v>
+        <v>4.51</v>
       </c>
       <c r="AF12" s="12" t="s">
         <v>568</v>
       </c>
       <c r="AG12" s="12">
-        <v>4.54</v>
+        <v>4.43</v>
       </c>
       <c r="AH12" s="12" t="s">
         <v>592</v>
       </c>
       <c r="AI12" s="13">
-        <v>4.52</v>
+        <v>4.27</v>
       </c>
       <c r="AK12" s="15"/>
       <c r="AL12" s="10">
         <v>50.33</v>
       </c>
       <c r="AM12" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="AN12" s="12">
+        <v>3.23</v>
+      </c>
+      <c r="AO12" s="12" t="s">
         <v>552</v>
       </c>
-      <c r="AN12" s="12">
-        <v>3.44</v>
-      </c>
-      <c r="AO12" s="12" t="s">
-        <v>587</v>
-      </c>
       <c r="AP12" s="12">
-        <v>3.4</v>
+        <v>3.22</v>
       </c>
       <c r="AQ12" s="12" t="s">
         <v>497</v>
       </c>
       <c r="AR12" s="13">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="13" ht="11.5" customHeight="1" spans="1:44">
@@ -7454,41 +7451,41 @@
         <v>522</v>
       </c>
       <c r="D13" s="19">
-        <v>3.62</v>
+        <v>3.69</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>598</v>
       </c>
       <c r="F13" s="20">
-        <v>3.13</v>
+        <v>3.28</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
       <c r="H13" s="21">
-        <v>3.01</v>
+        <v>2.89</v>
       </c>
       <c r="J13" s="14" t="s">
         <v>523</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="M13" s="6">
+        <v>5.14</v>
+      </c>
+      <c r="N13" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="M13" s="6">
-        <v>5.08</v>
-      </c>
-      <c r="N13" s="7" t="s">
+      <c r="O13" s="7">
+        <v>4.58</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="O13" s="7">
-        <v>4.72</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>535</v>
-      </c>
       <c r="Q13" s="8">
-        <v>4.45</v>
+        <v>4.77</v>
       </c>
       <c r="S13" s="14" t="s">
         <v>594</v>
@@ -7500,19 +7497,19 @@
         <v>497</v>
       </c>
       <c r="V13" s="6">
-        <v>5.2</v>
+        <v>5.34</v>
       </c>
       <c r="W13" s="7" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="X13" s="7">
-        <v>5.2</v>
+        <v>3.71</v>
       </c>
       <c r="Y13" s="7" t="s">
-        <v>577</v>
+        <v>498</v>
       </c>
       <c r="Z13" s="8">
-        <v>3.65</v>
+        <v>3.56</v>
       </c>
       <c r="AB13" s="14" t="s">
         <v>588</v>
@@ -7524,19 +7521,19 @@
         <v>456</v>
       </c>
       <c r="AE13" s="6">
-        <v>8.45</v>
+        <v>8.12</v>
       </c>
       <c r="AF13" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="AG13" s="7">
+        <v>4.01</v>
+      </c>
+      <c r="AH13" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="AG13" s="7">
-        <v>3.48</v>
-      </c>
-      <c r="AH13" s="7" t="s">
-        <v>542</v>
-      </c>
       <c r="AI13" s="8">
-        <v>3.29</v>
+        <v>3.34</v>
       </c>
       <c r="AK13" s="14" t="s">
         <v>443</v>
@@ -7548,19 +7545,19 @@
         <v>497</v>
       </c>
       <c r="AN13" s="6">
-        <v>5.45</v>
+        <v>5.39</v>
       </c>
       <c r="AO13" s="7" t="s">
         <v>436</v>
       </c>
       <c r="AP13" s="7">
-        <v>3.88</v>
+        <v>4.04</v>
       </c>
       <c r="AQ13" s="7" t="s">
-        <v>494</v>
+        <v>447</v>
       </c>
       <c r="AR13" s="8">
-        <v>2.93</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="14" ht="11.5" customHeight="1" spans="1:44">
@@ -7569,19 +7566,19 @@
         <v>50.97</v>
       </c>
       <c r="C14" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="D14" s="12">
+        <v>3.75</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>555</v>
       </c>
-      <c r="D14" s="12">
-        <v>4.21</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>548</v>
-      </c>
       <c r="F14" s="12">
-        <v>4.13</v>
+        <v>3.64</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>444</v>
+        <v>603</v>
       </c>
       <c r="H14" s="13">
         <v>3.59</v>
@@ -7594,41 +7591,41 @@
         <v>536</v>
       </c>
       <c r="M14" s="12">
-        <v>7.92</v>
+        <v>8.01</v>
       </c>
       <c r="N14" s="12" t="s">
         <v>522</v>
       </c>
       <c r="O14" s="12">
-        <v>5.9</v>
+        <v>5.99</v>
       </c>
       <c r="P14" s="12" t="s">
         <v>433</v>
       </c>
       <c r="Q14" s="13">
-        <v>5.7</v>
+        <v>5.83</v>
       </c>
       <c r="S14" s="15"/>
       <c r="T14" s="10">
         <v>51.64</v>
       </c>
       <c r="U14" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="V14" s="12">
+        <v>5.02</v>
+      </c>
+      <c r="W14" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="V14" s="12">
-        <v>5.53</v>
-      </c>
-      <c r="W14" s="12" t="s">
-        <v>600</v>
-      </c>
       <c r="X14" s="12">
-        <v>4.56</v>
+        <v>4.54</v>
       </c>
       <c r="Y14" s="12" t="s">
         <v>546</v>
       </c>
       <c r="Z14" s="13">
-        <v>3.76</v>
+        <v>4.24</v>
       </c>
       <c r="AB14" s="15"/>
       <c r="AC14" s="10">
@@ -7638,19 +7635,19 @@
         <v>561</v>
       </c>
       <c r="AE14" s="12">
-        <v>4.3</v>
+        <v>4.43</v>
       </c>
       <c r="AF14" s="12" t="s">
         <v>498</v>
       </c>
       <c r="AG14" s="12">
-        <v>3.27</v>
+        <v>3.47</v>
       </c>
       <c r="AH14" s="12" t="s">
-        <v>436</v>
+        <v>535</v>
       </c>
       <c r="AI14" s="13">
-        <v>3.2</v>
+        <v>3.14</v>
       </c>
       <c r="AK14" s="15"/>
       <c r="AL14" s="10">
@@ -7660,19 +7657,19 @@
         <v>590</v>
       </c>
       <c r="AN14" s="12">
-        <v>5.93</v>
+        <v>6.49</v>
       </c>
       <c r="AO14" s="12" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="AP14" s="12">
-        <v>5.74</v>
+        <v>6.12</v>
       </c>
       <c r="AQ14" s="12" t="s">
-        <v>582</v>
+        <v>459</v>
       </c>
       <c r="AR14" s="13">
-        <v>5.72</v>
+        <v>4.98</v>
       </c>
     </row>
     <row r="15" ht="11.5" customHeight="1" spans="1:44">
@@ -7684,19 +7681,19 @@
         <v>516</v>
       </c>
       <c r="D15" s="6">
-        <v>3.55</v>
+        <v>3.58</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>447</v>
       </c>
       <c r="F15" s="7">
-        <v>3.41</v>
+        <v>3.53</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>456</v>
       </c>
       <c r="H15" s="8">
-        <v>3.35</v>
+        <v>3.19</v>
       </c>
       <c r="J15" s="14" t="s">
         <v>548</v>
@@ -7708,19 +7705,19 @@
         <v>552</v>
       </c>
       <c r="M15" s="6">
-        <v>4.78</v>
+        <v>5.62</v>
       </c>
       <c r="N15" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="O15" s="7">
+        <v>4.19</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="O15" s="7">
-        <v>4.44</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>495</v>
-      </c>
       <c r="Q15" s="8">
-        <v>4.2</v>
+        <v>4.03</v>
       </c>
       <c r="S15" s="14" t="s">
         <v>601</v>
@@ -7732,41 +7729,41 @@
         <v>552</v>
       </c>
       <c r="V15" s="6">
-        <v>7.02</v>
+        <v>7.35</v>
       </c>
       <c r="W15" s="7" t="s">
         <v>561</v>
       </c>
       <c r="X15" s="7">
-        <v>5.53</v>
+        <v>5.86</v>
       </c>
       <c r="Y15" s="7" t="s">
         <v>535</v>
       </c>
       <c r="Z15" s="8">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="AB15" s="14" t="s">
         <v>593</v>
       </c>
       <c r="AC15" s="4"/>
       <c r="AD15" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="AE15" s="6">
+        <v>2.2</v>
+      </c>
+      <c r="AF15" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="AG15" s="7">
+        <v>2.12</v>
+      </c>
+      <c r="AH15" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="AE15" s="6">
-        <v>2.27</v>
-      </c>
-      <c r="AF15" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="AG15" s="7">
-        <v>2.16</v>
-      </c>
-      <c r="AH15" s="7" t="s">
-        <v>565</v>
-      </c>
       <c r="AI15" s="8">
-        <v>1.99</v>
+        <v>2.09</v>
       </c>
       <c r="AK15" s="14" t="s">
         <v>454</v>
@@ -7776,19 +7773,19 @@
         <v>434</v>
       </c>
       <c r="AN15" s="6">
-        <v>10.19</v>
+        <v>10.98</v>
       </c>
       <c r="AO15" s="7" t="s">
         <v>456</v>
       </c>
       <c r="AP15" s="7">
-        <v>5</v>
+        <v>4.93</v>
       </c>
       <c r="AQ15" s="7" t="s">
         <v>435</v>
       </c>
       <c r="AR15" s="8">
-        <v>4.72</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="16" ht="11.5" customHeight="1" spans="1:44">
@@ -7800,41 +7797,41 @@
         <v>601</v>
       </c>
       <c r="D16" s="12">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>532</v>
+        <v>565</v>
       </c>
       <c r="F16" s="12">
-        <v>3.06</v>
+        <v>3.07</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>459</v>
       </c>
       <c r="H16" s="13">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="J16" s="15"/>
       <c r="K16" s="10">
         <v>52.2</v>
       </c>
       <c r="L16" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="M16" s="12">
+        <v>7.15</v>
+      </c>
+      <c r="N16" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="M16" s="12">
-        <v>6.44</v>
-      </c>
-      <c r="N16" s="12" t="s">
-        <v>550</v>
-      </c>
       <c r="O16" s="12">
-        <v>5.74</v>
+        <v>6.19</v>
       </c>
       <c r="P16" s="12" t="s">
         <v>437</v>
       </c>
       <c r="Q16" s="13">
-        <v>5.53</v>
+        <v>5.23</v>
       </c>
       <c r="S16" s="15"/>
       <c r="T16" s="10">
@@ -7844,19 +7841,19 @@
         <v>576</v>
       </c>
       <c r="V16" s="12">
-        <v>5</v>
+        <v>5.52</v>
       </c>
       <c r="W16" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="X16" s="12">
+        <v>4.65</v>
+      </c>
+      <c r="Y16" s="12" t="s">
         <v>599</v>
       </c>
-      <c r="X16" s="12">
-        <v>4.42</v>
-      </c>
-      <c r="Y16" s="12" t="s">
-        <v>555</v>
-      </c>
       <c r="Z16" s="13">
-        <v>4.31</v>
+        <v>4.56</v>
       </c>
       <c r="AB16" s="15"/>
       <c r="AC16" s="10">
@@ -7872,13 +7869,13 @@
         <v>536</v>
       </c>
       <c r="AG16" s="12">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="AH16" s="12" t="s">
         <v>433</v>
       </c>
       <c r="AI16" s="13">
-        <v>2.04</v>
+        <v>2.11</v>
       </c>
       <c r="AK16" s="15"/>
       <c r="AL16" s="10">
@@ -7888,19 +7885,19 @@
         <v>582</v>
       </c>
       <c r="AN16" s="12">
-        <v>5.94</v>
+        <v>6.47</v>
       </c>
       <c r="AO16" s="12" t="s">
         <v>510</v>
       </c>
       <c r="AP16" s="12">
-        <v>5.63</v>
+        <v>5.64</v>
       </c>
       <c r="AQ16" s="12" t="s">
         <v>583</v>
       </c>
       <c r="AR16" s="13">
-        <v>4.53</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="17" ht="11.5" customHeight="1" spans="1:44">
@@ -7912,19 +7909,19 @@
         <v>543</v>
       </c>
       <c r="D17" s="6">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="F17" s="7">
+        <v>3.43</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="F17" s="7">
-        <v>3.59</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>581</v>
-      </c>
       <c r="H17" s="8">
-        <v>3.21</v>
+        <v>3.13</v>
       </c>
       <c r="J17" s="14" t="s">
         <v>540</v>
@@ -7936,19 +7933,19 @@
         <v>492</v>
       </c>
       <c r="M17" s="6">
-        <v>5.25</v>
+        <v>5.04</v>
       </c>
       <c r="N17" s="7" t="s">
         <v>581</v>
       </c>
       <c r="O17" s="7">
-        <v>3.57</v>
+        <v>3.43</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>590</v>
       </c>
       <c r="Q17" s="8">
-        <v>3.54</v>
+        <v>3.36</v>
       </c>
       <c r="S17" s="14" t="s">
         <v>527</v>
@@ -7966,13 +7963,13 @@
         <v>477</v>
       </c>
       <c r="X17" s="7">
-        <v>4.96</v>
+        <v>4.9</v>
       </c>
       <c r="Y17" s="7" t="s">
         <v>573</v>
       </c>
       <c r="Z17" s="8">
-        <v>4.24</v>
+        <v>4.34</v>
       </c>
       <c r="AB17" s="14" t="s">
         <v>576</v>
@@ -7984,19 +7981,19 @@
         <v>527</v>
       </c>
       <c r="AE17" s="6">
-        <v>5.77</v>
+        <v>5.93</v>
       </c>
       <c r="AF17" s="7" t="s">
         <v>601</v>
       </c>
       <c r="AG17" s="7">
-        <v>5</v>
+        <v>5.52</v>
       </c>
       <c r="AH17" s="7" t="s">
         <v>442</v>
       </c>
       <c r="AI17" s="8">
-        <v>4</v>
+        <v>3.83</v>
       </c>
       <c r="AK17" s="14" t="s">
         <v>468</v>
@@ -8008,19 +8005,19 @@
         <v>443</v>
       </c>
       <c r="AN17" s="6">
-        <v>3.42</v>
+        <v>3</v>
       </c>
       <c r="AO17" s="7" t="s">
         <v>575</v>
       </c>
       <c r="AP17" s="7">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="AQ17" s="7" t="s">
-        <v>591</v>
+        <v>447</v>
       </c>
       <c r="AR17" s="8">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="18" ht="11.5" customHeight="1" spans="1:44">
@@ -8032,19 +8029,19 @@
         <v>520</v>
       </c>
       <c r="D18" s="12">
-        <v>4.04</v>
+        <v>4.18</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="F18" s="12">
-        <v>4</v>
+        <v>3.77</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>586</v>
       </c>
       <c r="H18" s="13">
-        <v>3.85</v>
+        <v>3.64</v>
       </c>
       <c r="J18" s="15"/>
       <c r="K18" s="10">
@@ -8054,19 +8051,19 @@
         <v>602</v>
       </c>
       <c r="M18" s="12">
-        <v>6.07</v>
+        <v>5.94</v>
       </c>
       <c r="N18" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="O18" s="12">
+        <v>4.49</v>
+      </c>
+      <c r="P18" s="12" t="s">
         <v>515</v>
       </c>
-      <c r="O18" s="12">
-        <v>4.61</v>
-      </c>
-      <c r="P18" s="12" t="s">
-        <v>433</v>
-      </c>
       <c r="Q18" s="13">
-        <v>4.32</v>
+        <v>4.47</v>
       </c>
       <c r="S18" s="15"/>
       <c r="T18" s="10">
@@ -8076,19 +8073,19 @@
         <v>456</v>
       </c>
       <c r="V18" s="12">
-        <v>6.09</v>
+        <v>6.11</v>
       </c>
       <c r="W18" s="12" t="s">
         <v>576</v>
       </c>
       <c r="X18" s="12">
-        <v>5.77</v>
+        <v>5.93</v>
       </c>
       <c r="Y18" s="12" t="s">
         <v>577</v>
       </c>
       <c r="Z18" s="13">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AB18" s="15"/>
       <c r="AC18" s="10">
@@ -8098,39 +8095,39 @@
         <v>598</v>
       </c>
       <c r="AE18" s="12">
-        <v>4.32</v>
+        <v>4.27</v>
       </c>
       <c r="AF18" s="12" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="AG18" s="12">
-        <v>3.03</v>
+        <v>3.21</v>
       </c>
       <c r="AH18" s="12" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="AI18" s="13">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="AK18" s="15"/>
       <c r="AL18" s="10"/>
       <c r="AM18" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="AN18" s="12">
+        <v>4.29</v>
+      </c>
+      <c r="AO18" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AP18" s="12">
+        <v>3.55</v>
+      </c>
+      <c r="AQ18" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="AN18" s="12">
-        <v>4.58</v>
-      </c>
-      <c r="AO18" s="12" t="s">
-        <v>590</v>
-      </c>
-      <c r="AP18" s="12">
-        <v>4.13</v>
-      </c>
-      <c r="AQ18" s="12" t="s">
-        <v>135</v>
-      </c>
       <c r="AR18" s="13">
-        <v>3.57</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="19" ht="11.5" customHeight="1" spans="1:44">
@@ -8150,13 +8147,13 @@
         <v>447</v>
       </c>
       <c r="F19" s="7">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>587</v>
+        <v>434</v>
       </c>
       <c r="H19" s="8">
-        <v>2.34</v>
+        <v>2.35</v>
       </c>
       <c r="J19" s="14" t="s">
         <v>437</v>
@@ -8165,22 +8162,22 @@
         <v>50.59</v>
       </c>
       <c r="L19" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="M19" s="6">
+        <v>5.59</v>
+      </c>
+      <c r="N19" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="M19" s="6">
+      <c r="O19" s="7">
         <v>5.56</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="O19" s="7">
-        <v>5.53</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>583</v>
       </c>
       <c r="Q19" s="8">
-        <v>5.37</v>
+        <v>5.48</v>
       </c>
       <c r="S19" s="14" t="s">
         <v>466</v>
@@ -8190,41 +8187,41 @@
         <v>498</v>
       </c>
       <c r="V19" s="6">
-        <v>3.42</v>
+        <v>4.36</v>
       </c>
       <c r="W19" s="7" t="s">
         <v>497</v>
       </c>
       <c r="X19" s="7">
-        <v>3.39</v>
+        <v>3.26</v>
       </c>
       <c r="Y19" s="7" t="s">
-        <v>548</v>
+        <v>447</v>
       </c>
       <c r="Z19" s="8">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="AB19" s="14" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="AC19" s="4"/>
       <c r="AD19" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="AE19" s="6">
+        <v>9.22</v>
+      </c>
+      <c r="AF19" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="AG19" s="7">
+        <v>6.19</v>
+      </c>
+      <c r="AH19" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="AE19" s="6">
-        <v>8.93</v>
-      </c>
-      <c r="AF19" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="AG19" s="7">
-        <v>6.28</v>
-      </c>
-      <c r="AH19" s="7" t="s">
-        <v>459</v>
-      </c>
       <c r="AI19" s="8">
-        <v>4.97</v>
+        <v>5.83</v>
       </c>
       <c r="AK19" s="14" t="s">
         <v>514</v>
@@ -8233,22 +8230,22 @@
         <v>50.99</v>
       </c>
       <c r="AM19" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="AN19" s="6">
+        <v>3.25</v>
+      </c>
+      <c r="AO19" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="AP19" s="7">
+        <v>2.92</v>
+      </c>
+      <c r="AQ19" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="AN19" s="6">
-        <v>3</v>
-      </c>
-      <c r="AO19" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="AP19" s="7">
-        <v>2.93</v>
-      </c>
-      <c r="AQ19" s="7" t="s">
-        <v>574</v>
-      </c>
       <c r="AR19" s="8">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="20" ht="11.5" customHeight="1" spans="1:44">
@@ -8260,19 +8257,19 @@
         <v>456</v>
       </c>
       <c r="D20" s="12">
-        <v>7.71</v>
+        <v>7.22</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>590</v>
       </c>
       <c r="F20" s="12">
-        <v>3.51</v>
+        <v>3.67</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
       <c r="H20" s="13">
-        <v>2.81</v>
+        <v>3</v>
       </c>
       <c r="J20" s="15"/>
       <c r="K20" s="10">
@@ -8282,61 +8279,61 @@
         <v>600</v>
       </c>
       <c r="M20" s="12">
-        <v>6.85</v>
+        <v>7.26</v>
       </c>
       <c r="N20" s="12" t="s">
         <v>453</v>
       </c>
       <c r="O20" s="12">
-        <v>4.96</v>
+        <v>5.68</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>434</v>
+        <v>547</v>
       </c>
       <c r="Q20" s="13">
-        <v>4.08</v>
+        <v>3.89</v>
       </c>
       <c r="S20" s="15"/>
       <c r="T20" s="10">
         <v>50.64</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>539</v>
+        <v>568</v>
       </c>
       <c r="V20" s="12">
-        <v>3.61</v>
+        <v>4.45</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="X20" s="12">
-        <v>3.61</v>
+        <v>3.64</v>
       </c>
       <c r="Y20" s="12" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="Z20" s="13">
-        <v>3.31</v>
+        <v>3.55</v>
       </c>
       <c r="AB20" s="15"/>
       <c r="AC20" s="10"/>
       <c r="AD20" s="11" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AE20" s="12">
-        <v>8.26</v>
+        <v>6.05</v>
       </c>
       <c r="AF20" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AG20" s="12">
-        <v>6.94</v>
+        <v>5.45</v>
       </c>
       <c r="AH20" s="12" t="s">
-        <v>594</v>
+        <v>536</v>
       </c>
       <c r="AI20" s="13">
-        <v>5.2</v>
+        <v>4.89</v>
       </c>
       <c r="AK20" s="15"/>
       <c r="AL20" s="10"/>
@@ -8368,19 +8365,19 @@
         <v>498</v>
       </c>
       <c r="D21" s="6">
-        <v>4.84</v>
+        <v>4.89</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>601</v>
       </c>
       <c r="F21" s="7">
-        <v>3.73</v>
+        <v>4.01</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>591</v>
       </c>
       <c r="H21" s="8">
-        <v>3.71</v>
+        <v>3.88</v>
       </c>
       <c r="J21" s="14" t="s">
         <v>542</v>
@@ -8392,19 +8389,19 @@
         <v>456</v>
       </c>
       <c r="M21" s="6">
-        <v>8.36</v>
+        <v>8.64</v>
       </c>
       <c r="N21" s="7" t="s">
         <v>510</v>
       </c>
       <c r="O21" s="7">
-        <v>7.63</v>
+        <v>7.87</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>568</v>
       </c>
       <c r="Q21" s="8">
-        <v>6.12</v>
+        <v>6.05</v>
       </c>
       <c r="S21" s="14" t="s">
         <v>566</v>
@@ -8416,41 +8413,41 @@
         <v>548</v>
       </c>
       <c r="V21" s="6">
-        <v>4.91</v>
+        <v>5.01</v>
       </c>
       <c r="W21" s="7" t="s">
         <v>535</v>
       </c>
       <c r="X21" s="7">
-        <v>4.81</v>
+        <v>4.71</v>
       </c>
       <c r="Y21" s="7" t="s">
         <v>497</v>
       </c>
       <c r="Z21" s="8">
-        <v>3.48</v>
+        <v>3.53</v>
       </c>
       <c r="AB21" s="14" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="AC21" s="4"/>
       <c r="AD21" s="5" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="AE21" s="6">
-        <v>9.12</v>
+        <v>5.15</v>
       </c>
       <c r="AF21" s="7" t="s">
-        <v>548</v>
+        <v>454</v>
       </c>
       <c r="AG21" s="7">
-        <v>6.44</v>
+        <v>4.31</v>
       </c>
       <c r="AH21" s="7" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="AI21" s="8">
-        <v>5.84</v>
+        <v>4.27</v>
       </c>
       <c r="AK21" s="3" t="s">
         <v>515</v>
@@ -8462,19 +8459,19 @@
         <v>540</v>
       </c>
       <c r="AN21" s="6">
-        <v>4.61</v>
+        <v>4.47</v>
       </c>
       <c r="AO21" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="AP21" s="7">
+        <v>3.05</v>
+      </c>
+      <c r="AQ21" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="AP21" s="7">
-        <v>2.93</v>
-      </c>
-      <c r="AQ21" s="7" t="s">
-        <v>543</v>
-      </c>
       <c r="AR21" s="8">
-        <v>2.73</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="22" ht="11.5" customHeight="1" spans="1:44">
@@ -8486,19 +8483,19 @@
         <v>574</v>
       </c>
       <c r="D22" s="12">
-        <v>4.94</v>
+        <v>4.23</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>494</v>
       </c>
       <c r="F22" s="12">
-        <v>4.5</v>
+        <v>3.56</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>433</v>
+        <v>576</v>
       </c>
       <c r="H22" s="13">
-        <v>3.28</v>
+        <v>3.19</v>
       </c>
       <c r="J22" s="15"/>
       <c r="K22" s="10">
@@ -8508,19 +8505,19 @@
         <v>536</v>
       </c>
       <c r="M22" s="12">
-        <v>10.53</v>
+        <v>10.32</v>
       </c>
       <c r="N22" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="O22" s="12">
+        <v>7.23</v>
+      </c>
+      <c r="P22" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="O22" s="12">
-        <v>6.72</v>
-      </c>
-      <c r="P22" s="12" t="s">
-        <v>602</v>
-      </c>
       <c r="Q22" s="13">
-        <v>6.68</v>
+        <v>6.33</v>
       </c>
       <c r="S22" s="15"/>
       <c r="T22" s="10">
@@ -8530,39 +8527,39 @@
         <v>547</v>
       </c>
       <c r="V22" s="12">
-        <v>3.55</v>
+        <v>3.59</v>
       </c>
       <c r="W22" s="12" t="s">
         <v>433</v>
       </c>
       <c r="X22" s="12">
-        <v>3.18</v>
+        <v>3.32</v>
       </c>
       <c r="Y22" s="12" t="s">
         <v>522</v>
       </c>
       <c r="Z22" s="13">
-        <v>3.01</v>
+        <v>3.03</v>
       </c>
       <c r="AB22" s="15"/>
       <c r="AC22" s="10"/>
       <c r="AD22" s="11" t="s">
-        <v>542</v>
+        <v>568</v>
       </c>
       <c r="AE22" s="12">
-        <v>6.12</v>
+        <v>5.68</v>
       </c>
       <c r="AF22" s="12" t="s">
-        <v>433</v>
+        <v>602</v>
       </c>
       <c r="AG22" s="12">
-        <v>5.29</v>
+        <v>5.49</v>
       </c>
       <c r="AH22" s="12" t="s">
         <v>536</v>
       </c>
       <c r="AI22" s="13">
-        <v>4.66</v>
+        <v>5.45</v>
       </c>
       <c r="AK22" s="9"/>
       <c r="AL22" s="10"/>
@@ -8570,19 +8567,19 @@
         <v>598</v>
       </c>
       <c r="AN22" s="12">
-        <v>4.88</v>
+        <v>4.94</v>
       </c>
       <c r="AO22" s="12" t="s">
         <v>549</v>
       </c>
       <c r="AP22" s="12">
-        <v>3.5</v>
+        <v>3.77</v>
       </c>
       <c r="AQ22" s="12" t="s">
         <v>498</v>
       </c>
       <c r="AR22" s="13">
-        <v>3.33</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="23" ht="11.5" customHeight="1" spans="1:44">
@@ -8596,19 +8593,19 @@
         <v>456</v>
       </c>
       <c r="D23" s="6">
-        <v>6</v>
+        <v>5.67</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="F23" s="7">
+        <v>4.41</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="F23" s="7">
-        <v>4.29</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>536</v>
-      </c>
       <c r="H23" s="8">
-        <v>4.25</v>
+        <v>2.69</v>
       </c>
       <c r="J23" s="14" t="s">
         <v>544</v>
@@ -8620,19 +8617,19 @@
         <v>536</v>
       </c>
       <c r="M23" s="6">
-        <v>6.44</v>
+        <v>6.78</v>
       </c>
       <c r="N23" s="7" t="s">
         <v>561</v>
       </c>
       <c r="O23" s="7">
-        <v>5.36</v>
+        <v>5.53</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>447</v>
       </c>
       <c r="Q23" s="8">
-        <v>5.33</v>
+        <v>5.44</v>
       </c>
       <c r="S23" s="14" t="s">
         <v>507</v>
@@ -8642,19 +8639,19 @@
         <v>543</v>
       </c>
       <c r="V23" s="6">
-        <v>10.47</v>
+        <v>10.32</v>
       </c>
       <c r="W23" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="X23" s="7">
+        <v>5.54</v>
+      </c>
+      <c r="Y23" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="X23" s="7">
-        <v>5.64</v>
-      </c>
-      <c r="Y23" s="7" t="s">
-        <v>581</v>
-      </c>
       <c r="Z23" s="8">
-        <v>5.4</v>
+        <v>5.22</v>
       </c>
       <c r="AB23" s="14" t="s">
         <v>567</v>
@@ -8664,41 +8661,41 @@
         <v>436</v>
       </c>
       <c r="AE23" s="6">
-        <v>5.86</v>
+        <v>6.01</v>
       </c>
       <c r="AF23" s="7" t="s">
-        <v>436</v>
+        <v>573</v>
       </c>
       <c r="AG23" s="7">
-        <v>5.81</v>
+        <v>5.76</v>
       </c>
       <c r="AH23" s="7" t="s">
         <v>548</v>
       </c>
       <c r="AI23" s="8">
-        <v>4.67</v>
+        <v>4.85</v>
       </c>
       <c r="AK23" s="14" t="s">
         <v>453</v>
       </c>
       <c r="AL23" s="4"/>
       <c r="AM23" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="AN23" s="6">
+        <v>6.12</v>
+      </c>
+      <c r="AO23" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="AN23" s="6">
-        <v>6.13</v>
-      </c>
-      <c r="AO23" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="AP23" s="7">
         <v>5.99</v>
       </c>
       <c r="AQ23" s="7" t="s">
-        <v>583</v>
+        <v>437</v>
       </c>
       <c r="AR23" s="8">
-        <v>5.15</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="24" ht="11.5" customHeight="1" spans="1:44">
@@ -8708,19 +8705,19 @@
         <v>583</v>
       </c>
       <c r="D24" s="12">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>447</v>
       </c>
       <c r="F24" s="12">
-        <v>4.03</v>
+        <v>3.91</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>539</v>
+        <v>135</v>
       </c>
       <c r="H24" s="13">
-        <v>3.68</v>
+        <v>3.61</v>
       </c>
       <c r="J24" s="15"/>
       <c r="K24" s="10">
@@ -8730,16 +8727,16 @@
         <v>568</v>
       </c>
       <c r="M24" s="12">
-        <v>9.12</v>
+        <v>9.2</v>
       </c>
       <c r="N24" s="12" t="s">
         <v>456</v>
       </c>
       <c r="O24" s="12">
-        <v>8.69</v>
+        <v>8.84</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>572</v>
+        <v>542</v>
       </c>
       <c r="Q24" s="13">
         <v>5.39</v>
@@ -8752,19 +8749,19 @@
         <v>586</v>
       </c>
       <c r="V24" s="12">
-        <v>6.05</v>
+        <v>5.97</v>
       </c>
       <c r="W24" s="12" t="s">
         <v>497</v>
       </c>
       <c r="X24" s="12">
-        <v>3.83</v>
+        <v>4</v>
       </c>
       <c r="Y24" s="12" t="s">
         <v>447</v>
       </c>
       <c r="Z24" s="13">
-        <v>3.4</v>
+        <v>3.44</v>
       </c>
       <c r="AB24" s="15"/>
       <c r="AC24" s="10"/>
@@ -8772,19 +8769,19 @@
         <v>572</v>
       </c>
       <c r="AE24" s="12">
-        <v>5.29</v>
+        <v>5.41</v>
       </c>
       <c r="AF24" s="12" t="s">
         <v>536</v>
       </c>
       <c r="AG24" s="12">
-        <v>4.04</v>
+        <v>3.81</v>
       </c>
       <c r="AH24" s="12" t="s">
         <v>539</v>
       </c>
       <c r="AI24" s="13">
-        <v>3.29</v>
+        <v>3.12</v>
       </c>
       <c r="AK24" s="15"/>
       <c r="AL24" s="10"/>
@@ -8792,19 +8789,19 @@
         <v>572</v>
       </c>
       <c r="AN24" s="12">
-        <v>5.64</v>
+        <v>5.6</v>
       </c>
       <c r="AO24" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="AP24" s="12">
+        <v>4.34</v>
+      </c>
+      <c r="AQ24" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="AP24" s="12">
-        <v>3.95</v>
-      </c>
-      <c r="AQ24" s="12" t="s">
-        <v>574</v>
-      </c>
       <c r="AR24" s="13">
-        <v>3.92</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="25" ht="11.5" customHeight="1" spans="1:44">
@@ -8818,19 +8815,19 @@
         <v>494</v>
       </c>
       <c r="D25" s="6">
-        <v>4.83</v>
+        <v>4.65</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>135</v>
       </c>
       <c r="F25" s="7">
-        <v>3.96</v>
+        <v>3.83</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>443</v>
       </c>
       <c r="H25" s="8">
-        <v>3.96</v>
+        <v>3.72</v>
       </c>
       <c r="J25" s="14" t="s">
         <v>574</v>
@@ -8842,19 +8839,19 @@
         <v>536</v>
       </c>
       <c r="M25" s="6">
-        <v>6.04</v>
+        <v>6.57</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="O25" s="7">
-        <v>4.94</v>
+        <v>5.14</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>434</v>
+        <v>565</v>
       </c>
       <c r="Q25" s="8">
-        <v>4.93</v>
+        <v>4.49</v>
       </c>
       <c r="S25" s="14" t="s">
         <v>546</v>
@@ -8864,63 +8861,41 @@
         <v>530</v>
       </c>
       <c r="V25" s="6">
-        <v>4.91</v>
+        <v>5.14</v>
       </c>
       <c r="W25" s="7" t="s">
         <v>443</v>
       </c>
       <c r="X25" s="7">
-        <v>4.91</v>
+        <v>4.75</v>
       </c>
       <c r="Y25" s="7" t="s">
         <v>594</v>
       </c>
       <c r="Z25" s="8">
-        <v>3.76</v>
-      </c>
-      <c r="AB25" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="AE25" s="6">
-        <v>5.45</v>
-      </c>
-      <c r="AF25" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="AG25" s="7">
-        <v>4.52</v>
-      </c>
-      <c r="AH25" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="AI25" s="8">
-        <v>4.11</v>
+        <v>4.24</v>
       </c>
       <c r="AK25" s="14" t="s">
-        <v>587</v>
+        <v>517</v>
       </c>
       <c r="AL25" s="4"/>
       <c r="AM25" s="5" t="s">
-        <v>582</v>
+        <v>538</v>
       </c>
       <c r="AN25" s="6">
-        <v>8.74</v>
+        <v>5.95</v>
       </c>
       <c r="AO25" s="7" t="s">
-        <v>572</v>
+        <v>543</v>
       </c>
       <c r="AP25" s="7">
-        <v>6.91</v>
+        <v>3.3</v>
       </c>
       <c r="AQ25" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AR25" s="8">
-        <v>4.17</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="26" ht="11.5" customHeight="1" spans="1:44">
@@ -8936,13 +8911,13 @@
         <v>456</v>
       </c>
       <c r="F26" s="12">
-        <v>4.29</v>
+        <v>4.48</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>598</v>
       </c>
       <c r="H26" s="13">
-        <v>4.23</v>
+        <v>4.25</v>
       </c>
       <c r="J26" s="15"/>
       <c r="K26" s="10">
@@ -8952,19 +8927,19 @@
         <v>590</v>
       </c>
       <c r="M26" s="12">
-        <v>4.97</v>
+        <v>5.16</v>
       </c>
       <c r="N26" s="12" t="s">
         <v>495</v>
       </c>
       <c r="O26" s="12">
-        <v>4.84</v>
+        <v>4.65</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>494</v>
+        <v>541</v>
       </c>
       <c r="Q26" s="13">
-        <v>3.17</v>
+        <v>3.64</v>
       </c>
       <c r="S26" s="15"/>
       <c r="T26" s="10">
@@ -8974,59 +8949,39 @@
         <v>599</v>
       </c>
       <c r="V26" s="12">
-        <v>4.5</v>
+        <v>4.28</v>
       </c>
       <c r="W26" s="12" t="s">
         <v>536</v>
       </c>
       <c r="X26" s="12">
-        <v>3.81</v>
+        <v>3.99</v>
       </c>
       <c r="Y26" s="12" t="s">
-        <v>436</v>
+        <v>565</v>
       </c>
       <c r="Z26" s="13">
-        <v>3.38</v>
-      </c>
-      <c r="AB26" s="15"/>
-      <c r="AC26" s="10"/>
-      <c r="AD26" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="AE26" s="12">
-        <v>5.84</v>
-      </c>
-      <c r="AF26" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="AG26" s="12">
-        <v>5.4</v>
-      </c>
-      <c r="AH26" s="12" t="s">
-        <v>602</v>
-      </c>
-      <c r="AI26" s="13">
-        <v>5.11</v>
+        <v>3.53</v>
       </c>
       <c r="AK26" s="15"/>
       <c r="AL26" s="10"/>
       <c r="AM26" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="AN26" s="12">
+        <v>2.6</v>
+      </c>
+      <c r="AO26" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="AP26" s="12">
+        <v>2.57</v>
+      </c>
+      <c r="AQ26" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="AN26" s="12">
-        <v>6.01</v>
-      </c>
-      <c r="AO26" s="12" t="s">
-        <v>531</v>
-      </c>
-      <c r="AP26" s="12">
-        <v>5.29</v>
-      </c>
-      <c r="AQ26" s="12" t="s">
-        <v>498</v>
-      </c>
       <c r="AR26" s="13">
-        <v>4.28</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="27" ht="11.5" customHeight="1" spans="1:44">
@@ -9038,19 +8993,19 @@
         <v>536</v>
       </c>
       <c r="D27" s="6">
-        <v>4.31</v>
+        <v>4.44</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="F27" s="7">
+        <v>3.57</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="F27" s="7">
-        <v>3.39</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>591</v>
-      </c>
       <c r="H27" s="8">
-        <v>3.38</v>
+        <v>2.99</v>
       </c>
       <c r="J27" s="14" t="s">
         <v>535</v>
@@ -9059,22 +9014,22 @@
         <v>51.01</v>
       </c>
       <c r="L27" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="M27" s="6">
+        <v>3.14</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="O27" s="7">
+        <v>3.13</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="M27" s="6">
-        <v>3.4</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="O27" s="7">
-        <v>3.17</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>454</v>
-      </c>
       <c r="Q27" s="8">
-        <v>3.15</v>
+        <v>3.08</v>
       </c>
       <c r="S27" s="14" t="s">
         <v>492</v>
@@ -9086,41 +9041,41 @@
         <v>497</v>
       </c>
       <c r="V27" s="6">
-        <v>6.27</v>
+        <v>6.54</v>
       </c>
       <c r="W27" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="X27" s="7">
+        <v>5.39</v>
+      </c>
+      <c r="Y27" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="X27" s="7">
-        <v>5.28</v>
-      </c>
-      <c r="Y27" s="7" t="s">
-        <v>552</v>
-      </c>
       <c r="Z27" s="8">
-        <v>5.19</v>
+        <v>5.3</v>
       </c>
       <c r="AK27" s="14" t="s">
-        <v>433</v>
+        <v>508</v>
       </c>
       <c r="AL27" s="4"/>
       <c r="AM27" s="5" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="AN27" s="6">
-        <v>5.7</v>
+        <v>4.35</v>
       </c>
       <c r="AO27" s="7" t="s">
-        <v>568</v>
+        <v>434</v>
       </c>
       <c r="AP27" s="7">
-        <v>5.29</v>
+        <v>3.66</v>
       </c>
       <c r="AQ27" s="7" t="s">
-        <v>540</v>
+        <v>566</v>
       </c>
       <c r="AR27" s="8">
-        <v>4.32</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="28" ht="11.5" customHeight="1" spans="1:44">
@@ -9130,19 +9085,19 @@
         <v>586</v>
       </c>
       <c r="D28" s="12">
-        <v>4.42</v>
+        <v>4.54</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>572</v>
+        <v>539</v>
       </c>
       <c r="F28" s="12">
-        <v>3.53</v>
+        <v>3.64</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>539</v>
+        <v>497</v>
       </c>
       <c r="H28" s="13">
-        <v>3.38</v>
+        <v>3.15</v>
       </c>
       <c r="J28" s="15"/>
       <c r="K28" s="10">
@@ -9152,19 +9107,19 @@
         <v>565</v>
       </c>
       <c r="M28" s="12">
-        <v>8.93</v>
+        <v>6.96</v>
       </c>
       <c r="N28" s="12" t="s">
         <v>568</v>
       </c>
       <c r="O28" s="12">
-        <v>5.82</v>
+        <v>5.83</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>566</v>
+        <v>523</v>
       </c>
       <c r="Q28" s="13">
-        <v>4.81</v>
+        <v>5.14</v>
       </c>
       <c r="S28" s="15"/>
       <c r="T28" s="10">
@@ -9174,39 +9129,39 @@
         <v>542</v>
       </c>
       <c r="V28" s="12">
-        <v>6.08</v>
+        <v>5.94</v>
       </c>
       <c r="W28" s="12" t="s">
         <v>540</v>
       </c>
       <c r="X28" s="12">
-        <v>5.25</v>
+        <v>5.04</v>
       </c>
       <c r="Y28" s="12" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="Z28" s="13">
-        <v>3.26</v>
+        <v>3.14</v>
       </c>
       <c r="AK28" s="15"/>
       <c r="AL28" s="10"/>
       <c r="AM28" s="11" t="s">
-        <v>552</v>
+        <v>590</v>
       </c>
       <c r="AN28" s="12">
-        <v>3.81</v>
+        <v>5.01</v>
       </c>
       <c r="AO28" s="12" t="s">
-        <v>484</v>
+        <v>454</v>
       </c>
       <c r="AP28" s="12">
-        <v>2.41</v>
+        <v>4.58</v>
       </c>
       <c r="AQ28" s="12" t="s">
-        <v>458</v>
+        <v>565</v>
       </c>
       <c r="AR28" s="13">
-        <v>2.09</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="29" ht="11.5" customHeight="1" spans="1:44">
@@ -9224,13 +9179,13 @@
         <v>484</v>
       </c>
       <c r="F29" s="7">
-        <v>10.37</v>
+        <v>10.5</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>544</v>
       </c>
       <c r="H29" s="8">
-        <v>8.69</v>
+        <v>8.84</v>
       </c>
       <c r="J29" s="14" t="s">
         <v>561</v>
@@ -9242,19 +9197,19 @@
         <v>447</v>
       </c>
       <c r="M29" s="6">
-        <v>4.71</v>
+        <v>4.91</v>
       </c>
       <c r="N29" s="7" t="s">
         <v>588</v>
       </c>
       <c r="O29" s="7">
-        <v>4.3</v>
+        <v>4.43</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>456</v>
       </c>
       <c r="Q29" s="8">
-        <v>3.86</v>
+        <v>3.73</v>
       </c>
       <c r="S29" s="14" t="s">
         <v>474</v>
@@ -9266,41 +9221,41 @@
         <v>587</v>
       </c>
       <c r="V29" s="6">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="W29" s="7" t="s">
-        <v>594</v>
+        <v>531</v>
       </c>
       <c r="X29" s="7">
         <v>2.34</v>
       </c>
       <c r="Y29" s="7" t="s">
-        <v>531</v>
+        <v>594</v>
       </c>
       <c r="Z29" s="8">
-        <v>2.15</v>
+        <v>2.32</v>
       </c>
       <c r="AK29" s="14" t="s">
-        <v>517</v>
+        <v>558</v>
       </c>
       <c r="AL29" s="4"/>
       <c r="AM29" s="5" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="AN29" s="6">
-        <v>5.49</v>
+        <v>5.3</v>
       </c>
       <c r="AO29" s="7" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="AP29" s="7">
-        <v>2.92</v>
+        <v>3.64</v>
       </c>
       <c r="AQ29" s="7" t="s">
-        <v>446</v>
+        <v>590</v>
       </c>
       <c r="AR29" s="8">
-        <v>2.66</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="30" ht="11.5" customHeight="1" spans="1:44">
@@ -9310,19 +9265,19 @@
         <v>520</v>
       </c>
       <c r="D30" s="12">
-        <v>13.15</v>
+        <v>12.67</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>495</v>
       </c>
       <c r="F30" s="12">
-        <v>11.54</v>
+        <v>11.34</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>550</v>
       </c>
       <c r="H30" s="13">
-        <v>9.59</v>
+        <v>9.29</v>
       </c>
       <c r="J30" s="15"/>
       <c r="K30" s="10"/>
@@ -9330,19 +9285,19 @@
         <v>434</v>
       </c>
       <c r="M30" s="12">
-        <v>7.18</v>
+        <v>7.58</v>
       </c>
       <c r="N30" s="12" t="s">
         <v>600</v>
       </c>
       <c r="O30" s="12">
-        <v>6.28</v>
+        <v>6.62</v>
       </c>
       <c r="P30" s="12" t="s">
         <v>453</v>
       </c>
       <c r="Q30" s="13">
-        <v>5.99</v>
+        <v>6.12</v>
       </c>
       <c r="S30" s="15"/>
       <c r="T30" s="10">
@@ -9355,60 +9310,60 @@
         <v>3.03</v>
       </c>
       <c r="W30" s="12" t="s">
-        <v>434</v>
+        <v>599</v>
       </c>
       <c r="X30" s="12">
-        <v>2.29</v>
+        <v>2.24</v>
       </c>
       <c r="Y30" s="12" t="s">
         <v>523</v>
       </c>
       <c r="Z30" s="13">
-        <v>2.13</v>
+        <v>2.21</v>
       </c>
       <c r="AK30" s="15"/>
       <c r="AL30" s="10"/>
       <c r="AM30" s="11" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AN30" s="12">
-        <v>2.6</v>
+        <v>2.79</v>
       </c>
       <c r="AO30" s="12" t="s">
-        <v>552</v>
+        <v>434</v>
       </c>
       <c r="AP30" s="12">
-        <v>2.58</v>
+        <v>2.17</v>
       </c>
       <c r="AQ30" s="12" t="s">
-        <v>507</v>
+        <v>434</v>
       </c>
       <c r="AR30" s="13">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="31" ht="11.5" customHeight="1" spans="1:44">
       <c r="A31" s="23" t="s">
-        <v>498</v>
+        <v>447</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D31" s="6">
-        <v>8.9</v>
+        <v>5.39</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>520</v>
+        <v>435</v>
       </c>
       <c r="F31" s="7">
+        <v>5.22</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H31" s="8">
         <v>5.19</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="H31" s="8">
-        <v>5.12</v>
       </c>
       <c r="J31" s="14" t="s">
         <v>549</v>
@@ -9420,19 +9375,19 @@
         <v>447</v>
       </c>
       <c r="M31" s="6">
-        <v>6.25</v>
+        <v>6.45</v>
       </c>
       <c r="N31" s="7" t="s">
         <v>484</v>
       </c>
       <c r="O31" s="7">
-        <v>4.93</v>
+        <v>4.84</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>497</v>
       </c>
       <c r="Q31" s="8">
-        <v>4.49</v>
+        <v>4.64</v>
       </c>
       <c r="S31" s="14" t="s">
         <v>528</v>
@@ -9444,63 +9399,63 @@
         <v>542</v>
       </c>
       <c r="V31" s="6">
-        <v>3.15</v>
+        <v>3.09</v>
       </c>
       <c r="W31" s="7" t="s">
         <v>577</v>
       </c>
       <c r="X31" s="7">
-        <v>2.62</v>
+        <v>2.59</v>
       </c>
       <c r="Y31" s="7" t="s">
         <v>540</v>
       </c>
       <c r="Z31" s="8">
-        <v>2.53</v>
+        <v>2.49</v>
       </c>
       <c r="AK31" s="14" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
       <c r="AL31" s="4"/>
       <c r="AM31" s="5" t="s">
-        <v>530</v>
+        <v>497</v>
       </c>
       <c r="AN31" s="6">
-        <v>5.55</v>
+        <v>4.46</v>
       </c>
       <c r="AO31" s="7" t="s">
-        <v>572</v>
+        <v>495</v>
       </c>
       <c r="AP31" s="7">
-        <v>3.75</v>
+        <v>3.64</v>
       </c>
       <c r="AQ31" s="7" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="AR31" s="8">
-        <v>3.52</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="32" ht="11.5" customHeight="1" spans="1:44">
       <c r="A32" s="24"/>
       <c r="B32" s="10"/>
       <c r="C32" s="11" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="D32" s="12">
-        <v>5.7</v>
+        <v>6.9</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>437</v>
+        <v>510</v>
       </c>
       <c r="F32" s="12">
-        <v>5.56</v>
+        <v>6.62</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>600</v>
+        <v>549</v>
       </c>
       <c r="H32" s="13">
-        <v>5.24</v>
+        <v>6.45</v>
       </c>
       <c r="J32" s="15"/>
       <c r="K32" s="10"/>
@@ -9508,19 +9463,19 @@
         <v>453</v>
       </c>
       <c r="M32" s="12">
-        <v>6.13</v>
+        <v>5.99</v>
       </c>
       <c r="N32" s="12" t="s">
         <v>568</v>
       </c>
       <c r="O32" s="12">
-        <v>5.6</v>
+        <v>5.73</v>
       </c>
       <c r="P32" s="12" t="s">
         <v>543</v>
       </c>
       <c r="Q32" s="13">
-        <v>4.97</v>
+        <v>5.15</v>
       </c>
       <c r="S32" s="15"/>
       <c r="T32" s="10"/>
@@ -9528,13 +9483,13 @@
         <v>135</v>
       </c>
       <c r="V32" s="12">
-        <v>3.48</v>
+        <v>3.57</v>
       </c>
       <c r="W32" s="12" t="s">
         <v>452</v>
       </c>
       <c r="X32" s="12">
-        <v>3.16</v>
+        <v>3.25</v>
       </c>
       <c r="Y32" s="12" t="s">
         <v>510</v>
@@ -9545,46 +9500,46 @@
       <c r="AK32" s="15"/>
       <c r="AL32" s="10"/>
       <c r="AM32" s="11" t="s">
-        <v>456</v>
+        <v>517</v>
       </c>
       <c r="AN32" s="12">
-        <v>2.75</v>
+        <v>5.95</v>
       </c>
       <c r="AO32" s="12" t="s">
-        <v>432</v>
+        <v>542</v>
       </c>
       <c r="AP32" s="12">
-        <v>2.01</v>
+        <v>3.77</v>
       </c>
       <c r="AQ32" s="12" t="s">
-        <v>434</v>
+        <v>600</v>
       </c>
       <c r="AR32" s="13">
-        <v>1.99</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="33" ht="11.5" customHeight="1" spans="1:44">
-      <c r="A33" s="23" t="s">
-        <v>447</v>
+      <c r="A33" s="14" t="s">
+        <v>459</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D33" s="6">
-        <v>5.38</v>
+        <v>4.98</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>495</v>
+        <v>447</v>
       </c>
       <c r="F33" s="7">
-        <v>5.36</v>
+        <v>4.26</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>435</v>
+        <v>539</v>
       </c>
       <c r="H33" s="8">
-        <v>5.1</v>
+        <v>3.96</v>
       </c>
       <c r="J33" s="14" t="s">
         <v>521</v>
@@ -9596,19 +9551,19 @@
         <v>456</v>
       </c>
       <c r="M33" s="6">
-        <v>4.94</v>
+        <v>4.85</v>
       </c>
       <c r="N33" s="7" t="s">
         <v>568</v>
       </c>
       <c r="O33" s="7">
-        <v>3.4</v>
+        <v>3.48</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>583</v>
       </c>
       <c r="Q33" s="8">
-        <v>2.45</v>
+        <v>2.68</v>
       </c>
       <c r="S33" s="14" t="s">
         <v>552</v>
@@ -9620,19 +9575,19 @@
         <v>433</v>
       </c>
       <c r="V33" s="6">
-        <v>3.81</v>
+        <v>3.86</v>
       </c>
       <c r="W33" s="7" t="s">
-        <v>586</v>
+        <v>557</v>
       </c>
       <c r="X33" s="7">
-        <v>3.63</v>
+        <v>3.52</v>
       </c>
       <c r="Y33" s="7" t="s">
         <v>577</v>
       </c>
       <c r="Z33" s="8">
-        <v>3.54</v>
+        <v>3.39</v>
       </c>
       <c r="AK33" s="14" t="s">
         <v>458</v>
@@ -9642,41 +9597,41 @@
         <v>598</v>
       </c>
       <c r="AN33" s="6">
-        <v>4</v>
+        <v>4.26</v>
       </c>
       <c r="AO33" s="7" t="s">
         <v>522</v>
       </c>
       <c r="AP33" s="7">
-        <v>3.55</v>
+        <v>3.63</v>
       </c>
       <c r="AQ33" s="7" t="s">
-        <v>542</v>
+        <v>565</v>
       </c>
       <c r="AR33" s="8">
-        <v>3.31</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="34" ht="11.5" customHeight="1" spans="1:44">
-      <c r="A34" s="24"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="10"/>
       <c r="C34" s="11" t="s">
-        <v>547</v>
+        <v>434</v>
       </c>
       <c r="D34" s="12">
-        <v>6.55</v>
+        <v>5.5</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>510</v>
+        <v>456</v>
       </c>
       <c r="F34" s="12">
-        <v>6.45</v>
+        <v>4.37</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>549</v>
+        <v>435</v>
       </c>
       <c r="H34" s="13">
-        <v>6.25</v>
+        <v>3.61</v>
       </c>
       <c r="J34" s="15"/>
       <c r="K34" s="10"/>
@@ -9684,19 +9639,19 @@
         <v>434</v>
       </c>
       <c r="M34" s="12">
-        <v>5.49</v>
+        <v>5.66</v>
       </c>
       <c r="N34" s="12" t="s">
         <v>550</v>
       </c>
       <c r="O34" s="12">
-        <v>3.49</v>
+        <v>3.33</v>
       </c>
       <c r="P34" s="12" t="s">
         <v>567</v>
       </c>
       <c r="Q34" s="13">
-        <v>2.73</v>
+        <v>2.64</v>
       </c>
       <c r="S34" s="15"/>
       <c r="T34" s="10"/>
@@ -9704,63 +9659,63 @@
         <v>601</v>
       </c>
       <c r="V34" s="12">
-        <v>7.02</v>
+        <v>7.35</v>
       </c>
       <c r="W34" s="12" t="s">
-        <v>492</v>
+        <v>548</v>
       </c>
       <c r="X34" s="12">
-        <v>5.19</v>
+        <v>5.62</v>
       </c>
       <c r="Y34" s="12" t="s">
-        <v>498</v>
+        <v>135</v>
       </c>
       <c r="Z34" s="13">
-        <v>5.12</v>
+        <v>5.45</v>
       </c>
       <c r="AK34" s="15"/>
       <c r="AL34" s="10"/>
       <c r="AM34" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="AN34" s="12">
+        <v>3.64</v>
+      </c>
+      <c r="AO34" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="AN34" s="12">
-        <v>3.69</v>
-      </c>
-      <c r="AO34" s="12" t="s">
+      <c r="AP34" s="12">
+        <v>3.6</v>
+      </c>
+      <c r="AQ34" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="AP34" s="12">
-        <v>3.41</v>
-      </c>
-      <c r="AQ34" s="12" t="s">
-        <v>576</v>
-      </c>
       <c r="AR34" s="13">
-        <v>3.32</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="35" ht="11.5" customHeight="1" spans="1:44">
-      <c r="A35" s="14" t="s">
-        <v>459</v>
+      <c r="A35" s="23" t="s">
+        <v>498</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="5" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
       <c r="D35" s="6">
-        <v>5.2</v>
+        <v>8.94</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>447</v>
+        <v>520</v>
       </c>
       <c r="F35" s="7">
-        <v>4.12</v>
+        <v>5.03</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="H35" s="8">
-        <v>3.88</v>
+        <v>4.88</v>
       </c>
       <c r="J35" s="14" t="s">
         <v>536</v>
@@ -9772,19 +9727,19 @@
         <v>542</v>
       </c>
       <c r="M35" s="6">
-        <v>10.53</v>
+        <v>10.32</v>
       </c>
       <c r="N35" s="7" t="s">
         <v>523</v>
       </c>
       <c r="O35" s="7">
-        <v>7.92</v>
+        <v>8.01</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>541</v>
+        <v>456</v>
       </c>
       <c r="Q35" s="8">
-        <v>6.37</v>
+        <v>6.01</v>
       </c>
       <c r="S35" s="14" t="s">
         <v>581</v>
@@ -9796,63 +9751,63 @@
         <v>135</v>
       </c>
       <c r="V35" s="6">
-        <v>3.62</v>
+        <v>3.51</v>
       </c>
       <c r="W35" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="X35" s="7">
+        <v>3.47</v>
+      </c>
+      <c r="Y35" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="X35" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="Y35" s="7" t="s">
-        <v>510</v>
-      </c>
       <c r="Z35" s="8">
-        <v>3.28</v>
-      </c>
-      <c r="AK35" s="23" t="s">
-        <v>557</v>
+        <v>3.4</v>
+      </c>
+      <c r="AK35" s="14" t="s">
+        <v>433</v>
       </c>
       <c r="AL35" s="4"/>
       <c r="AM35" s="5" t="s">
-        <v>598</v>
+        <v>523</v>
       </c>
       <c r="AN35" s="6">
-        <v>3.73</v>
+        <v>5.83</v>
       </c>
       <c r="AO35" s="7" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="AP35" s="7">
-        <v>3.32</v>
+        <v>5.45</v>
       </c>
       <c r="AQ35" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AR35" s="8">
-        <v>3.08</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="36" ht="11.5" customHeight="1" spans="1:44">
-      <c r="A36" s="15"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="10"/>
       <c r="C36" s="11" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D36" s="12">
-        <v>5.37</v>
+        <v>5.56</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>565</v>
+        <v>600</v>
       </c>
       <c r="F36" s="12">
-        <v>4.97</v>
+        <v>5.49</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>456</v>
+        <v>543</v>
       </c>
       <c r="H36" s="13">
-        <v>4.42</v>
+        <v>5.23</v>
       </c>
       <c r="J36" s="15"/>
       <c r="K36" s="10"/>
@@ -9860,19 +9815,19 @@
         <v>510</v>
       </c>
       <c r="M36" s="12">
-        <v>7.31</v>
+        <v>7.09</v>
       </c>
       <c r="N36" s="12" t="s">
         <v>544</v>
       </c>
       <c r="O36" s="12">
-        <v>6.44</v>
+        <v>6.78</v>
       </c>
       <c r="P36" s="12" t="s">
         <v>574</v>
       </c>
       <c r="Q36" s="13">
-        <v>6.04</v>
+        <v>6.57</v>
       </c>
       <c r="S36" s="15"/>
       <c r="T36" s="10"/>
@@ -9880,64 +9835,42 @@
         <v>530</v>
       </c>
       <c r="V36" s="12">
-        <v>6.79</v>
+        <v>6.58</v>
       </c>
       <c r="W36" s="12" t="s">
         <v>507</v>
       </c>
       <c r="X36" s="12">
-        <v>5.4</v>
+        <v>5.54</v>
       </c>
       <c r="Y36" s="12" t="s">
         <v>513</v>
       </c>
       <c r="Z36" s="13">
-        <v>4.89</v>
-      </c>
-      <c r="AK36" s="24"/>
+        <v>4.87</v>
+      </c>
+      <c r="AK36" s="15"/>
       <c r="AL36" s="10"/>
       <c r="AM36" s="11" t="s">
-        <v>510</v>
+        <v>552</v>
       </c>
       <c r="AN36" s="12">
-        <v>5.38</v>
+        <v>3.86</v>
       </c>
       <c r="AO36" s="12" t="s">
-        <v>601</v>
+        <v>484</v>
       </c>
       <c r="AP36" s="12">
-        <v>3.56</v>
+        <v>2.39</v>
       </c>
       <c r="AQ36" s="12" t="s">
-        <v>552</v>
+        <v>458</v>
       </c>
       <c r="AR36" s="13">
-        <v>3.45</v>
-      </c>
-    </row>
-    <row r="37" ht="11.5" customHeight="1" spans="1:44">
-      <c r="A37" s="23" t="s">
-        <v>455</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="D37" s="6">
-        <v>4.95</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="F37" s="7">
-        <v>3</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="H37" s="8">
-        <v>2.54</v>
-      </c>
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="37" ht="11.5" customHeight="1" spans="10:44">
       <c r="J37" s="14" t="s">
         <v>520</v>
       </c>
@@ -9946,7 +9879,7 @@
         <v>456</v>
       </c>
       <c r="M37" s="6">
-        <v>13.15</v>
+        <v>12.67</v>
       </c>
       <c r="N37" s="7" t="s">
         <v>577</v>
@@ -9958,7 +9891,7 @@
         <v>532</v>
       </c>
       <c r="Q37" s="26">
-        <v>4.04</v>
+        <v>4.18</v>
       </c>
       <c r="S37" s="14" t="s">
         <v>531</v>
@@ -9970,83 +9903,63 @@
         <v>587</v>
       </c>
       <c r="V37" s="6">
-        <v>5.48</v>
+        <v>5.39</v>
       </c>
       <c r="W37" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="X37" s="7">
+        <v>4.06</v>
+      </c>
+      <c r="Y37" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="X37" s="7">
-        <v>3.91</v>
-      </c>
-      <c r="Y37" s="7" t="s">
-        <v>497</v>
-      </c>
       <c r="Z37" s="8">
-        <v>3.76</v>
-      </c>
-      <c r="AK37" s="14" t="s">
-        <v>538</v>
+        <v>3.96</v>
+      </c>
+      <c r="AK37" s="23" t="s">
+        <v>557</v>
       </c>
       <c r="AL37" s="4"/>
       <c r="AM37" s="5" t="s">
-        <v>497</v>
+        <v>598</v>
       </c>
       <c r="AN37" s="6">
-        <v>4.14</v>
+        <v>3.91</v>
       </c>
       <c r="AO37" s="7" t="s">
-        <v>495</v>
+        <v>577</v>
       </c>
       <c r="AP37" s="7">
-        <v>3.79</v>
+        <v>3.53</v>
       </c>
       <c r="AQ37" s="7" t="s">
-        <v>590</v>
+        <v>541</v>
       </c>
       <c r="AR37" s="8">
-        <v>3.35</v>
-      </c>
-    </row>
-    <row r="38" ht="11.5" customHeight="1" spans="1:44">
-      <c r="A38" s="24"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11" t="s">
-        <v>548</v>
-      </c>
-      <c r="D38" s="12">
-        <v>3.34</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>587</v>
-      </c>
-      <c r="F38" s="12">
-        <v>3.25</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>598</v>
-      </c>
-      <c r="H38" s="13">
-        <v>2.97</v>
-      </c>
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="38" ht="11.5" customHeight="1" spans="10:44">
       <c r="J38" s="15"/>
       <c r="K38" s="10"/>
       <c r="L38" s="11" t="s">
         <v>498</v>
       </c>
       <c r="M38" s="12">
-        <v>5.19</v>
+        <v>5.03</v>
       </c>
       <c r="N38" s="12" t="s">
         <v>583</v>
       </c>
       <c r="O38" s="12">
-        <v>2.97</v>
+        <v>3.07</v>
       </c>
       <c r="P38" s="12" t="s">
         <v>558</v>
       </c>
       <c r="Q38" s="13">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="S38" s="15"/>
       <c r="T38" s="10"/>
@@ -10054,63 +9967,63 @@
         <v>434</v>
       </c>
       <c r="V38" s="12">
-        <v>6.21</v>
+        <v>6.41</v>
       </c>
       <c r="W38" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="X38" s="12">
+        <v>4.35</v>
+      </c>
+      <c r="Y38" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="X38" s="12">
-        <v>4.13</v>
-      </c>
-      <c r="Y38" s="12" t="s">
-        <v>508</v>
-      </c>
       <c r="Z38" s="13">
-        <v>4.1</v>
-      </c>
-      <c r="AK38" s="15"/>
+        <v>4.05</v>
+      </c>
+      <c r="AK38" s="24"/>
       <c r="AL38" s="10"/>
       <c r="AM38" s="11" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AN38" s="12">
-        <v>5.49</v>
+        <v>5.42</v>
       </c>
       <c r="AO38" s="12" t="s">
-        <v>542</v>
+        <v>601</v>
       </c>
       <c r="AP38" s="12">
-        <v>3.85</v>
+        <v>3.69</v>
       </c>
       <c r="AQ38" s="12" t="s">
-        <v>600</v>
+        <v>552</v>
       </c>
       <c r="AR38" s="13">
-        <v>2.81</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="39" ht="11.5" customHeight="1" spans="10:44">
       <c r="J39" s="14" t="s">
-        <v>495</v>
+        <v>550</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="5" t="s">
         <v>456</v>
       </c>
       <c r="M39" s="6">
-        <v>11.54</v>
+        <v>9.29</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>577</v>
+        <v>494</v>
       </c>
       <c r="O39" s="7">
-        <v>8.16</v>
+        <v>8.21</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="Q39" s="8">
-        <v>4.98</v>
+        <v>7.15</v>
       </c>
       <c r="S39" s="14" t="s">
         <v>529</v>
@@ -10122,127 +10035,127 @@
         <v>484</v>
       </c>
       <c r="V39" s="6">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="W39" s="7" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="X39" s="7">
-        <v>2.41</v>
+        <v>2.58</v>
       </c>
       <c r="Y39" s="7" t="s">
-        <v>459</v>
+        <v>535</v>
       </c>
       <c r="Z39" s="8">
-        <v>2.41</v>
-      </c>
-      <c r="AK39" s="14" t="s">
-        <v>435</v>
+        <v>2.5</v>
+      </c>
+      <c r="AK39" s="23" t="s">
+        <v>455</v>
       </c>
       <c r="AL39" s="4"/>
       <c r="AM39" s="5" t="s">
-        <v>459</v>
+        <v>590</v>
       </c>
       <c r="AN39" s="6">
-        <v>3.8</v>
+        <v>4.93</v>
       </c>
       <c r="AO39" s="7" t="s">
-        <v>484</v>
+        <v>454</v>
       </c>
       <c r="AP39" s="7">
-        <v>3.48</v>
+        <v>3</v>
       </c>
       <c r="AQ39" s="7" t="s">
-        <v>601</v>
+        <v>568</v>
       </c>
       <c r="AR39" s="8">
-        <v>3.03</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="40" ht="11.5" customHeight="1" spans="10:44">
       <c r="J40" s="15"/>
       <c r="K40" s="10"/>
       <c r="L40" s="11" t="s">
-        <v>447</v>
+        <v>565</v>
       </c>
       <c r="M40" s="12">
-        <v>5.36</v>
+        <v>7.77</v>
       </c>
       <c r="N40" s="12" t="s">
-        <v>498</v>
+        <v>572</v>
       </c>
       <c r="O40" s="12">
-        <v>5.02</v>
+        <v>6.95</v>
       </c>
       <c r="P40" s="12" t="s">
-        <v>437</v>
+        <v>539</v>
       </c>
       <c r="Q40" s="13">
-        <v>4.2</v>
+        <v>5.39</v>
       </c>
       <c r="S40" s="15"/>
       <c r="T40" s="10"/>
       <c r="U40" s="11" t="s">
-        <v>594</v>
+        <v>446</v>
       </c>
       <c r="V40" s="12">
-        <v>3.22</v>
+        <v>3.12</v>
       </c>
       <c r="W40" s="12" t="s">
-        <v>446</v>
+        <v>507</v>
       </c>
       <c r="X40" s="12">
-        <v>2.83</v>
+        <v>2.99</v>
       </c>
       <c r="Y40" s="12" t="s">
-        <v>530</v>
+        <v>602</v>
       </c>
       <c r="Z40" s="13">
-        <v>2.81</v>
-      </c>
-      <c r="AK40" s="15"/>
+        <v>2.86</v>
+      </c>
+      <c r="AK40" s="24"/>
       <c r="AL40" s="10"/>
       <c r="AM40" s="11" t="s">
-        <v>447</v>
+        <v>548</v>
       </c>
       <c r="AN40" s="12">
-        <v>5.1</v>
+        <v>3.86</v>
       </c>
       <c r="AO40" s="12" t="s">
-        <v>454</v>
+        <v>587</v>
       </c>
       <c r="AP40" s="12">
-        <v>4.72</v>
+        <v>3.32</v>
       </c>
       <c r="AQ40" s="12" t="s">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="AR40" s="13">
-        <v>3.04</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="41" ht="11.5" customHeight="1" spans="10:44">
       <c r="J41" s="14" t="s">
-        <v>550</v>
+        <v>510</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="5" t="s">
-        <v>456</v>
+        <v>572</v>
       </c>
       <c r="M41" s="6">
-        <v>9.59</v>
+        <v>7.44</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>494</v>
+        <v>572</v>
       </c>
       <c r="O41" s="7">
-        <v>7.06</v>
+        <v>7.24</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>604</v>
+        <v>536</v>
       </c>
       <c r="Q41" s="8">
-        <v>5.74</v>
+        <v>7.09</v>
       </c>
       <c r="S41" s="14" t="s">
         <v>436</v>
@@ -10252,63 +10165,63 @@
         <v>598</v>
       </c>
       <c r="V41" s="6">
-        <v>7.33</v>
+        <v>7.45</v>
       </c>
       <c r="W41" s="7" t="s">
         <v>542</v>
       </c>
       <c r="X41" s="7">
-        <v>5.07</v>
+        <v>5.17</v>
       </c>
       <c r="Y41" s="7" t="s">
         <v>599</v>
       </c>
       <c r="Z41" s="8">
-        <v>4.02</v>
+        <v>4.03</v>
       </c>
       <c r="AK41" s="14" t="s">
-        <v>508</v>
+        <v>587</v>
       </c>
       <c r="AL41" s="4"/>
       <c r="AM41" s="5" t="s">
-        <v>531</v>
+        <v>582</v>
       </c>
       <c r="AN41" s="6">
-        <v>4.1</v>
+        <v>8.56</v>
       </c>
       <c r="AO41" s="7" t="s">
-        <v>434</v>
+        <v>572</v>
       </c>
       <c r="AP41" s="7">
-        <v>2.85</v>
+        <v>6.66</v>
       </c>
       <c r="AQ41" s="7" t="s">
-        <v>601</v>
+        <v>454</v>
       </c>
       <c r="AR41" s="8">
-        <v>2.2</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="42" ht="11.5" customHeight="1" spans="10:44">
       <c r="J42" s="15"/>
       <c r="K42" s="10"/>
       <c r="L42" s="11" t="s">
-        <v>572</v>
+        <v>456</v>
       </c>
       <c r="M42" s="12">
-        <v>8.26</v>
+        <v>12.44</v>
       </c>
       <c r="N42" s="12" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="O42" s="12">
-        <v>5.24</v>
+        <v>7.87</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>445</v>
+        <v>577</v>
       </c>
       <c r="Q42" s="13">
-        <v>5.15</v>
+        <v>4.79</v>
       </c>
       <c r="S42" s="15"/>
       <c r="T42" s="10"/>
@@ -10316,13 +10229,13 @@
         <v>510</v>
       </c>
       <c r="V42" s="12">
-        <v>7.28</v>
+        <v>7.44</v>
       </c>
       <c r="W42" s="12" t="s">
         <v>567</v>
       </c>
       <c r="X42" s="12">
-        <v>5.85</v>
+        <v>6.01</v>
       </c>
       <c r="Y42" s="12" t="s">
         <v>527</v>
@@ -10333,46 +10246,46 @@
       <c r="AK42" s="15"/>
       <c r="AL42" s="10"/>
       <c r="AM42" s="11" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="AN42" s="12">
-        <v>4.72</v>
+        <v>6.36</v>
       </c>
       <c r="AO42" s="12" t="s">
-        <v>454</v>
+        <v>531</v>
       </c>
       <c r="AP42" s="12">
-        <v>4.13</v>
+        <v>5.39</v>
       </c>
       <c r="AQ42" s="12" t="s">
-        <v>575</v>
+        <v>600</v>
       </c>
       <c r="AR42" s="13">
-        <v>2.04</v>
-      </c>
-    </row>
-    <row r="43" ht="11.5" customHeight="1" spans="10:26">
+        <v>4.44</v>
+      </c>
+    </row>
+    <row r="43" ht="11.5" customHeight="1" spans="10:44">
       <c r="J43" s="14" t="s">
-        <v>510</v>
+        <v>547</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="5" t="s">
-        <v>572</v>
+        <v>447</v>
       </c>
       <c r="M43" s="6">
-        <v>7.34</v>
+        <v>6.9</v>
       </c>
       <c r="N43" s="7" t="s">
         <v>536</v>
       </c>
       <c r="O43" s="7">
-        <v>7.31</v>
+        <v>4.08</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q43" s="8">
-        <v>7.28</v>
+        <v>3.89</v>
       </c>
       <c r="S43" s="14" t="s">
         <v>452</v>
@@ -10382,41 +10295,63 @@
         <v>530</v>
       </c>
       <c r="V43" s="6">
-        <v>5.62</v>
+        <v>5.24</v>
       </c>
       <c r="W43" s="7" t="s">
         <v>494</v>
       </c>
       <c r="X43" s="7">
-        <v>4.23</v>
+        <v>4.17</v>
       </c>
       <c r="Y43" s="7" t="s">
         <v>528</v>
       </c>
       <c r="Z43" s="8">
-        <v>3.16</v>
-      </c>
-    </row>
-    <row r="44" ht="11.5" customHeight="1" spans="10:26">
+        <v>3.25</v>
+      </c>
+      <c r="AK43" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL43" s="4"/>
+      <c r="AM43" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="AN43" s="6">
+        <v>3.67</v>
+      </c>
+      <c r="AO43" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="AP43" s="7">
+        <v>3.61</v>
+      </c>
+      <c r="AQ43" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="AR43" s="8">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="44" ht="11.5" customHeight="1" spans="10:44">
       <c r="J44" s="15"/>
       <c r="K44" s="10"/>
       <c r="L44" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="M44" s="12">
+        <v>6.09</v>
+      </c>
+      <c r="N44" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="M44" s="12">
-        <v>12.44</v>
-      </c>
-      <c r="N44" s="12" t="s">
-        <v>542</v>
-      </c>
       <c r="O44" s="12">
-        <v>7.63</v>
+        <v>4.64</v>
       </c>
       <c r="P44" s="12" t="s">
-        <v>577</v>
+        <v>484</v>
       </c>
       <c r="Q44" s="13">
-        <v>4.73</v>
+        <v>3.67</v>
       </c>
       <c r="S44" s="15"/>
       <c r="T44" s="10"/>
@@ -10424,43 +10359,63 @@
         <v>492</v>
       </c>
       <c r="V44" s="12">
-        <v>5.28</v>
+        <v>5.3</v>
       </c>
       <c r="W44" s="12" t="s">
         <v>437</v>
       </c>
       <c r="X44" s="12">
-        <v>4.64</v>
+        <v>5.17</v>
       </c>
       <c r="Y44" s="12" t="s">
         <v>510</v>
       </c>
       <c r="Z44" s="13">
-        <v>3.73</v>
+        <v>3.7</v>
+      </c>
+      <c r="AK44" s="15"/>
+      <c r="AL44" s="10"/>
+      <c r="AM44" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="AN44" s="12">
+        <v>5.22</v>
+      </c>
+      <c r="AO44" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="AP44" s="12">
+        <v>4.59</v>
+      </c>
+      <c r="AQ44" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="AR44" s="13">
+        <v>3.95</v>
       </c>
     </row>
     <row r="45" ht="11.5" customHeight="1" spans="10:26">
       <c r="J45" s="14" t="s">
-        <v>547</v>
+        <v>495</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="5" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="M45" s="6">
-        <v>6.55</v>
+        <v>11.34</v>
       </c>
       <c r="N45" s="7" t="s">
-        <v>536</v>
+        <v>577</v>
       </c>
       <c r="O45" s="7">
-        <v>3.84</v>
+        <v>7.83</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>437</v>
+        <v>542</v>
       </c>
       <c r="Q45" s="8">
-        <v>3.77</v>
+        <v>4.67</v>
       </c>
       <c r="S45" s="14" t="s">
         <v>475</v>
@@ -10470,107 +10425,107 @@
         <v>497</v>
       </c>
       <c r="V45" s="6">
-        <v>3.27</v>
+        <v>3.45</v>
       </c>
       <c r="W45" s="7" t="s">
         <v>437</v>
       </c>
       <c r="X45" s="7">
-        <v>3.07</v>
+        <v>3.28</v>
       </c>
       <c r="Y45" s="7" t="s">
-        <v>498</v>
+        <v>604</v>
       </c>
       <c r="Z45" s="8">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="46" ht="11.5" customHeight="1" spans="10:26">
       <c r="J46" s="15"/>
       <c r="K46" s="10"/>
       <c r="L46" s="11" t="s">
-        <v>539</v>
+        <v>447</v>
       </c>
       <c r="M46" s="12">
-        <v>6.17</v>
+        <v>5.39</v>
       </c>
       <c r="N46" s="12" t="s">
-        <v>456</v>
+        <v>498</v>
       </c>
       <c r="O46" s="12">
-        <v>4.38</v>
+        <v>4.87</v>
       </c>
       <c r="P46" s="12" t="s">
-        <v>484</v>
+        <v>437</v>
       </c>
       <c r="Q46" s="13">
-        <v>3.66</v>
+        <v>4.16</v>
       </c>
       <c r="S46" s="15"/>
       <c r="T46" s="10"/>
       <c r="U46" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="V46" s="12">
+        <v>4.01</v>
+      </c>
+      <c r="W46" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="V46" s="12">
-        <v>4.08</v>
-      </c>
-      <c r="W46" s="12" t="s">
-        <v>590</v>
-      </c>
       <c r="X46" s="12">
-        <v>3.81</v>
+        <v>3.91</v>
       </c>
       <c r="Y46" s="12" t="s">
         <v>542</v>
       </c>
       <c r="Z46" s="13">
-        <v>3.67</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="47" ht="11.5" customHeight="1" spans="10:17">
-      <c r="J47" s="14" t="s">
-        <v>497</v>
+      <c r="J47" s="23" t="s">
+        <v>604</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="5" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
       <c r="M47" s="6">
-        <v>5.88</v>
+        <v>3.28</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>602</v>
+        <v>542</v>
       </c>
       <c r="O47" s="7">
-        <v>5.28</v>
+        <v>3.04</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>599</v>
+        <v>541</v>
       </c>
       <c r="Q47" s="8">
-        <v>4.16</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="48" ht="11.5" customHeight="1" spans="10:17">
-      <c r="J48" s="15"/>
+      <c r="J48" s="24"/>
       <c r="K48" s="10"/>
       <c r="L48" s="11" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="M48" s="12">
-        <v>8.9</v>
+        <v>3.92</v>
       </c>
       <c r="N48" s="12" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="O48" s="12">
-        <v>6.27</v>
+        <v>3.15</v>
       </c>
       <c r="P48" s="12" t="s">
-        <v>443</v>
+        <v>601</v>
       </c>
       <c r="Q48" s="13">
-        <v>5.45</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="49" ht="11.5" customHeight="1" spans="10:17">
@@ -10582,91 +10537,91 @@
         <v>523</v>
       </c>
       <c r="M49" s="6">
-        <v>5.9</v>
+        <v>5.99</v>
       </c>
       <c r="N49" s="7" t="s">
         <v>135</v>
       </c>
       <c r="O49" s="7">
-        <v>5.29</v>
+        <v>5.23</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>568</v>
       </c>
       <c r="Q49" s="8">
-        <v>4.58</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="50" ht="11.5" customHeight="1" spans="10:17">
       <c r="J50" s="15"/>
       <c r="K50" s="10"/>
       <c r="L50" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="M50" s="12">
+        <v>4.41</v>
+      </c>
+      <c r="N50" s="12" t="s">
         <v>577</v>
       </c>
-      <c r="M50" s="12">
-        <v>4.02</v>
-      </c>
-      <c r="N50" s="12" t="s">
-        <v>456</v>
-      </c>
       <c r="O50" s="12">
-        <v>3.99</v>
+        <v>4.15</v>
       </c>
       <c r="P50" s="12" t="s">
         <v>536</v>
       </c>
       <c r="Q50" s="13">
-        <v>3.68</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="51" ht="11.5" customHeight="1" spans="10:17">
-      <c r="J51" s="23" t="s">
-        <v>605</v>
+      <c r="J51" s="14" t="s">
+        <v>497</v>
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="5" t="s">
-        <v>442</v>
+        <v>602</v>
       </c>
       <c r="M51" s="6">
-        <v>3.39</v>
+        <v>6.11</v>
       </c>
       <c r="N51" s="7" t="s">
-        <v>542</v>
+        <v>484</v>
       </c>
       <c r="O51" s="7">
-        <v>2.93</v>
+        <v>5.8</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>541</v>
+        <v>599</v>
       </c>
       <c r="Q51" s="8">
-        <v>2.82</v>
+        <v>4.23</v>
       </c>
     </row>
     <row r="52" ht="11.5" customHeight="1" spans="10:17">
-      <c r="J52" s="24"/>
+      <c r="J52" s="15"/>
       <c r="K52" s="10"/>
       <c r="L52" s="11" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="M52" s="12">
-        <v>3.99</v>
+        <v>8.94</v>
       </c>
       <c r="N52" s="12" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="O52" s="12">
-        <v>2.91</v>
+        <v>6.54</v>
       </c>
       <c r="P52" s="12" t="s">
-        <v>592</v>
+        <v>437</v>
       </c>
       <c r="Q52" s="13">
-        <v>2.79</v>
+        <v>5.59</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="101">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
@@ -10685,7 +10640,6 @@
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="J5:J6"/>
@@ -10747,7 +10701,6 @@
     <mergeCell ref="AB19:AB20"/>
     <mergeCell ref="AB21:AB22"/>
     <mergeCell ref="AB23:AB24"/>
-    <mergeCell ref="AB25:AB26"/>
     <mergeCell ref="AK1:AK2"/>
     <mergeCell ref="AK3:AK4"/>
     <mergeCell ref="AK5:AK6"/>
@@ -10769,6 +10722,7 @@
     <mergeCell ref="AK37:AK38"/>
     <mergeCell ref="AK39:AK40"/>
     <mergeCell ref="AK41:AK42"/>
+    <mergeCell ref="AK43:AK44"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/logs/OMG.xlsx
+++ b/logs/OMG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17235" windowHeight="12345" firstSheet="5" activeTab="9"/>
+    <workbookView windowWidth="17475" windowHeight="12915" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Dota" sheetId="10" r:id="rId1"/>
@@ -50,6 +50,29 @@
         </r>
       </text>
     </comment>
+    <comment ref="AK31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Arsenal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+阿古朵、曹操、安琪拉
+蔡文姬、钟馗、东皇太一</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A35" authorId="0">
       <text>
         <r>
@@ -91,35 +114,12 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-阿古朵、曹操、安琪拉
-蔡文姬、钟馗、东皇太一</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AK39" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Arsenal:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
 蔡文姬、阿古朵、典韦
 墨子、钟馗</t>
         </r>
       </text>
     </comment>
-    <comment ref="J47" authorId="0">
+    <comment ref="J49" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2211,21 +2211,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -2241,52 +2226,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -2297,9 +2236,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2320,14 +2259,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2342,7 +2296,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2350,6 +2342,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2639,25 +2639,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2687,19 +2675,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2711,25 +2711,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2759,31 +2753,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2808,6 +2790,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2958,41 +2958,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3008,17 +2978,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3047,11 +3006,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3061,10 +3061,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="66" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="47" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3073,133 +3073,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="57" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="57" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="54" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="57" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="57" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="48" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6005,8 +6005,8 @@
   <sheetPr/>
   <dimension ref="A1:AR52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q52" sqref="Q52"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AP31" sqref="AP31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -6063,7 +6063,7 @@
         <v>513</v>
       </c>
       <c r="B1" s="4">
-        <v>51.06</v>
+        <v>51.08</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>581</v>
@@ -6084,56 +6084,58 @@
         <v>3.16</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>572</v>
-      </c>
-      <c r="K1" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="K1" s="4">
+        <v>51.2</v>
+      </c>
       <c r="L1" s="5" t="s">
-        <v>434</v>
+        <v>565</v>
       </c>
       <c r="M1" s="6">
-        <v>7.01</v>
+        <v>7.13</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="O1" s="7">
-        <v>6.95</v>
+        <v>7.04</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>543</v>
+        <v>477</v>
       </c>
       <c r="Q1" s="8">
-        <v>6.8</v>
+        <v>6.53</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>530</v>
+        <v>602</v>
       </c>
       <c r="T1" s="4">
-        <v>52.44</v>
+        <v>50.38</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>581</v>
+        <v>542</v>
       </c>
       <c r="V1" s="6">
-        <v>6.58</v>
+        <v>7.23</v>
       </c>
       <c r="W1" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="X1" s="7">
-        <v>4.6</v>
+        <v>5.94</v>
       </c>
       <c r="Y1" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Z1" s="8">
-        <v>4.16</v>
+        <v>5.93</v>
       </c>
       <c r="AB1" s="14" t="s">
         <v>591</v>
       </c>
       <c r="AC1" s="4">
-        <v>52.31</v>
+        <v>52.25</v>
       </c>
       <c r="AD1" s="5" t="s">
         <v>561</v>
@@ -6179,7 +6181,7 @@
     <row r="2" ht="11.5" customHeight="1" spans="1:44">
       <c r="A2" s="9"/>
       <c r="B2" s="10">
-        <v>52.44</v>
+        <v>52.65</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>447</v>
@@ -6201,51 +6203,51 @@
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="10">
-        <v>54</v>
+        <v>53.46</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="M2" s="12">
-        <v>14.43</v>
+        <v>5.93</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>510</v>
+        <v>536</v>
       </c>
       <c r="O2" s="12">
-        <v>7.24</v>
+        <v>5.57</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>587</v>
+        <v>539</v>
       </c>
       <c r="Q2" s="13">
-        <v>6.66</v>
+        <v>4.27</v>
       </c>
       <c r="S2" s="15"/>
       <c r="T2" s="10">
-        <v>54.35</v>
+        <v>55.04</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>598</v>
+        <v>497</v>
       </c>
       <c r="V2" s="12">
-        <v>6.03</v>
+        <v>6.11</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>452</v>
+        <v>586</v>
       </c>
       <c r="X2" s="12">
-        <v>5.79</v>
+        <v>5.57</v>
       </c>
       <c r="Y2" s="12" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="Z2" s="13">
-        <v>5.3</v>
+        <v>4.55</v>
       </c>
       <c r="AB2" s="15"/>
       <c r="AC2" s="10">
-        <v>53.55</v>
+        <v>53.51</v>
       </c>
       <c r="AD2" s="11" t="s">
         <v>599</v>
@@ -6267,7 +6269,7 @@
       </c>
       <c r="AK2" s="9"/>
       <c r="AL2" s="10">
-        <v>52.71</v>
+        <v>53.11</v>
       </c>
       <c r="AM2" s="11" t="s">
         <v>572</v>
@@ -6290,82 +6292,80 @@
     </row>
     <row r="3" ht="11.5" customHeight="1" spans="1:44">
       <c r="A3" s="14" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B3" s="4">
-        <v>53</v>
+        <v>50.99</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>456</v>
+        <v>601</v>
       </c>
       <c r="D3" s="6">
-        <v>6.26</v>
+        <v>4.49</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>589</v>
+        <v>477</v>
       </c>
       <c r="F3" s="7">
-        <v>5.73</v>
+        <v>3.34</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>459</v>
+        <v>510</v>
       </c>
       <c r="H3" s="8">
-        <v>3.09</v>
+        <v>3.16</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>541</v>
-      </c>
-      <c r="K3" s="4">
-        <v>51.31</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="K3" s="4"/>
       <c r="L3" s="5" t="s">
-        <v>565</v>
+        <v>601</v>
       </c>
       <c r="M3" s="6">
-        <v>7.13</v>
+        <v>4.31</v>
       </c>
       <c r="N3" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="O3" s="7">
+        <v>4.21</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>3.93</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="T3" s="4">
+        <v>52.44</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="V3" s="6">
+        <v>6.58</v>
+      </c>
+      <c r="W3" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="O3" s="7">
-        <v>7.04</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>6.53</v>
-      </c>
-      <c r="S3" s="14" t="s">
-        <v>602</v>
-      </c>
-      <c r="T3" s="4">
-        <v>50.38</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="V3" s="6">
-        <v>7.23</v>
-      </c>
-      <c r="W3" s="7" t="s">
+      <c r="X3" s="7">
+        <v>4.6</v>
+      </c>
+      <c r="Y3" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="X3" s="7">
-        <v>5.94</v>
-      </c>
-      <c r="Y3" s="7" t="s">
-        <v>541</v>
-      </c>
       <c r="Z3" s="8">
-        <v>5.93</v>
+        <v>4.16</v>
       </c>
       <c r="AB3" s="14" t="s">
         <v>599</v>
       </c>
       <c r="AC3" s="4">
-        <v>50.47</v>
+        <v>50.46</v>
       </c>
       <c r="AD3" s="5" t="s">
         <v>600</v>
@@ -6411,73 +6411,73 @@
     <row r="4" ht="11.5" customHeight="1" spans="1:44">
       <c r="A4" s="15"/>
       <c r="B4" s="10">
-        <v>52.17</v>
+        <v>52.43</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>447</v>
+        <v>599</v>
       </c>
       <c r="D4" s="12">
-        <v>5.19</v>
+        <v>5.29</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="F4" s="12">
-        <v>3.83</v>
+        <v>4.93</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>602</v>
+        <v>565</v>
       </c>
       <c r="H4" s="13">
-        <v>3.8</v>
+        <v>4.58</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="10">
-        <v>53.2</v>
+        <v>53.23</v>
       </c>
       <c r="L4" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="M4" s="12">
+        <v>5.06</v>
+      </c>
+      <c r="N4" s="12" t="s">
         <v>602</v>
       </c>
-      <c r="M4" s="12">
-        <v>5.93</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>536</v>
-      </c>
       <c r="O4" s="12">
-        <v>5.57</v>
+        <v>3.92</v>
       </c>
       <c r="P4" s="12" t="s">
         <v>539</v>
       </c>
       <c r="Q4" s="13">
-        <v>4.27</v>
+        <v>3.71</v>
       </c>
       <c r="S4" s="15"/>
       <c r="T4" s="10">
-        <v>54.26</v>
+        <v>54.41</v>
       </c>
       <c r="U4" s="11" t="s">
-        <v>497</v>
+        <v>598</v>
       </c>
       <c r="V4" s="12">
-        <v>6.11</v>
+        <v>6.03</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>586</v>
+        <v>452</v>
       </c>
       <c r="X4" s="12">
-        <v>5.57</v>
+        <v>5.79</v>
       </c>
       <c r="Y4" s="12" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="Z4" s="13">
-        <v>4.55</v>
+        <v>5.3</v>
       </c>
       <c r="AB4" s="15"/>
       <c r="AC4" s="10">
-        <v>52.55</v>
+        <v>52.69</v>
       </c>
       <c r="AD4" s="11" t="s">
         <v>497</v>
@@ -6499,7 +6499,7 @@
       </c>
       <c r="AK4" s="15"/>
       <c r="AL4" s="10">
-        <v>51.84</v>
+        <v>52.09</v>
       </c>
       <c r="AM4" s="11" t="s">
         <v>437</v>
@@ -6522,80 +6522,78 @@
     </row>
     <row r="5" ht="11.5" customHeight="1" spans="1:44">
       <c r="A5" s="14" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B5" s="4">
-        <v>51.14</v>
+        <v>53</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>601</v>
+        <v>456</v>
       </c>
       <c r="D5" s="6">
-        <v>4.49</v>
+        <v>6.26</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>477</v>
+        <v>589</v>
       </c>
       <c r="F5" s="7">
-        <v>3.34</v>
+        <v>5.73</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>510</v>
+        <v>459</v>
       </c>
       <c r="H5" s="8">
-        <v>3.16</v>
+        <v>3.09</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>555</v>
+        <v>572</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="5" t="s">
-        <v>601</v>
+        <v>434</v>
       </c>
       <c r="M5" s="6">
-        <v>4.31</v>
+        <v>7.01</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>432</v>
+        <v>550</v>
       </c>
       <c r="O5" s="7">
-        <v>4.21</v>
+        <v>6.95</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>6.8</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="T5" s="4"/>
+      <c r="U5" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="V5" s="6">
+        <v>7.46</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="X5" s="25">
+        <v>5.45</v>
+      </c>
+      <c r="Y5" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="Q5" s="8">
-        <v>3.93</v>
-      </c>
-      <c r="S5" s="14" t="s">
-        <v>564</v>
-      </c>
-      <c r="T5" s="4">
-        <v>51.7</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="V5" s="6">
-        <v>3.15</v>
-      </c>
-      <c r="W5" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="X5" s="7">
-        <v>2.66</v>
-      </c>
-      <c r="Y5" s="7" t="s">
-        <v>437</v>
-      </c>
       <c r="Z5" s="8">
-        <v>2.57</v>
+        <v>4.99</v>
       </c>
       <c r="AB5" s="14" t="s">
         <v>598</v>
       </c>
       <c r="AC5" s="4">
-        <v>52.83</v>
+        <v>52.79</v>
       </c>
       <c r="AD5" s="5" t="s">
         <v>572</v>
@@ -6619,7 +6617,7 @@
         <v>434</v>
       </c>
       <c r="AL5" s="4">
-        <v>50.09</v>
+        <v>50.26</v>
       </c>
       <c r="AM5" s="5" t="s">
         <v>561</v>
@@ -6643,73 +6641,73 @@
     <row r="6" ht="11.5" customHeight="1" spans="1:44">
       <c r="A6" s="15"/>
       <c r="B6" s="10">
-        <v>52.15</v>
+        <v>51.86</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>599</v>
+        <v>447</v>
       </c>
       <c r="D6" s="12">
-        <v>5.29</v>
+        <v>5.19</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="F6" s="12">
-        <v>4.93</v>
+        <v>3.83</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>565</v>
+        <v>602</v>
       </c>
       <c r="H6" s="13">
-        <v>4.58</v>
+        <v>3.8</v>
       </c>
       <c r="J6" s="15"/>
       <c r="K6" s="10">
-        <v>52.92</v>
+        <v>53.09</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="M6" s="12">
-        <v>5.06</v>
+        <v>14.43</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>602</v>
+        <v>510</v>
       </c>
       <c r="O6" s="12">
-        <v>3.92</v>
+        <v>7.24</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>539</v>
+        <v>587</v>
       </c>
       <c r="Q6" s="13">
-        <v>3.71</v>
+        <v>6.66</v>
       </c>
       <c r="S6" s="15"/>
       <c r="T6" s="10">
-        <v>53.71</v>
+        <v>53.65</v>
       </c>
       <c r="U6" s="11" t="s">
-        <v>598</v>
+        <v>522</v>
       </c>
       <c r="V6" s="12">
-        <v>6.06</v>
+        <v>5.23</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>582</v>
+        <v>456</v>
       </c>
       <c r="X6" s="12">
-        <v>4.38</v>
+        <v>4.68</v>
       </c>
       <c r="Y6" s="12" t="s">
-        <v>599</v>
+        <v>568</v>
       </c>
       <c r="Z6" s="13">
-        <v>4.19</v>
+        <v>4.63</v>
       </c>
       <c r="AB6" s="15"/>
       <c r="AC6" s="10">
-        <v>51.63</v>
+        <v>51.95</v>
       </c>
       <c r="AD6" s="11" t="s">
         <v>436</v>
@@ -6731,7 +6729,7 @@
       </c>
       <c r="AK6" s="15"/>
       <c r="AL6" s="10">
-        <v>51.64</v>
+        <v>51.73</v>
       </c>
       <c r="AM6" s="11" t="s">
         <v>454</v>
@@ -6776,56 +6774,56 @@
         <v>4.16</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>494</v>
-      </c>
-      <c r="K7" s="4">
-        <v>53.55</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="K7" s="4"/>
       <c r="L7" s="5" t="s">
-        <v>542</v>
+        <v>573</v>
       </c>
       <c r="M7" s="6">
-        <v>6.33</v>
+        <v>10.33</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>536</v>
+        <v>498</v>
       </c>
       <c r="O7" s="7">
-        <v>6.09</v>
+        <v>5.23</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>590</v>
+        <v>477</v>
       </c>
       <c r="Q7" s="8">
-        <v>4.09</v>
+        <v>5.12</v>
       </c>
       <c r="S7" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="T7" s="4"/>
+        <v>564</v>
+      </c>
+      <c r="T7" s="4">
+        <v>51.7</v>
+      </c>
       <c r="U7" s="5" t="s">
-        <v>434</v>
+        <v>498</v>
       </c>
       <c r="V7" s="6">
-        <v>7.46</v>
+        <v>3.15</v>
       </c>
       <c r="W7" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="X7" s="25">
-        <v>5.45</v>
+        <v>447</v>
+      </c>
+      <c r="X7" s="7">
+        <v>2.66</v>
       </c>
       <c r="Y7" s="7" t="s">
-        <v>561</v>
+        <v>437</v>
       </c>
       <c r="Z7" s="8">
-        <v>4.99</v>
+        <v>2.57</v>
       </c>
       <c r="AB7" s="14" t="s">
         <v>589</v>
       </c>
       <c r="AC7" s="4">
-        <v>51.53</v>
+        <v>51.57</v>
       </c>
       <c r="AD7" s="5" t="s">
         <v>456</v>
@@ -6849,7 +6847,7 @@
         <v>590</v>
       </c>
       <c r="AL7" s="4">
-        <v>51.46</v>
+        <v>51.57</v>
       </c>
       <c r="AM7" s="5" t="s">
         <v>443</v>
@@ -6873,7 +6871,7 @@
     <row r="8" ht="11.5" customHeight="1" spans="1:44">
       <c r="A8" s="15"/>
       <c r="B8" s="10">
-        <v>51.99</v>
+        <v>51.67</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>565</v>
@@ -6895,51 +6893,51 @@
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="10">
-        <v>52.62</v>
+        <v>52.85</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>550</v>
+        <v>507</v>
       </c>
       <c r="M8" s="12">
-        <v>8.21</v>
+        <v>10.32</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>586</v>
+        <v>541</v>
       </c>
       <c r="O8" s="12">
-        <v>5.38</v>
+        <v>7.04</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="Q8" s="13">
-        <v>4.7</v>
+        <v>6.8</v>
       </c>
       <c r="S8" s="15"/>
       <c r="T8" s="10">
-        <v>53.32</v>
+        <v>53.61</v>
       </c>
       <c r="U8" s="11" t="s">
-        <v>522</v>
+        <v>598</v>
       </c>
       <c r="V8" s="12">
-        <v>5.23</v>
+        <v>6.06</v>
       </c>
       <c r="W8" s="12" t="s">
-        <v>456</v>
+        <v>582</v>
       </c>
       <c r="X8" s="12">
-        <v>4.68</v>
+        <v>4.38</v>
       </c>
       <c r="Y8" s="12" t="s">
-        <v>568</v>
+        <v>599</v>
       </c>
       <c r="Z8" s="13">
-        <v>4.63</v>
+        <v>4.19</v>
       </c>
       <c r="AB8" s="15"/>
       <c r="AC8" s="10">
-        <v>51.62</v>
+        <v>51.73</v>
       </c>
       <c r="AD8" s="11" t="s">
         <v>442</v>
@@ -6961,7 +6959,7 @@
       </c>
       <c r="AK8" s="15"/>
       <c r="AL8" s="10">
-        <v>51.09</v>
+        <v>51.12</v>
       </c>
       <c r="AM8" s="11" t="s">
         <v>536</v>
@@ -6984,50 +6982,52 @@
     </row>
     <row r="9" ht="11.5" customHeight="1" spans="1:44">
       <c r="A9" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="B9" s="4">
+        <v>50.25</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="B9" s="4">
-        <v>52.97</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="6">
+        <v>6.9</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="F9" s="7">
+        <v>3.11</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="H9" s="8">
+        <v>3.11</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="K9" s="4">
+        <v>53.53</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="M9" s="6">
+        <v>6.33</v>
+      </c>
+      <c r="N9" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="D9" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="F9" s="7">
-        <v>3.69</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="H9" s="8">
-        <v>3.67</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>543</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="M9" s="6">
-        <v>10.33</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>498</v>
-      </c>
       <c r="O9" s="7">
-        <v>5.23</v>
+        <v>6.09</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>477</v>
+        <v>590</v>
       </c>
       <c r="Q9" s="8">
-        <v>5.12</v>
+        <v>4.09</v>
       </c>
       <c r="S9" s="14" t="s">
         <v>573</v>
@@ -7052,28 +7052,26 @@
         <v>3.52</v>
       </c>
       <c r="AB9" s="14" t="s">
-        <v>575</v>
-      </c>
-      <c r="AC9" s="4">
-        <v>51.78</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="AC9" s="4"/>
       <c r="AD9" s="5" t="s">
-        <v>581</v>
+        <v>507</v>
       </c>
       <c r="AE9" s="6">
-        <v>3.72</v>
+        <v>5.97</v>
       </c>
       <c r="AF9" s="7" t="s">
-        <v>453</v>
+        <v>602</v>
       </c>
       <c r="AG9" s="7">
-        <v>3.07</v>
+        <v>5.57</v>
       </c>
       <c r="AH9" s="7" t="s">
-        <v>466</v>
+        <v>494</v>
       </c>
       <c r="AI9" s="8">
-        <v>2.64</v>
+        <v>5.38</v>
       </c>
       <c r="AK9" s="14" t="s">
         <v>582</v>
@@ -7101,51 +7099,51 @@
     <row r="10" ht="11.5" customHeight="1" spans="1:44">
       <c r="A10" s="15"/>
       <c r="B10" s="10">
-        <v>51.19</v>
+        <v>51.36</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>456</v>
+        <v>541</v>
       </c>
       <c r="D10" s="12">
-        <v>10.5</v>
+        <v>6.53</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>477</v>
+        <v>543</v>
       </c>
       <c r="F10" s="12">
-        <v>6.9</v>
+        <v>5.12</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>497</v>
+        <v>527</v>
       </c>
       <c r="H10" s="13">
-        <v>5.8</v>
+        <v>4.9</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="10">
-        <v>52.55</v>
+        <v>52.35</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>507</v>
+        <v>550</v>
       </c>
       <c r="M10" s="12">
-        <v>10.32</v>
+        <v>8.21</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>541</v>
+        <v>586</v>
       </c>
       <c r="O10" s="12">
-        <v>7.04</v>
+        <v>5.38</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="Q10" s="13">
-        <v>6.8</v>
+        <v>4.7</v>
       </c>
       <c r="S10" s="15"/>
       <c r="T10" s="10">
-        <v>52.5</v>
+        <v>52.11</v>
       </c>
       <c r="U10" s="11" t="s">
         <v>543</v>
@@ -7167,29 +7165,29 @@
       </c>
       <c r="AB10" s="15"/>
       <c r="AC10" s="10">
-        <v>51.29</v>
+        <v>51.28</v>
       </c>
       <c r="AD10" s="11" t="s">
-        <v>602</v>
+        <v>135</v>
       </c>
       <c r="AE10" s="12">
-        <v>4.07</v>
+        <v>4.51</v>
       </c>
       <c r="AF10" s="12" t="s">
-        <v>135</v>
+        <v>568</v>
       </c>
       <c r="AG10" s="12">
-        <v>3.59</v>
+        <v>4.43</v>
       </c>
       <c r="AH10" s="12" t="s">
-        <v>544</v>
+        <v>592</v>
       </c>
       <c r="AI10" s="13">
-        <v>2.94</v>
+        <v>4.27</v>
       </c>
       <c r="AK10" s="15"/>
       <c r="AL10" s="10">
-        <v>50.46</v>
+        <v>50.39</v>
       </c>
       <c r="AM10" s="11" t="s">
         <v>587</v>
@@ -7212,28 +7210,26 @@
     </row>
     <row r="11" ht="11.5" customHeight="1" spans="1:44">
       <c r="A11" s="14" t="s">
-        <v>477</v>
-      </c>
-      <c r="B11" s="4">
-        <v>50.27</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
-        <v>484</v>
+        <v>543</v>
       </c>
       <c r="D11" s="6">
-        <v>6.9</v>
+        <v>4.15</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F11" s="7">
-        <v>3.11</v>
+        <v>3.43</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>459</v>
+        <v>510</v>
       </c>
       <c r="H11" s="8">
-        <v>3.11</v>
+        <v>3.13</v>
       </c>
       <c r="J11" s="14" t="s">
         <v>539</v>
@@ -7258,102 +7254,102 @@
         <v>5</v>
       </c>
       <c r="S11" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T11" s="4">
+        <v>52.17</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="V11" s="6">
+        <v>5.34</v>
+      </c>
+      <c r="W11" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="T11" s="4">
-        <v>51.9</v>
-      </c>
-      <c r="U11" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="V11" s="6">
-        <v>5.15</v>
-      </c>
-      <c r="W11" s="7" t="s">
-        <v>510</v>
-      </c>
       <c r="X11" s="7">
-        <v>4.856</v>
+        <v>3.71</v>
       </c>
       <c r="Y11" s="7" t="s">
-        <v>600</v>
+        <v>498</v>
       </c>
       <c r="Z11" s="8">
-        <v>4.798</v>
+        <v>3.56</v>
       </c>
       <c r="AB11" s="14" t="s">
-        <v>586</v>
-      </c>
-      <c r="AC11" s="4"/>
+        <v>575</v>
+      </c>
+      <c r="AC11" s="4">
+        <v>51.81</v>
+      </c>
       <c r="AD11" s="5" t="s">
-        <v>507</v>
+        <v>581</v>
       </c>
       <c r="AE11" s="6">
-        <v>5.97</v>
+        <v>3.72</v>
       </c>
       <c r="AF11" s="7" t="s">
-        <v>602</v>
+        <v>453</v>
       </c>
       <c r="AG11" s="7">
-        <v>5.57</v>
+        <v>3.07</v>
       </c>
       <c r="AH11" s="7" t="s">
-        <v>494</v>
+        <v>466</v>
       </c>
       <c r="AI11" s="8">
-        <v>5.38</v>
+        <v>2.64</v>
       </c>
       <c r="AK11" s="14" t="s">
-        <v>518</v>
-      </c>
-      <c r="AL11" s="4">
-        <v>50.04</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="AL11" s="4"/>
       <c r="AM11" s="5" t="s">
-        <v>434</v>
+        <v>538</v>
       </c>
       <c r="AN11" s="6">
-        <v>10.04</v>
+        <v>5.95</v>
       </c>
       <c r="AO11" s="7" t="s">
-        <v>454</v>
+        <v>543</v>
       </c>
       <c r="AP11" s="7">
-        <v>4.41</v>
+        <v>3.3</v>
       </c>
       <c r="AQ11" s="7" t="s">
-        <v>536</v>
+        <v>453</v>
       </c>
       <c r="AR11" s="8">
-        <v>2.99</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="12" ht="11.5" customHeight="1" spans="1:44">
       <c r="A12" s="15"/>
       <c r="B12" s="10">
-        <v>51.03</v>
+        <v>51.34</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="D12" s="12">
-        <v>6.53</v>
+        <v>4.18</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>543</v>
+        <v>494</v>
       </c>
       <c r="F12" s="12">
-        <v>5.12</v>
+        <v>3.77</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>527</v>
+        <v>586</v>
       </c>
       <c r="H12" s="13">
-        <v>4.9</v>
+        <v>3.64</v>
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="10">
-        <v>52.51</v>
+        <v>52.34</v>
       </c>
       <c r="L12" s="11" t="s">
         <v>583</v>
@@ -7375,69 +7371,69 @@
       </c>
       <c r="S12" s="15"/>
       <c r="T12" s="10">
-        <v>51.9</v>
+        <v>51.71</v>
       </c>
       <c r="U12" s="11" t="s">
-        <v>495</v>
+        <v>600</v>
       </c>
       <c r="V12" s="12">
-        <v>7.83</v>
+        <v>5.02</v>
       </c>
       <c r="W12" s="12" t="s">
-        <v>520</v>
+        <v>434</v>
       </c>
       <c r="X12" s="12">
-        <v>7.05</v>
+        <v>4.54</v>
       </c>
       <c r="Y12" s="12" t="s">
-        <v>589</v>
+        <v>546</v>
       </c>
       <c r="Z12" s="13">
-        <v>4.78</v>
+        <v>4.24</v>
       </c>
       <c r="AB12" s="15"/>
       <c r="AC12" s="10">
-        <v>51.24</v>
+        <v>51</v>
       </c>
       <c r="AD12" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="AE12" s="12">
+        <v>4.07</v>
+      </c>
+      <c r="AF12" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="AE12" s="12">
-        <v>4.51</v>
-      </c>
-      <c r="AF12" s="12" t="s">
-        <v>568</v>
-      </c>
       <c r="AG12" s="12">
-        <v>4.43</v>
+        <v>3.59</v>
       </c>
       <c r="AH12" s="12" t="s">
-        <v>592</v>
+        <v>544</v>
       </c>
       <c r="AI12" s="13">
-        <v>4.27</v>
+        <v>2.94</v>
       </c>
       <c r="AK12" s="15"/>
       <c r="AL12" s="10">
-        <v>50.33</v>
+        <v>50.29</v>
       </c>
       <c r="AM12" s="11" t="s">
-        <v>587</v>
+        <v>552</v>
       </c>
       <c r="AN12" s="12">
-        <v>3.23</v>
+        <v>2.6</v>
       </c>
       <c r="AO12" s="12" t="s">
-        <v>552</v>
+        <v>454</v>
       </c>
       <c r="AP12" s="12">
-        <v>3.22</v>
+        <v>2.57</v>
       </c>
       <c r="AQ12" s="12" t="s">
-        <v>497</v>
+        <v>583</v>
       </c>
       <c r="AR12" s="13">
-        <v>2.6</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="13" ht="11.5" customHeight="1" spans="1:44">
@@ -7445,7 +7441,7 @@
         <v>432</v>
       </c>
       <c r="B13" s="17">
-        <v>52.16</v>
+        <v>52.24</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>522</v>
@@ -7466,50 +7462,52 @@
         <v>2.89</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>523</v>
-      </c>
-      <c r="K13" s="4"/>
+        <v>540</v>
+      </c>
+      <c r="K13" s="4">
+        <v>53.33</v>
+      </c>
       <c r="L13" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="M13" s="6">
+        <v>5.04</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="O13" s="7">
+        <v>3.43</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>3.36</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="T13" s="4">
+        <v>51.75</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="V13" s="6">
+        <v>7.35</v>
+      </c>
+      <c r="W13" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="X13" s="7">
+        <v>5.86</v>
+      </c>
+      <c r="Y13" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="M13" s="6">
-        <v>5.14</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="O13" s="7">
-        <v>4.58</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="Q13" s="8">
-        <v>4.77</v>
-      </c>
-      <c r="S13" s="14" t="s">
-        <v>594</v>
-      </c>
-      <c r="T13" s="4">
-        <v>52.21</v>
-      </c>
-      <c r="U13" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="V13" s="6">
-        <v>5.34</v>
-      </c>
-      <c r="W13" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="X13" s="7">
-        <v>3.71</v>
-      </c>
-      <c r="Y13" s="7" t="s">
-        <v>498</v>
-      </c>
       <c r="Z13" s="8">
-        <v>3.56</v>
+        <v>4.1</v>
       </c>
       <c r="AB13" s="14" t="s">
         <v>588</v>
@@ -7536,34 +7534,34 @@
         <v>3.34</v>
       </c>
       <c r="AK13" s="14" t="s">
-        <v>443</v>
+        <v>518</v>
       </c>
       <c r="AL13" s="4">
-        <v>52.34</v>
+        <v>50.04</v>
       </c>
       <c r="AM13" s="5" t="s">
-        <v>497</v>
+        <v>434</v>
       </c>
       <c r="AN13" s="6">
-        <v>5.39</v>
+        <v>10.04</v>
       </c>
       <c r="AO13" s="7" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="AP13" s="7">
-        <v>4.04</v>
+        <v>4.41</v>
       </c>
       <c r="AQ13" s="7" t="s">
-        <v>447</v>
+        <v>536</v>
       </c>
       <c r="AR13" s="8">
-        <v>3.02</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="14" ht="11.5" customHeight="1" spans="1:44">
       <c r="A14" s="15"/>
       <c r="B14" s="10">
-        <v>50.97</v>
+        <v>51.06</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>548</v>
@@ -7585,51 +7583,51 @@
       </c>
       <c r="J14" s="15"/>
       <c r="K14" s="10">
-        <v>52.38</v>
+        <v>52.3</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>536</v>
+        <v>602</v>
       </c>
       <c r="M14" s="12">
-        <v>8.01</v>
+        <v>5.94</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>522</v>
+        <v>433</v>
       </c>
       <c r="O14" s="12">
-        <v>5.99</v>
+        <v>4.49</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>433</v>
+        <v>515</v>
       </c>
       <c r="Q14" s="13">
-        <v>5.83</v>
+        <v>4.47</v>
       </c>
       <c r="S14" s="15"/>
       <c r="T14" s="10">
-        <v>51.64</v>
+        <v>51.66</v>
       </c>
       <c r="U14" s="11" t="s">
-        <v>600</v>
+        <v>576</v>
       </c>
       <c r="V14" s="12">
-        <v>5.02</v>
+        <v>5.52</v>
       </c>
       <c r="W14" s="12" t="s">
-        <v>434</v>
+        <v>555</v>
       </c>
       <c r="X14" s="12">
-        <v>4.54</v>
+        <v>4.65</v>
       </c>
       <c r="Y14" s="12" t="s">
-        <v>546</v>
+        <v>599</v>
       </c>
       <c r="Z14" s="13">
-        <v>4.24</v>
+        <v>4.56</v>
       </c>
       <c r="AB14" s="15"/>
       <c r="AC14" s="10">
-        <v>50.76</v>
+        <v>50.83</v>
       </c>
       <c r="AD14" s="11" t="s">
         <v>561</v>
@@ -7651,463 +7649,461 @@
       </c>
       <c r="AK14" s="15"/>
       <c r="AL14" s="10">
-        <v>50.21</v>
+        <v>50.28</v>
       </c>
       <c r="AM14" s="11" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="AN14" s="12">
-        <v>6.49</v>
+        <v>3.23</v>
       </c>
       <c r="AO14" s="12" t="s">
-        <v>590</v>
+        <v>552</v>
       </c>
       <c r="AP14" s="12">
-        <v>6.12</v>
+        <v>3.22</v>
       </c>
       <c r="AQ14" s="12" t="s">
-        <v>459</v>
+        <v>497</v>
       </c>
       <c r="AR14" s="13">
-        <v>4.98</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="15" ht="11.5" customHeight="1" spans="1:44">
       <c r="A15" s="14" t="s">
-        <v>503</v>
-      </c>
-      <c r="B15" s="4"/>
+        <v>484</v>
+      </c>
+      <c r="B15" s="4">
+        <v>53.01</v>
+      </c>
       <c r="C15" s="5" t="s">
-        <v>516</v>
+        <v>536</v>
       </c>
       <c r="D15" s="6">
-        <v>3.58</v>
+        <v>4.24</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>447</v>
+        <v>522</v>
       </c>
       <c r="F15" s="7">
-        <v>3.53</v>
+        <v>3.69</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>456</v>
+        <v>547</v>
       </c>
       <c r="H15" s="8">
-        <v>3.19</v>
+        <v>3.67</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>548</v>
+        <v>437</v>
       </c>
       <c r="K15" s="4">
-        <v>51.47</v>
+        <v>50.46</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>552</v>
+        <v>497</v>
       </c>
       <c r="M15" s="6">
-        <v>5.62</v>
+        <v>5.59</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="O15" s="7">
-        <v>4.19</v>
+        <v>5.56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>539</v>
+        <v>583</v>
       </c>
       <c r="Q15" s="8">
-        <v>4.03</v>
+        <v>5.48</v>
       </c>
       <c r="S15" s="14" t="s">
-        <v>601</v>
+        <v>577</v>
       </c>
       <c r="T15" s="4">
         <v>51.85</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>552</v>
+        <v>502</v>
       </c>
       <c r="V15" s="6">
-        <v>7.35</v>
+        <v>5.15</v>
       </c>
       <c r="W15" s="7" t="s">
-        <v>561</v>
+        <v>510</v>
       </c>
       <c r="X15" s="7">
-        <v>5.86</v>
+        <v>4.856</v>
       </c>
       <c r="Y15" s="7" t="s">
-        <v>535</v>
+        <v>600</v>
       </c>
       <c r="Z15" s="8">
-        <v>4.1</v>
+        <v>4.798</v>
       </c>
       <c r="AB15" s="14" t="s">
-        <v>593</v>
-      </c>
-      <c r="AC15" s="4"/>
+        <v>576</v>
+      </c>
+      <c r="AC15" s="4">
+        <v>50.91</v>
+      </c>
       <c r="AD15" s="5" t="s">
-        <v>587</v>
+        <v>527</v>
       </c>
       <c r="AE15" s="6">
-        <v>2.2</v>
+        <v>5.93</v>
       </c>
       <c r="AF15" s="7" t="s">
         <v>601</v>
       </c>
       <c r="AG15" s="7">
-        <v>2.12</v>
+        <v>5.52</v>
       </c>
       <c r="AH15" s="7" t="s">
-        <v>535</v>
+        <v>442</v>
       </c>
       <c r="AI15" s="8">
-        <v>2.09</v>
+        <v>3.83</v>
       </c>
       <c r="AK15" s="14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AL15" s="4"/>
       <c r="AM15" s="5" t="s">
-        <v>434</v>
+        <v>561</v>
       </c>
       <c r="AN15" s="6">
-        <v>10.98</v>
+        <v>6.12</v>
       </c>
       <c r="AO15" s="7" t="s">
-        <v>456</v>
+        <v>549</v>
       </c>
       <c r="AP15" s="7">
-        <v>4.93</v>
+        <v>5.99</v>
       </c>
       <c r="AQ15" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AR15" s="8">
-        <v>4.63</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="16" ht="11.5" customHeight="1" spans="1:44">
       <c r="A16" s="15"/>
       <c r="B16" s="10">
-        <v>50.79</v>
+        <v>50.87</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>601</v>
+        <v>456</v>
       </c>
       <c r="D16" s="12">
-        <v>4.1</v>
+        <v>10.5</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>565</v>
+        <v>477</v>
       </c>
       <c r="F16" s="12">
-        <v>3.07</v>
+        <v>6.9</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>459</v>
+        <v>497</v>
       </c>
       <c r="H16" s="13">
-        <v>2.94</v>
+        <v>5.8</v>
       </c>
       <c r="J16" s="15"/>
       <c r="K16" s="10">
-        <v>52.2</v>
+        <v>52.06</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M16" s="12">
-        <v>7.15</v>
+        <v>7.26</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>568</v>
+        <v>453</v>
       </c>
       <c r="O16" s="12">
-        <v>6.19</v>
+        <v>5.68</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>437</v>
+        <v>547</v>
       </c>
       <c r="Q16" s="13">
-        <v>5.23</v>
+        <v>3.89</v>
       </c>
       <c r="S16" s="15"/>
       <c r="T16" s="10">
-        <v>51.13</v>
+        <v>51.38</v>
       </c>
       <c r="U16" s="11" t="s">
-        <v>576</v>
+        <v>495</v>
       </c>
       <c r="V16" s="12">
-        <v>5.52</v>
+        <v>7.83</v>
       </c>
       <c r="W16" s="12" t="s">
-        <v>555</v>
+        <v>520</v>
       </c>
       <c r="X16" s="12">
-        <v>4.65</v>
+        <v>7.05</v>
       </c>
       <c r="Y16" s="12" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="Z16" s="13">
-        <v>4.56</v>
+        <v>4.78</v>
       </c>
       <c r="AB16" s="15"/>
       <c r="AC16" s="10">
-        <v>50.44</v>
+        <v>50.12</v>
       </c>
       <c r="AD16" s="11" t="s">
-        <v>456</v>
+        <v>598</v>
       </c>
       <c r="AE16" s="12">
-        <v>4.16</v>
+        <v>4.27</v>
       </c>
       <c r="AF16" s="12" t="s">
-        <v>536</v>
+        <v>577</v>
       </c>
       <c r="AG16" s="12">
-        <v>2.76</v>
+        <v>3.21</v>
       </c>
       <c r="AH16" s="12" t="s">
-        <v>433</v>
+        <v>589</v>
       </c>
       <c r="AI16" s="13">
-        <v>2.11</v>
+        <v>3.1</v>
       </c>
       <c r="AK16" s="15"/>
       <c r="AL16" s="10">
-        <v>50.15</v>
+        <v>50.03</v>
       </c>
       <c r="AM16" s="11" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="AN16" s="12">
-        <v>6.47</v>
+        <v>5.6</v>
       </c>
       <c r="AO16" s="12" t="s">
-        <v>510</v>
+        <v>574</v>
       </c>
       <c r="AP16" s="12">
-        <v>5.64</v>
+        <v>4.34</v>
       </c>
       <c r="AQ16" s="12" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="AR16" s="13">
-        <v>4.48</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="17" ht="11.5" customHeight="1" spans="1:44">
       <c r="A17" s="14" t="s">
-        <v>532</v>
+        <v>503</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="D17" s="6">
+        <v>3.58</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F17" s="7">
+        <v>3.53</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="H17" s="8">
+        <v>3.19</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="M17" s="6">
+        <v>5.14</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="O17" s="7">
+        <v>4.58</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>4.77</v>
+      </c>
+      <c r="S17" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="T17" s="4"/>
+      <c r="U17" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="D17" s="6">
-        <v>4.15</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="V17" s="6">
+        <v>10.32</v>
+      </c>
+      <c r="W17" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="F17" s="7">
-        <v>3.43</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="H17" s="8">
-        <v>3.13</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>540</v>
-      </c>
-      <c r="K17" s="4">
-        <v>53.35</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="M17" s="6">
-        <v>5.04</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="O17" s="7">
-        <v>3.43</v>
-      </c>
-      <c r="P17" s="7" t="s">
+      <c r="X17" s="7">
+        <v>5.54</v>
+      </c>
+      <c r="Y17" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="Q17" s="8">
-        <v>3.36</v>
-      </c>
-      <c r="S17" s="14" t="s">
-        <v>527</v>
-      </c>
-      <c r="T17" s="4">
-        <v>50.4</v>
-      </c>
-      <c r="U17" s="5" t="s">
+      <c r="Z17" s="8">
+        <v>5.22</v>
+      </c>
+      <c r="AB17" s="14" t="s">
+        <v>568</v>
+      </c>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="AE17" s="6">
+        <v>9.22</v>
+      </c>
+      <c r="AF17" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="AG17" s="7">
+        <v>6.19</v>
+      </c>
+      <c r="AH17" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="AI17" s="8">
+        <v>5.83</v>
+      </c>
+      <c r="AK17" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="AL17" s="4">
+        <v>52.38</v>
+      </c>
+      <c r="AM17" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="AN17" s="6">
+        <v>5.39</v>
+      </c>
+      <c r="AO17" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="V17" s="6">
-        <v>5.18</v>
-      </c>
-      <c r="W17" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="X17" s="7">
-        <v>4.9</v>
-      </c>
-      <c r="Y17" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="Z17" s="8">
-        <v>4.34</v>
-      </c>
-      <c r="AB17" s="14" t="s">
-        <v>576</v>
-      </c>
-      <c r="AC17" s="4">
-        <v>50.91</v>
-      </c>
-      <c r="AD17" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="AE17" s="6">
-        <v>5.93</v>
-      </c>
-      <c r="AF17" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="AG17" s="7">
-        <v>5.52</v>
-      </c>
-      <c r="AH17" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="AI17" s="8">
-        <v>3.83</v>
-      </c>
-      <c r="AK17" s="14" t="s">
-        <v>468</v>
-      </c>
-      <c r="AL17" s="4">
-        <v>51.01</v>
-      </c>
-      <c r="AM17" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="AN17" s="6">
-        <v>3</v>
-      </c>
-      <c r="AO17" s="7" t="s">
-        <v>575</v>
-      </c>
       <c r="AP17" s="7">
-        <v>2.57</v>
+        <v>4.04</v>
       </c>
       <c r="AQ17" s="7" t="s">
         <v>447</v>
       </c>
       <c r="AR17" s="8">
-        <v>2.5</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="18" ht="11.5" customHeight="1" spans="1:44">
       <c r="A18" s="15"/>
       <c r="B18" s="10">
-        <v>50.6</v>
+        <v>50.55</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>520</v>
+        <v>601</v>
       </c>
       <c r="D18" s="12">
-        <v>4.18</v>
+        <v>4.1</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>494</v>
+        <v>565</v>
       </c>
       <c r="F18" s="12">
-        <v>3.77</v>
+        <v>3.07</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>586</v>
+        <v>459</v>
       </c>
       <c r="H18" s="13">
-        <v>3.64</v>
+        <v>2.94</v>
       </c>
       <c r="J18" s="15"/>
       <c r="K18" s="10">
-        <v>52.06</v>
+        <v>51.94</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>602</v>
+        <v>536</v>
       </c>
       <c r="M18" s="12">
-        <v>5.94</v>
+        <v>8.01</v>
       </c>
       <c r="N18" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="O18" s="12">
+        <v>5.99</v>
+      </c>
+      <c r="P18" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="O18" s="12">
-        <v>4.49</v>
-      </c>
-      <c r="P18" s="12" t="s">
-        <v>515</v>
-      </c>
       <c r="Q18" s="13">
-        <v>4.47</v>
+        <v>5.83</v>
       </c>
       <c r="S18" s="15"/>
       <c r="T18" s="10">
         <v>51.03</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>456</v>
+        <v>586</v>
       </c>
       <c r="V18" s="12">
-        <v>6.11</v>
+        <v>5.97</v>
       </c>
       <c r="W18" s="12" t="s">
-        <v>576</v>
+        <v>497</v>
       </c>
       <c r="X18" s="12">
-        <v>5.93</v>
+        <v>4</v>
       </c>
       <c r="Y18" s="12" t="s">
-        <v>577</v>
+        <v>447</v>
       </c>
       <c r="Z18" s="13">
-        <v>4.3</v>
+        <v>3.44</v>
       </c>
       <c r="AB18" s="15"/>
       <c r="AC18" s="10">
-        <v>50.2</v>
+        <v>50.1</v>
       </c>
       <c r="AD18" s="11" t="s">
-        <v>598</v>
+        <v>542</v>
       </c>
       <c r="AE18" s="12">
-        <v>4.27</v>
+        <v>6.05</v>
       </c>
       <c r="AF18" s="12" t="s">
-        <v>577</v>
+        <v>433</v>
       </c>
       <c r="AG18" s="12">
-        <v>3.21</v>
+        <v>5.45</v>
       </c>
       <c r="AH18" s="12" t="s">
-        <v>589</v>
+        <v>536</v>
       </c>
       <c r="AI18" s="13">
-        <v>3.1</v>
+        <v>4.89</v>
       </c>
       <c r="AK18" s="15"/>
       <c r="AL18" s="10"/>
@@ -8115,299 +8111,303 @@
         <v>590</v>
       </c>
       <c r="AN18" s="12">
-        <v>4.29</v>
+        <v>6.49</v>
       </c>
       <c r="AO18" s="12" t="s">
-        <v>135</v>
+        <v>590</v>
       </c>
       <c r="AP18" s="12">
-        <v>3.55</v>
+        <v>6.12</v>
       </c>
       <c r="AQ18" s="12" t="s">
-        <v>582</v>
+        <v>459</v>
       </c>
       <c r="AR18" s="13">
-        <v>3.52</v>
+        <v>4.98</v>
       </c>
     </row>
     <row r="19" ht="11.5" customHeight="1" spans="1:44">
       <c r="A19" s="14" t="s">
-        <v>603</v>
-      </c>
-      <c r="B19" s="4">
-        <v>51.38</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
-        <v>432</v>
+        <v>498</v>
       </c>
       <c r="D19" s="6">
-        <v>3.59</v>
+        <v>4.89</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>447</v>
+        <v>601</v>
       </c>
       <c r="F19" s="7">
-        <v>2.44</v>
+        <v>4.01</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>434</v>
+        <v>591</v>
       </c>
       <c r="H19" s="8">
-        <v>2.35</v>
+        <v>3.88</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>437</v>
+        <v>542</v>
       </c>
       <c r="K19" s="4">
-        <v>50.59</v>
+        <v>51.35</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>497</v>
+        <v>456</v>
       </c>
       <c r="M19" s="6">
-        <v>5.59</v>
+        <v>8.64</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="O19" s="7">
-        <v>5.56</v>
+        <v>7.87</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="Q19" s="8">
-        <v>5.48</v>
+        <v>6.05</v>
       </c>
       <c r="S19" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="T19" s="4"/>
+        <v>527</v>
+      </c>
+      <c r="T19" s="4">
+        <v>50.34</v>
+      </c>
       <c r="U19" s="5" t="s">
-        <v>498</v>
+        <v>436</v>
       </c>
       <c r="V19" s="6">
-        <v>4.36</v>
+        <v>5.18</v>
       </c>
       <c r="W19" s="7" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="X19" s="7">
-        <v>3.26</v>
+        <v>4.9</v>
       </c>
       <c r="Y19" s="7" t="s">
-        <v>447</v>
+        <v>573</v>
       </c>
       <c r="Z19" s="8">
-        <v>2.82</v>
+        <v>4.34</v>
       </c>
       <c r="AB19" s="14" t="s">
-        <v>568</v>
+        <v>593</v>
       </c>
       <c r="AC19" s="4"/>
       <c r="AD19" s="5" t="s">
-        <v>544</v>
+        <v>587</v>
       </c>
       <c r="AE19" s="6">
-        <v>9.22</v>
+        <v>2.2</v>
       </c>
       <c r="AF19" s="7" t="s">
-        <v>548</v>
+        <v>601</v>
       </c>
       <c r="AG19" s="7">
-        <v>6.19</v>
+        <v>2.12</v>
       </c>
       <c r="AH19" s="7" t="s">
         <v>535</v>
       </c>
       <c r="AI19" s="8">
-        <v>5.83</v>
+        <v>2.09</v>
       </c>
       <c r="AK19" s="14" t="s">
-        <v>514</v>
+        <v>468</v>
       </c>
       <c r="AL19" s="4">
-        <v>50.99</v>
+        <v>51.22</v>
       </c>
       <c r="AM19" s="5" t="s">
-        <v>590</v>
+        <v>443</v>
       </c>
       <c r="AN19" s="6">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AO19" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AP19" s="7">
-        <v>2.92</v>
+        <v>2.57</v>
       </c>
       <c r="AQ19" s="7" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="AR19" s="8">
-        <v>2.59</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="20" ht="11.5" customHeight="1" spans="1:44">
       <c r="A20" s="15"/>
       <c r="B20" s="10">
-        <v>50.23</v>
+        <v>50.54</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>456</v>
+        <v>574</v>
       </c>
       <c r="D20" s="12">
-        <v>7.22</v>
+        <v>4.23</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>590</v>
+        <v>494</v>
       </c>
       <c r="F20" s="12">
-        <v>3.67</v>
+        <v>3.56</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="H20" s="13">
-        <v>3</v>
+        <v>3.19</v>
       </c>
       <c r="J20" s="15"/>
       <c r="K20" s="10">
-        <v>51.67</v>
+        <v>51.8</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>600</v>
+        <v>536</v>
       </c>
       <c r="M20" s="12">
-        <v>7.26</v>
+        <v>10.32</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>453</v>
+        <v>602</v>
       </c>
       <c r="O20" s="12">
-        <v>5.68</v>
+        <v>7.23</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>547</v>
+        <v>494</v>
       </c>
       <c r="Q20" s="13">
-        <v>3.89</v>
+        <v>6.33</v>
       </c>
       <c r="S20" s="15"/>
       <c r="T20" s="10">
-        <v>50.64</v>
+        <v>50.76</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>568</v>
+        <v>456</v>
       </c>
       <c r="V20" s="12">
-        <v>4.45</v>
+        <v>6.11</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>555</v>
+        <v>576</v>
       </c>
       <c r="X20" s="12">
-        <v>3.64</v>
+        <v>5.93</v>
       </c>
       <c r="Y20" s="12" t="s">
-        <v>599</v>
+        <v>577</v>
       </c>
       <c r="Z20" s="13">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="AB20" s="15"/>
-      <c r="AC20" s="10"/>
+      <c r="AC20" s="10">
+        <v>50.08</v>
+      </c>
       <c r="AD20" s="11" t="s">
-        <v>542</v>
+        <v>456</v>
       </c>
       <c r="AE20" s="12">
-        <v>6.05</v>
+        <v>4.16</v>
       </c>
       <c r="AF20" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="AG20" s="12">
+        <v>2.76</v>
+      </c>
+      <c r="AH20" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="AG20" s="12">
-        <v>5.45</v>
-      </c>
-      <c r="AH20" s="12" t="s">
-        <v>536</v>
-      </c>
       <c r="AI20" s="13">
-        <v>4.89</v>
+        <v>2.11</v>
       </c>
       <c r="AK20" s="15"/>
       <c r="AL20" s="10"/>
       <c r="AM20" s="11" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="AN20" s="12">
-        <v>4.36</v>
+        <v>4.29</v>
       </c>
       <c r="AO20" s="12" t="s">
-        <v>498</v>
+        <v>135</v>
       </c>
       <c r="AP20" s="12">
-        <v>3.98</v>
+        <v>3.55</v>
       </c>
       <c r="AQ20" s="12" t="s">
-        <v>535</v>
+        <v>582</v>
       </c>
       <c r="AR20" s="13">
-        <v>3.4</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="21" ht="11.5" customHeight="1" spans="1:44">
       <c r="A21" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="B21" s="4"/>
+        <v>603</v>
+      </c>
+      <c r="B21" s="4">
+        <v>51.35</v>
+      </c>
       <c r="C21" s="5" t="s">
-        <v>498</v>
+        <v>432</v>
       </c>
       <c r="D21" s="6">
-        <v>4.89</v>
+        <v>3.59</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>601</v>
+        <v>447</v>
       </c>
       <c r="F21" s="7">
-        <v>4.01</v>
+        <v>2.44</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>591</v>
+        <v>434</v>
       </c>
       <c r="H21" s="8">
-        <v>3.88</v>
+        <v>2.35</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K21" s="4">
-        <v>51.39</v>
+        <v>51.37</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>456</v>
+        <v>552</v>
       </c>
       <c r="M21" s="6">
-        <v>8.64</v>
+        <v>5.62</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>510</v>
+        <v>484</v>
       </c>
       <c r="O21" s="7">
-        <v>7.87</v>
+        <v>4.19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>568</v>
+        <v>539</v>
       </c>
       <c r="Q21" s="8">
-        <v>6.05</v>
+        <v>4.03</v>
       </c>
       <c r="S21" s="14" t="s">
         <v>566</v>
       </c>
       <c r="T21" s="4">
-        <v>50.49</v>
+        <v>50.53</v>
       </c>
       <c r="U21" s="5" t="s">
         <v>548</v>
@@ -8449,79 +8449,79 @@
       <c r="AI21" s="8">
         <v>4.27</v>
       </c>
-      <c r="AK21" s="3" t="s">
-        <v>515</v>
+      <c r="AK21" s="14" t="s">
+        <v>514</v>
       </c>
       <c r="AL21" s="4">
-        <v>50.05</v>
+        <v>51.07</v>
       </c>
       <c r="AM21" s="5" t="s">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="AN21" s="6">
-        <v>4.47</v>
+        <v>3.25</v>
       </c>
       <c r="AO21" s="7" t="s">
-        <v>543</v>
+        <v>574</v>
       </c>
       <c r="AP21" s="7">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="AQ21" s="7" t="s">
-        <v>523</v>
+        <v>434</v>
       </c>
       <c r="AR21" s="8">
-        <v>2.98</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="22" ht="11.5" customHeight="1" spans="1:44">
       <c r="A22" s="15"/>
       <c r="B22" s="10">
-        <v>50.11</v>
+        <v>50.47</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>574</v>
+        <v>456</v>
       </c>
       <c r="D22" s="12">
-        <v>4.23</v>
+        <v>7.22</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>494</v>
+        <v>590</v>
       </c>
       <c r="F22" s="12">
-        <v>3.56</v>
+        <v>3.67</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="H22" s="13">
-        <v>3.19</v>
+        <v>3</v>
       </c>
       <c r="J22" s="15"/>
       <c r="K22" s="10">
-        <v>51.48</v>
+        <v>51.66</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="M22" s="12">
-        <v>10.32</v>
+        <v>7.15</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>602</v>
+        <v>568</v>
       </c>
       <c r="O22" s="12">
-        <v>7.23</v>
+        <v>6.19</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>494</v>
+        <v>437</v>
       </c>
       <c r="Q22" s="13">
-        <v>6.33</v>
+        <v>5.23</v>
       </c>
       <c r="S22" s="15"/>
       <c r="T22" s="10">
-        <v>50.62</v>
+        <v>50.65</v>
       </c>
       <c r="U22" s="11" t="s">
         <v>547</v>
@@ -8561,25 +8561,25 @@
       <c r="AI22" s="13">
         <v>5.45</v>
       </c>
-      <c r="AK22" s="9"/>
+      <c r="AK22" s="15"/>
       <c r="AL22" s="10"/>
       <c r="AM22" s="11" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="AN22" s="12">
-        <v>4.94</v>
+        <v>4.36</v>
       </c>
       <c r="AO22" s="12" t="s">
-        <v>549</v>
+        <v>498</v>
       </c>
       <c r="AP22" s="12">
-        <v>3.77</v>
+        <v>3.98</v>
       </c>
       <c r="AQ22" s="12" t="s">
-        <v>498</v>
+        <v>535</v>
       </c>
       <c r="AR22" s="13">
-        <v>3.46</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="23" ht="11.5" customHeight="1" spans="1:44">
@@ -8587,7 +8587,7 @@
         <v>516</v>
       </c>
       <c r="B23" s="4">
-        <v>51.22</v>
+        <v>51.25</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>456</v>
@@ -8611,7 +8611,7 @@
         <v>544</v>
       </c>
       <c r="K23" s="4">
-        <v>50.24</v>
+        <v>50.21</v>
       </c>
       <c r="L23" s="5" t="s">
         <v>536</v>
@@ -8632,26 +8632,26 @@
         <v>5.44</v>
       </c>
       <c r="S23" s="14" t="s">
-        <v>507</v>
+        <v>466</v>
       </c>
       <c r="T23" s="4"/>
       <c r="U23" s="5" t="s">
-        <v>543</v>
+        <v>498</v>
       </c>
       <c r="V23" s="6">
-        <v>10.32</v>
+        <v>4.36</v>
       </c>
       <c r="W23" s="7" t="s">
-        <v>581</v>
+        <v>497</v>
       </c>
       <c r="X23" s="7">
-        <v>5.54</v>
+        <v>3.26</v>
       </c>
       <c r="Y23" s="7" t="s">
-        <v>590</v>
+        <v>447</v>
       </c>
       <c r="Z23" s="8">
-        <v>5.22</v>
+        <v>2.82</v>
       </c>
       <c r="AB23" s="14" t="s">
         <v>567</v>
@@ -8675,27 +8675,29 @@
       <c r="AI23" s="8">
         <v>4.85</v>
       </c>
-      <c r="AK23" s="14" t="s">
-        <v>453</v>
-      </c>
-      <c r="AL23" s="4"/>
+      <c r="AK23" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="AL23" s="4">
+        <v>50.11</v>
+      </c>
       <c r="AM23" s="5" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="AN23" s="6">
-        <v>6.12</v>
+        <v>4.47</v>
       </c>
       <c r="AO23" s="7" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="AP23" s="7">
-        <v>5.99</v>
+        <v>3.05</v>
       </c>
       <c r="AQ23" s="7" t="s">
-        <v>437</v>
+        <v>523</v>
       </c>
       <c r="AR23" s="8">
-        <v>5.68</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="24" ht="11.5" customHeight="1" spans="1:44">
@@ -8743,25 +8745,25 @@
       </c>
       <c r="S24" s="15"/>
       <c r="T24" s="10">
-        <v>50.42</v>
+        <v>50.5</v>
       </c>
       <c r="U24" s="11" t="s">
-        <v>586</v>
+        <v>568</v>
       </c>
       <c r="V24" s="12">
-        <v>5.97</v>
+        <v>4.45</v>
       </c>
       <c r="W24" s="12" t="s">
-        <v>497</v>
+        <v>555</v>
       </c>
       <c r="X24" s="12">
-        <v>4</v>
+        <v>3.64</v>
       </c>
       <c r="Y24" s="12" t="s">
-        <v>447</v>
+        <v>599</v>
       </c>
       <c r="Z24" s="13">
-        <v>3.44</v>
+        <v>3.55</v>
       </c>
       <c r="AB24" s="15"/>
       <c r="AC24" s="10"/>
@@ -8783,25 +8785,25 @@
       <c r="AI24" s="13">
         <v>3.12</v>
       </c>
-      <c r="AK24" s="15"/>
+      <c r="AK24" s="9"/>
       <c r="AL24" s="10"/>
       <c r="AM24" s="11" t="s">
-        <v>572</v>
+        <v>598</v>
       </c>
       <c r="AN24" s="12">
-        <v>5.6</v>
+        <v>4.94</v>
       </c>
       <c r="AO24" s="12" t="s">
-        <v>574</v>
+        <v>549</v>
       </c>
       <c r="AP24" s="12">
-        <v>4.34</v>
+        <v>3.77</v>
       </c>
       <c r="AQ24" s="12" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="AR24" s="13">
-        <v>3.73</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="25" ht="11.5" customHeight="1" spans="1:44">
@@ -8809,7 +8811,7 @@
         <v>502</v>
       </c>
       <c r="B25" s="4">
-        <v>50.16</v>
+        <v>50.11</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>494</v>
@@ -8833,7 +8835,7 @@
         <v>574</v>
       </c>
       <c r="K25" s="4">
-        <v>51.54</v>
+        <v>51.5</v>
       </c>
       <c r="L25" s="5" t="s">
         <v>536</v>
@@ -8854,48 +8856,50 @@
         <v>4.49</v>
       </c>
       <c r="S25" s="14" t="s">
-        <v>546</v>
-      </c>
-      <c r="T25" s="4"/>
+        <v>492</v>
+      </c>
+      <c r="T25" s="4">
+        <v>50.7</v>
+      </c>
       <c r="U25" s="5" t="s">
-        <v>530</v>
+        <v>497</v>
       </c>
       <c r="V25" s="6">
-        <v>5.14</v>
+        <v>6.54</v>
       </c>
       <c r="W25" s="7" t="s">
-        <v>443</v>
+        <v>552</v>
       </c>
       <c r="X25" s="7">
-        <v>4.75</v>
+        <v>5.39</v>
       </c>
       <c r="Y25" s="7" t="s">
-        <v>594</v>
+        <v>452</v>
       </c>
       <c r="Z25" s="8">
-        <v>4.24</v>
+        <v>5.3</v>
       </c>
       <c r="AK25" s="14" t="s">
-        <v>517</v>
+        <v>454</v>
       </c>
       <c r="AL25" s="4"/>
       <c r="AM25" s="5" t="s">
-        <v>538</v>
+        <v>434</v>
       </c>
       <c r="AN25" s="6">
-        <v>5.95</v>
+        <v>10.98</v>
       </c>
       <c r="AO25" s="7" t="s">
-        <v>543</v>
+        <v>456</v>
       </c>
       <c r="AP25" s="7">
-        <v>3.3</v>
+        <v>4.93</v>
       </c>
       <c r="AQ25" s="7" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="AR25" s="8">
-        <v>3.1</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="26" ht="11.5" customHeight="1" spans="1:44">
@@ -8921,7 +8925,7 @@
       </c>
       <c r="J26" s="15"/>
       <c r="K26" s="10">
-        <v>50.63</v>
+        <v>51</v>
       </c>
       <c r="L26" s="11" t="s">
         <v>590</v>
@@ -8943,45 +8947,45 @@
       </c>
       <c r="S26" s="15"/>
       <c r="T26" s="10">
-        <v>50.28</v>
+        <v>50.32</v>
       </c>
       <c r="U26" s="11" t="s">
-        <v>599</v>
+        <v>542</v>
       </c>
       <c r="V26" s="12">
-        <v>4.28</v>
+        <v>5.94</v>
       </c>
       <c r="W26" s="12" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="X26" s="12">
-        <v>3.99</v>
+        <v>5.04</v>
       </c>
       <c r="Y26" s="12" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="Z26" s="13">
-        <v>3.53</v>
+        <v>3.14</v>
       </c>
       <c r="AK26" s="15"/>
       <c r="AL26" s="10"/>
       <c r="AM26" s="11" t="s">
-        <v>552</v>
+        <v>582</v>
       </c>
       <c r="AN26" s="12">
-        <v>2.6</v>
+        <v>6.47</v>
       </c>
       <c r="AO26" s="12" t="s">
-        <v>454</v>
+        <v>510</v>
       </c>
       <c r="AP26" s="12">
-        <v>2.57</v>
+        <v>5.64</v>
       </c>
       <c r="AQ26" s="12" t="s">
         <v>583</v>
       </c>
       <c r="AR26" s="13">
-        <v>2.22</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="27" ht="11.5" customHeight="1" spans="1:44">
@@ -9011,7 +9015,7 @@
         <v>535</v>
       </c>
       <c r="K27" s="4">
-        <v>51.01</v>
+        <v>51.19</v>
       </c>
       <c r="L27" s="5" t="s">
         <v>588</v>
@@ -9032,28 +9036,26 @@
         <v>3.08</v>
       </c>
       <c r="S27" s="14" t="s">
-        <v>492</v>
-      </c>
-      <c r="T27" s="4">
-        <v>51.01</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="T27" s="4"/>
       <c r="U27" s="5" t="s">
-        <v>497</v>
+        <v>530</v>
       </c>
       <c r="V27" s="6">
-        <v>6.54</v>
+        <v>5.14</v>
       </c>
       <c r="W27" s="7" t="s">
-        <v>552</v>
+        <v>443</v>
       </c>
       <c r="X27" s="7">
-        <v>5.39</v>
+        <v>4.75</v>
       </c>
       <c r="Y27" s="7" t="s">
-        <v>452</v>
+        <v>594</v>
       </c>
       <c r="Z27" s="8">
-        <v>5.3</v>
+        <v>4.24</v>
       </c>
       <c r="AK27" s="14" t="s">
         <v>508</v>
@@ -9101,7 +9103,7 @@
       </c>
       <c r="J28" s="15"/>
       <c r="K28" s="10">
-        <v>50.59</v>
+        <v>50.2</v>
       </c>
       <c r="L28" s="11" t="s">
         <v>565</v>
@@ -9123,25 +9125,25 @@
       </c>
       <c r="S28" s="15"/>
       <c r="T28" s="10">
-        <v>50.21</v>
+        <v>50.18</v>
       </c>
       <c r="U28" s="11" t="s">
-        <v>542</v>
+        <v>599</v>
       </c>
       <c r="V28" s="12">
-        <v>5.94</v>
+        <v>4.28</v>
       </c>
       <c r="W28" s="12" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="X28" s="12">
-        <v>5.04</v>
+        <v>3.99</v>
       </c>
       <c r="Y28" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="Z28" s="13">
-        <v>3.14</v>
+        <v>3.53</v>
       </c>
       <c r="AK28" s="15"/>
       <c r="AL28" s="10"/>
@@ -9188,34 +9190,34 @@
         <v>8.84</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K29" s="4">
-        <v>52.54</v>
+        <v>51.04</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="M29" s="6">
-        <v>4.91</v>
+        <v>4.85</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
       <c r="O29" s="7">
-        <v>4.43</v>
+        <v>3.48</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>456</v>
+        <v>583</v>
       </c>
       <c r="Q29" s="8">
-        <v>3.73</v>
+        <v>2.68</v>
       </c>
       <c r="S29" s="14" t="s">
         <v>474</v>
       </c>
       <c r="T29" s="4">
-        <v>50.34</v>
+        <v>50.27</v>
       </c>
       <c r="U29" s="5" t="s">
         <v>587</v>
@@ -9280,28 +9282,30 @@
         <v>9.29</v>
       </c>
       <c r="J30" s="15"/>
-      <c r="K30" s="10"/>
+      <c r="K30" s="10">
+        <v>50.14</v>
+      </c>
       <c r="L30" s="11" t="s">
         <v>434</v>
       </c>
       <c r="M30" s="12">
-        <v>7.58</v>
+        <v>5.66</v>
       </c>
       <c r="N30" s="12" t="s">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="O30" s="12">
-        <v>6.62</v>
+        <v>3.33</v>
       </c>
       <c r="P30" s="12" t="s">
-        <v>453</v>
+        <v>567</v>
       </c>
       <c r="Q30" s="13">
-        <v>6.12</v>
+        <v>2.64</v>
       </c>
       <c r="S30" s="15"/>
       <c r="T30" s="10">
-        <v>50.19</v>
+        <v>50.17</v>
       </c>
       <c r="U30" s="11" t="s">
         <v>433</v>
@@ -9366,28 +9370,28 @@
         <v>5.19</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="K31" s="4">
-        <v>51.19</v>
+        <v>52.44</v>
       </c>
       <c r="L31" s="5" t="s">
         <v>447</v>
       </c>
       <c r="M31" s="6">
-        <v>6.45</v>
+        <v>4.91</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>484</v>
+        <v>588</v>
       </c>
       <c r="O31" s="7">
-        <v>4.84</v>
+        <v>4.43</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>497</v>
+        <v>456</v>
       </c>
       <c r="Q31" s="8">
-        <v>4.64</v>
+        <v>3.73</v>
       </c>
       <c r="S31" s="14" t="s">
         <v>528</v>
@@ -9413,27 +9417,27 @@
       <c r="Z31" s="8">
         <v>2.49</v>
       </c>
-      <c r="AK31" s="14" t="s">
-        <v>538</v>
+      <c r="AK31" s="23" t="s">
+        <v>557</v>
       </c>
       <c r="AL31" s="4"/>
       <c r="AM31" s="5" t="s">
-        <v>497</v>
+        <v>598</v>
       </c>
       <c r="AN31" s="6">
-        <v>4.46</v>
+        <v>3.91</v>
       </c>
       <c r="AO31" s="7" t="s">
-        <v>495</v>
+        <v>577</v>
       </c>
       <c r="AP31" s="7">
-        <v>3.64</v>
+        <v>3.53</v>
       </c>
       <c r="AQ31" s="7" t="s">
-        <v>590</v>
+        <v>541</v>
       </c>
       <c r="AR31" s="8">
-        <v>3.26</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="32" ht="11.5" customHeight="1" spans="1:44">
@@ -9460,22 +9464,22 @@
       <c r="J32" s="15"/>
       <c r="K32" s="10"/>
       <c r="L32" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="M32" s="12">
+        <v>7.58</v>
+      </c>
+      <c r="N32" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="O32" s="12">
+        <v>6.62</v>
+      </c>
+      <c r="P32" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="M32" s="12">
-        <v>5.99</v>
-      </c>
-      <c r="N32" s="12" t="s">
-        <v>568</v>
-      </c>
-      <c r="O32" s="12">
-        <v>5.73</v>
-      </c>
-      <c r="P32" s="12" t="s">
-        <v>543</v>
-      </c>
       <c r="Q32" s="13">
-        <v>5.15</v>
+        <v>6.12</v>
       </c>
       <c r="S32" s="15"/>
       <c r="T32" s="10"/>
@@ -9497,25 +9501,25 @@
       <c r="Z32" s="13">
         <v>2.87</v>
       </c>
-      <c r="AK32" s="15"/>
+      <c r="AK32" s="24"/>
       <c r="AL32" s="10"/>
       <c r="AM32" s="11" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AN32" s="12">
-        <v>5.95</v>
+        <v>5.42</v>
       </c>
       <c r="AO32" s="12" t="s">
-        <v>542</v>
+        <v>601</v>
       </c>
       <c r="AP32" s="12">
-        <v>3.77</v>
+        <v>3.69</v>
       </c>
       <c r="AQ32" s="12" t="s">
-        <v>600</v>
+        <v>552</v>
       </c>
       <c r="AR32" s="13">
-        <v>3.44</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="33" ht="11.5" customHeight="1" spans="1:44">
@@ -9542,34 +9546,34 @@
         <v>3.96</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>521</v>
+        <v>549</v>
       </c>
       <c r="K33" s="4">
-        <v>51</v>
+        <v>51.19</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="M33" s="6">
-        <v>4.85</v>
+        <v>6.45</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>568</v>
+        <v>484</v>
       </c>
       <c r="O33" s="7">
-        <v>3.48</v>
+        <v>4.84</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>583</v>
+        <v>497</v>
       </c>
       <c r="Q33" s="8">
-        <v>2.68</v>
+        <v>4.64</v>
       </c>
       <c r="S33" s="14" t="s">
         <v>552</v>
       </c>
       <c r="T33" s="4">
-        <v>51.61</v>
+        <v>51.58</v>
       </c>
       <c r="U33" s="5" t="s">
         <v>433</v>
@@ -9636,22 +9640,22 @@
       <c r="J34" s="15"/>
       <c r="K34" s="10"/>
       <c r="L34" s="11" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="M34" s="12">
-        <v>5.66</v>
+        <v>5.99</v>
       </c>
       <c r="N34" s="12" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="O34" s="12">
-        <v>3.33</v>
+        <v>5.73</v>
       </c>
       <c r="P34" s="12" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
       <c r="Q34" s="13">
-        <v>2.64</v>
+        <v>5.15</v>
       </c>
       <c r="S34" s="15"/>
       <c r="T34" s="10"/>
@@ -9745,7 +9749,7 @@
         <v>581</v>
       </c>
       <c r="T35" s="4">
-        <v>51.21</v>
+        <v>51.22</v>
       </c>
       <c r="U35" s="5" t="s">
         <v>135</v>
@@ -9766,26 +9770,26 @@
         <v>3.4</v>
       </c>
       <c r="AK35" s="14" t="s">
-        <v>433</v>
+        <v>538</v>
       </c>
       <c r="AL35" s="4"/>
       <c r="AM35" s="5" t="s">
-        <v>523</v>
+        <v>497</v>
       </c>
       <c r="AN35" s="6">
-        <v>5.83</v>
+        <v>4.46</v>
       </c>
       <c r="AO35" s="7" t="s">
-        <v>568</v>
+        <v>495</v>
       </c>
       <c r="AP35" s="7">
-        <v>5.45</v>
+        <v>3.64</v>
       </c>
       <c r="AQ35" s="7" t="s">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="AR35" s="8">
-        <v>4.49</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="36" ht="11.5" customHeight="1" spans="1:44">
@@ -9852,22 +9856,22 @@
       <c r="AK36" s="15"/>
       <c r="AL36" s="10"/>
       <c r="AM36" s="11" t="s">
-        <v>552</v>
+        <v>517</v>
       </c>
       <c r="AN36" s="12">
-        <v>3.86</v>
+        <v>5.95</v>
       </c>
       <c r="AO36" s="12" t="s">
-        <v>484</v>
+        <v>542</v>
       </c>
       <c r="AP36" s="12">
-        <v>2.39</v>
+        <v>3.77</v>
       </c>
       <c r="AQ36" s="12" t="s">
-        <v>458</v>
+        <v>600</v>
       </c>
       <c r="AR36" s="13">
-        <v>2.28</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="37" ht="11.5" customHeight="1" spans="10:44">
@@ -9897,7 +9901,7 @@
         <v>531</v>
       </c>
       <c r="T37" s="4">
-        <v>50.59</v>
+        <v>50.57</v>
       </c>
       <c r="U37" s="5" t="s">
         <v>587</v>
@@ -9918,26 +9922,26 @@
         <v>3.96</v>
       </c>
       <c r="AK37" s="23" t="s">
-        <v>557</v>
+        <v>455</v>
       </c>
       <c r="AL37" s="4"/>
       <c r="AM37" s="5" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="AN37" s="6">
-        <v>3.91</v>
+        <v>4.93</v>
       </c>
       <c r="AO37" s="7" t="s">
-        <v>577</v>
+        <v>454</v>
       </c>
       <c r="AP37" s="7">
-        <v>3.53</v>
+        <v>3</v>
       </c>
       <c r="AQ37" s="7" t="s">
-        <v>541</v>
+        <v>568</v>
       </c>
       <c r="AR37" s="8">
-        <v>3.32</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="38" ht="11.5" customHeight="1" spans="10:44">
@@ -9984,52 +9988,52 @@
       <c r="AK38" s="24"/>
       <c r="AL38" s="10"/>
       <c r="AM38" s="11" t="s">
-        <v>510</v>
+        <v>548</v>
       </c>
       <c r="AN38" s="12">
-        <v>5.42</v>
+        <v>3.86</v>
       </c>
       <c r="AO38" s="12" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="AP38" s="12">
-        <v>3.69</v>
+        <v>3.32</v>
       </c>
       <c r="AQ38" s="12" t="s">
-        <v>552</v>
+        <v>598</v>
       </c>
       <c r="AR38" s="13">
-        <v>3.52</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="39" ht="11.5" customHeight="1" spans="10:44">
       <c r="J39" s="14" t="s">
-        <v>550</v>
+        <v>510</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="5" t="s">
-        <v>456</v>
+        <v>572</v>
       </c>
       <c r="M39" s="6">
-        <v>9.29</v>
+        <v>7.44</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>494</v>
+        <v>572</v>
       </c>
       <c r="O39" s="7">
-        <v>8.21</v>
+        <v>7.24</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="Q39" s="8">
-        <v>7.15</v>
+        <v>7.09</v>
       </c>
       <c r="S39" s="14" t="s">
         <v>529</v>
       </c>
       <c r="T39" s="4">
-        <v>50.43</v>
+        <v>50.48</v>
       </c>
       <c r="U39" s="5" t="s">
         <v>484</v>
@@ -10049,49 +10053,49 @@
       <c r="Z39" s="8">
         <v>2.5</v>
       </c>
-      <c r="AK39" s="23" t="s">
-        <v>455</v>
+      <c r="AK39" s="14" t="s">
+        <v>433</v>
       </c>
       <c r="AL39" s="4"/>
       <c r="AM39" s="5" t="s">
-        <v>590</v>
+        <v>523</v>
       </c>
       <c r="AN39" s="6">
-        <v>4.93</v>
+        <v>5.83</v>
       </c>
       <c r="AO39" s="7" t="s">
-        <v>454</v>
+        <v>568</v>
       </c>
       <c r="AP39" s="7">
-        <v>3</v>
+        <v>5.45</v>
       </c>
       <c r="AQ39" s="7" t="s">
-        <v>568</v>
+        <v>540</v>
       </c>
       <c r="AR39" s="8">
-        <v>2.57</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="40" ht="11.5" customHeight="1" spans="10:44">
       <c r="J40" s="15"/>
       <c r="K40" s="10"/>
       <c r="L40" s="11" t="s">
-        <v>565</v>
+        <v>456</v>
       </c>
       <c r="M40" s="12">
-        <v>7.77</v>
+        <v>12.44</v>
       </c>
       <c r="N40" s="12" t="s">
-        <v>572</v>
+        <v>542</v>
       </c>
       <c r="O40" s="12">
-        <v>6.95</v>
+        <v>7.87</v>
       </c>
       <c r="P40" s="12" t="s">
-        <v>539</v>
+        <v>577</v>
       </c>
       <c r="Q40" s="13">
-        <v>5.39</v>
+        <v>4.79</v>
       </c>
       <c r="S40" s="15"/>
       <c r="T40" s="10"/>
@@ -10113,49 +10117,49 @@
       <c r="Z40" s="13">
         <v>2.86</v>
       </c>
-      <c r="AK40" s="24"/>
+      <c r="AK40" s="15"/>
       <c r="AL40" s="10"/>
       <c r="AM40" s="11" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="AN40" s="12">
         <v>3.86</v>
       </c>
       <c r="AO40" s="12" t="s">
-        <v>587</v>
+        <v>484</v>
       </c>
       <c r="AP40" s="12">
-        <v>3.32</v>
+        <v>2.39</v>
       </c>
       <c r="AQ40" s="12" t="s">
-        <v>598</v>
+        <v>458</v>
       </c>
       <c r="AR40" s="13">
-        <v>2.96</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="41" ht="11.5" customHeight="1" spans="10:44">
       <c r="J41" s="14" t="s">
-        <v>510</v>
+        <v>550</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="5" t="s">
-        <v>572</v>
+        <v>456</v>
       </c>
       <c r="M41" s="6">
-        <v>7.44</v>
+        <v>9.29</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>572</v>
+        <v>494</v>
       </c>
       <c r="O41" s="7">
-        <v>7.24</v>
+        <v>8.21</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="Q41" s="8">
-        <v>7.09</v>
+        <v>7.15</v>
       </c>
       <c r="S41" s="14" t="s">
         <v>436</v>
@@ -10206,22 +10210,22 @@
       <c r="J42" s="15"/>
       <c r="K42" s="10"/>
       <c r="L42" s="11" t="s">
-        <v>456</v>
+        <v>565</v>
       </c>
       <c r="M42" s="12">
-        <v>12.44</v>
+        <v>7.77</v>
       </c>
       <c r="N42" s="12" t="s">
-        <v>542</v>
+        <v>572</v>
       </c>
       <c r="O42" s="12">
-        <v>7.87</v>
+        <v>6.95</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>577</v>
+        <v>539</v>
       </c>
       <c r="Q42" s="13">
-        <v>4.79</v>
+        <v>5.39</v>
       </c>
       <c r="S42" s="15"/>
       <c r="T42" s="10"/>
@@ -10288,26 +10292,26 @@
         <v>3.89</v>
       </c>
       <c r="S43" s="14" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
       <c r="T43" s="4"/>
       <c r="U43" s="5" t="s">
-        <v>530</v>
+        <v>497</v>
       </c>
       <c r="V43" s="6">
-        <v>5.24</v>
+        <v>3.45</v>
       </c>
       <c r="W43" s="7" t="s">
-        <v>494</v>
+        <v>437</v>
       </c>
       <c r="X43" s="7">
-        <v>4.17</v>
+        <v>3.28</v>
       </c>
       <c r="Y43" s="7" t="s">
-        <v>528</v>
+        <v>604</v>
       </c>
       <c r="Z43" s="8">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="AK43" s="14" t="s">
         <v>435</v>
@@ -10356,22 +10360,22 @@
       <c r="S44" s="15"/>
       <c r="T44" s="10"/>
       <c r="U44" s="11" t="s">
-        <v>492</v>
+        <v>590</v>
       </c>
       <c r="V44" s="12">
-        <v>5.3</v>
+        <v>4.01</v>
       </c>
       <c r="W44" s="12" t="s">
-        <v>437</v>
+        <v>539</v>
       </c>
       <c r="X44" s="12">
-        <v>5.17</v>
+        <v>3.91</v>
       </c>
       <c r="Y44" s="12" t="s">
-        <v>510</v>
+        <v>542</v>
       </c>
       <c r="Z44" s="13">
-        <v>3.7</v>
+        <v>3.51</v>
       </c>
       <c r="AK44" s="15"/>
       <c r="AL44" s="10"/>
@@ -10418,26 +10422,26 @@
         <v>4.67</v>
       </c>
       <c r="S45" s="14" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="T45" s="4"/>
       <c r="U45" s="5" t="s">
-        <v>497</v>
+        <v>530</v>
       </c>
       <c r="V45" s="6">
-        <v>3.45</v>
+        <v>5.24</v>
       </c>
       <c r="W45" s="7" t="s">
-        <v>437</v>
+        <v>494</v>
       </c>
       <c r="X45" s="7">
-        <v>3.28</v>
+        <v>4.17</v>
       </c>
       <c r="Y45" s="7" t="s">
-        <v>604</v>
+        <v>528</v>
       </c>
       <c r="Z45" s="8">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="46" ht="11.5" customHeight="1" spans="10:26">
@@ -10464,114 +10468,114 @@
       <c r="S46" s="15"/>
       <c r="T46" s="10"/>
       <c r="U46" s="11" t="s">
-        <v>590</v>
+        <v>492</v>
       </c>
       <c r="V46" s="12">
-        <v>4.01</v>
+        <v>5.3</v>
       </c>
       <c r="W46" s="12" t="s">
-        <v>539</v>
+        <v>437</v>
       </c>
       <c r="X46" s="12">
-        <v>3.91</v>
+        <v>5.17</v>
       </c>
       <c r="Y46" s="12" t="s">
-        <v>542</v>
+        <v>510</v>
       </c>
       <c r="Z46" s="13">
-        <v>3.51</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="47" ht="11.5" customHeight="1" spans="10:17">
-      <c r="J47" s="23" t="s">
-        <v>604</v>
+      <c r="J47" s="14" t="s">
+        <v>522</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="5" t="s">
-        <v>442</v>
+        <v>523</v>
       </c>
       <c r="M47" s="6">
-        <v>3.28</v>
+        <v>5.99</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>542</v>
+        <v>135</v>
       </c>
       <c r="O47" s="7">
-        <v>3.04</v>
+        <v>5.23</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>541</v>
+        <v>568</v>
       </c>
       <c r="Q47" s="8">
-        <v>2.76</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="48" ht="11.5" customHeight="1" spans="10:17">
-      <c r="J48" s="24"/>
+      <c r="J48" s="15"/>
       <c r="K48" s="10"/>
       <c r="L48" s="11" t="s">
-        <v>510</v>
+        <v>456</v>
       </c>
       <c r="M48" s="12">
-        <v>3.92</v>
+        <v>4.41</v>
       </c>
       <c r="N48" s="12" t="s">
-        <v>475</v>
+        <v>577</v>
       </c>
       <c r="O48" s="12">
-        <v>3.15</v>
+        <v>4.15</v>
       </c>
       <c r="P48" s="12" t="s">
-        <v>601</v>
+        <v>536</v>
       </c>
       <c r="Q48" s="13">
-        <v>2.98</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="49" ht="11.5" customHeight="1" spans="10:17">
-      <c r="J49" s="14" t="s">
-        <v>522</v>
+      <c r="J49" s="23" t="s">
+        <v>604</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="5" t="s">
-        <v>523</v>
+        <v>442</v>
       </c>
       <c r="M49" s="6">
-        <v>5.99</v>
+        <v>3.28</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>135</v>
+        <v>542</v>
       </c>
       <c r="O49" s="7">
-        <v>5.23</v>
+        <v>3.04</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>568</v>
+        <v>541</v>
       </c>
       <c r="Q49" s="8">
-        <v>4.76</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="50" ht="11.5" customHeight="1" spans="10:17">
-      <c r="J50" s="15"/>
+      <c r="J50" s="24"/>
       <c r="K50" s="10"/>
       <c r="L50" s="11" t="s">
-        <v>456</v>
+        <v>510</v>
       </c>
       <c r="M50" s="12">
-        <v>4.41</v>
+        <v>3.92</v>
       </c>
       <c r="N50" s="12" t="s">
-        <v>577</v>
+        <v>475</v>
       </c>
       <c r="O50" s="12">
-        <v>4.15</v>
+        <v>3.15</v>
       </c>
       <c r="P50" s="12" t="s">
-        <v>536</v>
+        <v>601</v>
       </c>
       <c r="Q50" s="13">
-        <v>3.78</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="51" ht="11.5" customHeight="1" spans="10:17">

--- a/logs/OMG.xlsx
+++ b/logs/OMG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17475" windowHeight="12915" firstSheet="5" activeTab="9"/>
+    <workbookView windowWidth="14130" windowHeight="11580" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Dota" sheetId="10" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <author>Arsenal</author>
   </authors>
   <commentList>
-    <comment ref="A31" authorId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,11 +46,175 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-后裔、鲁班七号、曹操老夫子、阿古朵、不知火舞、橘右京</t>
+曹操、后裔、鲁班七号
+阿古朵</t>
         </r>
       </text>
     </comment>
-    <comment ref="AK31" authorId="0">
+    <comment ref="A5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Arsenal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+后裔、伽罗、黄忠
+张良、阿古朵、伽罗</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Arsenal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+后裔、鲁班七号、典韦
+老夫子、廉颇、虞姬</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Arsenal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+刘备、鲁班七号、后裔
+小乔、司马懿、斐擒虎、
+不知火舞、橘右京</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Arsenal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+安琪拉、曹操、后裔
+鲁班七号、阿古朵、虞姬</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Arsenal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+后裔、典韦、鲁班七号
+老夫子、伽罗、小乔
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Arsenal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+后裔、曹操、典韦
+阿古朵、百里玄策、鲁班七号</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Arsenal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+后裔、曹操、鲁班七号
+蔡文姬、狄仁杰、典韦</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J49" authorId="0">
+    <comment ref="J47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2032,11 +2196,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="46">
     <font>
@@ -2211,26 +2375,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2242,31 +2398,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2288,8 +2422,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2297,36 +2438,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2340,8 +2451,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2349,7 +2499,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2375,7 +2539,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.25"/>
+        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2405,13 +2569,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
+        <fgColor theme="7" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.25"/>
+        <fgColor theme="4" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2639,18 +2803,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2699,7 +2851,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2711,19 +2875,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2753,19 +2923,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2790,24 +2972,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2958,11 +3122,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2978,6 +3172,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3006,52 +3211,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3061,10 +3225,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="47" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="66" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3073,133 +3237,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="57" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="57" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="57" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="52" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="54" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3211,7 +3375,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3229,7 +3393,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3244,13 +3408,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3268,19 +3426,25 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6006,7 +6170,7 @@
   <dimension ref="A1:AR52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AP31" sqref="AP31"/>
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -6063,7 +6227,7 @@
         <v>513</v>
       </c>
       <c r="B1" s="4">
-        <v>51.08</v>
+        <v>51</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>581</v>
@@ -6075,7 +6239,7 @@
         <v>590</v>
       </c>
       <c r="F1" s="7">
-        <v>4.065</v>
+        <v>4.06</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>565</v>
@@ -6083,11 +6247,11 @@
       <c r="H1" s="8">
         <v>3.16</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="3" t="s">
         <v>541</v>
       </c>
       <c r="K1" s="4">
-        <v>51.2</v>
+        <v>51.3</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>565</v>
@@ -6107,11 +6271,11 @@
       <c r="Q1" s="8">
         <v>6.53</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="3" t="s">
         <v>602</v>
       </c>
       <c r="T1" s="4">
-        <v>50.38</v>
+        <v>51.26</v>
       </c>
       <c r="U1" s="5" t="s">
         <v>542</v>
@@ -6131,11 +6295,11 @@
       <c r="Z1" s="8">
         <v>5.93</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AB1" s="3" t="s">
         <v>591</v>
       </c>
       <c r="AC1" s="4">
-        <v>52.25</v>
+        <v>52.17</v>
       </c>
       <c r="AD1" s="5" t="s">
         <v>561</v>
@@ -6155,7 +6319,7 @@
       <c r="AI1" s="8">
         <v>2.65</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" s="25" t="s">
         <v>600</v>
       </c>
       <c r="AL1" s="4"/>
@@ -6181,7 +6345,7 @@
     <row r="2" ht="11.5" customHeight="1" spans="1:44">
       <c r="A2" s="9"/>
       <c r="B2" s="10">
-        <v>52.65</v>
+        <v>52.55</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>447</v>
@@ -6201,9 +6365,9 @@
       <c r="H2" s="13">
         <v>3.57</v>
       </c>
-      <c r="J2" s="15"/>
+      <c r="J2" s="9"/>
       <c r="K2" s="10">
-        <v>53.46</v>
+        <v>53.73</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>602</v>
@@ -6223,9 +6387,9 @@
       <c r="Q2" s="13">
         <v>4.27</v>
       </c>
-      <c r="S2" s="15"/>
+      <c r="S2" s="9"/>
       <c r="T2" s="10">
-        <v>55.04</v>
+        <v>56.91</v>
       </c>
       <c r="U2" s="11" t="s">
         <v>497</v>
@@ -6245,9 +6409,9 @@
       <c r="Z2" s="13">
         <v>4.55</v>
       </c>
-      <c r="AB2" s="15"/>
+      <c r="AB2" s="9"/>
       <c r="AC2" s="10">
-        <v>53.51</v>
+        <v>53.37</v>
       </c>
       <c r="AD2" s="11" t="s">
         <v>599</v>
@@ -6267,9 +6431,9 @@
       <c r="AI2" s="13">
         <v>4.08</v>
       </c>
-      <c r="AK2" s="9"/>
+      <c r="AK2" s="26"/>
       <c r="AL2" s="10">
-        <v>53.11</v>
+        <v>52.96</v>
       </c>
       <c r="AM2" s="11" t="s">
         <v>572</v>
@@ -6291,11 +6455,11 @@
       </c>
     </row>
     <row r="3" ht="11.5" customHeight="1" spans="1:44">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="3" t="s">
         <v>446</v>
       </c>
       <c r="B3" s="4">
-        <v>50.99</v>
+        <v>51.21</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>601</v>
@@ -6315,33 +6479,35 @@
       <c r="H3" s="8">
         <v>3.16</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>555</v>
-      </c>
-      <c r="K3" s="4"/>
+      <c r="J3" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="K3" s="4">
+        <v>53.43</v>
+      </c>
       <c r="L3" s="5" t="s">
-        <v>601</v>
+        <v>542</v>
       </c>
       <c r="M3" s="6">
-        <v>4.31</v>
+        <v>6.33</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>432</v>
+        <v>536</v>
       </c>
       <c r="O3" s="7">
-        <v>4.21</v>
+        <v>6.09</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>561</v>
+        <v>590</v>
       </c>
       <c r="Q3" s="8">
-        <v>3.93</v>
-      </c>
-      <c r="S3" s="14" t="s">
+        <v>4.09</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>530</v>
       </c>
       <c r="T3" s="4">
-        <v>52.44</v>
+        <v>52.65</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>581</v>
@@ -6361,11 +6527,11 @@
       <c r="Z3" s="8">
         <v>4.16</v>
       </c>
-      <c r="AB3" s="14" t="s">
+      <c r="AB3" s="3" t="s">
         <v>599</v>
       </c>
       <c r="AC3" s="4">
-        <v>50.46</v>
+        <v>50.59</v>
       </c>
       <c r="AD3" s="5" t="s">
         <v>600</v>
@@ -6385,33 +6551,35 @@
       <c r="AI3" s="8">
         <v>5.06</v>
       </c>
-      <c r="AK3" s="14" t="s">
-        <v>583</v>
-      </c>
-      <c r="AL3" s="4"/>
+      <c r="AK3" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="AL3" s="4">
+        <v>50.57</v>
+      </c>
       <c r="AM3" s="5" t="s">
-        <v>587</v>
+        <v>561</v>
       </c>
       <c r="AN3" s="6">
-        <v>6.36</v>
+        <v>7.58</v>
       </c>
       <c r="AO3" s="7" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="AP3" s="7">
-        <v>4.97</v>
+        <v>6.41</v>
       </c>
       <c r="AQ3" s="7" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="AR3" s="8">
-        <v>4.89</v>
+        <v>5.91</v>
       </c>
     </row>
     <row r="4" ht="11.5" customHeight="1" spans="1:44">
-      <c r="A4" s="15"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="10">
-        <v>52.43</v>
+        <v>52.22</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>599</v>
@@ -6431,31 +6599,31 @@
       <c r="H4" s="13">
         <v>4.58</v>
       </c>
-      <c r="J4" s="15"/>
+      <c r="J4" s="9"/>
       <c r="K4" s="10">
-        <v>53.23</v>
+        <v>52.91</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>599</v>
+        <v>550</v>
       </c>
       <c r="M4" s="12">
-        <v>5.06</v>
+        <v>8.21</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="O4" s="12">
-        <v>3.92</v>
+        <v>5.38</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>539</v>
+        <v>583</v>
       </c>
       <c r="Q4" s="13">
-        <v>3.71</v>
-      </c>
-      <c r="S4" s="15"/>
+        <v>4.7</v>
+      </c>
+      <c r="S4" s="9"/>
       <c r="T4" s="10">
-        <v>54.41</v>
+        <v>54.13</v>
       </c>
       <c r="U4" s="11" t="s">
         <v>598</v>
@@ -6475,9 +6643,9 @@
       <c r="Z4" s="13">
         <v>5.3</v>
       </c>
-      <c r="AB4" s="15"/>
+      <c r="AB4" s="9"/>
       <c r="AC4" s="10">
-        <v>52.69</v>
+        <v>52.7</v>
       </c>
       <c r="AD4" s="11" t="s">
         <v>497</v>
@@ -6497,35 +6665,35 @@
       <c r="AI4" s="13">
         <v>3.48</v>
       </c>
-      <c r="AK4" s="15"/>
+      <c r="AK4" s="9"/>
       <c r="AL4" s="10">
-        <v>52.09</v>
+        <v>51.89</v>
       </c>
       <c r="AM4" s="11" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="AN4" s="12">
-        <v>5.48</v>
+        <v>10.98</v>
       </c>
       <c r="AO4" s="12" t="s">
-        <v>453</v>
+        <v>518</v>
       </c>
       <c r="AP4" s="12">
-        <v>5.35</v>
+        <v>10.04</v>
       </c>
       <c r="AQ4" s="12" t="s">
-        <v>582</v>
+        <v>135</v>
       </c>
       <c r="AR4" s="13">
-        <v>4.61</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="5" ht="11.5" customHeight="1" spans="1:44">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="3" t="s">
         <v>442</v>
       </c>
       <c r="B5" s="4">
-        <v>53</v>
+        <v>52.94</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>456</v>
@@ -6545,7 +6713,7 @@
       <c r="H5" s="8">
         <v>3.09</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="3" t="s">
         <v>572</v>
       </c>
       <c r="K5" s="4"/>
@@ -6567,7 +6735,7 @@
       <c r="Q5" s="8">
         <v>6.8</v>
       </c>
-      <c r="S5" s="14" t="s">
+      <c r="S5" s="3" t="s">
         <v>135</v>
       </c>
       <c r="T5" s="4"/>
@@ -6580,7 +6748,7 @@
       <c r="W5" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="X5" s="25">
+      <c r="X5" s="23">
         <v>5.45</v>
       </c>
       <c r="Y5" s="7" t="s">
@@ -6589,11 +6757,11 @@
       <c r="Z5" s="8">
         <v>4.99</v>
       </c>
-      <c r="AB5" s="14" t="s">
+      <c r="AB5" s="3" t="s">
         <v>598</v>
       </c>
       <c r="AC5" s="4">
-        <v>52.79</v>
+        <v>52.82</v>
       </c>
       <c r="AD5" s="5" t="s">
         <v>572</v>
@@ -6613,35 +6781,33 @@
       <c r="AI5" s="8">
         <v>6.03</v>
       </c>
-      <c r="AK5" s="14" t="s">
-        <v>434</v>
-      </c>
-      <c r="AL5" s="4">
-        <v>50.26</v>
-      </c>
+      <c r="AK5" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="AL5" s="4"/>
       <c r="AM5" s="5" t="s">
-        <v>561</v>
+        <v>587</v>
       </c>
       <c r="AN5" s="6">
-        <v>7.58</v>
+        <v>6.36</v>
       </c>
       <c r="AO5" s="7" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="AP5" s="7">
-        <v>6.41</v>
+        <v>4.97</v>
       </c>
       <c r="AQ5" s="7" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="AR5" s="8">
-        <v>5.91</v>
+        <v>4.89</v>
       </c>
     </row>
     <row r="6" ht="11.5" customHeight="1" spans="1:44">
-      <c r="A6" s="15"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="10">
-        <v>51.86</v>
+        <v>52.18</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>447</v>
@@ -6661,9 +6827,9 @@
       <c r="H6" s="13">
         <v>3.8</v>
       </c>
-      <c r="J6" s="15"/>
+      <c r="J6" s="9"/>
       <c r="K6" s="10">
-        <v>53.09</v>
+        <v>52.71</v>
       </c>
       <c r="L6" s="11" t="s">
         <v>598</v>
@@ -6683,9 +6849,9 @@
       <c r="Q6" s="13">
         <v>6.66</v>
       </c>
-      <c r="S6" s="15"/>
+      <c r="S6" s="9"/>
       <c r="T6" s="10">
-        <v>53.65</v>
+        <v>53.45</v>
       </c>
       <c r="U6" s="11" t="s">
         <v>522</v>
@@ -6705,9 +6871,9 @@
       <c r="Z6" s="13">
         <v>4.63</v>
       </c>
-      <c r="AB6" s="15"/>
+      <c r="AB6" s="9"/>
       <c r="AC6" s="10">
-        <v>51.95</v>
+        <v>52.25</v>
       </c>
       <c r="AD6" s="11" t="s">
         <v>436</v>
@@ -6727,31 +6893,31 @@
       <c r="AI6" s="13">
         <v>4.31</v>
       </c>
-      <c r="AK6" s="15"/>
+      <c r="AK6" s="9"/>
       <c r="AL6" s="10">
-        <v>51.73</v>
+        <v>51.84</v>
       </c>
       <c r="AM6" s="11" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="AN6" s="12">
-        <v>10.98</v>
+        <v>5.48</v>
       </c>
       <c r="AO6" s="12" t="s">
-        <v>518</v>
+        <v>453</v>
       </c>
       <c r="AP6" s="12">
-        <v>10.04</v>
+        <v>5.35</v>
       </c>
       <c r="AQ6" s="12" t="s">
-        <v>135</v>
+        <v>582</v>
       </c>
       <c r="AR6" s="13">
-        <v>7.46</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="7" ht="11.5" customHeight="1" spans="1:44">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="3" t="s">
         <v>445</v>
       </c>
       <c r="B7" s="4"/>
@@ -6773,7 +6939,7 @@
       <c r="H7" s="8">
         <v>4.16</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="3" t="s">
         <v>543</v>
       </c>
       <c r="K7" s="4"/>
@@ -6795,11 +6961,11 @@
       <c r="Q7" s="8">
         <v>5.12</v>
       </c>
-      <c r="S7" s="14" t="s">
+      <c r="S7" s="3" t="s">
         <v>564</v>
       </c>
       <c r="T7" s="4">
-        <v>51.7</v>
+        <v>51.49</v>
       </c>
       <c r="U7" s="5" t="s">
         <v>498</v>
@@ -6819,11 +6985,11 @@
       <c r="Z7" s="8">
         <v>2.57</v>
       </c>
-      <c r="AB7" s="14" t="s">
+      <c r="AB7" s="3" t="s">
         <v>589</v>
       </c>
       <c r="AC7" s="4">
-        <v>51.57</v>
+        <v>51.48</v>
       </c>
       <c r="AD7" s="5" t="s">
         <v>456</v>
@@ -6843,11 +7009,11 @@
       <c r="AI7" s="8">
         <v>4.57</v>
       </c>
-      <c r="AK7" s="14" t="s">
+      <c r="AK7" s="3" t="s">
         <v>590</v>
       </c>
       <c r="AL7" s="4">
-        <v>51.57</v>
+        <v>51.53</v>
       </c>
       <c r="AM7" s="5" t="s">
         <v>443</v>
@@ -6869,9 +7035,9 @@
       </c>
     </row>
     <row r="8" ht="11.5" customHeight="1" spans="1:44">
-      <c r="A8" s="15"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="10">
-        <v>51.67</v>
+        <v>51.91</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>565</v>
@@ -6891,9 +7057,9 @@
       <c r="H8" s="13">
         <v>3.89</v>
       </c>
-      <c r="J8" s="15"/>
+      <c r="J8" s="9"/>
       <c r="K8" s="10">
-        <v>52.85</v>
+        <v>52.42</v>
       </c>
       <c r="L8" s="11" t="s">
         <v>507</v>
@@ -6913,9 +7079,9 @@
       <c r="Q8" s="13">
         <v>6.8</v>
       </c>
-      <c r="S8" s="15"/>
+      <c r="S8" s="9"/>
       <c r="T8" s="10">
-        <v>53.61</v>
+        <v>52.71</v>
       </c>
       <c r="U8" s="11" t="s">
         <v>598</v>
@@ -6935,9 +7101,9 @@
       <c r="Z8" s="13">
         <v>4.19</v>
       </c>
-      <c r="AB8" s="15"/>
+      <c r="AB8" s="9"/>
       <c r="AC8" s="10">
-        <v>51.73</v>
+        <v>51.47</v>
       </c>
       <c r="AD8" s="11" t="s">
         <v>442</v>
@@ -6957,9 +7123,9 @@
       <c r="AI8" s="13">
         <v>3.54</v>
       </c>
-      <c r="AK8" s="15"/>
+      <c r="AK8" s="9"/>
       <c r="AL8" s="10">
-        <v>51.12</v>
+        <v>51.13</v>
       </c>
       <c r="AM8" s="11" t="s">
         <v>536</v>
@@ -6981,11 +7147,11 @@
       </c>
     </row>
     <row r="9" ht="11.5" customHeight="1" spans="1:44">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="3" t="s">
         <v>477</v>
       </c>
       <c r="B9" s="4">
-        <v>50.25</v>
+        <v>50.5</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>484</v>
@@ -7005,31 +7171,29 @@
       <c r="H9" s="8">
         <v>3.11</v>
       </c>
-      <c r="J9" s="14" t="s">
-        <v>494</v>
-      </c>
-      <c r="K9" s="4">
-        <v>53.53</v>
-      </c>
+      <c r="J9" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="K9" s="4"/>
       <c r="L9" s="5" t="s">
-        <v>542</v>
+        <v>601</v>
       </c>
       <c r="M9" s="6">
-        <v>6.33</v>
+        <v>4.31</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>536</v>
+        <v>432</v>
       </c>
       <c r="O9" s="7">
-        <v>6.09</v>
+        <v>4.21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>590</v>
+        <v>561</v>
       </c>
       <c r="Q9" s="8">
-        <v>4.09</v>
-      </c>
-      <c r="S9" s="14" t="s">
+        <v>3.93</v>
+      </c>
+      <c r="S9" s="3" t="s">
         <v>573</v>
       </c>
       <c r="T9" s="4"/>
@@ -7051,7 +7215,7 @@
       <c r="Z9" s="8">
         <v>3.52</v>
       </c>
-      <c r="AB9" s="14" t="s">
+      <c r="AB9" s="3" t="s">
         <v>586</v>
       </c>
       <c r="AC9" s="4"/>
@@ -7073,7 +7237,7 @@
       <c r="AI9" s="8">
         <v>5.38</v>
       </c>
-      <c r="AK9" s="14" t="s">
+      <c r="AK9" s="3" t="s">
         <v>582</v>
       </c>
       <c r="AL9" s="4"/>
@@ -7097,9 +7261,9 @@
       </c>
     </row>
     <row r="10" ht="11.5" customHeight="1" spans="1:44">
-      <c r="A10" s="15"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="10">
-        <v>51.36</v>
+        <v>51.31</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>541</v>
@@ -7119,31 +7283,31 @@
       <c r="H10" s="13">
         <v>4.9</v>
       </c>
-      <c r="J10" s="15"/>
+      <c r="J10" s="9"/>
       <c r="K10" s="10">
-        <v>52.35</v>
+        <v>52.4</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>550</v>
+        <v>599</v>
       </c>
       <c r="M10" s="12">
-        <v>8.21</v>
+        <v>5.06</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="O10" s="12">
-        <v>5.38</v>
+        <v>3.92</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>583</v>
+        <v>539</v>
       </c>
       <c r="Q10" s="13">
-        <v>4.7</v>
-      </c>
-      <c r="S10" s="15"/>
+        <v>3.71</v>
+      </c>
+      <c r="S10" s="9"/>
       <c r="T10" s="10">
-        <v>52.11</v>
+        <v>52.43</v>
       </c>
       <c r="U10" s="11" t="s">
         <v>543</v>
@@ -7163,9 +7327,9 @@
       <c r="Z10" s="13">
         <v>5.32</v>
       </c>
-      <c r="AB10" s="15"/>
+      <c r="AB10" s="9"/>
       <c r="AC10" s="10">
-        <v>51.28</v>
+        <v>51.2</v>
       </c>
       <c r="AD10" s="11" t="s">
         <v>135</v>
@@ -7185,9 +7349,9 @@
       <c r="AI10" s="13">
         <v>4.27</v>
       </c>
-      <c r="AK10" s="15"/>
+      <c r="AK10" s="9"/>
       <c r="AL10" s="10">
-        <v>50.39</v>
+        <v>50.89</v>
       </c>
       <c r="AM10" s="11" t="s">
         <v>587</v>
@@ -7209,55 +7373,59 @@
       </c>
     </row>
     <row r="11" ht="11.5" customHeight="1" spans="1:44">
-      <c r="A11" s="14" t="s">
-        <v>532</v>
-      </c>
-      <c r="B11" s="4"/>
+      <c r="A11" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B11" s="4">
+        <v>52.9</v>
+      </c>
       <c r="C11" s="5" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="D11" s="6">
-        <v>4.15</v>
+        <v>4.24</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="F11" s="7">
+        <v>3.69</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="H11" s="8">
+        <v>3.67</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="K11" s="4">
+        <v>53.23</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="M11" s="6">
+        <v>5.04</v>
+      </c>
+      <c r="N11" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="F11" s="7">
+      <c r="O11" s="7">
         <v>3.43</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="H11" s="8">
-        <v>3.13</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="M11" s="6">
-        <v>6.09</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="O11" s="7">
-        <v>5.39</v>
-      </c>
       <c r="P11" s="7" t="s">
-        <v>447</v>
+        <v>590</v>
       </c>
       <c r="Q11" s="8">
-        <v>5</v>
-      </c>
-      <c r="S11" s="14" t="s">
+        <v>3.36</v>
+      </c>
+      <c r="S11" s="3" t="s">
         <v>594</v>
       </c>
       <c r="T11" s="4">
-        <v>52.17</v>
+        <v>52.34</v>
       </c>
       <c r="U11" s="5" t="s">
         <v>497</v>
@@ -7277,11 +7445,11 @@
       <c r="Z11" s="8">
         <v>3.56</v>
       </c>
-      <c r="AB11" s="14" t="s">
+      <c r="AB11" s="3" t="s">
         <v>575</v>
       </c>
       <c r="AC11" s="4">
-        <v>51.81</v>
+        <v>51.76</v>
       </c>
       <c r="AD11" s="5" t="s">
         <v>581</v>
@@ -7301,77 +7469,79 @@
       <c r="AI11" s="8">
         <v>2.64</v>
       </c>
-      <c r="AK11" s="14" t="s">
-        <v>517</v>
-      </c>
-      <c r="AL11" s="4"/>
+      <c r="AK11" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="AL11" s="4">
+        <v>52.49</v>
+      </c>
       <c r="AM11" s="5" t="s">
-        <v>538</v>
+        <v>497</v>
       </c>
       <c r="AN11" s="6">
-        <v>5.95</v>
+        <v>5.39</v>
       </c>
       <c r="AO11" s="7" t="s">
-        <v>543</v>
+        <v>436</v>
       </c>
       <c r="AP11" s="7">
-        <v>3.3</v>
+        <v>4.04</v>
       </c>
       <c r="AQ11" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="AR11" s="8">
-        <v>3.1</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="12" ht="11.5" customHeight="1" spans="1:44">
-      <c r="A12" s="15"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="10">
-        <v>51.34</v>
+        <v>51.16</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>520</v>
+        <v>456</v>
       </c>
       <c r="D12" s="12">
-        <v>4.18</v>
+        <v>10.5</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="F12" s="12">
-        <v>3.77</v>
+        <v>6.9</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>586</v>
+        <v>497</v>
       </c>
       <c r="H12" s="13">
-        <v>3.64</v>
-      </c>
-      <c r="J12" s="15"/>
+        <v>5.8</v>
+      </c>
+      <c r="J12" s="9"/>
       <c r="K12" s="10">
-        <v>52.34</v>
+        <v>52.15</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>583</v>
+        <v>602</v>
       </c>
       <c r="M12" s="12">
-        <v>4.97</v>
+        <v>5.94</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>498</v>
+        <v>433</v>
       </c>
       <c r="O12" s="12">
+        <v>4.49</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q12" s="13">
         <v>4.47</v>
       </c>
-      <c r="P12" s="12" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>4.03</v>
-      </c>
-      <c r="S12" s="15"/>
+      <c r="S12" s="9"/>
       <c r="T12" s="10">
-        <v>51.71</v>
+        <v>51.92</v>
       </c>
       <c r="U12" s="11" t="s">
         <v>600</v>
@@ -7391,9 +7561,9 @@
       <c r="Z12" s="13">
         <v>4.24</v>
       </c>
-      <c r="AB12" s="15"/>
+      <c r="AB12" s="9"/>
       <c r="AC12" s="10">
-        <v>51</v>
+        <v>51.14</v>
       </c>
       <c r="AD12" s="11" t="s">
         <v>602</v>
@@ -7413,132 +7583,130 @@
       <c r="AI12" s="13">
         <v>2.94</v>
       </c>
-      <c r="AK12" s="15"/>
+      <c r="AK12" s="9"/>
       <c r="AL12" s="10">
-        <v>50.29</v>
+        <v>50.44</v>
       </c>
       <c r="AM12" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="AN12" s="12">
+        <v>6.49</v>
+      </c>
+      <c r="AO12" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="AP12" s="12">
+        <v>6.12</v>
+      </c>
+      <c r="AQ12" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="AR12" s="13">
+        <v>4.98</v>
+      </c>
+    </row>
+    <row r="13" ht="11.5" customHeight="1" spans="1:44">
+      <c r="A13" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="B13" s="15">
+        <v>52.6</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="D13" s="17">
+        <v>3.69</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>598</v>
+      </c>
+      <c r="F13" s="18">
+        <v>3.28</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="H13" s="19">
+        <v>2.89</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="K13" s="4">
+        <v>51.42</v>
+      </c>
+      <c r="L13" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="AN12" s="12">
-        <v>2.6</v>
-      </c>
-      <c r="AO12" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="AP12" s="12">
-        <v>2.57</v>
-      </c>
-      <c r="AQ12" s="12" t="s">
-        <v>583</v>
-      </c>
-      <c r="AR12" s="13">
-        <v>2.22</v>
-      </c>
-    </row>
-    <row r="13" ht="11.5" customHeight="1" spans="1:44">
-      <c r="A13" s="16" t="s">
-        <v>432</v>
-      </c>
-      <c r="B13" s="17">
-        <v>52.24</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>522</v>
-      </c>
-      <c r="D13" s="19">
-        <v>3.69</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>598</v>
-      </c>
-      <c r="F13" s="20">
-        <v>3.28</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>442</v>
-      </c>
-      <c r="H13" s="21">
-        <v>2.89</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>540</v>
-      </c>
-      <c r="K13" s="4">
-        <v>53.33</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>492</v>
-      </c>
       <c r="M13" s="6">
-        <v>5.04</v>
+        <v>5.62</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>581</v>
+        <v>484</v>
       </c>
       <c r="O13" s="7">
-        <v>3.43</v>
+        <v>4.19</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>590</v>
+        <v>539</v>
       </c>
       <c r="Q13" s="8">
-        <v>3.36</v>
-      </c>
-      <c r="S13" s="14" t="s">
-        <v>601</v>
+        <v>4.03</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>577</v>
       </c>
       <c r="T13" s="4">
-        <v>51.75</v>
+        <v>52.12</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>552</v>
+        <v>502</v>
       </c>
       <c r="V13" s="6">
-        <v>7.35</v>
+        <v>5.15</v>
       </c>
       <c r="W13" s="7" t="s">
-        <v>561</v>
+        <v>510</v>
       </c>
       <c r="X13" s="7">
-        <v>5.86</v>
+        <v>4.856</v>
       </c>
       <c r="Y13" s="7" t="s">
-        <v>535</v>
+        <v>600</v>
       </c>
       <c r="Z13" s="8">
-        <v>4.1</v>
-      </c>
-      <c r="AB13" s="14" t="s">
-        <v>588</v>
+        <v>4.798</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>527</v>
       </c>
       <c r="AC13" s="4">
-        <v>50.77</v>
+        <v>50.47</v>
       </c>
       <c r="AD13" s="5" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="AE13" s="6">
-        <v>8.12</v>
+        <v>5.18</v>
       </c>
       <c r="AF13" s="7" t="s">
-        <v>602</v>
+        <v>477</v>
       </c>
       <c r="AG13" s="7">
-        <v>4.01</v>
+        <v>4.9</v>
       </c>
       <c r="AH13" s="7" t="s">
-        <v>446</v>
+        <v>573</v>
       </c>
       <c r="AI13" s="8">
-        <v>3.34</v>
-      </c>
-      <c r="AK13" s="14" t="s">
+        <v>4.34</v>
+      </c>
+      <c r="AK13" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="AL13" s="4">
-        <v>50.04</v>
-      </c>
+      <c r="AL13" s="4"/>
       <c r="AM13" s="5" t="s">
         <v>434</v>
       </c>
@@ -7559,9 +7727,9 @@
       </c>
     </row>
     <row r="14" ht="11.5" customHeight="1" spans="1:44">
-      <c r="A14" s="15"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="10">
-        <v>51.06</v>
+        <v>51.09</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>548</v>
@@ -7581,75 +7749,75 @@
       <c r="H14" s="13">
         <v>3.59</v>
       </c>
-      <c r="J14" s="15"/>
+      <c r="J14" s="9"/>
       <c r="K14" s="10">
-        <v>52.3</v>
+        <v>52.05</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>602</v>
+        <v>550</v>
       </c>
       <c r="M14" s="12">
-        <v>5.94</v>
+        <v>7.15</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>433</v>
+        <v>568</v>
       </c>
       <c r="O14" s="12">
-        <v>4.49</v>
+        <v>6.19</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>515</v>
+        <v>437</v>
       </c>
       <c r="Q14" s="13">
-        <v>4.47</v>
-      </c>
-      <c r="S14" s="15"/>
+        <v>5.23</v>
+      </c>
+      <c r="S14" s="9"/>
       <c r="T14" s="10">
-        <v>51.66</v>
+        <v>51.41</v>
       </c>
       <c r="U14" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="V14" s="12">
+        <v>7.83</v>
+      </c>
+      <c r="W14" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="X14" s="12">
+        <v>7.05</v>
+      </c>
+      <c r="Y14" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>4.78</v>
+      </c>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="10">
+        <v>50.75</v>
+      </c>
+      <c r="AD14" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="AE14" s="12">
+        <v>6.11</v>
+      </c>
+      <c r="AF14" s="12" t="s">
         <v>576</v>
       </c>
-      <c r="V14" s="12">
-        <v>5.52</v>
-      </c>
-      <c r="W14" s="12" t="s">
-        <v>555</v>
-      </c>
-      <c r="X14" s="12">
-        <v>4.65</v>
-      </c>
-      <c r="Y14" s="12" t="s">
-        <v>599</v>
-      </c>
-      <c r="Z14" s="13">
-        <v>4.56</v>
-      </c>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="10">
-        <v>50.83</v>
-      </c>
-      <c r="AD14" s="11" t="s">
-        <v>561</v>
-      </c>
-      <c r="AE14" s="12">
-        <v>4.43</v>
-      </c>
-      <c r="AF14" s="12" t="s">
-        <v>498</v>
-      </c>
       <c r="AG14" s="12">
-        <v>3.47</v>
+        <v>5.93</v>
       </c>
       <c r="AH14" s="12" t="s">
-        <v>535</v>
+        <v>577</v>
       </c>
       <c r="AI14" s="13">
-        <v>3.14</v>
-      </c>
-      <c r="AK14" s="15"/>
+        <v>4.3</v>
+      </c>
+      <c r="AK14" s="9"/>
       <c r="AL14" s="10">
-        <v>50.28</v>
+        <v>50.3</v>
       </c>
       <c r="AM14" s="11" t="s">
         <v>587</v>
@@ -7671,559 +7839,557 @@
       </c>
     </row>
     <row r="15" ht="11.5" customHeight="1" spans="1:44">
-      <c r="A15" s="14" t="s">
-        <v>484</v>
-      </c>
-      <c r="B15" s="4">
-        <v>53.01</v>
-      </c>
+      <c r="A15" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B15" s="4"/>
       <c r="C15" s="5" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="D15" s="6">
-        <v>4.24</v>
+        <v>3.58</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>522</v>
+        <v>447</v>
       </c>
       <c r="F15" s="7">
-        <v>3.69</v>
+        <v>3.53</v>
       </c>
       <c r="G15" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="H15" s="8">
+        <v>3.19</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="H15" s="8">
-        <v>3.67</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="K15" s="4">
-        <v>50.46</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>497</v>
-      </c>
       <c r="M15" s="6">
-        <v>5.59</v>
+        <v>6.09</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>498</v>
+        <v>550</v>
       </c>
       <c r="O15" s="7">
-        <v>5.56</v>
+        <v>5.39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>583</v>
+        <v>447</v>
       </c>
       <c r="Q15" s="8">
-        <v>5.48</v>
-      </c>
-      <c r="S15" s="14" t="s">
-        <v>577</v>
+        <v>5</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>601</v>
       </c>
       <c r="T15" s="4">
-        <v>51.85</v>
+        <v>51.71</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>502</v>
+        <v>552</v>
       </c>
       <c r="V15" s="6">
-        <v>5.15</v>
+        <v>7.35</v>
       </c>
       <c r="W15" s="7" t="s">
-        <v>510</v>
+        <v>561</v>
       </c>
       <c r="X15" s="7">
-        <v>4.856</v>
+        <v>5.86</v>
       </c>
       <c r="Y15" s="7" t="s">
-        <v>600</v>
+        <v>535</v>
       </c>
       <c r="Z15" s="8">
-        <v>4.798</v>
-      </c>
-      <c r="AB15" s="14" t="s">
-        <v>576</v>
+        <v>4.1</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>588</v>
       </c>
       <c r="AC15" s="4">
-        <v>50.91</v>
+        <v>50.74</v>
       </c>
       <c r="AD15" s="5" t="s">
-        <v>527</v>
+        <v>456</v>
       </c>
       <c r="AE15" s="6">
-        <v>5.93</v>
+        <v>8.12</v>
       </c>
       <c r="AF15" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AG15" s="7">
-        <v>5.52</v>
+        <v>4.01</v>
       </c>
       <c r="AH15" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="AI15" s="8">
-        <v>3.83</v>
-      </c>
-      <c r="AK15" s="14" t="s">
-        <v>453</v>
+        <v>3.34</v>
+      </c>
+      <c r="AK15" s="3" t="s">
+        <v>454</v>
       </c>
       <c r="AL15" s="4"/>
       <c r="AM15" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="AN15" s="6">
+        <v>10.98</v>
+      </c>
+      <c r="AO15" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="AP15" s="7">
+        <v>4.93</v>
+      </c>
+      <c r="AQ15" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="AR15" s="8">
+        <v>4.63</v>
+      </c>
+    </row>
+    <row r="16" ht="11.5" customHeight="1" spans="1:44">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10">
+        <v>50.82</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="D16" s="12">
+        <v>4.1</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="F16" s="12">
+        <v>3.07</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="H16" s="13">
+        <v>2.94</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="10">
+        <v>51.63</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="M16" s="12">
+        <v>4.97</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="O16" s="12">
+        <v>4.47</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>4.03</v>
+      </c>
+      <c r="S16" s="9"/>
+      <c r="T16" s="10">
+        <v>51.17</v>
+      </c>
+      <c r="U16" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="V16" s="12">
+        <v>5.52</v>
+      </c>
+      <c r="W16" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="X16" s="12">
+        <v>4.65</v>
+      </c>
+      <c r="Y16" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>4.56</v>
+      </c>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="10">
+        <v>50.66</v>
+      </c>
+      <c r="AD16" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="AN15" s="6">
-        <v>6.12</v>
-      </c>
-      <c r="AO15" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="AP15" s="7">
-        <v>5.99</v>
-      </c>
-      <c r="AQ15" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="AR15" s="8">
-        <v>5.68</v>
-      </c>
-    </row>
-    <row r="16" ht="11.5" customHeight="1" spans="1:44">
-      <c r="A16" s="15"/>
-      <c r="B16" s="10">
-        <v>50.87</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="D16" s="12">
-        <v>10.5</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="F16" s="12">
-        <v>6.9</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>497</v>
-      </c>
-      <c r="H16" s="13">
-        <v>5.8</v>
-      </c>
-      <c r="J16" s="15"/>
-      <c r="K16" s="10">
-        <v>52.06</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>600</v>
-      </c>
-      <c r="M16" s="12">
-        <v>7.26</v>
-      </c>
-      <c r="N16" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="O16" s="12">
-        <v>5.68</v>
-      </c>
-      <c r="P16" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="Q16" s="13">
-        <v>3.89</v>
-      </c>
-      <c r="S16" s="15"/>
-      <c r="T16" s="10">
-        <v>51.38</v>
-      </c>
-      <c r="U16" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="V16" s="12">
-        <v>7.83</v>
-      </c>
-      <c r="W16" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="X16" s="12">
-        <v>7.05</v>
-      </c>
-      <c r="Y16" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="Z16" s="13">
-        <v>4.78</v>
-      </c>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="10">
-        <v>50.12</v>
-      </c>
-      <c r="AD16" s="11" t="s">
-        <v>598</v>
-      </c>
       <c r="AE16" s="12">
-        <v>4.27</v>
+        <v>4.43</v>
       </c>
       <c r="AF16" s="12" t="s">
-        <v>577</v>
+        <v>498</v>
       </c>
       <c r="AG16" s="12">
-        <v>3.21</v>
+        <v>3.47</v>
       </c>
       <c r="AH16" s="12" t="s">
-        <v>589</v>
+        <v>535</v>
       </c>
       <c r="AI16" s="13">
-        <v>3.1</v>
-      </c>
-      <c r="AK16" s="15"/>
+        <v>3.14</v>
+      </c>
+      <c r="AK16" s="9"/>
       <c r="AL16" s="10">
-        <v>50.03</v>
+        <v>50.14</v>
       </c>
       <c r="AM16" s="11" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="AN16" s="12">
-        <v>5.6</v>
+        <v>6.47</v>
       </c>
       <c r="AO16" s="12" t="s">
-        <v>574</v>
+        <v>510</v>
       </c>
       <c r="AP16" s="12">
-        <v>4.34</v>
+        <v>5.64</v>
       </c>
       <c r="AQ16" s="12" t="s">
-        <v>507</v>
+        <v>583</v>
       </c>
       <c r="AR16" s="13">
-        <v>3.73</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="17" ht="11.5" customHeight="1" spans="1:44">
-      <c r="A17" s="14" t="s">
-        <v>503</v>
+      <c r="A17" s="3" t="s">
+        <v>478</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="5" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="D17" s="6">
-        <v>3.58</v>
+        <v>4.89</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>447</v>
+        <v>601</v>
       </c>
       <c r="F17" s="7">
-        <v>3.53</v>
+        <v>4.01</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>456</v>
+        <v>591</v>
       </c>
       <c r="H17" s="8">
-        <v>3.19</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>523</v>
-      </c>
-      <c r="K17" s="4"/>
+        <v>3.88</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="K17" s="4">
+        <v>50.26</v>
+      </c>
       <c r="L17" s="5" t="s">
-        <v>535</v>
+        <v>497</v>
       </c>
       <c r="M17" s="6">
-        <v>5.14</v>
+        <v>5.59</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>548</v>
+        <v>498</v>
       </c>
       <c r="O17" s="7">
-        <v>4.58</v>
+        <v>5.56</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>549</v>
+        <v>583</v>
       </c>
       <c r="Q17" s="8">
-        <v>4.77</v>
-      </c>
-      <c r="S17" s="14" t="s">
-        <v>507</v>
+        <v>5.48</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>466</v>
       </c>
       <c r="T17" s="4"/>
       <c r="U17" s="5" t="s">
-        <v>543</v>
+        <v>498</v>
       </c>
       <c r="V17" s="6">
-        <v>10.32</v>
+        <v>4.36</v>
       </c>
       <c r="W17" s="7" t="s">
-        <v>581</v>
+        <v>497</v>
       </c>
       <c r="X17" s="7">
-        <v>5.54</v>
+        <v>3.26</v>
       </c>
       <c r="Y17" s="7" t="s">
-        <v>590</v>
+        <v>447</v>
       </c>
       <c r="Z17" s="8">
-        <v>5.22</v>
-      </c>
-      <c r="AB17" s="14" t="s">
-        <v>568</v>
+        <v>2.82</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>593</v>
       </c>
       <c r="AC17" s="4"/>
       <c r="AD17" s="5" t="s">
-        <v>544</v>
+        <v>587</v>
       </c>
       <c r="AE17" s="6">
-        <v>9.22</v>
+        <v>2.2</v>
       </c>
       <c r="AF17" s="7" t="s">
-        <v>548</v>
+        <v>601</v>
       </c>
       <c r="AG17" s="7">
-        <v>6.19</v>
+        <v>2.12</v>
       </c>
       <c r="AH17" s="7" t="s">
         <v>535</v>
       </c>
       <c r="AI17" s="8">
-        <v>5.83</v>
-      </c>
-      <c r="AK17" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="AL17" s="4">
-        <v>52.38</v>
-      </c>
+        <v>2.09</v>
+      </c>
+      <c r="AK17" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="AL17" s="4"/>
       <c r="AM17" s="5" t="s">
-        <v>497</v>
+        <v>538</v>
       </c>
       <c r="AN17" s="6">
-        <v>5.39</v>
+        <v>5.95</v>
       </c>
       <c r="AO17" s="7" t="s">
-        <v>436</v>
+        <v>543</v>
       </c>
       <c r="AP17" s="7">
-        <v>4.04</v>
+        <v>3.3</v>
       </c>
       <c r="AQ17" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="AR17" s="8">
-        <v>3.02</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="18" ht="11.5" customHeight="1" spans="1:44">
-      <c r="A18" s="15"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="10">
-        <v>50.55</v>
+        <v>50.42</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>601</v>
+        <v>574</v>
       </c>
       <c r="D18" s="12">
-        <v>4.1</v>
+        <v>4.23</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>565</v>
+        <v>494</v>
       </c>
       <c r="F18" s="12">
-        <v>3.07</v>
+        <v>3.56</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>459</v>
+        <v>576</v>
       </c>
       <c r="H18" s="13">
-        <v>2.94</v>
-      </c>
-      <c r="J18" s="15"/>
+        <v>3.19</v>
+      </c>
+      <c r="J18" s="9"/>
       <c r="K18" s="10">
-        <v>51.94</v>
+        <v>51.63</v>
       </c>
       <c r="L18" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="M18" s="12">
+        <v>7.26</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="O18" s="12">
+        <v>5.68</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>3.89</v>
+      </c>
+      <c r="S18" s="9"/>
+      <c r="T18" s="10">
+        <v>51.01</v>
+      </c>
+      <c r="U18" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="V18" s="12">
+        <v>4.45</v>
+      </c>
+      <c r="W18" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="X18" s="12">
+        <v>3.64</v>
+      </c>
+      <c r="Y18" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="Z18" s="13">
+        <v>3.55</v>
+      </c>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="10">
+        <v>50.36</v>
+      </c>
+      <c r="AD18" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="AE18" s="12">
+        <v>4.16</v>
+      </c>
+      <c r="AF18" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="M18" s="12">
-        <v>8.01</v>
-      </c>
-      <c r="N18" s="12" t="s">
-        <v>522</v>
-      </c>
-      <c r="O18" s="12">
-        <v>5.99</v>
-      </c>
-      <c r="P18" s="12" t="s">
+      <c r="AG18" s="12">
+        <v>2.76</v>
+      </c>
+      <c r="AH18" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="Q18" s="13">
-        <v>5.83</v>
-      </c>
-      <c r="S18" s="15"/>
-      <c r="T18" s="10">
-        <v>51.03</v>
-      </c>
-      <c r="U18" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="V18" s="12">
-        <v>5.97</v>
-      </c>
-      <c r="W18" s="12" t="s">
-        <v>497</v>
-      </c>
-      <c r="X18" s="12">
-        <v>4</v>
-      </c>
-      <c r="Y18" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="Z18" s="13">
-        <v>3.44</v>
-      </c>
-      <c r="AB18" s="15"/>
-      <c r="AC18" s="10">
-        <v>50.1</v>
-      </c>
-      <c r="AD18" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="AE18" s="12">
-        <v>6.05</v>
-      </c>
-      <c r="AF18" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="AG18" s="12">
-        <v>5.45</v>
-      </c>
-      <c r="AH18" s="12" t="s">
-        <v>536</v>
-      </c>
       <c r="AI18" s="13">
-        <v>4.89</v>
-      </c>
-      <c r="AK18" s="15"/>
-      <c r="AL18" s="10"/>
+        <v>2.11</v>
+      </c>
+      <c r="AK18" s="9"/>
+      <c r="AL18" s="10">
+        <v>50.06</v>
+      </c>
       <c r="AM18" s="11" t="s">
-        <v>590</v>
+        <v>552</v>
       </c>
       <c r="AN18" s="12">
-        <v>6.49</v>
+        <v>2.6</v>
       </c>
       <c r="AO18" s="12" t="s">
-        <v>590</v>
+        <v>454</v>
       </c>
       <c r="AP18" s="12">
-        <v>6.12</v>
+        <v>2.57</v>
       </c>
       <c r="AQ18" s="12" t="s">
-        <v>459</v>
+        <v>583</v>
       </c>
       <c r="AR18" s="13">
-        <v>4.98</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="19" ht="11.5" customHeight="1" spans="1:44">
-      <c r="A19" s="14" t="s">
-        <v>478</v>
+      <c r="A19" s="3" t="s">
+        <v>532</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
       <c r="D19" s="6">
-        <v>4.89</v>
+        <v>4.15</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="F19" s="7">
-        <v>4.01</v>
+        <v>3.43</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>591</v>
+        <v>510</v>
       </c>
       <c r="H19" s="8">
-        <v>3.88</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>542</v>
-      </c>
-      <c r="K19" s="4">
-        <v>51.35</v>
-      </c>
+        <v>3.13</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="K19" s="4"/>
       <c r="L19" s="5" t="s">
-        <v>456</v>
+        <v>535</v>
       </c>
       <c r="M19" s="6">
-        <v>8.64</v>
+        <v>5.14</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>510</v>
+        <v>548</v>
       </c>
       <c r="O19" s="7">
-        <v>7.87</v>
+        <v>4.58</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>568</v>
+        <v>549</v>
       </c>
       <c r="Q19" s="8">
-        <v>6.05</v>
-      </c>
-      <c r="S19" s="14" t="s">
+        <v>4.77</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="T19" s="4">
+        <v>50.29</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="V19" s="6">
+        <v>5.01</v>
+      </c>
+      <c r="W19" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="X19" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="Y19" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="Z19" s="8">
+        <v>3.53</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC19" s="4">
+        <v>50.83</v>
+      </c>
+      <c r="AD19" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="T19" s="4">
-        <v>50.34</v>
-      </c>
-      <c r="U19" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="V19" s="6">
-        <v>5.18</v>
-      </c>
-      <c r="W19" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="X19" s="7">
-        <v>4.9</v>
-      </c>
-      <c r="Y19" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="Z19" s="8">
-        <v>4.34</v>
-      </c>
-      <c r="AB19" s="14" t="s">
-        <v>593</v>
-      </c>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="5" t="s">
-        <v>587</v>
-      </c>
       <c r="AE19" s="6">
-        <v>2.2</v>
+        <v>5.93</v>
       </c>
       <c r="AF19" s="7" t="s">
         <v>601</v>
       </c>
       <c r="AG19" s="7">
-        <v>2.12</v>
+        <v>5.52</v>
       </c>
       <c r="AH19" s="7" t="s">
-        <v>535</v>
+        <v>442</v>
       </c>
       <c r="AI19" s="8">
-        <v>2.09</v>
-      </c>
-      <c r="AK19" s="14" t="s">
+        <v>3.83</v>
+      </c>
+      <c r="AK19" s="3" t="s">
         <v>468</v>
       </c>
       <c r="AL19" s="4">
-        <v>51.22</v>
+        <v>51.24</v>
       </c>
       <c r="AM19" s="5" t="s">
         <v>443</v>
@@ -8245,95 +8411,95 @@
       </c>
     </row>
     <row r="20" ht="11.5" customHeight="1" spans="1:44">
-      <c r="A20" s="15"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="10">
-        <v>50.54</v>
+        <v>50.38</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>574</v>
+        <v>520</v>
       </c>
       <c r="D20" s="12">
-        <v>4.23</v>
+        <v>4.18</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>494</v>
       </c>
       <c r="F20" s="12">
-        <v>3.56</v>
+        <v>3.77</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="H20" s="13">
-        <v>3.19</v>
-      </c>
-      <c r="J20" s="15"/>
+        <v>3.64</v>
+      </c>
+      <c r="J20" s="9"/>
       <c r="K20" s="10">
-        <v>51.8</v>
+        <v>51.5</v>
       </c>
       <c r="L20" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M20" s="12">
-        <v>10.32</v>
+        <v>8.01</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>602</v>
+        <v>522</v>
       </c>
       <c r="O20" s="12">
-        <v>7.23</v>
+        <v>5.99</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>494</v>
+        <v>433</v>
       </c>
       <c r="Q20" s="13">
-        <v>6.33</v>
-      </c>
-      <c r="S20" s="15"/>
+        <v>5.83</v>
+      </c>
+      <c r="S20" s="9"/>
       <c r="T20" s="10">
-        <v>50.76</v>
+        <v>50.6</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>456</v>
+        <v>547</v>
       </c>
       <c r="V20" s="12">
-        <v>6.11</v>
+        <v>3.59</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>576</v>
+        <v>433</v>
       </c>
       <c r="X20" s="12">
-        <v>5.93</v>
+        <v>3.32</v>
       </c>
       <c r="Y20" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="Z20" s="13">
+        <v>3.03</v>
+      </c>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="10">
+        <v>50.31</v>
+      </c>
+      <c r="AD20" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="AE20" s="12">
+        <v>4.27</v>
+      </c>
+      <c r="AF20" s="12" t="s">
         <v>577</v>
       </c>
-      <c r="Z20" s="13">
-        <v>4.3</v>
-      </c>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="10">
-        <v>50.08</v>
-      </c>
-      <c r="AD20" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="AE20" s="12">
-        <v>4.16</v>
-      </c>
-      <c r="AF20" s="12" t="s">
-        <v>536</v>
-      </c>
       <c r="AG20" s="12">
-        <v>2.76</v>
+        <v>3.21</v>
       </c>
       <c r="AH20" s="12" t="s">
-        <v>433</v>
+        <v>589</v>
       </c>
       <c r="AI20" s="13">
-        <v>2.11</v>
-      </c>
-      <c r="AK20" s="15"/>
+        <v>3.1</v>
+      </c>
+      <c r="AK20" s="9"/>
       <c r="AL20" s="10"/>
       <c r="AM20" s="11" t="s">
         <v>590</v>
@@ -8355,11 +8521,11 @@
       </c>
     </row>
     <row r="21" ht="11.5" customHeight="1" spans="1:44">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="3" t="s">
         <v>603</v>
       </c>
       <c r="B21" s="4">
-        <v>51.35</v>
+        <v>51.24</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>432</v>
@@ -8379,81 +8545,81 @@
       <c r="H21" s="8">
         <v>2.35</v>
       </c>
-      <c r="J21" s="14" t="s">
-        <v>548</v>
+      <c r="J21" s="3" t="s">
+        <v>544</v>
       </c>
       <c r="K21" s="4">
-        <v>51.37</v>
+        <v>50.3</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="M21" s="6">
-        <v>5.62</v>
+        <v>6.78</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>484</v>
+        <v>561</v>
       </c>
       <c r="O21" s="7">
-        <v>4.19</v>
+        <v>5.53</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>539</v>
+        <v>447</v>
       </c>
       <c r="Q21" s="8">
-        <v>4.03</v>
-      </c>
-      <c r="S21" s="14" t="s">
-        <v>566</v>
+        <v>5.44</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>474</v>
       </c>
       <c r="T21" s="4">
-        <v>50.53</v>
+        <v>50.32</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>548</v>
+        <v>587</v>
       </c>
       <c r="V21" s="6">
-        <v>5.01</v>
+        <v>2.48</v>
       </c>
       <c r="W21" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="X21" s="7">
-        <v>4.71</v>
+        <v>2.34</v>
       </c>
       <c r="Y21" s="7" t="s">
-        <v>497</v>
+        <v>594</v>
       </c>
       <c r="Z21" s="8">
-        <v>3.53</v>
-      </c>
-      <c r="AB21" s="14" t="s">
-        <v>592</v>
+        <v>2.32</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>568</v>
       </c>
       <c r="AC21" s="4"/>
       <c r="AD21" s="5" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="AE21" s="6">
-        <v>5.15</v>
+        <v>9.22</v>
       </c>
       <c r="AF21" s="7" t="s">
-        <v>454</v>
+        <v>548</v>
       </c>
       <c r="AG21" s="7">
-        <v>4.31</v>
+        <v>6.19</v>
       </c>
       <c r="AH21" s="7" t="s">
-        <v>586</v>
+        <v>535</v>
       </c>
       <c r="AI21" s="8">
-        <v>4.27</v>
-      </c>
-      <c r="AK21" s="14" t="s">
+        <v>5.83</v>
+      </c>
+      <c r="AK21" s="3" t="s">
         <v>514</v>
       </c>
       <c r="AL21" s="4">
-        <v>51.07</v>
+        <v>50.97</v>
       </c>
       <c r="AM21" s="5" t="s">
         <v>590</v>
@@ -8475,9 +8641,9 @@
       </c>
     </row>
     <row r="22" ht="11.5" customHeight="1" spans="1:44">
-      <c r="A22" s="15"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="10">
-        <v>50.47</v>
+        <v>50.39</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>456</v>
@@ -8497,71 +8663,71 @@
       <c r="H22" s="13">
         <v>3</v>
       </c>
-      <c r="J22" s="15"/>
+      <c r="J22" s="9"/>
       <c r="K22" s="10">
-        <v>51.66</v>
+        <v>51.47</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="M22" s="12">
-        <v>7.15</v>
+        <v>9.2</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>568</v>
+        <v>456</v>
       </c>
       <c r="O22" s="12">
-        <v>6.19</v>
+        <v>8.84</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>437</v>
+        <v>542</v>
       </c>
       <c r="Q22" s="13">
-        <v>5.23</v>
-      </c>
-      <c r="S22" s="15"/>
+        <v>5.39</v>
+      </c>
+      <c r="S22" s="9"/>
       <c r="T22" s="10">
-        <v>50.65</v>
+        <v>50.27</v>
       </c>
       <c r="U22" s="11" t="s">
-        <v>547</v>
+        <v>433</v>
       </c>
       <c r="V22" s="12">
-        <v>3.59</v>
+        <v>3.03</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>433</v>
+        <v>599</v>
       </c>
       <c r="X22" s="12">
-        <v>3.32</v>
+        <v>2.24</v>
       </c>
       <c r="Y22" s="12" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Z22" s="13">
-        <v>3.03</v>
-      </c>
-      <c r="AB22" s="15"/>
+        <v>2.21</v>
+      </c>
+      <c r="AB22" s="9"/>
       <c r="AC22" s="10"/>
       <c r="AD22" s="11" t="s">
-        <v>568</v>
+        <v>542</v>
       </c>
       <c r="AE22" s="12">
-        <v>5.68</v>
+        <v>6.05</v>
       </c>
       <c r="AF22" s="12" t="s">
-        <v>602</v>
+        <v>433</v>
       </c>
       <c r="AG22" s="12">
-        <v>5.49</v>
+        <v>5.45</v>
       </c>
       <c r="AH22" s="12" t="s">
         <v>536</v>
       </c>
       <c r="AI22" s="13">
-        <v>5.45</v>
-      </c>
-      <c r="AK22" s="15"/>
+        <v>4.89</v>
+      </c>
+      <c r="AK22" s="9"/>
       <c r="AL22" s="10"/>
       <c r="AM22" s="11" t="s">
         <v>583</v>
@@ -8583,11 +8749,11 @@
       </c>
     </row>
     <row r="23" ht="11.5" customHeight="1" spans="1:44">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="20" t="s">
         <v>516</v>
       </c>
       <c r="B23" s="4">
-        <v>51.25</v>
+        <v>51.29</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>456</v>
@@ -8607,79 +8773,81 @@
       <c r="H23" s="8">
         <v>2.69</v>
       </c>
-      <c r="J23" s="14" t="s">
-        <v>544</v>
+      <c r="J23" s="3" t="s">
+        <v>574</v>
       </c>
       <c r="K23" s="4">
-        <v>50.21</v>
+        <v>51.57</v>
       </c>
       <c r="L23" s="5" t="s">
         <v>536</v>
       </c>
       <c r="M23" s="6">
-        <v>6.78</v>
+        <v>6.57</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>561</v>
+        <v>434</v>
       </c>
       <c r="O23" s="7">
-        <v>5.53</v>
+        <v>5.14</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>447</v>
+        <v>565</v>
       </c>
       <c r="Q23" s="8">
-        <v>5.44</v>
-      </c>
-      <c r="S23" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="T23" s="4"/>
+        <v>4.49</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="T23" s="4">
+        <v>50.97</v>
+      </c>
       <c r="U23" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="V23" s="6">
-        <v>4.36</v>
+        <v>6.54</v>
       </c>
       <c r="W23" s="7" t="s">
-        <v>497</v>
+        <v>552</v>
       </c>
       <c r="X23" s="7">
-        <v>3.26</v>
+        <v>5.39</v>
       </c>
       <c r="Y23" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="Z23" s="8">
-        <v>2.82</v>
-      </c>
-      <c r="AB23" s="14" t="s">
-        <v>567</v>
+        <v>5.3</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>592</v>
       </c>
       <c r="AC23" s="4"/>
       <c r="AD23" s="5" t="s">
-        <v>436</v>
+        <v>561</v>
       </c>
       <c r="AE23" s="6">
-        <v>6.01</v>
+        <v>5.15</v>
       </c>
       <c r="AF23" s="7" t="s">
-        <v>573</v>
+        <v>454</v>
       </c>
       <c r="AG23" s="7">
-        <v>5.76</v>
+        <v>4.31</v>
       </c>
       <c r="AH23" s="7" t="s">
-        <v>548</v>
+        <v>586</v>
       </c>
       <c r="AI23" s="8">
-        <v>4.85</v>
+        <v>4.27</v>
       </c>
       <c r="AK23" s="3" t="s">
         <v>515</v>
       </c>
       <c r="AL23" s="4">
-        <v>50.11</v>
+        <v>50.1</v>
       </c>
       <c r="AM23" s="5" t="s">
         <v>540</v>
@@ -8701,8 +8869,10 @@
       </c>
     </row>
     <row r="24" ht="11.5" customHeight="1" spans="1:44">
-      <c r="A24" s="15"/>
-      <c r="B24" s="10"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="10">
+        <v>50.19</v>
+      </c>
       <c r="C24" s="11" t="s">
         <v>583</v>
       </c>
@@ -8721,69 +8891,69 @@
       <c r="H24" s="13">
         <v>3.61</v>
       </c>
-      <c r="J24" s="15"/>
+      <c r="J24" s="9"/>
       <c r="K24" s="10">
-        <v>51.33</v>
+        <v>51.4</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>568</v>
+        <v>590</v>
       </c>
       <c r="M24" s="12">
-        <v>9.2</v>
+        <v>5.16</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>456</v>
+        <v>495</v>
       </c>
       <c r="O24" s="12">
-        <v>8.84</v>
+        <v>4.65</v>
       </c>
       <c r="P24" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q24" s="13">
+        <v>3.64</v>
+      </c>
+      <c r="S24" s="9"/>
+      <c r="T24" s="10">
+        <v>50.19</v>
+      </c>
+      <c r="U24" s="11" t="s">
         <v>542</v>
       </c>
-      <c r="Q24" s="13">
-        <v>5.39</v>
-      </c>
-      <c r="S24" s="15"/>
-      <c r="T24" s="10">
-        <v>50.5</v>
-      </c>
-      <c r="U24" s="11" t="s">
-        <v>568</v>
-      </c>
       <c r="V24" s="12">
-        <v>4.45</v>
+        <v>5.94</v>
       </c>
       <c r="W24" s="12" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="X24" s="12">
-        <v>3.64</v>
+        <v>5.04</v>
       </c>
       <c r="Y24" s="12" t="s">
-        <v>599</v>
+        <v>566</v>
       </c>
       <c r="Z24" s="13">
-        <v>3.55</v>
-      </c>
-      <c r="AB24" s="15"/>
+        <v>3.14</v>
+      </c>
+      <c r="AB24" s="9"/>
       <c r="AC24" s="10"/>
       <c r="AD24" s="11" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="AE24" s="12">
-        <v>5.41</v>
+        <v>5.68</v>
       </c>
       <c r="AF24" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="AG24" s="12">
+        <v>5.49</v>
+      </c>
+      <c r="AH24" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="AG24" s="12">
-        <v>3.81</v>
-      </c>
-      <c r="AH24" s="12" t="s">
-        <v>539</v>
-      </c>
       <c r="AI24" s="13">
-        <v>3.12</v>
+        <v>5.45</v>
       </c>
       <c r="AK24" s="9"/>
       <c r="AL24" s="10"/>
@@ -8807,215 +8977,253 @@
       </c>
     </row>
     <row r="25" ht="11.5" customHeight="1" spans="1:44">
-      <c r="A25" s="14" t="s">
-        <v>502</v>
-      </c>
-      <c r="B25" s="4">
-        <v>50.11</v>
-      </c>
+      <c r="A25" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="B25" s="4"/>
       <c r="C25" s="5" t="s">
-        <v>494</v>
+        <v>536</v>
       </c>
       <c r="D25" s="6">
-        <v>4.65</v>
+        <v>4.44</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>135</v>
+        <v>591</v>
       </c>
       <c r="F25" s="7">
-        <v>3.83</v>
+        <v>3.57</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>443</v>
+        <v>565</v>
       </c>
       <c r="H25" s="8">
-        <v>3.72</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>574</v>
+        <v>2.99</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>542</v>
       </c>
       <c r="K25" s="4">
-        <v>51.5</v>
+        <v>51.32</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>536</v>
+        <v>456</v>
       </c>
       <c r="M25" s="6">
-        <v>6.57</v>
+        <v>8.64</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>434</v>
+        <v>510</v>
       </c>
       <c r="O25" s="7">
-        <v>5.14</v>
+        <v>7.87</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="Q25" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="S25" s="14" t="s">
-        <v>492</v>
-      </c>
-      <c r="T25" s="4">
-        <v>50.7</v>
-      </c>
+        <v>6.05</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="T25" s="4"/>
       <c r="U25" s="5" t="s">
-        <v>497</v>
+        <v>543</v>
       </c>
       <c r="V25" s="6">
-        <v>6.54</v>
+        <v>10.32</v>
       </c>
       <c r="W25" s="7" t="s">
-        <v>552</v>
+        <v>581</v>
       </c>
       <c r="X25" s="7">
-        <v>5.39</v>
+        <v>5.54</v>
       </c>
       <c r="Y25" s="7" t="s">
-        <v>452</v>
+        <v>590</v>
       </c>
       <c r="Z25" s="8">
-        <v>5.3</v>
-      </c>
-      <c r="AK25" s="14" t="s">
-        <v>454</v>
+        <v>5.22</v>
+      </c>
+      <c r="AB25" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE25" s="6">
+        <v>6.01</v>
+      </c>
+      <c r="AF25" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="AG25" s="7">
+        <v>5.76</v>
+      </c>
+      <c r="AH25" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="AI25" s="8">
+        <v>4.85</v>
+      </c>
+      <c r="AK25" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="AL25" s="4"/>
       <c r="AM25" s="5" t="s">
-        <v>434</v>
+        <v>561</v>
       </c>
       <c r="AN25" s="6">
-        <v>10.98</v>
+        <v>6.12</v>
       </c>
       <c r="AO25" s="7" t="s">
-        <v>456</v>
+        <v>549</v>
       </c>
       <c r="AP25" s="7">
-        <v>4.93</v>
+        <v>5.99</v>
       </c>
       <c r="AQ25" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AR25" s="8">
-        <v>4.63</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="26" ht="11.5" customHeight="1" spans="1:44">
-      <c r="A26" s="15"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="10"/>
       <c r="C26" s="11" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="D26" s="12">
-        <v>5.15</v>
+        <v>4.54</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>456</v>
+        <v>539</v>
       </c>
       <c r="F26" s="12">
-        <v>4.48</v>
+        <v>3.64</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>598</v>
+        <v>497</v>
       </c>
       <c r="H26" s="13">
-        <v>4.25</v>
-      </c>
-      <c r="J26" s="15"/>
+        <v>3.15</v>
+      </c>
+      <c r="J26" s="9"/>
       <c r="K26" s="10">
-        <v>51</v>
+        <v>51.34</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>590</v>
+        <v>536</v>
       </c>
       <c r="M26" s="12">
-        <v>5.16</v>
+        <v>10.32</v>
       </c>
       <c r="N26" s="12" t="s">
-        <v>495</v>
+        <v>602</v>
       </c>
       <c r="O26" s="12">
-        <v>4.65</v>
+        <v>7.23</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>541</v>
+        <v>494</v>
       </c>
       <c r="Q26" s="13">
-        <v>3.64</v>
-      </c>
-      <c r="S26" s="15"/>
+        <v>6.33</v>
+      </c>
+      <c r="S26" s="9"/>
       <c r="T26" s="10">
-        <v>50.32</v>
+        <v>50.13</v>
       </c>
       <c r="U26" s="11" t="s">
-        <v>542</v>
+        <v>586</v>
       </c>
       <c r="V26" s="12">
-        <v>5.94</v>
+        <v>5.97</v>
       </c>
       <c r="W26" s="12" t="s">
-        <v>540</v>
+        <v>497</v>
       </c>
       <c r="X26" s="12">
-        <v>5.04</v>
+        <v>4</v>
       </c>
       <c r="Y26" s="12" t="s">
-        <v>566</v>
+        <v>447</v>
       </c>
       <c r="Z26" s="13">
-        <v>3.14</v>
-      </c>
-      <c r="AK26" s="15"/>
+        <v>3.44</v>
+      </c>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="AE26" s="12">
+        <v>5.41</v>
+      </c>
+      <c r="AF26" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="AG26" s="12">
+        <v>3.81</v>
+      </c>
+      <c r="AH26" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="AI26" s="13">
+        <v>3.12</v>
+      </c>
+      <c r="AK26" s="9"/>
       <c r="AL26" s="10"/>
       <c r="AM26" s="11" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="AN26" s="12">
-        <v>6.47</v>
+        <v>5.6</v>
       </c>
       <c r="AO26" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="AP26" s="12">
+        <v>4.34</v>
+      </c>
+      <c r="AQ26" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="AR26" s="13">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="27" ht="11.5" customHeight="1" spans="1:44">
+      <c r="A27" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="AP26" s="12">
-        <v>5.64</v>
-      </c>
-      <c r="AQ26" s="12" t="s">
-        <v>583</v>
-      </c>
-      <c r="AR26" s="13">
-        <v>4.48</v>
-      </c>
-    </row>
-    <row r="27" ht="11.5" customHeight="1" spans="1:44">
-      <c r="A27" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5" t="s">
-        <v>536</v>
-      </c>
       <c r="D27" s="6">
-        <v>4.44</v>
+        <v>12.44</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>591</v>
+        <v>484</v>
       </c>
       <c r="F27" s="7">
-        <v>3.57</v>
+        <v>10.5</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="H27" s="8">
-        <v>2.99</v>
-      </c>
-      <c r="J27" s="14" t="s">
+        <v>8.84</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>535</v>
       </c>
       <c r="K27" s="4">
-        <v>51.19</v>
+        <v>51.42</v>
       </c>
       <c r="L27" s="5" t="s">
         <v>588</v>
@@ -9035,7 +9243,7 @@
       <c r="Q27" s="8">
         <v>3.08</v>
       </c>
-      <c r="S27" s="14" t="s">
+      <c r="S27" s="3" t="s">
         <v>546</v>
       </c>
       <c r="T27" s="4"/>
@@ -9057,7 +9265,7 @@
       <c r="Z27" s="8">
         <v>4.24</v>
       </c>
-      <c r="AK27" s="14" t="s">
+      <c r="AK27" s="3" t="s">
         <v>508</v>
       </c>
       <c r="AL27" s="4"/>
@@ -9081,29 +9289,29 @@
       </c>
     </row>
     <row r="28" ht="11.5" customHeight="1" spans="1:44">
-      <c r="A28" s="15"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="10"/>
-      <c r="C28" s="11" t="s">
-        <v>586</v>
+      <c r="C28" s="12" t="s">
+        <v>520</v>
       </c>
       <c r="D28" s="12">
-        <v>4.54</v>
+        <v>12.67</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>539</v>
+        <v>495</v>
       </c>
       <c r="F28" s="12">
-        <v>3.64</v>
+        <v>11.34</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>497</v>
+        <v>550</v>
       </c>
       <c r="H28" s="13">
-        <v>3.15</v>
-      </c>
-      <c r="J28" s="15"/>
+        <v>9.29</v>
+      </c>
+      <c r="J28" s="9"/>
       <c r="K28" s="10">
-        <v>50.2</v>
+        <v>50.98</v>
       </c>
       <c r="L28" s="11" t="s">
         <v>565</v>
@@ -9123,9 +9331,9 @@
       <c r="Q28" s="13">
         <v>5.14</v>
       </c>
-      <c r="S28" s="15"/>
+      <c r="S28" s="9"/>
       <c r="T28" s="10">
-        <v>50.18</v>
+        <v>50.1</v>
       </c>
       <c r="U28" s="11" t="s">
         <v>599</v>
@@ -9145,7 +9353,7 @@
       <c r="Z28" s="13">
         <v>3.53</v>
       </c>
-      <c r="AK28" s="15"/>
+      <c r="AK28" s="9"/>
       <c r="AL28" s="10"/>
       <c r="AM28" s="11" t="s">
         <v>590</v>
@@ -9167,33 +9375,33 @@
       </c>
     </row>
     <row r="29" ht="11.5" customHeight="1" spans="1:44">
-      <c r="A29" s="14" t="s">
-        <v>456</v>
+      <c r="A29" s="3" t="s">
+        <v>447</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="22" t="s">
-        <v>510</v>
+      <c r="C29" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="D29" s="6">
-        <v>12.44</v>
+        <v>5.39</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>484</v>
+        <v>435</v>
       </c>
       <c r="F29" s="7">
-        <v>10.5</v>
+        <v>5.22</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>544</v>
+        <v>442</v>
       </c>
       <c r="H29" s="8">
-        <v>8.84</v>
-      </c>
-      <c r="J29" s="14" t="s">
+        <v>5.19</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>521</v>
       </c>
       <c r="K29" s="4">
-        <v>51.04</v>
+        <v>51.13</v>
       </c>
       <c r="L29" s="5" t="s">
         <v>456</v>
@@ -9213,77 +9421,77 @@
       <c r="Q29" s="8">
         <v>2.68</v>
       </c>
-      <c r="S29" s="14" t="s">
-        <v>474</v>
+      <c r="S29" s="3" t="s">
+        <v>552</v>
       </c>
       <c r="T29" s="4">
-        <v>50.27</v>
+        <v>51.7</v>
       </c>
       <c r="U29" s="5" t="s">
-        <v>587</v>
+        <v>433</v>
       </c>
       <c r="V29" s="6">
-        <v>2.48</v>
+        <v>3.86</v>
       </c>
       <c r="W29" s="7" t="s">
-        <v>531</v>
+        <v>557</v>
       </c>
       <c r="X29" s="7">
-        <v>2.34</v>
+        <v>3.52</v>
       </c>
       <c r="Y29" s="7" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="Z29" s="8">
-        <v>2.32</v>
-      </c>
-      <c r="AK29" s="14" t="s">
-        <v>558</v>
+        <v>3.39</v>
+      </c>
+      <c r="AK29" s="3" t="s">
+        <v>557</v>
       </c>
       <c r="AL29" s="4"/>
       <c r="AM29" s="5" t="s">
-        <v>530</v>
+        <v>598</v>
       </c>
       <c r="AN29" s="6">
-        <v>5.3</v>
+        <v>3.91</v>
       </c>
       <c r="AO29" s="7" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="AP29" s="7">
-        <v>3.64</v>
+        <v>3.53</v>
       </c>
       <c r="AQ29" s="7" t="s">
-        <v>590</v>
+        <v>541</v>
       </c>
       <c r="AR29" s="8">
-        <v>3.41</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="30" ht="11.5" customHeight="1" spans="1:44">
-      <c r="A30" s="15"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="10"/>
-      <c r="C30" s="12" t="s">
-        <v>520</v>
+      <c r="C30" s="11" t="s">
+        <v>547</v>
       </c>
       <c r="D30" s="12">
-        <v>12.67</v>
+        <v>6.9</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="F30" s="12">
-        <v>11.34</v>
+        <v>6.62</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H30" s="13">
-        <v>9.29</v>
-      </c>
-      <c r="J30" s="15"/>
+        <v>6.45</v>
+      </c>
+      <c r="J30" s="9"/>
       <c r="K30" s="10">
-        <v>50.14</v>
+        <v>50.32</v>
       </c>
       <c r="L30" s="11" t="s">
         <v>434</v>
@@ -9303,73 +9511,73 @@
       <c r="Q30" s="13">
         <v>2.64</v>
       </c>
-      <c r="S30" s="15"/>
-      <c r="T30" s="10">
-        <v>50.17</v>
-      </c>
+      <c r="S30" s="9"/>
+      <c r="T30" s="10"/>
       <c r="U30" s="11" t="s">
-        <v>433</v>
+        <v>601</v>
       </c>
       <c r="V30" s="12">
-        <v>3.03</v>
+        <v>7.35</v>
       </c>
       <c r="W30" s="12" t="s">
-        <v>599</v>
+        <v>548</v>
       </c>
       <c r="X30" s="12">
-        <v>2.24</v>
+        <v>5.62</v>
       </c>
       <c r="Y30" s="12" t="s">
-        <v>523</v>
+        <v>135</v>
       </c>
       <c r="Z30" s="13">
-        <v>2.21</v>
-      </c>
-      <c r="AK30" s="15"/>
+        <v>5.45</v>
+      </c>
+      <c r="AK30" s="9"/>
       <c r="AL30" s="10"/>
       <c r="AM30" s="11" t="s">
-        <v>456</v>
+        <v>510</v>
       </c>
       <c r="AN30" s="12">
-        <v>2.79</v>
+        <v>5.42</v>
       </c>
       <c r="AO30" s="12" t="s">
-        <v>434</v>
+        <v>601</v>
       </c>
       <c r="AP30" s="12">
-        <v>2.17</v>
+        <v>3.69</v>
       </c>
       <c r="AQ30" s="12" t="s">
-        <v>434</v>
+        <v>552</v>
       </c>
       <c r="AR30" s="13">
-        <v>2.12</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="31" ht="11.5" customHeight="1" spans="1:44">
-      <c r="A31" s="23" t="s">
-        <v>447</v>
-      </c>
-      <c r="B31" s="4"/>
+      <c r="A31" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B31" s="4">
+        <v>50.06</v>
+      </c>
       <c r="C31" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D31" s="6">
-        <v>5.39</v>
+        <v>4.65</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>435</v>
+        <v>135</v>
       </c>
       <c r="F31" s="7">
-        <v>5.22</v>
+        <v>3.83</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H31" s="8">
-        <v>5.19</v>
-      </c>
-      <c r="J31" s="14" t="s">
+        <v>3.72</v>
+      </c>
+      <c r="J31" s="3" t="s">
         <v>561</v>
       </c>
       <c r="K31" s="4">
@@ -9393,75 +9601,75 @@
       <c r="Q31" s="8">
         <v>3.73</v>
       </c>
-      <c r="S31" s="14" t="s">
-        <v>528</v>
+      <c r="S31" s="3" t="s">
+        <v>581</v>
       </c>
       <c r="T31" s="4">
-        <v>50.76</v>
+        <v>50.9</v>
       </c>
       <c r="U31" s="5" t="s">
-        <v>542</v>
+        <v>135</v>
       </c>
       <c r="V31" s="6">
-        <v>3.09</v>
+        <v>3.51</v>
       </c>
       <c r="W31" s="7" t="s">
-        <v>577</v>
+        <v>510</v>
       </c>
       <c r="X31" s="7">
-        <v>2.59</v>
+        <v>3.47</v>
       </c>
       <c r="Y31" s="7" t="s">
-        <v>540</v>
+        <v>498</v>
       </c>
       <c r="Z31" s="8">
-        <v>2.49</v>
-      </c>
-      <c r="AK31" s="23" t="s">
-        <v>557</v>
+        <v>3.4</v>
+      </c>
+      <c r="AK31" s="3" t="s">
+        <v>458</v>
       </c>
       <c r="AL31" s="4"/>
       <c r="AM31" s="5" t="s">
         <v>598</v>
       </c>
       <c r="AN31" s="6">
-        <v>3.91</v>
+        <v>4.26</v>
       </c>
       <c r="AO31" s="7" t="s">
-        <v>577</v>
+        <v>522</v>
       </c>
       <c r="AP31" s="7">
-        <v>3.53</v>
+        <v>3.63</v>
       </c>
       <c r="AQ31" s="7" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="AR31" s="8">
-        <v>3.32</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="32" ht="11.5" customHeight="1" spans="1:44">
-      <c r="A32" s="24"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="10"/>
       <c r="C32" s="11" t="s">
-        <v>547</v>
+        <v>577</v>
       </c>
       <c r="D32" s="12">
-        <v>6.9</v>
+        <v>5.15</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>510</v>
+        <v>456</v>
       </c>
       <c r="F32" s="12">
-        <v>6.62</v>
+        <v>4.48</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>549</v>
+        <v>598</v>
       </c>
       <c r="H32" s="13">
-        <v>6.45</v>
-      </c>
-      <c r="J32" s="15"/>
+        <v>4.25</v>
+      </c>
+      <c r="J32" s="9"/>
       <c r="K32" s="10"/>
       <c r="L32" s="11" t="s">
         <v>434</v>
@@ -9481,49 +9689,49 @@
       <c r="Q32" s="13">
         <v>6.12</v>
       </c>
-      <c r="S32" s="15"/>
+      <c r="S32" s="9"/>
       <c r="T32" s="10"/>
       <c r="U32" s="11" t="s">
-        <v>135</v>
+        <v>530</v>
       </c>
       <c r="V32" s="12">
-        <v>3.57</v>
+        <v>6.58</v>
       </c>
       <c r="W32" s="12" t="s">
-        <v>452</v>
+        <v>507</v>
       </c>
       <c r="X32" s="12">
-        <v>3.25</v>
+        <v>5.54</v>
       </c>
       <c r="Y32" s="12" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="Z32" s="13">
-        <v>2.87</v>
-      </c>
-      <c r="AK32" s="24"/>
+        <v>4.87</v>
+      </c>
+      <c r="AK32" s="9"/>
       <c r="AL32" s="10"/>
       <c r="AM32" s="11" t="s">
-        <v>510</v>
+        <v>582</v>
       </c>
       <c r="AN32" s="12">
-        <v>5.42</v>
+        <v>3.64</v>
       </c>
       <c r="AO32" s="12" t="s">
-        <v>601</v>
+        <v>447</v>
       </c>
       <c r="AP32" s="12">
-        <v>3.69</v>
+        <v>3.6</v>
       </c>
       <c r="AQ32" s="12" t="s">
-        <v>552</v>
+        <v>574</v>
       </c>
       <c r="AR32" s="13">
-        <v>3.52</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="33" ht="11.5" customHeight="1" spans="1:44">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="3" t="s">
         <v>459</v>
       </c>
       <c r="B33" s="4"/>
@@ -9545,11 +9753,11 @@
       <c r="H33" s="8">
         <v>3.96</v>
       </c>
-      <c r="J33" s="14" t="s">
+      <c r="J33" s="3" t="s">
         <v>549</v>
       </c>
       <c r="K33" s="4">
-        <v>51.19</v>
+        <v>51.12</v>
       </c>
       <c r="L33" s="5" t="s">
         <v>447</v>
@@ -9569,55 +9777,55 @@
       <c r="Q33" s="8">
         <v>4.64</v>
       </c>
-      <c r="S33" s="14" t="s">
-        <v>552</v>
+      <c r="S33" s="3" t="s">
+        <v>528</v>
       </c>
       <c r="T33" s="4">
-        <v>51.58</v>
+        <v>50.82</v>
       </c>
       <c r="U33" s="5" t="s">
-        <v>433</v>
+        <v>542</v>
       </c>
       <c r="V33" s="6">
-        <v>3.86</v>
+        <v>3.09</v>
       </c>
       <c r="W33" s="7" t="s">
-        <v>557</v>
+        <v>577</v>
       </c>
       <c r="X33" s="7">
-        <v>3.52</v>
+        <v>2.59</v>
       </c>
       <c r="Y33" s="7" t="s">
-        <v>577</v>
+        <v>540</v>
       </c>
       <c r="Z33" s="8">
-        <v>3.39</v>
-      </c>
-      <c r="AK33" s="14" t="s">
-        <v>458</v>
+        <v>2.49</v>
+      </c>
+      <c r="AK33" s="3" t="s">
+        <v>558</v>
       </c>
       <c r="AL33" s="4"/>
       <c r="AM33" s="5" t="s">
-        <v>598</v>
+        <v>530</v>
       </c>
       <c r="AN33" s="6">
-        <v>4.26</v>
+        <v>5.3</v>
       </c>
       <c r="AO33" s="7" t="s">
-        <v>522</v>
+        <v>583</v>
       </c>
       <c r="AP33" s="7">
-        <v>3.63</v>
+        <v>3.64</v>
       </c>
       <c r="AQ33" s="7" t="s">
-        <v>565</v>
+        <v>590</v>
       </c>
       <c r="AR33" s="8">
-        <v>3.28</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="34" ht="11.5" customHeight="1" spans="1:44">
-      <c r="A34" s="15"/>
+      <c r="A34" s="9"/>
       <c r="B34" s="10"/>
       <c r="C34" s="11" t="s">
         <v>434</v>
@@ -9637,7 +9845,7 @@
       <c r="H34" s="13">
         <v>3.61</v>
       </c>
-      <c r="J34" s="15"/>
+      <c r="J34" s="9"/>
       <c r="K34" s="10"/>
       <c r="L34" s="11" t="s">
         <v>453</v>
@@ -9657,49 +9865,49 @@
       <c r="Q34" s="13">
         <v>5.15</v>
       </c>
-      <c r="S34" s="15"/>
+      <c r="S34" s="9"/>
       <c r="T34" s="10"/>
       <c r="U34" s="11" t="s">
-        <v>601</v>
+        <v>135</v>
       </c>
       <c r="V34" s="12">
-        <v>7.35</v>
+        <v>3.57</v>
       </c>
       <c r="W34" s="12" t="s">
-        <v>548</v>
+        <v>452</v>
       </c>
       <c r="X34" s="12">
-        <v>5.62</v>
+        <v>3.25</v>
       </c>
       <c r="Y34" s="12" t="s">
-        <v>135</v>
+        <v>510</v>
       </c>
       <c r="Z34" s="13">
-        <v>5.45</v>
-      </c>
-      <c r="AK34" s="15"/>
+        <v>2.87</v>
+      </c>
+      <c r="AK34" s="9"/>
       <c r="AL34" s="10"/>
       <c r="AM34" s="11" t="s">
-        <v>582</v>
+        <v>456</v>
       </c>
       <c r="AN34" s="12">
-        <v>3.64</v>
+        <v>2.79</v>
       </c>
       <c r="AO34" s="12" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="AP34" s="12">
-        <v>3.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ34" s="12" t="s">
-        <v>574</v>
+        <v>434</v>
       </c>
       <c r="AR34" s="13">
-        <v>3.58</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="35" ht="11.5" customHeight="1" spans="1:44">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="20" t="s">
         <v>498</v>
       </c>
       <c r="B35" s="4"/>
@@ -9721,11 +9929,11 @@
       <c r="H35" s="8">
         <v>4.88</v>
       </c>
-      <c r="J35" s="14" t="s">
+      <c r="J35" s="3" t="s">
         <v>536</v>
       </c>
       <c r="K35" s="4">
-        <v>50.33</v>
+        <v>50.38</v>
       </c>
       <c r="L35" s="5" t="s">
         <v>542</v>
@@ -9745,31 +9953,31 @@
       <c r="Q35" s="8">
         <v>6.01</v>
       </c>
-      <c r="S35" s="14" t="s">
-        <v>581</v>
+      <c r="S35" s="3" t="s">
+        <v>531</v>
       </c>
       <c r="T35" s="4">
-        <v>51.22</v>
+        <v>50.6</v>
       </c>
       <c r="U35" s="5" t="s">
-        <v>135</v>
+        <v>587</v>
       </c>
       <c r="V35" s="6">
-        <v>3.51</v>
+        <v>5.39</v>
       </c>
       <c r="W35" s="7" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="X35" s="7">
-        <v>3.47</v>
+        <v>4.06</v>
       </c>
       <c r="Y35" s="7" t="s">
-        <v>498</v>
+        <v>552</v>
       </c>
       <c r="Z35" s="8">
-        <v>3.4</v>
-      </c>
-      <c r="AK35" s="14" t="s">
+        <v>3.96</v>
+      </c>
+      <c r="AK35" s="3" t="s">
         <v>538</v>
       </c>
       <c r="AL35" s="4"/>
@@ -9793,7 +10001,7 @@
       </c>
     </row>
     <row r="36" ht="11.5" customHeight="1" spans="1:44">
-      <c r="A36" s="24"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="10"/>
       <c r="C36" s="11" t="s">
         <v>437</v>
@@ -9813,7 +10021,7 @@
       <c r="H36" s="13">
         <v>5.23</v>
       </c>
-      <c r="J36" s="15"/>
+      <c r="J36" s="9"/>
       <c r="K36" s="10"/>
       <c r="L36" s="11" t="s">
         <v>510</v>
@@ -9833,27 +10041,27 @@
       <c r="Q36" s="13">
         <v>6.57</v>
       </c>
-      <c r="S36" s="15"/>
+      <c r="S36" s="9"/>
       <c r="T36" s="10"/>
       <c r="U36" s="11" t="s">
-        <v>530</v>
+        <v>434</v>
       </c>
       <c r="V36" s="12">
-        <v>6.58</v>
+        <v>6.41</v>
       </c>
       <c r="W36" s="12" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="X36" s="12">
-        <v>5.54</v>
+        <v>4.35</v>
       </c>
       <c r="Y36" s="12" t="s">
-        <v>513</v>
+        <v>456</v>
       </c>
       <c r="Z36" s="13">
-        <v>4.87</v>
-      </c>
-      <c r="AK36" s="15"/>
+        <v>4.05</v>
+      </c>
+      <c r="AK36" s="9"/>
       <c r="AL36" s="10"/>
       <c r="AM36" s="11" t="s">
         <v>517</v>
@@ -9875,53 +10083,55 @@
       </c>
     </row>
     <row r="37" ht="11.5" customHeight="1" spans="10:44">
-      <c r="J37" s="14" t="s">
-        <v>520</v>
-      </c>
-      <c r="K37" s="4"/>
+      <c r="J37" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="K37" s="4">
+        <v>50.06</v>
+      </c>
       <c r="L37" s="5" t="s">
         <v>456</v>
       </c>
       <c r="M37" s="6">
-        <v>12.67</v>
+        <v>11.34</v>
       </c>
       <c r="N37" s="7" t="s">
         <v>577</v>
       </c>
       <c r="O37" s="7">
-        <v>7.05</v>
+        <v>7.83</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="Q37" s="26">
-        <v>4.18</v>
-      </c>
-      <c r="S37" s="14" t="s">
-        <v>531</v>
+        <v>542</v>
+      </c>
+      <c r="Q37" s="8">
+        <v>4.67</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="T37" s="4">
-        <v>50.57</v>
+        <v>50.28</v>
       </c>
       <c r="U37" s="5" t="s">
-        <v>587</v>
+        <v>484</v>
       </c>
       <c r="V37" s="6">
-        <v>5.39</v>
+        <v>2.66</v>
       </c>
       <c r="W37" s="7" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="X37" s="7">
-        <v>4.06</v>
+        <v>2.58</v>
       </c>
       <c r="Y37" s="7" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="Z37" s="8">
-        <v>3.96</v>
-      </c>
-      <c r="AK37" s="23" t="s">
+        <v>2.5</v>
+      </c>
+      <c r="AK37" s="20" t="s">
         <v>455</v>
       </c>
       <c r="AL37" s="4"/>
@@ -9945,47 +10155,47 @@
       </c>
     </row>
     <row r="38" ht="11.5" customHeight="1" spans="10:44">
-      <c r="J38" s="15"/>
+      <c r="J38" s="9"/>
       <c r="K38" s="10"/>
       <c r="L38" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="M38" s="12">
+        <v>5.39</v>
+      </c>
+      <c r="N38" s="12" t="s">
         <v>498</v>
       </c>
-      <c r="M38" s="12">
-        <v>5.03</v>
-      </c>
-      <c r="N38" s="12" t="s">
-        <v>583</v>
-      </c>
       <c r="O38" s="12">
-        <v>3.07</v>
+        <v>4.87</v>
       </c>
       <c r="P38" s="12" t="s">
-        <v>558</v>
+        <v>437</v>
       </c>
       <c r="Q38" s="13">
-        <v>2.36</v>
-      </c>
-      <c r="S38" s="15"/>
+        <v>4.16</v>
+      </c>
+      <c r="S38" s="9"/>
       <c r="T38" s="10"/>
       <c r="U38" s="11" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="V38" s="12">
-        <v>6.41</v>
+        <v>3.12</v>
       </c>
       <c r="W38" s="12" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="X38" s="12">
-        <v>4.35</v>
+        <v>2.99</v>
       </c>
       <c r="Y38" s="12" t="s">
-        <v>456</v>
+        <v>602</v>
       </c>
       <c r="Z38" s="13">
-        <v>4.05</v>
-      </c>
-      <c r="AK38" s="24"/>
+        <v>2.86</v>
+      </c>
+      <c r="AK38" s="21"/>
       <c r="AL38" s="10"/>
       <c r="AM38" s="11" t="s">
         <v>548</v>
@@ -10007,53 +10217,51 @@
       </c>
     </row>
     <row r="39" ht="11.5" customHeight="1" spans="10:44">
-      <c r="J39" s="14" t="s">
-        <v>510</v>
+      <c r="J39" s="3" t="s">
+        <v>520</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="5" t="s">
-        <v>572</v>
+        <v>456</v>
       </c>
       <c r="M39" s="6">
-        <v>7.44</v>
+        <v>12.67</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="O39" s="7">
-        <v>7.24</v>
+        <v>7.05</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="Q39" s="8">
-        <v>7.09</v>
-      </c>
-      <c r="S39" s="14" t="s">
-        <v>529</v>
-      </c>
-      <c r="T39" s="4">
-        <v>50.48</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="Q39" s="24">
+        <v>4.18</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="T39" s="4"/>
       <c r="U39" s="5" t="s">
-        <v>484</v>
+        <v>598</v>
       </c>
       <c r="V39" s="6">
-        <v>2.66</v>
+        <v>7.45</v>
       </c>
       <c r="W39" s="7" t="s">
-        <v>459</v>
+        <v>542</v>
       </c>
       <c r="X39" s="7">
-        <v>2.58</v>
+        <v>5.17</v>
       </c>
       <c r="Y39" s="7" t="s">
-        <v>535</v>
+        <v>599</v>
       </c>
       <c r="Z39" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="AK39" s="14" t="s">
+        <v>4.03</v>
+      </c>
+      <c r="AK39" s="3" t="s">
         <v>433</v>
       </c>
       <c r="AL39" s="4"/>
@@ -10077,47 +10285,47 @@
       </c>
     </row>
     <row r="40" ht="11.5" customHeight="1" spans="10:44">
-      <c r="J40" s="15"/>
+      <c r="J40" s="9"/>
       <c r="K40" s="10"/>
       <c r="L40" s="11" t="s">
-        <v>456</v>
+        <v>498</v>
       </c>
       <c r="M40" s="12">
-        <v>12.44</v>
+        <v>5.03</v>
       </c>
       <c r="N40" s="12" t="s">
-        <v>542</v>
+        <v>583</v>
       </c>
       <c r="O40" s="12">
-        <v>7.87</v>
+        <v>3.07</v>
       </c>
       <c r="P40" s="12" t="s">
-        <v>577</v>
+        <v>558</v>
       </c>
       <c r="Q40" s="13">
-        <v>4.79</v>
-      </c>
-      <c r="S40" s="15"/>
+        <v>2.36</v>
+      </c>
+      <c r="S40" s="9"/>
       <c r="T40" s="10"/>
       <c r="U40" s="11" t="s">
-        <v>446</v>
+        <v>510</v>
       </c>
       <c r="V40" s="12">
-        <v>3.12</v>
+        <v>7.44</v>
       </c>
       <c r="W40" s="12" t="s">
-        <v>507</v>
+        <v>567</v>
       </c>
       <c r="X40" s="12">
-        <v>2.99</v>
+        <v>6.01</v>
       </c>
       <c r="Y40" s="12" t="s">
-        <v>602</v>
+        <v>527</v>
       </c>
       <c r="Z40" s="13">
-        <v>2.86</v>
-      </c>
-      <c r="AK40" s="15"/>
+        <v>5.18</v>
+      </c>
+      <c r="AK40" s="9"/>
       <c r="AL40" s="10"/>
       <c r="AM40" s="11" t="s">
         <v>552</v>
@@ -10139,447 +10347,405 @@
       </c>
     </row>
     <row r="41" ht="11.5" customHeight="1" spans="10:44">
-      <c r="J41" s="14" t="s">
-        <v>550</v>
+      <c r="J41" s="3" t="s">
+        <v>510</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="5" t="s">
-        <v>456</v>
+        <v>572</v>
       </c>
       <c r="M41" s="6">
-        <v>9.29</v>
+        <v>7.44</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>494</v>
+        <v>572</v>
       </c>
       <c r="O41" s="7">
-        <v>8.21</v>
+        <v>7.24</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="Q41" s="8">
-        <v>7.15</v>
-      </c>
-      <c r="S41" s="14" t="s">
-        <v>436</v>
+        <v>7.09</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>475</v>
       </c>
       <c r="T41" s="4"/>
       <c r="U41" s="5" t="s">
-        <v>598</v>
+        <v>497</v>
       </c>
       <c r="V41" s="6">
-        <v>7.45</v>
+        <v>3.45</v>
       </c>
       <c r="W41" s="7" t="s">
-        <v>542</v>
+        <v>437</v>
       </c>
       <c r="X41" s="7">
-        <v>5.17</v>
+        <v>3.28</v>
       </c>
       <c r="Y41" s="7" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="Z41" s="8">
-        <v>4.03</v>
-      </c>
-      <c r="AK41" s="14" t="s">
-        <v>587</v>
+        <v>3.15</v>
+      </c>
+      <c r="AK41" s="3" t="s">
+        <v>435</v>
       </c>
       <c r="AL41" s="4"/>
       <c r="AM41" s="5" t="s">
-        <v>582</v>
+        <v>484</v>
       </c>
       <c r="AN41" s="6">
-        <v>8.56</v>
+        <v>3.67</v>
       </c>
       <c r="AO41" s="7" t="s">
-        <v>572</v>
+        <v>459</v>
       </c>
       <c r="AP41" s="7">
-        <v>6.66</v>
+        <v>3.61</v>
       </c>
       <c r="AQ41" s="7" t="s">
-        <v>454</v>
+        <v>601</v>
       </c>
       <c r="AR41" s="8">
-        <v>4.14</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="42" ht="11.5" customHeight="1" spans="10:44">
-      <c r="J42" s="15"/>
+      <c r="J42" s="9"/>
       <c r="K42" s="10"/>
       <c r="L42" s="11" t="s">
-        <v>565</v>
+        <v>456</v>
       </c>
       <c r="M42" s="12">
-        <v>7.77</v>
+        <v>12.44</v>
       </c>
       <c r="N42" s="12" t="s">
-        <v>572</v>
+        <v>542</v>
       </c>
       <c r="O42" s="12">
-        <v>6.95</v>
+        <v>7.87</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>539</v>
+        <v>577</v>
       </c>
       <c r="Q42" s="13">
-        <v>5.39</v>
-      </c>
-      <c r="S42" s="15"/>
+        <v>4.79</v>
+      </c>
+      <c r="S42" s="9"/>
       <c r="T42" s="10"/>
       <c r="U42" s="11" t="s">
-        <v>510</v>
+        <v>590</v>
       </c>
       <c r="V42" s="12">
-        <v>7.44</v>
+        <v>4.01</v>
       </c>
       <c r="W42" s="12" t="s">
-        <v>567</v>
+        <v>539</v>
       </c>
       <c r="X42" s="12">
-        <v>6.01</v>
+        <v>3.91</v>
       </c>
       <c r="Y42" s="12" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="Z42" s="13">
-        <v>5.18</v>
-      </c>
-      <c r="AK42" s="15"/>
+        <v>3.51</v>
+      </c>
+      <c r="AK42" s="9"/>
       <c r="AL42" s="10"/>
       <c r="AM42" s="11" t="s">
-        <v>583</v>
+        <v>447</v>
       </c>
       <c r="AN42" s="12">
-        <v>6.36</v>
+        <v>5.22</v>
       </c>
       <c r="AO42" s="12" t="s">
-        <v>531</v>
+        <v>454</v>
       </c>
       <c r="AP42" s="12">
-        <v>5.39</v>
+        <v>4.59</v>
       </c>
       <c r="AQ42" s="12" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="AR42" s="13">
-        <v>4.44</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="43" ht="11.5" customHeight="1" spans="10:44">
-      <c r="J43" s="14" t="s">
-        <v>547</v>
+      <c r="J43" s="3" t="s">
+        <v>550</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="5" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="M43" s="6">
-        <v>6.9</v>
+        <v>9.29</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>536</v>
+        <v>494</v>
       </c>
       <c r="O43" s="7">
-        <v>4.08</v>
+        <v>8.21</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>437</v>
+        <v>548</v>
       </c>
       <c r="Q43" s="8">
-        <v>3.89</v>
-      </c>
-      <c r="S43" s="14" t="s">
-        <v>475</v>
+        <v>7.15</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>452</v>
       </c>
       <c r="T43" s="4"/>
       <c r="U43" s="5" t="s">
-        <v>497</v>
+        <v>530</v>
       </c>
       <c r="V43" s="6">
-        <v>3.45</v>
+        <v>5.24</v>
       </c>
       <c r="W43" s="7" t="s">
-        <v>437</v>
+        <v>494</v>
       </c>
       <c r="X43" s="7">
-        <v>3.28</v>
+        <v>4.17</v>
       </c>
       <c r="Y43" s="7" t="s">
-        <v>604</v>
+        <v>528</v>
       </c>
       <c r="Z43" s="8">
-        <v>3.15</v>
-      </c>
-      <c r="AK43" s="14" t="s">
-        <v>435</v>
+        <v>3.25</v>
+      </c>
+      <c r="AK43" s="3" t="s">
+        <v>587</v>
       </c>
       <c r="AL43" s="4"/>
       <c r="AM43" s="5" t="s">
-        <v>484</v>
+        <v>582</v>
       </c>
       <c r="AN43" s="6">
-        <v>3.67</v>
+        <v>8.56</v>
       </c>
       <c r="AO43" s="7" t="s">
-        <v>459</v>
+        <v>572</v>
       </c>
       <c r="AP43" s="7">
-        <v>3.61</v>
+        <v>6.66</v>
       </c>
       <c r="AQ43" s="7" t="s">
-        <v>601</v>
+        <v>454</v>
       </c>
       <c r="AR43" s="8">
-        <v>3.11</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="44" ht="11.5" customHeight="1" spans="10:44">
-      <c r="J44" s="15"/>
+      <c r="J44" s="9"/>
       <c r="K44" s="10"/>
       <c r="L44" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="M44" s="12">
+        <v>7.77</v>
+      </c>
+      <c r="N44" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="O44" s="12">
+        <v>6.95</v>
+      </c>
+      <c r="P44" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="M44" s="12">
-        <v>6.09</v>
-      </c>
-      <c r="N44" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="O44" s="12">
-        <v>4.64</v>
-      </c>
-      <c r="P44" s="12" t="s">
-        <v>484</v>
-      </c>
       <c r="Q44" s="13">
-        <v>3.67</v>
-      </c>
-      <c r="S44" s="15"/>
+        <v>5.39</v>
+      </c>
+      <c r="S44" s="9"/>
       <c r="T44" s="10"/>
       <c r="U44" s="11" t="s">
-        <v>590</v>
+        <v>492</v>
       </c>
       <c r="V44" s="12">
-        <v>4.01</v>
+        <v>5.3</v>
       </c>
       <c r="W44" s="12" t="s">
-        <v>539</v>
+        <v>437</v>
       </c>
       <c r="X44" s="12">
-        <v>3.91</v>
+        <v>5.17</v>
       </c>
       <c r="Y44" s="12" t="s">
-        <v>542</v>
+        <v>510</v>
       </c>
       <c r="Z44" s="13">
-        <v>3.51</v>
-      </c>
-      <c r="AK44" s="15"/>
+        <v>3.7</v>
+      </c>
+      <c r="AK44" s="9"/>
       <c r="AL44" s="10"/>
       <c r="AM44" s="11" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="AN44" s="12">
-        <v>5.22</v>
+        <v>6.36</v>
       </c>
       <c r="AO44" s="12" t="s">
-        <v>454</v>
+        <v>531</v>
       </c>
       <c r="AP44" s="12">
-        <v>4.59</v>
+        <v>5.39</v>
       </c>
       <c r="AQ44" s="12" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="AR44" s="13">
-        <v>3.95</v>
-      </c>
-    </row>
-    <row r="45" ht="11.5" customHeight="1" spans="10:26">
-      <c r="J45" s="14" t="s">
-        <v>495</v>
+        <v>4.44</v>
+      </c>
+    </row>
+    <row r="45" ht="11.5" customHeight="1" spans="10:17">
+      <c r="J45" s="3" t="s">
+        <v>547</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="5" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="M45" s="6">
-        <v>11.34</v>
+        <v>6.9</v>
       </c>
       <c r="N45" s="7" t="s">
-        <v>577</v>
+        <v>536</v>
       </c>
       <c r="O45" s="7">
-        <v>7.83</v>
+        <v>4.08</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>542</v>
+        <v>437</v>
       </c>
       <c r="Q45" s="8">
-        <v>4.67</v>
-      </c>
-      <c r="S45" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="T45" s="4"/>
-      <c r="U45" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="V45" s="6">
-        <v>5.24</v>
-      </c>
-      <c r="W45" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="X45" s="7">
-        <v>4.17</v>
-      </c>
-      <c r="Y45" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="Z45" s="8">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="46" ht="11.5" customHeight="1" spans="10:26">
-      <c r="J46" s="15"/>
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="46" ht="11.5" customHeight="1" spans="10:17">
+      <c r="J46" s="9"/>
       <c r="K46" s="10"/>
       <c r="L46" s="11" t="s">
-        <v>447</v>
+        <v>539</v>
       </c>
       <c r="M46" s="12">
-        <v>5.39</v>
+        <v>6.09</v>
       </c>
       <c r="N46" s="12" t="s">
-        <v>498</v>
+        <v>456</v>
       </c>
       <c r="O46" s="12">
-        <v>4.87</v>
+        <v>4.64</v>
       </c>
       <c r="P46" s="12" t="s">
-        <v>437</v>
+        <v>484</v>
       </c>
       <c r="Q46" s="13">
-        <v>4.16</v>
-      </c>
-      <c r="S46" s="15"/>
-      <c r="T46" s="10"/>
-      <c r="U46" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="V46" s="12">
-        <v>5.3</v>
-      </c>
-      <c r="W46" s="12" t="s">
-        <v>437</v>
-      </c>
-      <c r="X46" s="12">
-        <v>5.17</v>
-      </c>
-      <c r="Y46" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="Z46" s="13">
-        <v>3.7</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="47" ht="11.5" customHeight="1" spans="10:17">
-      <c r="J47" s="14" t="s">
-        <v>522</v>
+      <c r="J47" s="3" t="s">
+        <v>604</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="5" t="s">
-        <v>523</v>
+        <v>442</v>
       </c>
       <c r="M47" s="6">
-        <v>5.99</v>
+        <v>3.28</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>135</v>
+        <v>542</v>
       </c>
       <c r="O47" s="7">
-        <v>5.23</v>
+        <v>3.04</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>568</v>
+        <v>541</v>
       </c>
       <c r="Q47" s="8">
-        <v>4.76</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="48" ht="11.5" customHeight="1" spans="10:17">
-      <c r="J48" s="15"/>
+      <c r="J48" s="9"/>
       <c r="K48" s="10"/>
       <c r="L48" s="11" t="s">
-        <v>456</v>
+        <v>510</v>
       </c>
       <c r="M48" s="12">
-        <v>4.41</v>
+        <v>3.92</v>
       </c>
       <c r="N48" s="12" t="s">
-        <v>577</v>
+        <v>475</v>
       </c>
       <c r="O48" s="12">
-        <v>4.15</v>
+        <v>3.15</v>
       </c>
       <c r="P48" s="12" t="s">
-        <v>536</v>
+        <v>601</v>
       </c>
       <c r="Q48" s="13">
-        <v>3.78</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="49" ht="11.5" customHeight="1" spans="10:17">
-      <c r="J49" s="23" t="s">
-        <v>604</v>
+      <c r="J49" s="3" t="s">
+        <v>522</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="5" t="s">
-        <v>442</v>
+        <v>523</v>
       </c>
       <c r="M49" s="6">
-        <v>3.28</v>
+        <v>5.99</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>542</v>
+        <v>135</v>
       </c>
       <c r="O49" s="7">
-        <v>3.04</v>
+        <v>5.23</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>541</v>
+        <v>568</v>
       </c>
       <c r="Q49" s="8">
-        <v>2.76</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="50" ht="11.5" customHeight="1" spans="10:17">
-      <c r="J50" s="24"/>
+      <c r="J50" s="9"/>
       <c r="K50" s="10"/>
       <c r="L50" s="11" t="s">
-        <v>510</v>
+        <v>456</v>
       </c>
       <c r="M50" s="12">
-        <v>3.92</v>
+        <v>4.41</v>
       </c>
       <c r="N50" s="12" t="s">
-        <v>475</v>
+        <v>577</v>
       </c>
       <c r="O50" s="12">
-        <v>3.15</v>
+        <v>4.15</v>
       </c>
       <c r="P50" s="12" t="s">
-        <v>601</v>
+        <v>536</v>
       </c>
       <c r="Q50" s="13">
-        <v>2.98</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="51" ht="11.5" customHeight="1" spans="10:17">
-      <c r="J51" s="14" t="s">
+      <c r="J51" s="3" t="s">
         <v>497</v>
       </c>
       <c r="K51" s="4"/>
@@ -10603,7 +10769,7 @@
       </c>
     </row>
     <row r="52" ht="11.5" customHeight="1" spans="10:17">
-      <c r="J52" s="15"/>
+      <c r="J52" s="9"/>
       <c r="K52" s="10"/>
       <c r="L52" s="11" t="s">
         <v>498</v>
@@ -10692,7 +10858,6 @@
     <mergeCell ref="S39:S40"/>
     <mergeCell ref="S41:S42"/>
     <mergeCell ref="S43:S44"/>
-    <mergeCell ref="S45:S46"/>
     <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="AB3:AB4"/>
     <mergeCell ref="AB5:AB6"/>
@@ -10705,6 +10870,7 @@
     <mergeCell ref="AB19:AB20"/>
     <mergeCell ref="AB21:AB22"/>
     <mergeCell ref="AB23:AB24"/>
+    <mergeCell ref="AB25:AB26"/>
     <mergeCell ref="AK1:AK2"/>
     <mergeCell ref="AK3:AK4"/>
     <mergeCell ref="AK5:AK6"/>
@@ -19007,7 +19173,7 @@
   <dimension ref="A1:AF55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W3" sqref="W3:W4"/>
+      <selection activeCell="P15" sqref="P15:Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" customHeight="1"/>

--- a/logs/OMG.xlsx
+++ b/logs/OMG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14130" windowHeight="11580" firstSheet="6" activeTab="9"/>
+    <workbookView windowWidth="28800" windowHeight="12690" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Dota" sheetId="10" r:id="rId1"/>
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -115,9 +115,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-刘备、鲁班七号、后裔
-小乔、司马懿、斐擒虎、
-不知火舞、橘右京</t>
+安琪拉、曹操、后裔
+鲁班七号、阿古朵、虞姬</t>
         </r>
       </text>
     </comment>
@@ -139,8 +138,9 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-安琪拉、曹操、后裔
-鲁班七号、阿古朵、虞姬</t>
+刘备、鲁班七号、后裔
+小乔、司马懿、斐擒虎、
+不知火舞、橘右京</t>
         </r>
       </text>
     </comment>
@@ -168,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A21" authorId="0">
+    <comment ref="A17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK29" authorId="0">
+    <comment ref="AK27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -260,7 +260,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK37" authorId="0">
+    <comment ref="AK39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2196,11 +2196,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="46">
     <font>
@@ -2382,6 +2382,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2408,29 +2431,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2803,6 +2803,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2822,30 +2846,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3237,10 +3237,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3255,7 +3255,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="58" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -3264,28 +3264,28 @@
     <xf numFmtId="0" fontId="33" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3297,7 +3297,7 @@
     <xf numFmtId="0" fontId="41" fillId="57" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="52" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="48" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3327,13 +3327,13 @@
     <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3345,13 +3345,13 @@
     <xf numFmtId="0" fontId="25" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3360,7 +3360,7 @@
     <xf numFmtId="0" fontId="33" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6169,8 +6169,8 @@
   <sheetPr/>
   <dimension ref="A1:AR52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC35" sqref="AC35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -6227,7 +6227,7 @@
         <v>513</v>
       </c>
       <c r="B1" s="4">
-        <v>51</v>
+        <v>51.07</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>581</v>
@@ -6251,7 +6251,7 @@
         <v>541</v>
       </c>
       <c r="K1" s="4">
-        <v>51.3</v>
+        <v>51.45</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>565</v>
@@ -6275,7 +6275,7 @@
         <v>602</v>
       </c>
       <c r="T1" s="4">
-        <v>51.26</v>
+        <v>51.51</v>
       </c>
       <c r="U1" s="5" t="s">
         <v>542</v>
@@ -6299,7 +6299,7 @@
         <v>591</v>
       </c>
       <c r="AC1" s="4">
-        <v>52.17</v>
+        <v>52.24</v>
       </c>
       <c r="AD1" s="5" t="s">
         <v>561</v>
@@ -6345,7 +6345,7 @@
     <row r="2" ht="11.5" customHeight="1" spans="1:44">
       <c r="A2" s="9"/>
       <c r="B2" s="10">
-        <v>52.55</v>
+        <v>52.52</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>447</v>
@@ -6367,7 +6367,7 @@
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="10">
-        <v>53.73</v>
+        <v>53.23</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>602</v>
@@ -6389,7 +6389,7 @@
       </c>
       <c r="S2" s="9"/>
       <c r="T2" s="10">
-        <v>56.91</v>
+        <v>56.86</v>
       </c>
       <c r="U2" s="11" t="s">
         <v>497</v>
@@ -6411,7 +6411,7 @@
       </c>
       <c r="AB2" s="9"/>
       <c r="AC2" s="10">
-        <v>53.37</v>
+        <v>53.32</v>
       </c>
       <c r="AD2" s="11" t="s">
         <v>599</v>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="AK2" s="26"/>
       <c r="AL2" s="10">
-        <v>52.96</v>
+        <v>53.13</v>
       </c>
       <c r="AM2" s="11" t="s">
         <v>572</v>
@@ -6456,52 +6456,50 @@
     </row>
     <row r="3" ht="11.5" customHeight="1" spans="1:44">
       <c r="A3" s="3" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B3" s="4">
-        <v>51.21</v>
+        <v>52.93</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>601</v>
+        <v>456</v>
       </c>
       <c r="D3" s="6">
-        <v>4.49</v>
+        <v>6.26</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>477</v>
+        <v>589</v>
       </c>
       <c r="F3" s="7">
-        <v>3.34</v>
+        <v>5.73</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>510</v>
+        <v>459</v>
       </c>
       <c r="H3" s="8">
-        <v>3.16</v>
+        <v>3.09</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="K3" s="4">
-        <v>53.43</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="K3" s="4"/>
       <c r="L3" s="5" t="s">
-        <v>542</v>
+        <v>434</v>
       </c>
       <c r="M3" s="6">
-        <v>6.33</v>
+        <v>7.01</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="O3" s="7">
-        <v>6.09</v>
+        <v>6.95</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>590</v>
+        <v>543</v>
       </c>
       <c r="Q3" s="8">
-        <v>4.09</v>
+        <v>6.8</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>530</v>
@@ -6552,78 +6550,76 @@
         <v>5.06</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="AL3" s="4">
-        <v>50.57</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="AL3" s="4"/>
       <c r="AM3" s="5" t="s">
-        <v>561</v>
+        <v>587</v>
       </c>
       <c r="AN3" s="6">
-        <v>7.58</v>
+        <v>6.36</v>
       </c>
       <c r="AO3" s="7" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="AP3" s="7">
-        <v>6.41</v>
+        <v>4.97</v>
       </c>
       <c r="AQ3" s="7" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="AR3" s="8">
-        <v>5.91</v>
+        <v>4.89</v>
       </c>
     </row>
     <row r="4" ht="11.5" customHeight="1" spans="1:44">
       <c r="A4" s="9"/>
       <c r="B4" s="10">
-        <v>52.22</v>
+        <v>52.5</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>599</v>
+        <v>447</v>
       </c>
       <c r="D4" s="12">
-        <v>5.29</v>
+        <v>5.19</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="F4" s="12">
-        <v>4.93</v>
+        <v>3.83</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>565</v>
+        <v>602</v>
       </c>
       <c r="H4" s="13">
-        <v>4.58</v>
+        <v>3.8</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="10">
-        <v>52.91</v>
+        <v>53.22</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>550</v>
+        <v>598</v>
       </c>
       <c r="M4" s="12">
-        <v>8.21</v>
+        <v>14.43</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="O4" s="12">
-        <v>5.38</v>
+        <v>7.24</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="Q4" s="13">
-        <v>4.7</v>
+        <v>6.66</v>
       </c>
       <c r="S4" s="9"/>
       <c r="T4" s="10">
-        <v>54.13</v>
+        <v>54.56</v>
       </c>
       <c r="U4" s="11" t="s">
         <v>598</v>
@@ -6645,7 +6641,7 @@
       </c>
       <c r="AB4" s="9"/>
       <c r="AC4" s="10">
-        <v>52.7</v>
+        <v>52.85</v>
       </c>
       <c r="AD4" s="11" t="s">
         <v>497</v>
@@ -6667,73 +6663,73 @@
       </c>
       <c r="AK4" s="9"/>
       <c r="AL4" s="10">
-        <v>51.89</v>
+        <v>52.25</v>
       </c>
       <c r="AM4" s="11" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="AN4" s="12">
-        <v>10.98</v>
+        <v>5.48</v>
       </c>
       <c r="AO4" s="12" t="s">
-        <v>518</v>
+        <v>453</v>
       </c>
       <c r="AP4" s="12">
-        <v>10.04</v>
+        <v>5.35</v>
       </c>
       <c r="AQ4" s="12" t="s">
-        <v>135</v>
+        <v>582</v>
       </c>
       <c r="AR4" s="13">
-        <v>7.46</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="5" ht="11.5" customHeight="1" spans="1:44">
       <c r="A5" s="3" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B5" s="4">
-        <v>52.94</v>
+        <v>51.26</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>456</v>
+        <v>601</v>
       </c>
       <c r="D5" s="6">
-        <v>6.26</v>
+        <v>4.49</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>589</v>
+        <v>477</v>
       </c>
       <c r="F5" s="7">
-        <v>5.73</v>
+        <v>3.34</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>459</v>
+        <v>510</v>
       </c>
       <c r="H5" s="8">
-        <v>3.09</v>
+        <v>3.16</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="5" t="s">
-        <v>434</v>
+        <v>601</v>
       </c>
       <c r="M5" s="6">
-        <v>7.01</v>
+        <v>4.31</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>550</v>
+        <v>432</v>
       </c>
       <c r="O5" s="7">
-        <v>6.95</v>
+        <v>4.21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="Q5" s="8">
-        <v>6.8</v>
+        <v>3.93</v>
       </c>
       <c r="S5" s="3" t="s">
         <v>135</v>
@@ -6761,7 +6757,7 @@
         <v>598</v>
       </c>
       <c r="AC5" s="4">
-        <v>52.82</v>
+        <v>52.81</v>
       </c>
       <c r="AD5" s="5" t="s">
         <v>572</v>
@@ -6782,76 +6778,78 @@
         <v>6.03</v>
       </c>
       <c r="AK5" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="AL5" s="4"/>
+        <v>434</v>
+      </c>
+      <c r="AL5" s="4">
+        <v>50.39</v>
+      </c>
       <c r="AM5" s="5" t="s">
-        <v>587</v>
+        <v>561</v>
       </c>
       <c r="AN5" s="6">
-        <v>6.36</v>
+        <v>7.58</v>
       </c>
       <c r="AO5" s="7" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="AP5" s="7">
-        <v>4.97</v>
+        <v>6.41</v>
       </c>
       <c r="AQ5" s="7" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="AR5" s="8">
-        <v>4.89</v>
+        <v>5.91</v>
       </c>
     </row>
     <row r="6" ht="11.5" customHeight="1" spans="1:44">
       <c r="A6" s="9"/>
       <c r="B6" s="10">
-        <v>52.18</v>
+        <v>52.32</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>447</v>
+        <v>599</v>
       </c>
       <c r="D6" s="12">
-        <v>5.19</v>
+        <v>5.29</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="F6" s="12">
-        <v>3.83</v>
+        <v>4.93</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>602</v>
+        <v>565</v>
       </c>
       <c r="H6" s="13">
-        <v>3.8</v>
+        <v>4.58</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="10">
-        <v>52.71</v>
+        <v>52.46</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M6" s="12">
-        <v>14.43</v>
+        <v>5.06</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>510</v>
+        <v>602</v>
       </c>
       <c r="O6" s="12">
-        <v>7.24</v>
+        <v>3.92</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>587</v>
+        <v>539</v>
       </c>
       <c r="Q6" s="13">
-        <v>6.66</v>
+        <v>3.71</v>
       </c>
       <c r="S6" s="9"/>
       <c r="T6" s="10">
-        <v>53.45</v>
+        <v>53.63</v>
       </c>
       <c r="U6" s="11" t="s">
         <v>522</v>
@@ -6873,7 +6871,7 @@
       </c>
       <c r="AB6" s="9"/>
       <c r="AC6" s="10">
-        <v>52.25</v>
+        <v>52.34</v>
       </c>
       <c r="AD6" s="11" t="s">
         <v>436</v>
@@ -6895,25 +6893,25 @@
       </c>
       <c r="AK6" s="9"/>
       <c r="AL6" s="10">
-        <v>51.84</v>
+        <v>52.14</v>
       </c>
       <c r="AM6" s="11" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="AN6" s="12">
-        <v>5.48</v>
+        <v>10.98</v>
       </c>
       <c r="AO6" s="12" t="s">
-        <v>453</v>
+        <v>518</v>
       </c>
       <c r="AP6" s="12">
-        <v>5.35</v>
+        <v>10.04</v>
       </c>
       <c r="AQ6" s="12" t="s">
-        <v>582</v>
+        <v>135</v>
       </c>
       <c r="AR6" s="13">
-        <v>4.61</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="7" ht="11.5" customHeight="1" spans="1:44">
@@ -6940,32 +6938,34 @@
         <v>4.16</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="K7" s="4"/>
+        <v>494</v>
+      </c>
+      <c r="K7" s="4">
+        <v>53.44</v>
+      </c>
       <c r="L7" s="5" t="s">
-        <v>573</v>
+        <v>542</v>
       </c>
       <c r="M7" s="6">
-        <v>10.33</v>
+        <v>6.33</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>498</v>
+        <v>536</v>
       </c>
       <c r="O7" s="7">
-        <v>5.23</v>
+        <v>6.09</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>477</v>
+        <v>590</v>
       </c>
       <c r="Q7" s="8">
-        <v>5.12</v>
+        <v>4.09</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>564</v>
       </c>
       <c r="T7" s="4">
-        <v>51.49</v>
+        <v>51.54</v>
       </c>
       <c r="U7" s="5" t="s">
         <v>498</v>
@@ -6986,58 +6986,56 @@
         <v>2.57</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="AC7" s="4">
-        <v>51.48</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="AC7" s="4"/>
       <c r="AD7" s="5" t="s">
-        <v>456</v>
+        <v>507</v>
       </c>
       <c r="AE7" s="6">
-        <v>7.28</v>
+        <v>5.97</v>
       </c>
       <c r="AF7" s="7" t="s">
-        <v>542</v>
+        <v>602</v>
       </c>
       <c r="AG7" s="7">
-        <v>4.62</v>
+        <v>5.57</v>
       </c>
       <c r="AH7" s="7" t="s">
-        <v>568</v>
+        <v>494</v>
       </c>
       <c r="AI7" s="8">
-        <v>4.57</v>
+        <v>5.38</v>
       </c>
       <c r="AK7" s="3" t="s">
-        <v>590</v>
+        <v>443</v>
       </c>
       <c r="AL7" s="4">
-        <v>51.53</v>
+        <v>52.47</v>
       </c>
       <c r="AM7" s="5" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
       <c r="AN7" s="6">
-        <v>6.12</v>
+        <v>5.39</v>
       </c>
       <c r="AO7" s="7" t="s">
-        <v>543</v>
+        <v>436</v>
       </c>
       <c r="AP7" s="7">
-        <v>5.17</v>
+        <v>4.04</v>
       </c>
       <c r="AQ7" s="7" t="s">
-        <v>574</v>
+        <v>447</v>
       </c>
       <c r="AR7" s="8">
-        <v>5.16</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="8" ht="11.5" customHeight="1" spans="1:44">
       <c r="A8" s="9"/>
       <c r="B8" s="10">
-        <v>51.91</v>
+        <v>51.95</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>565</v>
@@ -7059,29 +7057,29 @@
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="10">
-        <v>52.42</v>
+        <v>52.43</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>507</v>
+        <v>550</v>
       </c>
       <c r="M8" s="12">
-        <v>10.32</v>
+        <v>8.21</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>541</v>
+        <v>586</v>
       </c>
       <c r="O8" s="12">
-        <v>7.04</v>
+        <v>5.38</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="Q8" s="13">
-        <v>6.8</v>
+        <v>4.7</v>
       </c>
       <c r="S8" s="9"/>
       <c r="T8" s="10">
-        <v>52.71</v>
+        <v>52.64</v>
       </c>
       <c r="U8" s="11" t="s">
         <v>598</v>
@@ -7103,95 +7101,95 @@
       </c>
       <c r="AB8" s="9"/>
       <c r="AC8" s="10">
-        <v>51.47</v>
+        <v>51.71</v>
       </c>
       <c r="AD8" s="11" t="s">
-        <v>442</v>
+        <v>135</v>
       </c>
       <c r="AE8" s="12">
-        <v>5.73</v>
+        <v>4.51</v>
       </c>
       <c r="AF8" s="12" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AG8" s="12">
-        <v>4.04</v>
+        <v>4.43</v>
       </c>
       <c r="AH8" s="12" t="s">
-        <v>495</v>
+        <v>592</v>
       </c>
       <c r="AI8" s="13">
-        <v>3.54</v>
+        <v>4.27</v>
       </c>
       <c r="AK8" s="9"/>
       <c r="AL8" s="10">
-        <v>51.13</v>
+        <v>51.24</v>
       </c>
       <c r="AM8" s="11" t="s">
-        <v>536</v>
+        <v>590</v>
       </c>
       <c r="AN8" s="12">
-        <v>5.27</v>
+        <v>5.97</v>
       </c>
       <c r="AO8" s="12" t="s">
-        <v>507</v>
+        <v>555</v>
       </c>
       <c r="AP8" s="12">
-        <v>5.22</v>
+        <v>5.51</v>
       </c>
       <c r="AQ8" s="12" t="s">
-        <v>455</v>
+        <v>582</v>
       </c>
       <c r="AR8" s="13">
-        <v>4.93</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="9" ht="11.5" customHeight="1" spans="1:44">
       <c r="A9" s="3" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="B9" s="4">
-        <v>50.5</v>
+        <v>52.83</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>484</v>
+        <v>536</v>
       </c>
       <c r="D9" s="6">
-        <v>6.9</v>
+        <v>4.24</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>589</v>
+        <v>522</v>
       </c>
       <c r="F9" s="7">
-        <v>3.11</v>
+        <v>3.69</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>459</v>
+        <v>547</v>
       </c>
       <c r="H9" s="8">
-        <v>3.11</v>
+        <v>3.67</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="5" t="s">
-        <v>601</v>
+        <v>573</v>
       </c>
       <c r="M9" s="6">
-        <v>4.31</v>
+        <v>10.33</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>432</v>
+        <v>498</v>
       </c>
       <c r="O9" s="7">
-        <v>4.21</v>
+        <v>5.23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>561</v>
+        <v>477</v>
       </c>
       <c r="Q9" s="8">
-        <v>3.93</v>
+        <v>5.12</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>573</v>
@@ -7216,26 +7214,28 @@
         <v>3.52</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="AC9" s="4"/>
+        <v>589</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>51.43</v>
+      </c>
       <c r="AD9" s="5" t="s">
-        <v>507</v>
+        <v>456</v>
       </c>
       <c r="AE9" s="6">
-        <v>5.97</v>
+        <v>7.28</v>
       </c>
       <c r="AF9" s="7" t="s">
-        <v>602</v>
+        <v>542</v>
       </c>
       <c r="AG9" s="7">
-        <v>5.57</v>
+        <v>4.62</v>
       </c>
       <c r="AH9" s="7" t="s">
-        <v>494</v>
+        <v>568</v>
       </c>
       <c r="AI9" s="8">
-        <v>5.38</v>
+        <v>4.57</v>
       </c>
       <c r="AK9" s="3" t="s">
         <v>582</v>
@@ -7263,51 +7263,51 @@
     <row r="10" ht="11.5" customHeight="1" spans="1:44">
       <c r="A10" s="9"/>
       <c r="B10" s="10">
-        <v>51.31</v>
+        <v>51.18</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>541</v>
+        <v>456</v>
       </c>
       <c r="D10" s="12">
-        <v>6.53</v>
+        <v>10.5</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>543</v>
+        <v>477</v>
       </c>
       <c r="F10" s="12">
-        <v>5.12</v>
+        <v>6.9</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>527</v>
+        <v>497</v>
       </c>
       <c r="H10" s="13">
-        <v>4.9</v>
+        <v>5.8</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="10">
-        <v>52.4</v>
+        <v>52.37</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>599</v>
+        <v>507</v>
       </c>
       <c r="M10" s="12">
-        <v>5.06</v>
+        <v>10.32</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>602</v>
+        <v>541</v>
       </c>
       <c r="O10" s="12">
-        <v>3.92</v>
+        <v>7.04</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>539</v>
+        <v>572</v>
       </c>
       <c r="Q10" s="13">
-        <v>3.71</v>
+        <v>6.8</v>
       </c>
       <c r="S10" s="9"/>
       <c r="T10" s="10">
-        <v>52.43</v>
+        <v>52.6</v>
       </c>
       <c r="U10" s="11" t="s">
         <v>543</v>
@@ -7329,29 +7329,29 @@
       </c>
       <c r="AB10" s="9"/>
       <c r="AC10" s="10">
-        <v>51.2</v>
+        <v>51.05</v>
       </c>
       <c r="AD10" s="11" t="s">
-        <v>135</v>
+        <v>442</v>
       </c>
       <c r="AE10" s="12">
-        <v>4.51</v>
+        <v>5.73</v>
       </c>
       <c r="AF10" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AG10" s="12">
-        <v>4.43</v>
+        <v>4.04</v>
       </c>
       <c r="AH10" s="12" t="s">
-        <v>592</v>
+        <v>495</v>
       </c>
       <c r="AI10" s="13">
-        <v>4.27</v>
+        <v>3.54</v>
       </c>
       <c r="AK10" s="9"/>
       <c r="AL10" s="10">
-        <v>50.89</v>
+        <v>51.01</v>
       </c>
       <c r="AM10" s="11" t="s">
         <v>587</v>
@@ -7374,58 +7374,58 @@
     </row>
     <row r="11" ht="11.5" customHeight="1" spans="1:44">
       <c r="A11" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B11" s="4">
+        <v>50.61</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="B11" s="4">
-        <v>52.9</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>536</v>
-      </c>
       <c r="D11" s="6">
-        <v>4.24</v>
+        <v>6.9</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>522</v>
+        <v>589</v>
       </c>
       <c r="F11" s="7">
-        <v>3.69</v>
+        <v>3.11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>547</v>
+        <v>459</v>
       </c>
       <c r="H11" s="8">
-        <v>3.67</v>
+        <v>3.11</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="K11" s="4">
-        <v>53.23</v>
+        <v>51.26</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>492</v>
+        <v>552</v>
       </c>
       <c r="M11" s="6">
-        <v>5.04</v>
+        <v>5.62</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>581</v>
+        <v>484</v>
       </c>
       <c r="O11" s="7">
-        <v>3.43</v>
+        <v>4.19</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>590</v>
+        <v>539</v>
       </c>
       <c r="Q11" s="8">
-        <v>3.36</v>
+        <v>4.03</v>
       </c>
       <c r="S11" s="3" t="s">
         <v>594</v>
       </c>
       <c r="T11" s="4">
-        <v>52.34</v>
+        <v>52.42</v>
       </c>
       <c r="U11" s="5" t="s">
         <v>497</v>
@@ -7449,7 +7449,7 @@
         <v>575</v>
       </c>
       <c r="AC11" s="4">
-        <v>51.76</v>
+        <v>51.69</v>
       </c>
       <c r="AD11" s="5" t="s">
         <v>581</v>
@@ -7470,28 +7470,28 @@
         <v>2.64</v>
       </c>
       <c r="AK11" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="AL11" s="4">
+        <v>51.44</v>
+      </c>
+      <c r="AM11" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="AL11" s="4">
-        <v>52.49</v>
-      </c>
-      <c r="AM11" s="5" t="s">
-        <v>497</v>
-      </c>
       <c r="AN11" s="6">
-        <v>5.39</v>
+        <v>6.12</v>
       </c>
       <c r="AO11" s="7" t="s">
-        <v>436</v>
+        <v>543</v>
       </c>
       <c r="AP11" s="7">
-        <v>4.04</v>
+        <v>5.17</v>
       </c>
       <c r="AQ11" s="7" t="s">
-        <v>447</v>
+        <v>574</v>
       </c>
       <c r="AR11" s="8">
-        <v>3.02</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="12" ht="11.5" customHeight="1" spans="1:44">
@@ -7500,48 +7500,48 @@
         <v>51.16</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>456</v>
+        <v>541</v>
       </c>
       <c r="D12" s="12">
-        <v>10.5</v>
+        <v>6.53</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>477</v>
+        <v>543</v>
       </c>
       <c r="F12" s="12">
-        <v>6.9</v>
+        <v>5.12</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>497</v>
+        <v>527</v>
       </c>
       <c r="H12" s="13">
-        <v>5.8</v>
+        <v>4.9</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="10">
-        <v>52.15</v>
+        <v>52</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>602</v>
+        <v>550</v>
       </c>
       <c r="M12" s="12">
-        <v>5.94</v>
+        <v>7.15</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>433</v>
+        <v>568</v>
       </c>
       <c r="O12" s="12">
-        <v>4.49</v>
+        <v>6.19</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>515</v>
+        <v>437</v>
       </c>
       <c r="Q12" s="13">
-        <v>4.47</v>
+        <v>5.23</v>
       </c>
       <c r="S12" s="9"/>
       <c r="T12" s="10">
-        <v>51.92</v>
+        <v>52.05</v>
       </c>
       <c r="U12" s="11" t="s">
         <v>600</v>
@@ -7563,7 +7563,7 @@
       </c>
       <c r="AB12" s="9"/>
       <c r="AC12" s="10">
-        <v>51.14</v>
+        <v>51.01</v>
       </c>
       <c r="AD12" s="11" t="s">
         <v>602</v>
@@ -7585,25 +7585,25 @@
       </c>
       <c r="AK12" s="9"/>
       <c r="AL12" s="10">
-        <v>50.44</v>
+        <v>50.77</v>
       </c>
       <c r="AM12" s="11" t="s">
-        <v>590</v>
+        <v>536</v>
       </c>
       <c r="AN12" s="12">
-        <v>6.49</v>
+        <v>5.27</v>
       </c>
       <c r="AO12" s="12" t="s">
-        <v>590</v>
+        <v>507</v>
       </c>
       <c r="AP12" s="12">
-        <v>6.12</v>
+        <v>5.22</v>
       </c>
       <c r="AQ12" s="12" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="AR12" s="13">
-        <v>4.98</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="13" ht="11.5" customHeight="1" spans="1:44">
@@ -7611,7 +7611,7 @@
         <v>432</v>
       </c>
       <c r="B13" s="15">
-        <v>52.6</v>
+        <v>51.99</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>522</v>
@@ -7632,58 +7632,56 @@
         <v>2.89</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="K13" s="4">
-        <v>51.42</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="K13" s="4"/>
       <c r="L13" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="M13" s="6">
+        <v>6.09</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="O13" s="7">
+        <v>5.39</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>5</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="T13" s="4">
+        <v>51.73</v>
+      </c>
+      <c r="U13" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="M13" s="6">
-        <v>5.62</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="O13" s="7">
-        <v>4.19</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="Q13" s="8">
-        <v>4.03</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="T13" s="4">
-        <v>52.12</v>
-      </c>
-      <c r="U13" s="5" t="s">
-        <v>502</v>
-      </c>
       <c r="V13" s="6">
-        <v>5.15</v>
+        <v>7.35</v>
       </c>
       <c r="W13" s="7" t="s">
-        <v>510</v>
+        <v>561</v>
       </c>
       <c r="X13" s="7">
-        <v>4.856</v>
+        <v>5.86</v>
       </c>
       <c r="Y13" s="7" t="s">
-        <v>600</v>
+        <v>535</v>
       </c>
       <c r="Z13" s="8">
-        <v>4.798</v>
+        <v>4.1</v>
       </c>
       <c r="AB13" s="3" t="s">
         <v>527</v>
       </c>
       <c r="AC13" s="4">
-        <v>50.47</v>
+        <v>50.44</v>
       </c>
       <c r="AD13" s="5" t="s">
         <v>436</v>
@@ -7729,7 +7727,7 @@
     <row r="14" ht="11.5" customHeight="1" spans="1:44">
       <c r="A14" s="9"/>
       <c r="B14" s="10">
-        <v>51.09</v>
+        <v>51.11</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>548</v>
@@ -7751,47 +7749,47 @@
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="10">
-        <v>52.05</v>
+        <v>51.87</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>550</v>
+        <v>583</v>
       </c>
       <c r="M14" s="12">
-        <v>7.15</v>
+        <v>4.97</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>568</v>
+        <v>498</v>
       </c>
       <c r="O14" s="12">
-        <v>6.19</v>
+        <v>4.47</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>437</v>
+        <v>548</v>
       </c>
       <c r="Q14" s="13">
-        <v>5.23</v>
+        <v>4.03</v>
       </c>
       <c r="S14" s="9"/>
       <c r="T14" s="10">
-        <v>51.41</v>
+        <v>51.42</v>
       </c>
       <c r="U14" s="11" t="s">
-        <v>495</v>
+        <v>576</v>
       </c>
       <c r="V14" s="12">
-        <v>7.83</v>
+        <v>5.52</v>
       </c>
       <c r="W14" s="12" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="X14" s="12">
-        <v>7.05</v>
+        <v>4.65</v>
       </c>
       <c r="Y14" s="12" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="Z14" s="13">
-        <v>4.78</v>
+        <v>4.56</v>
       </c>
       <c r="AB14" s="9"/>
       <c r="AC14" s="10">
@@ -7817,7 +7815,7 @@
       </c>
       <c r="AK14" s="9"/>
       <c r="AL14" s="10">
-        <v>50.3</v>
+        <v>50.19</v>
       </c>
       <c r="AM14" s="11" t="s">
         <v>587</v>
@@ -7862,74 +7860,72 @@
         <v>3.19</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="K15" s="4"/>
+        <v>540</v>
+      </c>
+      <c r="K15" s="4">
+        <v>53.1</v>
+      </c>
       <c r="L15" s="5" t="s">
-        <v>547</v>
+        <v>492</v>
       </c>
       <c r="M15" s="6">
-        <v>6.09</v>
+        <v>5.04</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>550</v>
+        <v>581</v>
       </c>
       <c r="O15" s="7">
-        <v>5.39</v>
+        <v>3.43</v>
       </c>
       <c r="P15" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>3.36</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="T15" s="4"/>
+      <c r="U15" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="V15" s="6">
+        <v>4.36</v>
+      </c>
+      <c r="W15" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="X15" s="7">
+        <v>3.26</v>
+      </c>
+      <c r="Y15" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="Q15" s="8">
-        <v>5</v>
-      </c>
-      <c r="S15" s="3" t="s">
+      <c r="Z15" s="8">
+        <v>2.82</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="AE15" s="6">
+        <v>2.2</v>
+      </c>
+      <c r="AF15" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="T15" s="4">
-        <v>51.71</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="V15" s="6">
-        <v>7.35</v>
-      </c>
-      <c r="W15" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="X15" s="7">
-        <v>5.86</v>
-      </c>
-      <c r="Y15" s="7" t="s">
+      <c r="AG15" s="7">
+        <v>2.12</v>
+      </c>
+      <c r="AH15" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="Z15" s="8">
-        <v>4.1</v>
-      </c>
-      <c r="AB15" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="AC15" s="4">
-        <v>50.74</v>
-      </c>
-      <c r="AD15" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="AE15" s="6">
-        <v>8.12</v>
-      </c>
-      <c r="AF15" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="AG15" s="7">
-        <v>4.01</v>
-      </c>
-      <c r="AH15" s="7" t="s">
-        <v>446</v>
-      </c>
       <c r="AI15" s="8">
-        <v>3.34</v>
+        <v>2.09</v>
       </c>
       <c r="AK15" s="3" t="s">
         <v>454</v>
@@ -7957,7 +7953,7 @@
     <row r="16" ht="11.5" customHeight="1" spans="1:44">
       <c r="A16" s="9"/>
       <c r="B16" s="10">
-        <v>50.82</v>
+        <v>50.55</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>601</v>
@@ -7979,69 +7975,69 @@
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="10">
-        <v>51.63</v>
+        <v>51.82</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>583</v>
+        <v>602</v>
       </c>
       <c r="M16" s="12">
-        <v>4.97</v>
+        <v>5.94</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>498</v>
+        <v>433</v>
       </c>
       <c r="O16" s="12">
+        <v>4.49</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q16" s="13">
         <v>4.47</v>
-      </c>
-      <c r="P16" s="12" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q16" s="13">
-        <v>4.03</v>
       </c>
       <c r="S16" s="9"/>
       <c r="T16" s="10">
-        <v>51.17</v>
+        <v>50.99</v>
       </c>
       <c r="U16" s="11" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="V16" s="12">
-        <v>5.52</v>
+        <v>4.45</v>
       </c>
       <c r="W16" s="12" t="s">
         <v>555</v>
       </c>
       <c r="X16" s="12">
-        <v>4.65</v>
+        <v>3.64</v>
       </c>
       <c r="Y16" s="12" t="s">
         <v>599</v>
       </c>
       <c r="Z16" s="13">
-        <v>4.56</v>
+        <v>3.55</v>
       </c>
       <c r="AB16" s="9"/>
       <c r="AC16" s="10">
-        <v>50.66</v>
+        <v>50.41</v>
       </c>
       <c r="AD16" s="11" t="s">
-        <v>561</v>
+        <v>456</v>
       </c>
       <c r="AE16" s="12">
-        <v>4.43</v>
+        <v>4.16</v>
       </c>
       <c r="AF16" s="12" t="s">
-        <v>498</v>
+        <v>536</v>
       </c>
       <c r="AG16" s="12">
-        <v>3.47</v>
+        <v>2.76</v>
       </c>
       <c r="AH16" s="12" t="s">
-        <v>535</v>
+        <v>433</v>
       </c>
       <c r="AI16" s="13">
-        <v>3.14</v>
+        <v>2.11</v>
       </c>
       <c r="AK16" s="9"/>
       <c r="AL16" s="10">
@@ -8068,228 +8064,232 @@
     </row>
     <row r="17" ht="11.5" customHeight="1" spans="1:44">
       <c r="A17" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="B17" s="4"/>
+        <v>603</v>
+      </c>
+      <c r="B17" s="4">
+        <v>51.19</v>
+      </c>
       <c r="C17" s="5" t="s">
-        <v>498</v>
+        <v>432</v>
       </c>
       <c r="D17" s="6">
-        <v>4.89</v>
+        <v>3.59</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>601</v>
+        <v>447</v>
       </c>
       <c r="F17" s="7">
-        <v>4.01</v>
+        <v>2.44</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>591</v>
+        <v>434</v>
       </c>
       <c r="H17" s="8">
-        <v>3.88</v>
+        <v>2.35</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="K17" s="4">
-        <v>50.26</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="K17" s="4"/>
       <c r="L17" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="M17" s="6">
+        <v>5.14</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="O17" s="7">
+        <v>4.58</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>4.77</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="T17" s="4">
+        <v>50.43</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="V17" s="6">
+        <v>5.01</v>
+      </c>
+      <c r="W17" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="X17" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="Y17" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="M17" s="6">
-        <v>5.59</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="O17" s="7">
-        <v>5.56</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="Q17" s="8">
-        <v>5.48</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="T17" s="4"/>
-      <c r="U17" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="V17" s="6">
-        <v>4.36</v>
-      </c>
-      <c r="W17" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="X17" s="7">
-        <v>3.26</v>
-      </c>
-      <c r="Y17" s="7" t="s">
-        <v>447</v>
-      </c>
       <c r="Z17" s="8">
-        <v>2.82</v>
+        <v>3.53</v>
       </c>
       <c r="AB17" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="AC17" s="4"/>
+        <v>576</v>
+      </c>
+      <c r="AC17" s="4">
+        <v>50.83</v>
+      </c>
       <c r="AD17" s="5" t="s">
-        <v>587</v>
+        <v>527</v>
       </c>
       <c r="AE17" s="6">
-        <v>2.2</v>
+        <v>5.93</v>
       </c>
       <c r="AF17" s="7" t="s">
         <v>601</v>
       </c>
       <c r="AG17" s="7">
-        <v>2.12</v>
+        <v>5.52</v>
       </c>
       <c r="AH17" s="7" t="s">
-        <v>535</v>
+        <v>442</v>
       </c>
       <c r="AI17" s="8">
-        <v>2.09</v>
+        <v>3.83</v>
       </c>
       <c r="AK17" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="AL17" s="4"/>
+        <v>468</v>
+      </c>
+      <c r="AL17" s="4">
+        <v>51.42</v>
+      </c>
       <c r="AM17" s="5" t="s">
-        <v>538</v>
+        <v>443</v>
       </c>
       <c r="AN17" s="6">
-        <v>5.95</v>
+        <v>3</v>
       </c>
       <c r="AO17" s="7" t="s">
-        <v>543</v>
+        <v>575</v>
       </c>
       <c r="AP17" s="7">
-        <v>3.3</v>
+        <v>2.57</v>
       </c>
       <c r="AQ17" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="AR17" s="8">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="18" ht="11.5" customHeight="1" spans="1:44">
       <c r="A18" s="9"/>
       <c r="B18" s="10">
-        <v>50.42</v>
+        <v>50.54</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>574</v>
+        <v>456</v>
       </c>
       <c r="D18" s="12">
-        <v>4.23</v>
+        <v>7.22</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>494</v>
+        <v>590</v>
       </c>
       <c r="F18" s="12">
-        <v>3.56</v>
+        <v>3.67</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="H18" s="13">
-        <v>3.19</v>
+        <v>3</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="10">
-        <v>51.63</v>
+        <v>51.66</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>600</v>
+        <v>536</v>
       </c>
       <c r="M18" s="12">
-        <v>7.26</v>
+        <v>8.01</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>453</v>
+        <v>522</v>
       </c>
       <c r="O18" s="12">
-        <v>5.68</v>
+        <v>5.99</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>547</v>
+        <v>433</v>
       </c>
       <c r="Q18" s="13">
-        <v>3.89</v>
+        <v>5.83</v>
       </c>
       <c r="S18" s="9"/>
       <c r="T18" s="10">
-        <v>51.01</v>
+        <v>50.96</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="V18" s="12">
-        <v>4.45</v>
+        <v>3.59</v>
       </c>
       <c r="W18" s="12" t="s">
-        <v>555</v>
+        <v>433</v>
       </c>
       <c r="X18" s="12">
-        <v>3.64</v>
+        <v>3.32</v>
       </c>
       <c r="Y18" s="12" t="s">
-        <v>599</v>
+        <v>522</v>
       </c>
       <c r="Z18" s="13">
-        <v>3.55</v>
+        <v>3.03</v>
       </c>
       <c r="AB18" s="9"/>
       <c r="AC18" s="10">
-        <v>50.36</v>
+        <v>50.19</v>
       </c>
       <c r="AD18" s="11" t="s">
-        <v>456</v>
+        <v>598</v>
       </c>
       <c r="AE18" s="12">
-        <v>4.16</v>
+        <v>4.27</v>
       </c>
       <c r="AF18" s="12" t="s">
-        <v>536</v>
+        <v>577</v>
       </c>
       <c r="AG18" s="12">
-        <v>2.76</v>
+        <v>3.21</v>
       </c>
       <c r="AH18" s="12" t="s">
-        <v>433</v>
+        <v>589</v>
       </c>
       <c r="AI18" s="13">
-        <v>2.11</v>
+        <v>3.1</v>
       </c>
       <c r="AK18" s="9"/>
-      <c r="AL18" s="10">
-        <v>50.06</v>
-      </c>
+      <c r="AL18" s="10"/>
       <c r="AM18" s="11" t="s">
-        <v>552</v>
+        <v>590</v>
       </c>
       <c r="AN18" s="12">
-        <v>2.6</v>
+        <v>4.29</v>
       </c>
       <c r="AO18" s="12" t="s">
-        <v>454</v>
+        <v>135</v>
       </c>
       <c r="AP18" s="12">
-        <v>2.57</v>
+        <v>3.55</v>
       </c>
       <c r="AQ18" s="12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AR18" s="13">
-        <v>2.22</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="19" ht="11.5" customHeight="1" spans="1:44">
@@ -8316,104 +8316,106 @@
         <v>3.13</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="K19" s="4"/>
+        <v>544</v>
+      </c>
+      <c r="K19" s="4">
+        <v>50.42</v>
+      </c>
       <c r="L19" s="5" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M19" s="6">
-        <v>5.14</v>
+        <v>6.78</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="O19" s="7">
-        <v>4.58</v>
+        <v>5.53</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>549</v>
+        <v>447</v>
       </c>
       <c r="Q19" s="8">
-        <v>4.77</v>
+        <v>5.44</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>566</v>
+        <v>492</v>
       </c>
       <c r="T19" s="4">
-        <v>50.29</v>
+        <v>51.07</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>548</v>
+        <v>497</v>
       </c>
       <c r="V19" s="6">
-        <v>5.01</v>
+        <v>6.54</v>
       </c>
       <c r="W19" s="7" t="s">
-        <v>535</v>
+        <v>552</v>
       </c>
       <c r="X19" s="7">
-        <v>4.71</v>
+        <v>5.39</v>
       </c>
       <c r="Y19" s="7" t="s">
-        <v>497</v>
+        <v>452</v>
       </c>
       <c r="Z19" s="8">
-        <v>3.53</v>
+        <v>5.3</v>
       </c>
       <c r="AB19" s="3" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="AC19" s="4">
-        <v>50.83</v>
+        <v>50.73</v>
       </c>
       <c r="AD19" s="5" t="s">
-        <v>527</v>
+        <v>456</v>
       </c>
       <c r="AE19" s="6">
-        <v>5.93</v>
+        <v>8.12</v>
       </c>
       <c r="AF19" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AG19" s="7">
-        <v>5.52</v>
+        <v>4.01</v>
       </c>
       <c r="AH19" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="AI19" s="8">
-        <v>3.83</v>
+        <v>3.34</v>
       </c>
       <c r="AK19" s="3" t="s">
-        <v>468</v>
+        <v>514</v>
       </c>
       <c r="AL19" s="4">
-        <v>51.24</v>
+        <v>50.88</v>
       </c>
       <c r="AM19" s="5" t="s">
-        <v>443</v>
+        <v>590</v>
       </c>
       <c r="AN19" s="6">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AO19" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AP19" s="7">
-        <v>2.57</v>
+        <v>2.92</v>
       </c>
       <c r="AQ19" s="7" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="AR19" s="8">
-        <v>2.5</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="20" ht="11.5" customHeight="1" spans="1:44">
       <c r="A20" s="9"/>
       <c r="B20" s="10">
-        <v>50.38</v>
+        <v>50.23</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>520</v>
@@ -8435,163 +8437,161 @@
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="10">
-        <v>51.5</v>
+        <v>51.62</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="M20" s="12">
-        <v>8.01</v>
+        <v>9.2</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>522</v>
+        <v>456</v>
       </c>
       <c r="O20" s="12">
-        <v>5.99</v>
+        <v>8.84</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>433</v>
+        <v>542</v>
       </c>
       <c r="Q20" s="13">
-        <v>5.83</v>
+        <v>5.39</v>
       </c>
       <c r="S20" s="9"/>
       <c r="T20" s="10">
-        <v>50.6</v>
+        <v>50.53</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="V20" s="12">
-        <v>3.59</v>
+        <v>5.94</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>433</v>
+        <v>540</v>
       </c>
       <c r="X20" s="12">
-        <v>3.32</v>
+        <v>5.04</v>
       </c>
       <c r="Y20" s="12" t="s">
-        <v>522</v>
+        <v>566</v>
       </c>
       <c r="Z20" s="13">
-        <v>3.03</v>
+        <v>3.14</v>
       </c>
       <c r="AB20" s="9"/>
       <c r="AC20" s="10">
-        <v>50.31</v>
+        <v>50.13</v>
       </c>
       <c r="AD20" s="11" t="s">
-        <v>598</v>
+        <v>561</v>
       </c>
       <c r="AE20" s="12">
-        <v>4.27</v>
+        <v>4.43</v>
       </c>
       <c r="AF20" s="12" t="s">
-        <v>577</v>
+        <v>498</v>
       </c>
       <c r="AG20" s="12">
-        <v>3.21</v>
+        <v>3.47</v>
       </c>
       <c r="AH20" s="12" t="s">
-        <v>589</v>
+        <v>535</v>
       </c>
       <c r="AI20" s="13">
-        <v>3.1</v>
+        <v>3.14</v>
       </c>
       <c r="AK20" s="9"/>
       <c r="AL20" s="10"/>
       <c r="AM20" s="11" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="AN20" s="12">
-        <v>4.29</v>
+        <v>4.36</v>
       </c>
       <c r="AO20" s="12" t="s">
-        <v>135</v>
+        <v>498</v>
       </c>
       <c r="AP20" s="12">
-        <v>3.55</v>
+        <v>3.98</v>
       </c>
       <c r="AQ20" s="12" t="s">
-        <v>582</v>
+        <v>535</v>
       </c>
       <c r="AR20" s="13">
-        <v>3.52</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="21" ht="11.5" customHeight="1" spans="1:44">
       <c r="A21" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="B21" s="4">
-        <v>51.24</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="B21" s="4"/>
       <c r="C21" s="5" t="s">
-        <v>432</v>
+        <v>498</v>
       </c>
       <c r="D21" s="6">
-        <v>3.59</v>
+        <v>4.89</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>447</v>
+        <v>601</v>
       </c>
       <c r="F21" s="7">
-        <v>2.44</v>
+        <v>4.01</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>434</v>
+        <v>591</v>
       </c>
       <c r="H21" s="8">
-        <v>2.35</v>
+        <v>3.88</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>544</v>
+        <v>437</v>
       </c>
       <c r="K21" s="4">
-        <v>50.3</v>
+        <v>50.31</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="M21" s="6">
-        <v>6.78</v>
+        <v>5.59</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>561</v>
+        <v>498</v>
       </c>
       <c r="O21" s="7">
-        <v>5.53</v>
+        <v>5.56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="Q21" s="8">
-        <v>5.44</v>
+        <v>5.48</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>474</v>
+        <v>577</v>
       </c>
       <c r="T21" s="4">
-        <v>50.32</v>
+        <v>52.02</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>587</v>
+        <v>502</v>
       </c>
       <c r="V21" s="6">
-        <v>2.48</v>
+        <v>5.15</v>
       </c>
       <c r="W21" s="7" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="X21" s="7">
-        <v>2.34</v>
+        <v>4.856</v>
       </c>
       <c r="Y21" s="7" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="Z21" s="8">
-        <v>2.32</v>
+        <v>4.798</v>
       </c>
       <c r="AB21" s="3" t="s">
         <v>568</v>
@@ -8616,96 +8616,96 @@
         <v>5.83</v>
       </c>
       <c r="AK21" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AL21" s="4">
-        <v>50.97</v>
+        <v>50.1</v>
       </c>
       <c r="AM21" s="5" t="s">
-        <v>590</v>
+        <v>540</v>
       </c>
       <c r="AN21" s="6">
-        <v>3.25</v>
+        <v>4.47</v>
       </c>
       <c r="AO21" s="7" t="s">
-        <v>574</v>
+        <v>543</v>
       </c>
       <c r="AP21" s="7">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="AQ21" s="7" t="s">
-        <v>434</v>
+        <v>523</v>
       </c>
       <c r="AR21" s="8">
-        <v>2.59</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="22" ht="11.5" customHeight="1" spans="1:44">
       <c r="A22" s="9"/>
       <c r="B22" s="10">
-        <v>50.39</v>
+        <v>50.2</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>456</v>
+        <v>574</v>
       </c>
       <c r="D22" s="12">
-        <v>7.22</v>
+        <v>4.23</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>590</v>
+        <v>494</v>
       </c>
       <c r="F22" s="12">
-        <v>3.67</v>
+        <v>3.56</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="H22" s="13">
-        <v>3</v>
+        <v>3.19</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="10">
-        <v>51.47</v>
+        <v>51.58</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>568</v>
+        <v>600</v>
       </c>
       <c r="M22" s="12">
-        <v>9.2</v>
+        <v>7.26</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="O22" s="12">
-        <v>8.84</v>
+        <v>5.68</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="Q22" s="13">
-        <v>5.39</v>
+        <v>3.89</v>
       </c>
       <c r="S22" s="9"/>
       <c r="T22" s="10">
-        <v>50.27</v>
+        <v>50.49</v>
       </c>
       <c r="U22" s="11" t="s">
-        <v>433</v>
+        <v>495</v>
       </c>
       <c r="V22" s="12">
-        <v>3.03</v>
+        <v>7.83</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>599</v>
+        <v>520</v>
       </c>
       <c r="X22" s="12">
-        <v>2.24</v>
+        <v>7.05</v>
       </c>
       <c r="Y22" s="12" t="s">
-        <v>523</v>
+        <v>589</v>
       </c>
       <c r="Z22" s="13">
-        <v>2.21</v>
+        <v>4.78</v>
       </c>
       <c r="AB22" s="9"/>
       <c r="AC22" s="10"/>
@@ -8730,22 +8730,22 @@
       <c r="AK22" s="9"/>
       <c r="AL22" s="10"/>
       <c r="AM22" s="11" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
       <c r="AN22" s="12">
-        <v>4.36</v>
+        <v>4.94</v>
       </c>
       <c r="AO22" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="AP22" s="12">
+        <v>3.77</v>
+      </c>
+      <c r="AQ22" s="12" t="s">
         <v>498</v>
       </c>
-      <c r="AP22" s="12">
-        <v>3.98</v>
-      </c>
-      <c r="AQ22" s="12" t="s">
-        <v>535</v>
-      </c>
       <c r="AR22" s="13">
-        <v>3.4</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="23" ht="11.5" customHeight="1" spans="1:44">
@@ -8753,7 +8753,7 @@
         <v>516</v>
       </c>
       <c r="B23" s="4">
-        <v>51.29</v>
+        <v>51.27</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>456</v>
@@ -8774,52 +8774,52 @@
         <v>2.69</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>574</v>
+        <v>542</v>
       </c>
       <c r="K23" s="4">
-        <v>51.57</v>
+        <v>51.2</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>536</v>
+        <v>456</v>
       </c>
       <c r="M23" s="6">
-        <v>6.57</v>
+        <v>8.64</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>434</v>
+        <v>510</v>
       </c>
       <c r="O23" s="7">
-        <v>5.14</v>
+        <v>7.87</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="Q23" s="8">
-        <v>4.49</v>
+        <v>6.05</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="T23" s="4">
-        <v>50.97</v>
+        <v>50.27</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>497</v>
+        <v>587</v>
       </c>
       <c r="V23" s="6">
-        <v>6.54</v>
+        <v>2.48</v>
       </c>
       <c r="W23" s="7" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
       <c r="X23" s="7">
-        <v>5.39</v>
+        <v>2.34</v>
       </c>
       <c r="Y23" s="7" t="s">
-        <v>452</v>
+        <v>594</v>
       </c>
       <c r="Z23" s="8">
-        <v>5.3</v>
+        <v>2.32</v>
       </c>
       <c r="AB23" s="3" t="s">
         <v>592</v>
@@ -8844,35 +8844,31 @@
         <v>4.27</v>
       </c>
       <c r="AK23" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="AL23" s="4">
-        <v>50.1</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="AL23" s="4"/>
       <c r="AM23" s="5" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="AN23" s="6">
-        <v>4.47</v>
+        <v>4.35</v>
       </c>
       <c r="AO23" s="7" t="s">
-        <v>543</v>
+        <v>434</v>
       </c>
       <c r="AP23" s="7">
-        <v>3.05</v>
+        <v>3.66</v>
       </c>
       <c r="AQ23" s="7" t="s">
-        <v>523</v>
+        <v>566</v>
       </c>
       <c r="AR23" s="8">
-        <v>2.98</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="24" ht="11.5" customHeight="1" spans="1:44">
       <c r="A24" s="21"/>
-      <c r="B24" s="10">
-        <v>50.19</v>
-      </c>
+      <c r="B24" s="10"/>
       <c r="C24" s="11" t="s">
         <v>583</v>
       </c>
@@ -8893,47 +8889,47 @@
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="10">
-        <v>51.4</v>
+        <v>51.49</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>590</v>
+        <v>536</v>
       </c>
       <c r="M24" s="12">
-        <v>5.16</v>
+        <v>10.32</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>495</v>
+        <v>602</v>
       </c>
       <c r="O24" s="12">
-        <v>4.65</v>
+        <v>7.23</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>541</v>
+        <v>494</v>
       </c>
       <c r="Q24" s="13">
-        <v>3.64</v>
+        <v>6.33</v>
       </c>
       <c r="S24" s="9"/>
       <c r="T24" s="10">
-        <v>50.19</v>
+        <v>50.25</v>
       </c>
       <c r="U24" s="11" t="s">
-        <v>542</v>
+        <v>433</v>
       </c>
       <c r="V24" s="12">
-        <v>5.94</v>
+        <v>3.03</v>
       </c>
       <c r="W24" s="12" t="s">
-        <v>540</v>
+        <v>599</v>
       </c>
       <c r="X24" s="12">
-        <v>5.04</v>
+        <v>2.24</v>
       </c>
       <c r="Y24" s="12" t="s">
-        <v>566</v>
+        <v>523</v>
       </c>
       <c r="Z24" s="13">
-        <v>3.14</v>
+        <v>2.21</v>
       </c>
       <c r="AB24" s="9"/>
       <c r="AC24" s="10"/>
@@ -8958,22 +8954,22 @@
       <c r="AK24" s="9"/>
       <c r="AL24" s="10"/>
       <c r="AM24" s="11" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="AN24" s="12">
-        <v>4.94</v>
+        <v>5.01</v>
       </c>
       <c r="AO24" s="12" t="s">
-        <v>549</v>
+        <v>454</v>
       </c>
       <c r="AP24" s="12">
-        <v>3.77</v>
+        <v>4.58</v>
       </c>
       <c r="AQ24" s="12" t="s">
-        <v>498</v>
+        <v>565</v>
       </c>
       <c r="AR24" s="13">
-        <v>3.46</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="25" ht="11.5" customHeight="1" spans="1:44">
@@ -9000,50 +8996,50 @@
         <v>2.99</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="K25" s="4">
-        <v>51.32</v>
+        <v>51.33</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>456</v>
+        <v>588</v>
       </c>
       <c r="M25" s="6">
-        <v>8.64</v>
+        <v>3.14</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="O25" s="7">
-        <v>7.87</v>
+        <v>3.13</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>568</v>
+        <v>492</v>
       </c>
       <c r="Q25" s="8">
-        <v>6.05</v>
+        <v>3.08</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>507</v>
+        <v>546</v>
       </c>
       <c r="T25" s="4"/>
       <c r="U25" s="5" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="V25" s="6">
-        <v>10.32</v>
+        <v>5.14</v>
       </c>
       <c r="W25" s="7" t="s">
-        <v>581</v>
+        <v>443</v>
       </c>
       <c r="X25" s="7">
-        <v>5.54</v>
+        <v>4.75</v>
       </c>
       <c r="Y25" s="7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="Z25" s="8">
-        <v>5.22</v>
+        <v>4.24</v>
       </c>
       <c r="AB25" s="3" t="s">
         <v>567</v>
@@ -9068,26 +9064,26 @@
         <v>4.85</v>
       </c>
       <c r="AK25" s="3" t="s">
-        <v>453</v>
+        <v>517</v>
       </c>
       <c r="AL25" s="4"/>
       <c r="AM25" s="5" t="s">
-        <v>561</v>
+        <v>538</v>
       </c>
       <c r="AN25" s="6">
-        <v>6.12</v>
+        <v>5.95</v>
       </c>
       <c r="AO25" s="7" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="AP25" s="7">
-        <v>5.99</v>
+        <v>3.3</v>
       </c>
       <c r="AQ25" s="7" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="AR25" s="8">
-        <v>5.68</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="26" ht="11.5" customHeight="1" spans="1:44">
@@ -9113,47 +9109,47 @@
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="10">
-        <v>51.34</v>
+        <v>51.36</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>536</v>
+        <v>565</v>
       </c>
       <c r="M26" s="12">
-        <v>10.32</v>
+        <v>6.96</v>
       </c>
       <c r="N26" s="12" t="s">
-        <v>602</v>
+        <v>568</v>
       </c>
       <c r="O26" s="12">
-        <v>7.23</v>
+        <v>5.83</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>494</v>
+        <v>523</v>
       </c>
       <c r="Q26" s="13">
-        <v>6.33</v>
+        <v>5.14</v>
       </c>
       <c r="S26" s="9"/>
       <c r="T26" s="10">
-        <v>50.13</v>
+        <v>50.16</v>
       </c>
       <c r="U26" s="11" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="V26" s="12">
-        <v>5.97</v>
+        <v>4.28</v>
       </c>
       <c r="W26" s="12" t="s">
-        <v>497</v>
+        <v>536</v>
       </c>
       <c r="X26" s="12">
-        <v>4</v>
+        <v>3.99</v>
       </c>
       <c r="Y26" s="12" t="s">
-        <v>447</v>
+        <v>565</v>
       </c>
       <c r="Z26" s="13">
-        <v>3.44</v>
+        <v>3.53</v>
       </c>
       <c r="AB26" s="9"/>
       <c r="AC26" s="10"/>
@@ -9178,22 +9174,22 @@
       <c r="AK26" s="9"/>
       <c r="AL26" s="10"/>
       <c r="AM26" s="11" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="AN26" s="12">
-        <v>5.6</v>
+        <v>2.6</v>
       </c>
       <c r="AO26" s="12" t="s">
-        <v>574</v>
+        <v>454</v>
       </c>
       <c r="AP26" s="12">
-        <v>4.34</v>
+        <v>2.57</v>
       </c>
       <c r="AQ26" s="12" t="s">
-        <v>507</v>
+        <v>583</v>
       </c>
       <c r="AR26" s="13">
-        <v>3.73</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="27" ht="11.5" customHeight="1" spans="1:44">
@@ -9220,72 +9216,74 @@
         <v>8.84</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>535</v>
+        <v>574</v>
       </c>
       <c r="K27" s="4">
-        <v>51.42</v>
+        <v>51.5</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>588</v>
+        <v>536</v>
       </c>
       <c r="M27" s="6">
-        <v>3.14</v>
+        <v>6.57</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>514</v>
+        <v>434</v>
       </c>
       <c r="O27" s="7">
-        <v>3.13</v>
+        <v>5.14</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>492</v>
+        <v>565</v>
       </c>
       <c r="Q27" s="8">
-        <v>3.08</v>
+        <v>4.49</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="T27" s="4"/>
+        <v>552</v>
+      </c>
+      <c r="T27" s="4">
+        <v>51.77</v>
+      </c>
       <c r="U27" s="5" t="s">
-        <v>530</v>
+        <v>433</v>
       </c>
       <c r="V27" s="6">
-        <v>5.14</v>
+        <v>3.86</v>
       </c>
       <c r="W27" s="7" t="s">
-        <v>443</v>
+        <v>557</v>
       </c>
       <c r="X27" s="7">
-        <v>4.75</v>
+        <v>3.52</v>
       </c>
       <c r="Y27" s="7" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="Z27" s="8">
-        <v>4.24</v>
+        <v>3.39</v>
       </c>
       <c r="AK27" s="3" t="s">
-        <v>508</v>
+        <v>557</v>
       </c>
       <c r="AL27" s="4"/>
       <c r="AM27" s="5" t="s">
-        <v>531</v>
+        <v>598</v>
       </c>
       <c r="AN27" s="6">
-        <v>4.35</v>
+        <v>3.91</v>
       </c>
       <c r="AO27" s="7" t="s">
-        <v>434</v>
+        <v>577</v>
       </c>
       <c r="AP27" s="7">
-        <v>3.66</v>
+        <v>3.53</v>
       </c>
       <c r="AQ27" s="7" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="AR27" s="8">
-        <v>2.11</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="28" ht="11.5" customHeight="1" spans="1:44">
@@ -9311,67 +9309,65 @@
       </c>
       <c r="J28" s="9"/>
       <c r="K28" s="10">
-        <v>50.98</v>
+        <v>51</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>565</v>
+        <v>590</v>
       </c>
       <c r="M28" s="12">
-        <v>6.96</v>
+        <v>5.16</v>
       </c>
       <c r="N28" s="12" t="s">
-        <v>568</v>
+        <v>495</v>
       </c>
       <c r="O28" s="12">
-        <v>5.83</v>
+        <v>4.65</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="Q28" s="13">
-        <v>5.14</v>
+        <v>3.64</v>
       </c>
       <c r="S28" s="9"/>
-      <c r="T28" s="10">
-        <v>50.1</v>
-      </c>
+      <c r="T28" s="10"/>
       <c r="U28" s="11" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="V28" s="12">
-        <v>4.28</v>
+        <v>7.35</v>
       </c>
       <c r="W28" s="12" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="X28" s="12">
-        <v>3.99</v>
+        <v>5.62</v>
       </c>
       <c r="Y28" s="12" t="s">
-        <v>565</v>
+        <v>135</v>
       </c>
       <c r="Z28" s="13">
-        <v>3.53</v>
+        <v>5.45</v>
       </c>
       <c r="AK28" s="9"/>
       <c r="AL28" s="10"/>
       <c r="AM28" s="11" t="s">
-        <v>590</v>
+        <v>510</v>
       </c>
       <c r="AN28" s="12">
-        <v>5.01</v>
+        <v>5.42</v>
       </c>
       <c r="AO28" s="12" t="s">
-        <v>454</v>
+        <v>601</v>
       </c>
       <c r="AP28" s="12">
-        <v>4.58</v>
+        <v>3.69</v>
       </c>
       <c r="AQ28" s="12" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="AR28" s="13">
-        <v>2.5</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="29" ht="11.5" customHeight="1" spans="1:44">
@@ -9401,7 +9397,7 @@
         <v>521</v>
       </c>
       <c r="K29" s="4">
-        <v>51.13</v>
+        <v>51.15</v>
       </c>
       <c r="L29" s="5" t="s">
         <v>456</v>
@@ -9422,50 +9418,50 @@
         <v>2.68</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="T29" s="4">
-        <v>51.7</v>
+        <v>50.77</v>
       </c>
       <c r="U29" s="5" t="s">
-        <v>433</v>
+        <v>542</v>
       </c>
       <c r="V29" s="6">
-        <v>3.86</v>
+        <v>3.09</v>
       </c>
       <c r="W29" s="7" t="s">
-        <v>557</v>
+        <v>577</v>
       </c>
       <c r="X29" s="7">
-        <v>3.52</v>
+        <v>2.59</v>
       </c>
       <c r="Y29" s="7" t="s">
-        <v>577</v>
+        <v>540</v>
       </c>
       <c r="Z29" s="8">
-        <v>3.39</v>
+        <v>2.49</v>
       </c>
       <c r="AK29" s="3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AL29" s="4"/>
       <c r="AM29" s="5" t="s">
-        <v>598</v>
+        <v>530</v>
       </c>
       <c r="AN29" s="6">
-        <v>3.91</v>
+        <v>5.3</v>
       </c>
       <c r="AO29" s="7" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="AP29" s="7">
-        <v>3.53</v>
+        <v>3.64</v>
       </c>
       <c r="AQ29" s="7" t="s">
-        <v>541</v>
+        <v>590</v>
       </c>
       <c r="AR29" s="8">
-        <v>3.32</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="30" ht="11.5" customHeight="1" spans="1:44">
@@ -9491,7 +9487,7 @@
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="10">
-        <v>50.32</v>
+        <v>50.4</v>
       </c>
       <c r="L30" s="11" t="s">
         <v>434</v>
@@ -9514,51 +9510,49 @@
       <c r="S30" s="9"/>
       <c r="T30" s="10"/>
       <c r="U30" s="11" t="s">
-        <v>601</v>
+        <v>135</v>
       </c>
       <c r="V30" s="12">
-        <v>7.35</v>
+        <v>3.57</v>
       </c>
       <c r="W30" s="12" t="s">
-        <v>548</v>
+        <v>452</v>
       </c>
       <c r="X30" s="12">
-        <v>5.62</v>
+        <v>3.25</v>
       </c>
       <c r="Y30" s="12" t="s">
-        <v>135</v>
+        <v>510</v>
       </c>
       <c r="Z30" s="13">
-        <v>5.45</v>
+        <v>2.87</v>
       </c>
       <c r="AK30" s="9"/>
       <c r="AL30" s="10"/>
       <c r="AM30" s="11" t="s">
-        <v>510</v>
+        <v>456</v>
       </c>
       <c r="AN30" s="12">
-        <v>5.42</v>
+        <v>2.79</v>
       </c>
       <c r="AO30" s="12" t="s">
-        <v>601</v>
+        <v>434</v>
       </c>
       <c r="AP30" s="12">
-        <v>3.69</v>
+        <v>2.17</v>
       </c>
       <c r="AQ30" s="12" t="s">
-        <v>552</v>
+        <v>434</v>
       </c>
       <c r="AR30" s="13">
-        <v>3.52</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="31" ht="11.5" customHeight="1" spans="1:44">
       <c r="A31" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="B31" s="4">
-        <v>50.06</v>
-      </c>
+      <c r="B31" s="4"/>
       <c r="C31" s="5" t="s">
         <v>494</v>
       </c>
@@ -9581,7 +9575,7 @@
         <v>561</v>
       </c>
       <c r="K31" s="4">
-        <v>52.44</v>
+        <v>52.57</v>
       </c>
       <c r="L31" s="5" t="s">
         <v>447</v>
@@ -9605,7 +9599,7 @@
         <v>581</v>
       </c>
       <c r="T31" s="4">
-        <v>50.9</v>
+        <v>50.75</v>
       </c>
       <c r="U31" s="5" t="s">
         <v>135</v>
@@ -9626,26 +9620,26 @@
         <v>3.4</v>
       </c>
       <c r="AK31" s="3" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="AL31" s="4"/>
       <c r="AM31" s="5" t="s">
-        <v>598</v>
+        <v>561</v>
       </c>
       <c r="AN31" s="6">
-        <v>4.26</v>
+        <v>6.12</v>
       </c>
       <c r="AO31" s="7" t="s">
-        <v>522</v>
+        <v>549</v>
       </c>
       <c r="AP31" s="7">
-        <v>3.63</v>
+        <v>5.99</v>
       </c>
       <c r="AQ31" s="7" t="s">
-        <v>565</v>
+        <v>437</v>
       </c>
       <c r="AR31" s="8">
-        <v>3.28</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="32" ht="11.5" customHeight="1" spans="1:44">
@@ -9712,22 +9706,22 @@
       <c r="AK32" s="9"/>
       <c r="AL32" s="10"/>
       <c r="AM32" s="11" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="AN32" s="12">
-        <v>3.64</v>
+        <v>5.6</v>
       </c>
       <c r="AO32" s="12" t="s">
-        <v>447</v>
+        <v>574</v>
       </c>
       <c r="AP32" s="12">
-        <v>3.6</v>
+        <v>4.34</v>
       </c>
       <c r="AQ32" s="12" t="s">
-        <v>574</v>
+        <v>507</v>
       </c>
       <c r="AR32" s="13">
-        <v>3.58</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="33" ht="11.5" customHeight="1" spans="1:44">
@@ -9757,7 +9751,7 @@
         <v>549</v>
       </c>
       <c r="K33" s="4">
-        <v>51.12</v>
+        <v>51.09</v>
       </c>
       <c r="L33" s="5" t="s">
         <v>447</v>
@@ -9778,50 +9772,50 @@
         <v>4.64</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="T33" s="4">
-        <v>50.82</v>
+        <v>50.61</v>
       </c>
       <c r="U33" s="5" t="s">
-        <v>542</v>
+        <v>587</v>
       </c>
       <c r="V33" s="6">
-        <v>3.09</v>
+        <v>5.39</v>
       </c>
       <c r="W33" s="7" t="s">
-        <v>577</v>
+        <v>497</v>
       </c>
       <c r="X33" s="7">
-        <v>2.59</v>
+        <v>4.06</v>
       </c>
       <c r="Y33" s="7" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="Z33" s="8">
-        <v>2.49</v>
+        <v>3.96</v>
       </c>
       <c r="AK33" s="3" t="s">
-        <v>558</v>
+        <v>458</v>
       </c>
       <c r="AL33" s="4"/>
       <c r="AM33" s="5" t="s">
-        <v>530</v>
+        <v>598</v>
       </c>
       <c r="AN33" s="6">
-        <v>5.3</v>
+        <v>4.26</v>
       </c>
       <c r="AO33" s="7" t="s">
-        <v>583</v>
+        <v>522</v>
       </c>
       <c r="AP33" s="7">
-        <v>3.64</v>
+        <v>3.63</v>
       </c>
       <c r="AQ33" s="7" t="s">
-        <v>590</v>
+        <v>565</v>
       </c>
       <c r="AR33" s="8">
-        <v>3.41</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="34" ht="11.5" customHeight="1" spans="1:44">
@@ -9868,42 +9862,42 @@
       <c r="S34" s="9"/>
       <c r="T34" s="10"/>
       <c r="U34" s="11" t="s">
-        <v>135</v>
+        <v>434</v>
       </c>
       <c r="V34" s="12">
-        <v>3.57</v>
+        <v>6.41</v>
       </c>
       <c r="W34" s="12" t="s">
-        <v>452</v>
+        <v>508</v>
       </c>
       <c r="X34" s="12">
-        <v>3.25</v>
+        <v>4.35</v>
       </c>
       <c r="Y34" s="12" t="s">
-        <v>510</v>
+        <v>456</v>
       </c>
       <c r="Z34" s="13">
-        <v>2.87</v>
+        <v>4.05</v>
       </c>
       <c r="AK34" s="9"/>
       <c r="AL34" s="10"/>
       <c r="AM34" s="11" t="s">
-        <v>456</v>
+        <v>582</v>
       </c>
       <c r="AN34" s="12">
-        <v>2.79</v>
+        <v>3.64</v>
       </c>
       <c r="AO34" s="12" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="AP34" s="12">
-        <v>2.17</v>
+        <v>3.6</v>
       </c>
       <c r="AQ34" s="12" t="s">
-        <v>434</v>
+        <v>574</v>
       </c>
       <c r="AR34" s="13">
-        <v>2.12</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="35" ht="11.5" customHeight="1" spans="1:44">
@@ -9933,7 +9927,7 @@
         <v>536</v>
       </c>
       <c r="K35" s="4">
-        <v>50.38</v>
+        <v>50.37</v>
       </c>
       <c r="L35" s="5" t="s">
         <v>542</v>
@@ -9954,28 +9948,28 @@
         <v>6.01</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="T35" s="4">
-        <v>50.6</v>
+        <v>50.27</v>
       </c>
       <c r="U35" s="5" t="s">
-        <v>587</v>
+        <v>484</v>
       </c>
       <c r="V35" s="6">
-        <v>5.39</v>
+        <v>2.66</v>
       </c>
       <c r="W35" s="7" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="X35" s="7">
-        <v>4.06</v>
+        <v>2.58</v>
       </c>
       <c r="Y35" s="7" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="Z35" s="8">
-        <v>3.96</v>
+        <v>2.5</v>
       </c>
       <c r="AK35" s="3" t="s">
         <v>538</v>
@@ -10044,22 +10038,22 @@
       <c r="S36" s="9"/>
       <c r="T36" s="10"/>
       <c r="U36" s="11" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="V36" s="12">
-        <v>6.41</v>
+        <v>3.12</v>
       </c>
       <c r="W36" s="12" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="X36" s="12">
-        <v>4.35</v>
+        <v>2.99</v>
       </c>
       <c r="Y36" s="12" t="s">
-        <v>456</v>
+        <v>602</v>
       </c>
       <c r="Z36" s="13">
-        <v>4.05</v>
+        <v>2.86</v>
       </c>
       <c r="AK36" s="9"/>
       <c r="AL36" s="10"/>
@@ -10087,7 +10081,7 @@
         <v>495</v>
       </c>
       <c r="K37" s="4">
-        <v>50.06</v>
+        <v>50.11</v>
       </c>
       <c r="L37" s="5" t="s">
         <v>456</v>
@@ -10108,50 +10102,48 @@
         <v>4.67</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="T37" s="4">
-        <v>50.28</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="T37" s="4"/>
       <c r="U37" s="5" t="s">
-        <v>484</v>
+        <v>543</v>
       </c>
       <c r="V37" s="6">
-        <v>2.66</v>
+        <v>10.32</v>
       </c>
       <c r="W37" s="7" t="s">
-        <v>459</v>
+        <v>581</v>
       </c>
       <c r="X37" s="7">
-        <v>2.58</v>
+        <v>5.54</v>
       </c>
       <c r="Y37" s="7" t="s">
-        <v>535</v>
+        <v>590</v>
       </c>
       <c r="Z37" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="AK37" s="20" t="s">
-        <v>455</v>
+        <v>5.22</v>
+      </c>
+      <c r="AK37" s="3" t="s">
+        <v>433</v>
       </c>
       <c r="AL37" s="4"/>
       <c r="AM37" s="5" t="s">
-        <v>590</v>
+        <v>523</v>
       </c>
       <c r="AN37" s="6">
-        <v>4.93</v>
+        <v>5.83</v>
       </c>
       <c r="AO37" s="7" t="s">
-        <v>454</v>
+        <v>568</v>
       </c>
       <c r="AP37" s="7">
-        <v>3</v>
+        <v>5.45</v>
       </c>
       <c r="AQ37" s="7" t="s">
-        <v>568</v>
+        <v>540</v>
       </c>
       <c r="AR37" s="8">
-        <v>2.57</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="38" ht="11.5" customHeight="1" spans="10:44">
@@ -10178,218 +10170,218 @@
       <c r="S38" s="9"/>
       <c r="T38" s="10"/>
       <c r="U38" s="11" t="s">
-        <v>446</v>
+        <v>586</v>
       </c>
       <c r="V38" s="12">
-        <v>3.12</v>
+        <v>5.97</v>
       </c>
       <c r="W38" s="12" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="X38" s="12">
-        <v>2.99</v>
+        <v>4</v>
       </c>
       <c r="Y38" s="12" t="s">
-        <v>602</v>
+        <v>447</v>
       </c>
       <c r="Z38" s="13">
-        <v>2.86</v>
-      </c>
-      <c r="AK38" s="21"/>
+        <v>3.44</v>
+      </c>
+      <c r="AK38" s="9"/>
       <c r="AL38" s="10"/>
       <c r="AM38" s="11" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="AN38" s="12">
         <v>3.86</v>
       </c>
       <c r="AO38" s="12" t="s">
-        <v>587</v>
+        <v>484</v>
       </c>
       <c r="AP38" s="12">
-        <v>3.32</v>
+        <v>2.39</v>
       </c>
       <c r="AQ38" s="12" t="s">
-        <v>598</v>
+        <v>458</v>
       </c>
       <c r="AR38" s="13">
-        <v>2.96</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="39" ht="11.5" customHeight="1" spans="10:44">
       <c r="J39" s="3" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="5" t="s">
-        <v>456</v>
+        <v>572</v>
       </c>
       <c r="M39" s="6">
-        <v>12.67</v>
+        <v>7.44</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="O39" s="7">
-        <v>7.05</v>
+        <v>7.24</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="Q39" s="24">
-        <v>4.18</v>
+        <v>536</v>
+      </c>
+      <c r="Q39" s="8">
+        <v>7.09</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>436</v>
+        <v>475</v>
       </c>
       <c r="T39" s="4"/>
       <c r="U39" s="5" t="s">
-        <v>598</v>
+        <v>497</v>
       </c>
       <c r="V39" s="6">
-        <v>7.45</v>
+        <v>3.45</v>
       </c>
       <c r="W39" s="7" t="s">
-        <v>542</v>
+        <v>437</v>
       </c>
       <c r="X39" s="7">
-        <v>5.17</v>
+        <v>3.28</v>
       </c>
       <c r="Y39" s="7" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="Z39" s="8">
-        <v>4.03</v>
-      </c>
-      <c r="AK39" s="3" t="s">
-        <v>433</v>
+        <v>3.15</v>
+      </c>
+      <c r="AK39" s="20" t="s">
+        <v>455</v>
       </c>
       <c r="AL39" s="4"/>
       <c r="AM39" s="5" t="s">
-        <v>523</v>
+        <v>590</v>
       </c>
       <c r="AN39" s="6">
-        <v>5.83</v>
+        <v>4.93</v>
       </c>
       <c r="AO39" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="AP39" s="7">
+        <v>3</v>
+      </c>
+      <c r="AQ39" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="AP39" s="7">
-        <v>5.45</v>
-      </c>
-      <c r="AQ39" s="7" t="s">
-        <v>540</v>
-      </c>
       <c r="AR39" s="8">
-        <v>4.49</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="40" ht="11.5" customHeight="1" spans="10:44">
       <c r="J40" s="9"/>
       <c r="K40" s="10"/>
       <c r="L40" s="11" t="s">
-        <v>498</v>
+        <v>456</v>
       </c>
       <c r="M40" s="12">
-        <v>5.03</v>
+        <v>12.44</v>
       </c>
       <c r="N40" s="12" t="s">
-        <v>583</v>
+        <v>542</v>
       </c>
       <c r="O40" s="12">
-        <v>3.07</v>
+        <v>7.87</v>
       </c>
       <c r="P40" s="12" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
       <c r="Q40" s="13">
-        <v>2.36</v>
+        <v>4.79</v>
       </c>
       <c r="S40" s="9"/>
       <c r="T40" s="10"/>
       <c r="U40" s="11" t="s">
-        <v>510</v>
+        <v>590</v>
       </c>
       <c r="V40" s="12">
-        <v>7.44</v>
+        <v>4.01</v>
       </c>
       <c r="W40" s="12" t="s">
-        <v>567</v>
+        <v>539</v>
       </c>
       <c r="X40" s="12">
-        <v>6.01</v>
+        <v>3.91</v>
       </c>
       <c r="Y40" s="12" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="Z40" s="13">
-        <v>5.18</v>
-      </c>
-      <c r="AK40" s="9"/>
+        <v>3.51</v>
+      </c>
+      <c r="AK40" s="21"/>
       <c r="AL40" s="10"/>
       <c r="AM40" s="11" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="AN40" s="12">
         <v>3.86</v>
       </c>
       <c r="AO40" s="12" t="s">
-        <v>484</v>
+        <v>587</v>
       </c>
       <c r="AP40" s="12">
-        <v>2.39</v>
+        <v>3.32</v>
       </c>
       <c r="AQ40" s="12" t="s">
-        <v>458</v>
+        <v>598</v>
       </c>
       <c r="AR40" s="13">
-        <v>2.28</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="41" ht="11.5" customHeight="1" spans="10:44">
       <c r="J41" s="3" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="5" t="s">
-        <v>572</v>
+        <v>456</v>
       </c>
       <c r="M41" s="6">
-        <v>7.44</v>
+        <v>12.67</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="O41" s="7">
-        <v>7.24</v>
+        <v>7.05</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="Q41" s="8">
-        <v>7.09</v>
+        <v>532</v>
+      </c>
+      <c r="Q41" s="24">
+        <v>4.18</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="T41" s="4"/>
       <c r="U41" s="5" t="s">
-        <v>497</v>
+        <v>530</v>
       </c>
       <c r="V41" s="6">
-        <v>3.45</v>
+        <v>5.24</v>
       </c>
       <c r="W41" s="7" t="s">
-        <v>437</v>
+        <v>494</v>
       </c>
       <c r="X41" s="7">
-        <v>3.28</v>
+        <v>4.17</v>
       </c>
       <c r="Y41" s="7" t="s">
-        <v>604</v>
+        <v>528</v>
       </c>
       <c r="Z41" s="8">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="AK41" s="3" t="s">
         <v>435</v>
@@ -10418,42 +10410,42 @@
       <c r="J42" s="9"/>
       <c r="K42" s="10"/>
       <c r="L42" s="11" t="s">
-        <v>456</v>
+        <v>498</v>
       </c>
       <c r="M42" s="12">
-        <v>12.44</v>
+        <v>5.03</v>
       </c>
       <c r="N42" s="12" t="s">
-        <v>542</v>
+        <v>583</v>
       </c>
       <c r="O42" s="12">
-        <v>7.87</v>
+        <v>3.07</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>577</v>
+        <v>558</v>
       </c>
       <c r="Q42" s="13">
-        <v>4.79</v>
+        <v>2.36</v>
       </c>
       <c r="S42" s="9"/>
       <c r="T42" s="10"/>
       <c r="U42" s="11" t="s">
-        <v>590</v>
+        <v>492</v>
       </c>
       <c r="V42" s="12">
-        <v>4.01</v>
+        <v>5.3</v>
       </c>
       <c r="W42" s="12" t="s">
-        <v>539</v>
+        <v>437</v>
       </c>
       <c r="X42" s="12">
-        <v>3.91</v>
+        <v>5.17</v>
       </c>
       <c r="Y42" s="12" t="s">
-        <v>542</v>
+        <v>510</v>
       </c>
       <c r="Z42" s="13">
-        <v>3.51</v>
+        <v>3.7</v>
       </c>
       <c r="AK42" s="9"/>
       <c r="AL42" s="10"/>
@@ -10500,26 +10492,26 @@
         <v>7.15</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="T43" s="4"/>
       <c r="U43" s="5" t="s">
-        <v>530</v>
+        <v>598</v>
       </c>
       <c r="V43" s="6">
-        <v>5.24</v>
+        <v>7.45</v>
       </c>
       <c r="W43" s="7" t="s">
-        <v>494</v>
+        <v>542</v>
       </c>
       <c r="X43" s="7">
-        <v>4.17</v>
+        <v>5.17</v>
       </c>
       <c r="Y43" s="7" t="s">
-        <v>528</v>
+        <v>599</v>
       </c>
       <c r="Z43" s="8">
-        <v>3.25</v>
+        <v>4.03</v>
       </c>
       <c r="AK43" s="3" t="s">
         <v>587</v>
@@ -10568,22 +10560,22 @@
       <c r="S44" s="9"/>
       <c r="T44" s="10"/>
       <c r="U44" s="11" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="V44" s="12">
-        <v>5.3</v>
+        <v>7.44</v>
       </c>
       <c r="W44" s="12" t="s">
-        <v>437</v>
+        <v>567</v>
       </c>
       <c r="X44" s="12">
-        <v>5.17</v>
+        <v>6.01</v>
       </c>
       <c r="Y44" s="12" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="Z44" s="13">
-        <v>3.7</v>
+        <v>5.18</v>
       </c>
       <c r="AK44" s="9"/>
       <c r="AL44" s="10"/>
@@ -19173,7 +19165,7 @@
   <dimension ref="A1:AF55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="P15:Q16"/>
+      <selection activeCell="R39" sqref="R39:S40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" customHeight="1"/>

--- a/logs/OMG.xlsx
+++ b/logs/OMG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690" firstSheet="6" activeTab="8"/>
+    <workbookView windowWidth="14340" windowHeight="11940" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Dota" sheetId="10" r:id="rId1"/>
@@ -1908,11 +1908,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="45">
     <font>
@@ -2094,45 +2094,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2155,7 +2117,85 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2187,46 +2227,6 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2534,7 +2534,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2564,25 +2582,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2624,12 +2666,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2643,42 +2679,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2853,21 +2853,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2888,6 +2873,56 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2915,51 +2950,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="63" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="70" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2968,133 +2968,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="61" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="61" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="52" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="65" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="65" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="57" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3202,6 +3202,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3212,9 +3215,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5969,8 +5969,8 @@
   <sheetPr/>
   <dimension ref="A1:AS52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X38" sqref="X38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -6031,7 +6031,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="5">
-        <v>50.84</v>
+        <v>51.2</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>581</v>
@@ -6052,36 +6052,38 @@
         <v>3.16</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="K1" s="4">
-        <v>1</v>
-      </c>
-      <c r="L1" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="L1" s="5">
+        <v>51.12</v>
+      </c>
       <c r="M1" s="6" t="s">
-        <v>601</v>
+        <v>565</v>
       </c>
       <c r="N1" s="7">
-        <v>4.31</v>
+        <v>7.13</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>432</v>
+        <v>543</v>
       </c>
       <c r="P1" s="8">
-        <v>4.21</v>
+        <v>7.04</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>561</v>
+        <v>477</v>
       </c>
       <c r="R1" s="33">
-        <v>3.93</v>
-      </c>
-      <c r="S1" s="35" t="s">
+        <v>6.53</v>
+      </c>
+      <c r="S1" s="36" t="s">
         <v>602</v>
       </c>
-      <c r="T1" s="36"/>
+      <c r="T1" s="37"/>
       <c r="U1" s="5">
-        <v>51.61</v>
+        <v>51.02</v>
       </c>
       <c r="V1" s="6" t="s">
         <v>542</v>
@@ -6101,32 +6103,32 @@
       <c r="AA1" s="33">
         <v>6.02</v>
       </c>
-      <c r="AB1" s="40" t="s">
-        <v>599</v>
-      </c>
-      <c r="AC1" s="41">
-        <v>7</v>
+      <c r="AB1" s="26" t="s">
+        <v>591</v>
+      </c>
+      <c r="AC1" s="27">
+        <v>1</v>
       </c>
       <c r="AD1" s="5">
-        <v>50.28</v>
+        <v>52.33</v>
       </c>
       <c r="AE1" s="6" t="s">
-        <v>600</v>
+        <v>561</v>
       </c>
       <c r="AF1" s="7">
-        <v>5.58</v>
+        <v>3.07</v>
       </c>
       <c r="AG1" s="8" t="s">
-        <v>446</v>
+        <v>552</v>
       </c>
       <c r="AH1" s="8">
-        <v>5.29</v>
+        <v>2.65</v>
       </c>
       <c r="AI1" s="8" t="s">
-        <v>555</v>
+        <v>502</v>
       </c>
       <c r="AJ1" s="33">
-        <v>5.06</v>
+        <v>2.65</v>
       </c>
       <c r="AK1" s="46" t="s">
         <v>600</v>
@@ -6156,7 +6158,7 @@
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="11">
-        <v>52.75</v>
+        <v>52.57</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>447</v>
@@ -6179,30 +6181,30 @@
       <c r="J2" s="9"/>
       <c r="K2" s="10"/>
       <c r="L2" s="11">
-        <v>53.12</v>
+        <v>53.69</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="N2" s="13">
-        <v>5.06</v>
+        <v>5.93</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>602</v>
+        <v>536</v>
       </c>
       <c r="P2" s="13">
-        <v>3.92</v>
+        <v>5.57</v>
       </c>
       <c r="Q2" s="13" t="s">
         <v>539</v>
       </c>
       <c r="R2" s="34">
-        <v>3.71</v>
-      </c>
-      <c r="S2" s="37"/>
-      <c r="T2" s="38"/>
+        <v>4.27</v>
+      </c>
+      <c r="S2" s="38"/>
+      <c r="T2" s="39"/>
       <c r="U2" s="11">
-        <v>56.87</v>
+        <v>57.09</v>
       </c>
       <c r="V2" s="12" t="s">
         <v>497</v>
@@ -6222,33 +6224,33 @@
       <c r="AA2" s="34">
         <v>4.9</v>
       </c>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="43"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="29"/>
       <c r="AD2" s="11">
-        <v>53.26</v>
+        <v>52.96</v>
       </c>
       <c r="AE2" s="12" t="s">
-        <v>497</v>
+        <v>599</v>
       </c>
       <c r="AF2" s="13">
-        <v>4.23</v>
+        <v>4.1</v>
       </c>
       <c r="AG2" s="13" t="s">
-        <v>436</v>
+        <v>589</v>
       </c>
       <c r="AH2" s="13">
-        <v>4.03</v>
+        <v>4.08</v>
       </c>
       <c r="AI2" s="13" t="s">
-        <v>495</v>
+        <v>602</v>
       </c>
       <c r="AJ2" s="34">
-        <v>3.48</v>
+        <v>4.08</v>
       </c>
       <c r="AK2" s="48"/>
       <c r="AL2" s="49"/>
       <c r="AM2" s="11">
-        <v>52.76</v>
+        <v>52.55</v>
       </c>
       <c r="AN2" s="12" t="s">
         <v>572</v>
@@ -6277,7 +6279,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="5">
-        <v>51.78</v>
+        <v>51.26</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>601</v>
@@ -6298,27 +6300,29 @@
         <v>3.16</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>572</v>
+        <v>494</v>
       </c>
       <c r="K3" s="4"/>
-      <c r="L3" s="5"/>
+      <c r="L3" s="5">
+        <v>53.49</v>
+      </c>
       <c r="M3" s="6" t="s">
-        <v>434</v>
+        <v>542</v>
       </c>
       <c r="N3" s="7">
-        <v>7.01</v>
+        <v>6.33</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="P3" s="8">
-        <v>6.95</v>
+        <v>6.09</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>543</v>
+        <v>590</v>
       </c>
       <c r="R3" s="33">
-        <v>6.8</v>
+        <v>4.09</v>
       </c>
       <c r="S3" s="14" t="s">
         <v>530</v>
@@ -6327,7 +6331,7 @@
         <v>7</v>
       </c>
       <c r="U3" s="5">
-        <v>52.81</v>
+        <v>52.8</v>
       </c>
       <c r="V3" s="6" t="s">
         <v>581</v>
@@ -6347,64 +6351,64 @@
       <c r="AA3" s="33">
         <v>3.86</v>
       </c>
-      <c r="AB3" s="26" t="s">
-        <v>591</v>
-      </c>
-      <c r="AC3" s="27">
+      <c r="AB3" s="40" t="s">
+        <v>599</v>
+      </c>
+      <c r="AC3" s="41">
+        <v>7</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>50.33</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="AF3" s="7">
+        <v>5.58</v>
+      </c>
+      <c r="AG3" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="AH3" s="8">
+        <v>5.29</v>
+      </c>
+      <c r="AI3" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="AJ3" s="33">
+        <v>5.06</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="AL3" s="4">
         <v>1</v>
       </c>
-      <c r="AD3" s="5">
-        <v>52.36</v>
-      </c>
-      <c r="AE3" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="AF3" s="7">
-        <v>3.07</v>
-      </c>
-      <c r="AG3" s="8" t="s">
-        <v>552</v>
-      </c>
-      <c r="AH3" s="8">
-        <v>2.65</v>
-      </c>
-      <c r="AI3" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="AJ3" s="33">
-        <v>2.65</v>
-      </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="AO3" s="7">
+        <v>6.49</v>
+      </c>
+      <c r="AP3" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="AQ3" s="8">
+        <v>6.47</v>
+      </c>
+      <c r="AR3" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="AL3" s="4"/>
-      <c r="AM3" s="5">
-        <v>50.53</v>
-      </c>
-      <c r="AN3" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="AO3" s="7">
-        <v>7.58</v>
-      </c>
-      <c r="AP3" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="AQ3" s="8">
-        <v>6.41</v>
-      </c>
-      <c r="AR3" s="8" t="s">
-        <v>456</v>
-      </c>
       <c r="AS3" s="33">
-        <v>5.91</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="4" ht="11.5" customHeight="1" spans="1:45">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11">
-        <v>52.53</v>
+        <v>52.56</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>599</v>
@@ -6427,30 +6431,30 @@
       <c r="J4" s="9"/>
       <c r="K4" s="10"/>
       <c r="L4" s="11">
-        <v>52.79</v>
+        <v>52.69</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>598</v>
+        <v>550</v>
       </c>
       <c r="N4" s="13">
-        <v>14.43</v>
+        <v>8.21</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>510</v>
+        <v>586</v>
       </c>
       <c r="P4" s="13">
-        <v>7.24</v>
+        <v>5.38</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="R4" s="34">
-        <v>6.66</v>
+        <v>4.7</v>
       </c>
       <c r="S4" s="20"/>
       <c r="T4" s="21"/>
       <c r="U4" s="11">
-        <v>54.52</v>
+        <v>54.11</v>
       </c>
       <c r="V4" s="12" t="s">
         <v>598</v>
@@ -6470,105 +6474,105 @@
       <c r="AA4" s="34">
         <v>5.54</v>
       </c>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="29"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="43"/>
       <c r="AD4" s="11">
-        <v>53.11</v>
+        <v>52.72</v>
       </c>
       <c r="AE4" s="12" t="s">
-        <v>599</v>
+        <v>497</v>
       </c>
       <c r="AF4" s="13">
-        <v>4.1</v>
+        <v>4.23</v>
       </c>
       <c r="AG4" s="13" t="s">
-        <v>589</v>
+        <v>436</v>
       </c>
       <c r="AH4" s="13">
-        <v>4.08</v>
+        <v>4.03</v>
       </c>
       <c r="AI4" s="13" t="s">
-        <v>602</v>
+        <v>495</v>
       </c>
       <c r="AJ4" s="34">
-        <v>4.08</v>
+        <v>3.48</v>
       </c>
       <c r="AK4" s="9"/>
       <c r="AL4" s="10"/>
       <c r="AM4" s="11">
-        <v>52.06</v>
+        <v>52.09</v>
       </c>
       <c r="AN4" s="12" t="s">
-        <v>454</v>
+        <v>587</v>
       </c>
       <c r="AO4" s="13">
-        <v>10.98</v>
+        <v>8.56</v>
       </c>
       <c r="AP4" s="13" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="AQ4" s="13">
-        <v>10.04</v>
+        <v>3.1</v>
       </c>
       <c r="AR4" s="13" t="s">
-        <v>135</v>
+        <v>590</v>
       </c>
       <c r="AS4" s="34">
-        <v>7.46</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="5" ht="11.5" customHeight="1" spans="1:45">
       <c r="A5" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="B5" s="4"/>
+        <v>540</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
       <c r="C5" s="5">
-        <v>52.85</v>
+        <v>53.51</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>456</v>
+        <v>492</v>
       </c>
       <c r="E5" s="7">
-        <v>6.26</v>
+        <v>5.04</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="G5" s="8">
-        <v>5.73</v>
+        <v>3.43</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>459</v>
+        <v>590</v>
       </c>
       <c r="I5" s="33">
-        <v>3.09</v>
+        <v>3.36</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="K5" s="4">
-        <v>8</v>
-      </c>
-      <c r="L5" s="5">
-        <v>51.37</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L5" s="5"/>
       <c r="M5" s="6" t="s">
-        <v>565</v>
+        <v>601</v>
       </c>
       <c r="N5" s="7">
-        <v>7.13</v>
+        <v>4.31</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>543</v>
+        <v>432</v>
       </c>
       <c r="P5" s="8">
-        <v>7.04</v>
+        <v>4.21</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>477</v>
+        <v>561</v>
       </c>
       <c r="R5" s="33">
-        <v>6.53</v>
+        <v>3.93</v>
       </c>
       <c r="S5" s="3" t="s">
         <v>564</v>
@@ -6577,7 +6581,7 @@
         <v>4</v>
       </c>
       <c r="U5" s="5">
-        <v>51.44</v>
+        <v>51.71</v>
       </c>
       <c r="V5" s="6" t="s">
         <v>498</v>
@@ -6604,7 +6608,7 @@
         <v>2</v>
       </c>
       <c r="AD5" s="5">
-        <v>52.9</v>
+        <v>52.85</v>
       </c>
       <c r="AE5" s="6" t="s">
         <v>572</v>
@@ -6625,80 +6629,82 @@
         <v>6.03</v>
       </c>
       <c r="AK5" s="3" t="s">
-        <v>583</v>
+        <v>434</v>
       </c>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="5"/>
+      <c r="AM5" s="5">
+        <v>51.12</v>
+      </c>
       <c r="AN5" s="6" t="s">
-        <v>587</v>
+        <v>561</v>
       </c>
       <c r="AO5" s="7">
-        <v>6.36</v>
+        <v>7.58</v>
       </c>
       <c r="AP5" s="8" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="AQ5" s="8">
-        <v>4.97</v>
+        <v>6.41</v>
       </c>
       <c r="AR5" s="8" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="AS5" s="33">
-        <v>4.89</v>
+        <v>5.91</v>
       </c>
     </row>
     <row r="6" ht="11.5" customHeight="1" spans="1:45">
       <c r="A6" s="9"/>
       <c r="B6" s="10"/>
       <c r="C6" s="11">
-        <v>52.18</v>
+        <v>52.33</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>447</v>
+        <v>602</v>
       </c>
       <c r="E6" s="13">
-        <v>5.19</v>
+        <v>5.94</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>576</v>
+        <v>433</v>
       </c>
       <c r="G6" s="13">
-        <v>3.83</v>
+        <v>4.49</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>602</v>
+        <v>515</v>
       </c>
       <c r="I6" s="34">
-        <v>3.8</v>
+        <v>4.47</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="10"/>
       <c r="L6" s="11">
-        <v>52.78</v>
+        <v>52.57</v>
       </c>
       <c r="M6" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="N6" s="13">
+        <v>5.06</v>
+      </c>
+      <c r="O6" s="13" t="s">
         <v>602</v>
       </c>
-      <c r="N6" s="13">
-        <v>5.93</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>536</v>
-      </c>
       <c r="P6" s="13">
-        <v>5.57</v>
+        <v>3.92</v>
       </c>
       <c r="Q6" s="13" t="s">
         <v>539</v>
       </c>
       <c r="R6" s="34">
-        <v>4.27</v>
+        <v>3.71</v>
       </c>
       <c r="S6" s="9"/>
       <c r="T6" s="10"/>
       <c r="U6" s="11">
-        <v>53.07</v>
+        <v>53.03</v>
       </c>
       <c r="V6" s="12" t="s">
         <v>598</v>
@@ -6721,7 +6727,7 @@
       <c r="AB6" s="28"/>
       <c r="AC6" s="29"/>
       <c r="AD6" s="11">
-        <v>52.19</v>
+        <v>52.15</v>
       </c>
       <c r="AE6" s="12" t="s">
         <v>436</v>
@@ -6744,104 +6750,102 @@
       <c r="AK6" s="9"/>
       <c r="AL6" s="10"/>
       <c r="AM6" s="11">
-        <v>51.86</v>
+        <v>51.95</v>
       </c>
       <c r="AN6" s="12" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="AO6" s="13">
-        <v>5.48</v>
+        <v>10.98</v>
       </c>
       <c r="AP6" s="13" t="s">
-        <v>453</v>
+        <v>518</v>
       </c>
       <c r="AQ6" s="13">
-        <v>5.35</v>
+        <v>10.04</v>
       </c>
       <c r="AR6" s="13" t="s">
-        <v>582</v>
+        <v>135</v>
       </c>
       <c r="AS6" s="34">
-        <v>4.61</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="7" ht="11.5" customHeight="1" spans="1:45">
       <c r="A7" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="B7" s="4">
-        <v>2</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="B7" s="4"/>
       <c r="C7" s="5">
-        <v>50.88</v>
+        <v>52.9</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>484</v>
+        <v>456</v>
       </c>
       <c r="E7" s="7">
-        <v>6.9</v>
+        <v>6.26</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>589</v>
       </c>
       <c r="G7" s="8">
-        <v>3.11</v>
+        <v>5.73</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>459</v>
       </c>
       <c r="I7" s="33">
-        <v>3.11</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="K7" s="4">
-        <v>9</v>
+        <v>3.09</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="K7" s="15">
+        <v>2</v>
       </c>
       <c r="L7" s="5">
-        <v>51.05</v>
+        <v>50.2</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>552</v>
+        <v>573</v>
       </c>
       <c r="N7" s="7">
-        <v>5.62</v>
+        <v>10</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="P7" s="8">
-        <v>4.19</v>
+        <v>5.96</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>539</v>
+        <v>477</v>
       </c>
       <c r="R7" s="33">
-        <v>4.03</v>
+        <v>5.13</v>
       </c>
       <c r="S7" s="14" t="s">
-        <v>573</v>
+        <v>135</v>
       </c>
       <c r="T7" s="15"/>
       <c r="U7" s="5"/>
       <c r="V7" s="6" t="s">
-        <v>598</v>
+        <v>434</v>
       </c>
       <c r="W7" s="7">
-        <v>7.1</v>
+        <v>7.75</v>
       </c>
       <c r="X7" s="8" t="s">
-        <v>530</v>
-      </c>
-      <c r="Y7" s="8">
-        <v>5.59</v>
+        <v>552</v>
+      </c>
+      <c r="Y7" s="45">
+        <v>6.17</v>
       </c>
       <c r="Z7" s="8" t="s">
-        <v>561</v>
+        <v>447</v>
       </c>
       <c r="AA7" s="33">
-        <v>3.48</v>
+        <v>5.1</v>
       </c>
       <c r="AB7" s="3" t="s">
         <v>589</v>
@@ -6871,105 +6875,103 @@
         <v>4.57</v>
       </c>
       <c r="AK7" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="AL7" s="4">
-        <v>1</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="AL7" s="4"/>
       <c r="AM7" s="5"/>
       <c r="AN7" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="AO7" s="7">
+        <v>6.36</v>
+      </c>
+      <c r="AP7" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="AQ7" s="8">
+        <v>4.97</v>
+      </c>
+      <c r="AR7" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="AO7" s="7">
-        <v>6.49</v>
-      </c>
-      <c r="AP7" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="AQ7" s="8">
-        <v>6.47</v>
-      </c>
-      <c r="AR7" s="8" t="s">
-        <v>434</v>
-      </c>
       <c r="AS7" s="33">
-        <v>5.44</v>
+        <v>4.89</v>
       </c>
     </row>
     <row r="8" ht="11.5" customHeight="1" spans="1:45">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11">
-        <v>51.72</v>
+        <v>52.03</v>
       </c>
       <c r="D8" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="E8" s="13">
+        <v>5.19</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="G8" s="13">
+        <v>3.83</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="I8" s="34">
+        <v>3.8</v>
+      </c>
+      <c r="J8" s="20"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="11">
+        <v>52.53</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="N8" s="13">
+        <v>10.42</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="P8" s="13">
+        <v>7.09</v>
+      </c>
+      <c r="Q8" s="13" t="s">
         <v>541</v>
       </c>
-      <c r="E8" s="13">
-        <v>6.53</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>543</v>
-      </c>
-      <c r="G8" s="13">
-        <v>5.12</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>527</v>
-      </c>
-      <c r="I8" s="34">
-        <v>4.9</v>
-      </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="11">
-        <v>52.55</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>550</v>
-      </c>
-      <c r="N8" s="13">
-        <v>7.15</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>568</v>
-      </c>
-      <c r="P8" s="13">
-        <v>6.19</v>
-      </c>
-      <c r="Q8" s="13" t="s">
-        <v>437</v>
-      </c>
-      <c r="R8" s="34">
-        <v>5.23</v>
+      <c r="R8" s="13">
+        <v>6.99</v>
       </c>
       <c r="S8" s="20"/>
       <c r="T8" s="21"/>
       <c r="U8" s="11">
-        <v>52.94</v>
+        <v>52.64</v>
       </c>
       <c r="V8" s="12" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
       <c r="W8" s="13">
-        <v>10</v>
+        <v>4.86</v>
       </c>
       <c r="X8" s="13" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="Y8" s="13">
-        <v>5.72</v>
+        <v>4.73</v>
       </c>
       <c r="Z8" s="13" t="s">
-        <v>510</v>
+        <v>445</v>
       </c>
       <c r="AA8" s="34">
-        <v>5.24</v>
+        <v>4.69</v>
       </c>
       <c r="AB8" s="9"/>
       <c r="AC8" s="10"/>
       <c r="AD8" s="11">
-        <v>51.42</v>
+        <v>51.63</v>
       </c>
       <c r="AE8" s="12" t="s">
         <v>442</v>
@@ -6992,25 +6994,25 @@
       <c r="AK8" s="9"/>
       <c r="AL8" s="10"/>
       <c r="AM8" s="11">
-        <v>51.36</v>
+        <v>51.92</v>
       </c>
       <c r="AN8" s="12" t="s">
-        <v>587</v>
+        <v>437</v>
       </c>
       <c r="AO8" s="13">
-        <v>8.56</v>
+        <v>5.48</v>
       </c>
       <c r="AP8" s="13" t="s">
-        <v>510</v>
+        <v>453</v>
       </c>
       <c r="AQ8" s="13">
-        <v>3.1</v>
+        <v>5.35</v>
       </c>
       <c r="AR8" s="13" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="AS8" s="34">
-        <v>2.54</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="9" ht="11.5" customHeight="1" spans="1:45">
@@ -7039,53 +7041,51 @@
       <c r="I9" s="33">
         <v>4.16</v>
       </c>
-      <c r="J9" s="35" t="s">
-        <v>539</v>
-      </c>
-      <c r="K9" s="36">
-        <v>7</v>
-      </c>
+      <c r="J9" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="K9" s="4"/>
       <c r="L9" s="5"/>
       <c r="M9" s="6" t="s">
-        <v>547</v>
+        <v>434</v>
       </c>
       <c r="N9" s="7">
-        <v>6.09</v>
+        <v>7.01</v>
       </c>
       <c r="O9" s="8" t="s">
         <v>550</v>
       </c>
       <c r="P9" s="8">
-        <v>5.39</v>
+        <v>6.95</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>447</v>
+        <v>543</v>
       </c>
       <c r="R9" s="33">
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="S9" s="14" t="s">
-        <v>135</v>
+        <v>573</v>
       </c>
       <c r="T9" s="15"/>
       <c r="U9" s="5"/>
       <c r="V9" s="6" t="s">
-        <v>434</v>
+        <v>598</v>
       </c>
       <c r="W9" s="7">
-        <v>7.75</v>
+        <v>7.1</v>
       </c>
       <c r="X9" s="8" t="s">
-        <v>552</v>
-      </c>
-      <c r="Y9" s="45">
-        <v>6.17</v>
+        <v>530</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>5.59</v>
       </c>
       <c r="Z9" s="8" t="s">
-        <v>447</v>
+        <v>561</v>
       </c>
       <c r="AA9" s="33">
-        <v>5.1</v>
+        <v>3.48</v>
       </c>
       <c r="AB9" s="3" t="s">
         <v>586</v>
@@ -7110,39 +7110,39 @@
       <c r="AJ9" s="33">
         <v>5.38</v>
       </c>
-      <c r="AK9" s="3" t="s">
+      <c r="AK9" s="40" t="s">
+        <v>590</v>
+      </c>
+      <c r="AL9" s="41">
+        <v>3</v>
+      </c>
+      <c r="AM9" s="5">
+        <v>51.39</v>
+      </c>
+      <c r="AN9" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="AL9" s="4">
-        <v>2</v>
-      </c>
-      <c r="AM9" s="5">
-        <v>52.56</v>
-      </c>
-      <c r="AN9" s="6" t="s">
-        <v>497</v>
-      </c>
       <c r="AO9" s="7">
-        <v>5.39</v>
+        <v>6.12</v>
       </c>
       <c r="AP9" s="8" t="s">
-        <v>436</v>
+        <v>543</v>
       </c>
       <c r="AQ9" s="8">
-        <v>4.04</v>
+        <v>5.17</v>
       </c>
       <c r="AR9" s="8" t="s">
-        <v>447</v>
+        <v>574</v>
       </c>
       <c r="AS9" s="33">
-        <v>3.02</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="10" ht="11.5" customHeight="1" spans="1:45">
       <c r="A10" s="9"/>
       <c r="B10" s="10"/>
       <c r="C10" s="11">
-        <v>51.71</v>
+        <v>51.78</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>565</v>
@@ -7162,56 +7162,56 @@
       <c r="I10" s="34">
         <v>3.89</v>
       </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="38"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="10"/>
       <c r="L10" s="11">
-        <v>52.46</v>
+        <v>52.32</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
       <c r="N10" s="13">
-        <v>4.97</v>
+        <v>14.43</v>
       </c>
       <c r="O10" s="13" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="P10" s="13">
-        <v>4.47</v>
+        <v>7.24</v>
       </c>
       <c r="Q10" s="13" t="s">
-        <v>548</v>
+        <v>587</v>
       </c>
       <c r="R10" s="34">
-        <v>4.03</v>
+        <v>6.66</v>
       </c>
       <c r="S10" s="20"/>
       <c r="T10" s="21"/>
       <c r="U10" s="11">
-        <v>52.73</v>
+        <v>52.39</v>
       </c>
       <c r="V10" s="12" t="s">
-        <v>522</v>
+        <v>543</v>
       </c>
       <c r="W10" s="13">
-        <v>4.86</v>
+        <v>10</v>
       </c>
       <c r="X10" s="13" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="Y10" s="13">
-        <v>4.73</v>
+        <v>5.72</v>
       </c>
       <c r="Z10" s="13" t="s">
-        <v>445</v>
+        <v>510</v>
       </c>
       <c r="AA10" s="34">
-        <v>4.69</v>
+        <v>5.24</v>
       </c>
       <c r="AB10" s="9"/>
       <c r="AC10" s="10"/>
       <c r="AD10" s="11">
-        <v>51.42</v>
+        <v>51.36</v>
       </c>
       <c r="AE10" s="12" t="s">
         <v>135</v>
@@ -7231,89 +7231,87 @@
       <c r="AJ10" s="34">
         <v>4.27</v>
       </c>
-      <c r="AK10" s="9"/>
-      <c r="AL10" s="10"/>
+      <c r="AK10" s="42"/>
+      <c r="AL10" s="43"/>
       <c r="AM10" s="11">
-        <v>51.04</v>
+        <v>50.74</v>
       </c>
       <c r="AN10" s="12" t="s">
-        <v>590</v>
+        <v>536</v>
       </c>
       <c r="AO10" s="13">
-        <v>5.97</v>
+        <v>5.27</v>
       </c>
       <c r="AP10" s="13" t="s">
-        <v>555</v>
+        <v>507</v>
       </c>
       <c r="AQ10" s="13">
-        <v>5.51</v>
+        <v>5.22</v>
       </c>
       <c r="AR10" s="13" t="s">
-        <v>582</v>
+        <v>455</v>
       </c>
       <c r="AS10" s="34">
-        <v>5.38</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="11" ht="11.5" customHeight="1" spans="1:45">
-      <c r="A11" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>53.01</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="E11" s="7">
-        <v>5.04</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>581</v>
-      </c>
-      <c r="G11" s="8">
-        <v>3.43</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="I11" s="33">
-        <v>3.36</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="5">
-        <v>53.38</v>
-      </c>
+      <c r="A11" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16">
+        <v>52.11</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="E11" s="18">
+        <v>3.69</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>598</v>
+      </c>
+      <c r="G11" s="19">
+        <v>3.28</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="I11" s="35">
+        <v>2.89</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>539</v>
+      </c>
+      <c r="K11" s="37">
+        <v>7</v>
+      </c>
+      <c r="L11" s="5"/>
       <c r="M11" s="6" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="N11" s="7">
-        <v>6.33</v>
+        <v>6.09</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="P11" s="8">
-        <v>6.09</v>
+        <v>5.39</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>590</v>
+        <v>447</v>
       </c>
       <c r="R11" s="33">
-        <v>4.09</v>
+        <v>5</v>
       </c>
       <c r="S11" s="3" t="s">
         <v>594</v>
       </c>
       <c r="T11" s="4"/>
       <c r="U11" s="5">
-        <v>52.66</v>
+        <v>52.49</v>
       </c>
       <c r="V11" s="6" t="s">
         <v>497</v>
@@ -7340,7 +7338,7 @@
         <v>8</v>
       </c>
       <c r="AD11" s="5">
-        <v>51.48</v>
+        <v>51.71</v>
       </c>
       <c r="AE11" s="6" t="s">
         <v>581</v>
@@ -7360,85 +7358,81 @@
       <c r="AJ11" s="33">
         <v>2.64</v>
       </c>
-      <c r="AK11" s="40" t="s">
-        <v>590</v>
-      </c>
-      <c r="AL11" s="41">
-        <v>3</v>
-      </c>
-      <c r="AM11" s="5">
-        <v>51.18</v>
-      </c>
+      <c r="AK11" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="AL11" s="27"/>
+      <c r="AM11" s="5"/>
       <c r="AN11" s="6" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="AO11" s="7">
-        <v>6.12</v>
+        <v>10.04</v>
       </c>
       <c r="AP11" s="8" t="s">
-        <v>543</v>
+        <v>454</v>
       </c>
       <c r="AQ11" s="8">
-        <v>5.17</v>
+        <v>4.41</v>
       </c>
       <c r="AR11" s="8" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="AS11" s="33">
-        <v>5.16</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="12" ht="11.5" customHeight="1" spans="1:45">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="11">
-        <v>51.64</v>
+        <v>51.31</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>602</v>
+        <v>548</v>
       </c>
       <c r="E12" s="13">
-        <v>5.94</v>
+        <v>3.75</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>433</v>
+        <v>555</v>
       </c>
       <c r="G12" s="13">
-        <v>4.49</v>
+        <v>3.64</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>515</v>
+        <v>603</v>
       </c>
       <c r="I12" s="34">
+        <v>3.59</v>
+      </c>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="11">
+        <v>52.12</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="N12" s="13">
+        <v>4.97</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="P12" s="13">
         <v>4.47</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="11">
-        <v>52.46</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>550</v>
-      </c>
-      <c r="N12" s="13">
-        <v>8.21</v>
-      </c>
-      <c r="O12" s="13" t="s">
-        <v>586</v>
-      </c>
-      <c r="P12" s="13">
-        <v>5.38</v>
-      </c>
       <c r="Q12" s="13" t="s">
-        <v>583</v>
+        <v>548</v>
       </c>
       <c r="R12" s="34">
-        <v>4.7</v>
+        <v>4.03</v>
       </c>
       <c r="S12" s="9"/>
       <c r="T12" s="10"/>
       <c r="U12" s="11">
-        <v>52.48</v>
+        <v>52.35</v>
       </c>
       <c r="V12" s="12" t="s">
         <v>600</v>
@@ -7461,7 +7455,7 @@
       <c r="AB12" s="9"/>
       <c r="AC12" s="10"/>
       <c r="AD12" s="11">
-        <v>51.17</v>
+        <v>51.3</v>
       </c>
       <c r="AE12" s="12" t="s">
         <v>602</v>
@@ -7481,80 +7475,84 @@
       <c r="AJ12" s="34">
         <v>2.94</v>
       </c>
-      <c r="AK12" s="42"/>
-      <c r="AL12" s="43"/>
+      <c r="AK12" s="28"/>
+      <c r="AL12" s="29"/>
       <c r="AM12" s="11">
-        <v>50.89</v>
+        <v>50.19</v>
       </c>
       <c r="AN12" s="12" t="s">
-        <v>536</v>
+        <v>587</v>
       </c>
       <c r="AO12" s="13">
-        <v>5.27</v>
+        <v>3.23</v>
       </c>
       <c r="AP12" s="13" t="s">
-        <v>507</v>
+        <v>552</v>
       </c>
       <c r="AQ12" s="13">
-        <v>5.22</v>
+        <v>3.22</v>
       </c>
       <c r="AR12" s="13" t="s">
-        <v>455</v>
+        <v>497</v>
       </c>
       <c r="AS12" s="34">
-        <v>4.93</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="13" ht="11.5" customHeight="1" spans="1:45">
       <c r="A13" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="5">
+        <v>50.51</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5">
-        <v>52.73</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>536</v>
-      </c>
       <c r="E13" s="7">
-        <v>4.24</v>
+        <v>6.9</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>522</v>
+        <v>589</v>
       </c>
       <c r="G13" s="8">
-        <v>3.69</v>
+        <v>3.11</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>547</v>
+        <v>459</v>
       </c>
       <c r="I13" s="33">
-        <v>3.67</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>543</v>
-      </c>
-      <c r="K13" s="15">
-        <v>2</v>
-      </c>
-      <c r="L13" s="5"/>
+        <v>3.11</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>535</v>
+      </c>
+      <c r="K13" s="27">
+        <v>11</v>
+      </c>
+      <c r="L13" s="5">
+        <v>51.33</v>
+      </c>
       <c r="M13" s="6" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
       <c r="N13" s="7">
-        <v>10</v>
+        <v>3.14</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
       <c r="P13" s="8">
-        <v>5.96</v>
+        <v>3.13</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="R13" s="33">
-        <v>5.13</v>
+        <v>3.08</v>
       </c>
       <c r="S13" s="26" t="s">
         <v>601</v>
@@ -7563,7 +7561,7 @@
         <v>5</v>
       </c>
       <c r="U13" s="5">
-        <v>52.27</v>
+        <v>51.89</v>
       </c>
       <c r="V13" s="6" t="s">
         <v>552</v>
@@ -7590,7 +7588,7 @@
         <v>10</v>
       </c>
       <c r="AD13" s="5">
-        <v>50.51</v>
+        <v>50.56</v>
       </c>
       <c r="AE13" s="6" t="s">
         <v>436</v>
@@ -7611,82 +7609,84 @@
         <v>4.34</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="AL13" s="4">
-        <v>9</v>
-      </c>
-      <c r="AM13" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="AM13" s="5">
+        <v>52.24</v>
+      </c>
       <c r="AN13" s="6" t="s">
-        <v>561</v>
+        <v>497</v>
       </c>
       <c r="AO13" s="7">
-        <v>6.12</v>
+        <v>5.39</v>
       </c>
       <c r="AP13" s="8" t="s">
-        <v>549</v>
+        <v>436</v>
       </c>
       <c r="AQ13" s="8">
-        <v>5.99</v>
+        <v>4.04</v>
       </c>
       <c r="AR13" s="8" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="AS13" s="33">
-        <v>5.68</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="14" ht="11.5" customHeight="1" spans="1:45">
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
       <c r="C14" s="11">
-        <v>51.53</v>
+        <v>51.29</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>456</v>
+        <v>541</v>
       </c>
       <c r="E14" s="13">
-        <v>10.5</v>
+        <v>6.53</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>477</v>
+        <v>543</v>
       </c>
       <c r="G14" s="13">
-        <v>6.9</v>
+        <v>5.12</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>497</v>
+        <v>527</v>
       </c>
       <c r="I14" s="34">
-        <v>5.8</v>
-      </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="21"/>
+        <v>4.9</v>
+      </c>
+      <c r="J14" s="28"/>
+      <c r="K14" s="29"/>
       <c r="L14" s="11">
-        <v>52.12</v>
+        <v>51.67</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>507</v>
+        <v>565</v>
       </c>
       <c r="N14" s="13">
-        <v>10.42</v>
+        <v>6.96</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="P14" s="13">
-        <v>7.09</v>
+        <v>5.83</v>
       </c>
       <c r="Q14" s="13" t="s">
-        <v>541</v>
-      </c>
-      <c r="R14" s="13">
-        <v>6.99</v>
+        <v>523</v>
+      </c>
+      <c r="R14" s="34">
+        <v>5.14</v>
       </c>
       <c r="S14" s="28"/>
       <c r="T14" s="29"/>
       <c r="U14" s="11">
-        <v>51.46</v>
+        <v>51.19</v>
       </c>
       <c r="V14" s="12" t="s">
         <v>576</v>
@@ -7709,7 +7709,7 @@
       <c r="AB14" s="9"/>
       <c r="AC14" s="10"/>
       <c r="AD14" s="11">
-        <v>50.5</v>
+        <v>50.9</v>
       </c>
       <c r="AE14" s="12" t="s">
         <v>456</v>
@@ -7732,59 +7732,59 @@
       <c r="AK14" s="9"/>
       <c r="AL14" s="10"/>
       <c r="AM14" s="11">
-        <v>50.35</v>
+        <v>50.16</v>
       </c>
       <c r="AN14" s="12" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
       <c r="AO14" s="13">
-        <v>5.6</v>
+        <v>5.97</v>
       </c>
       <c r="AP14" s="13" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="AQ14" s="13">
-        <v>4.34</v>
+        <v>5.51</v>
       </c>
       <c r="AR14" s="13" t="s">
-        <v>507</v>
+        <v>582</v>
       </c>
       <c r="AS14" s="34">
-        <v>3.73</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="15" ht="11.5" customHeight="1" spans="1:45">
-      <c r="A15" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16">
-        <v>52.02</v>
-      </c>
-      <c r="D15" s="17" t="s">
+      <c r="A15" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5">
+        <v>52.68</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="E15" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="E15" s="18">
+      <c r="G15" s="8">
         <v>3.69</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>598</v>
-      </c>
-      <c r="G15" s="19">
-        <v>3.28</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>442</v>
-      </c>
-      <c r="I15" s="39">
-        <v>2.89</v>
+      <c r="H15" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="I15" s="33">
+        <v>3.67</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>544</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="5">
-        <v>50.99</v>
+        <v>50.42</v>
       </c>
       <c r="M15" s="6" t="s">
         <v>536</v>
@@ -7809,7 +7809,7 @@
       </c>
       <c r="T15" s="4"/>
       <c r="U15" s="5">
-        <v>50.47</v>
+        <v>50.85</v>
       </c>
       <c r="V15" s="6" t="s">
         <v>498</v>
@@ -7829,85 +7829,89 @@
       <c r="AA15" s="33">
         <v>2.95</v>
       </c>
-      <c r="AB15" s="40" t="s">
-        <v>576</v>
-      </c>
-      <c r="AC15" s="41"/>
+      <c r="AB15" s="36" t="s">
+        <v>588</v>
+      </c>
+      <c r="AC15" s="37">
+        <v>4</v>
+      </c>
       <c r="AD15" s="5">
-        <v>50.69</v>
+        <v>50.84</v>
       </c>
       <c r="AE15" s="6" t="s">
-        <v>527</v>
+        <v>456</v>
       </c>
       <c r="AF15" s="7">
-        <v>5.93</v>
+        <v>8.12</v>
       </c>
       <c r="AG15" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AH15" s="8">
-        <v>5.52</v>
+        <v>4.01</v>
       </c>
       <c r="AI15" s="8" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="AJ15" s="33">
-        <v>3.83</v>
+        <v>3.34</v>
       </c>
       <c r="AK15" s="3" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="AL15" s="4">
-        <v>5</v>
-      </c>
-      <c r="AM15" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="AM15" s="5">
+        <v>51.53</v>
+      </c>
       <c r="AN15" s="6" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="AO15" s="7">
-        <v>10.98</v>
+        <v>3</v>
       </c>
       <c r="AP15" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="AQ15" s="8">
+        <v>2.57</v>
+      </c>
+      <c r="AR15" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="AS15" s="33">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" ht="11.5" customHeight="1" spans="1:45">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11">
+        <v>51.1</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="AQ15" s="8">
-        <v>4.93</v>
-      </c>
-      <c r="AR15" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="AS15" s="33">
-        <v>4.63</v>
-      </c>
-    </row>
-    <row r="16" ht="11.5" customHeight="1" spans="1:45">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="11">
-        <v>51.03</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>548</v>
-      </c>
       <c r="E16" s="13">
-        <v>3.75</v>
+        <v>10.5</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>555</v>
+        <v>477</v>
       </c>
       <c r="G16" s="13">
-        <v>3.64</v>
+        <v>6.9</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>603</v>
+        <v>497</v>
       </c>
       <c r="I16" s="34">
-        <v>3.59</v>
+        <v>5.8</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="10"/>
       <c r="L16" s="11">
-        <v>52.06</v>
+        <v>51.64</v>
       </c>
       <c r="M16" s="12" t="s">
         <v>568</v>
@@ -7930,7 +7934,7 @@
       <c r="S16" s="9"/>
       <c r="T16" s="10"/>
       <c r="U16" s="11">
-        <v>51.44</v>
+        <v>51.17</v>
       </c>
       <c r="V16" s="12" t="s">
         <v>568</v>
@@ -7950,51 +7954,51 @@
       <c r="AA16" s="34">
         <v>3.47</v>
       </c>
-      <c r="AB16" s="42"/>
-      <c r="AC16" s="43"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="39"/>
       <c r="AD16" s="11">
-        <v>50.37</v>
+        <v>50.72</v>
       </c>
       <c r="AE16" s="12" t="s">
-        <v>598</v>
+        <v>561</v>
       </c>
       <c r="AF16" s="13">
-        <v>4.27</v>
+        <v>4.43</v>
       </c>
       <c r="AG16" s="13" t="s">
-        <v>577</v>
+        <v>498</v>
       </c>
       <c r="AH16" s="13">
-        <v>3.21</v>
+        <v>3.47</v>
       </c>
       <c r="AI16" s="13" t="s">
-        <v>589</v>
+        <v>535</v>
       </c>
       <c r="AJ16" s="34">
-        <v>3.1</v>
+        <v>3.14</v>
       </c>
       <c r="AK16" s="9"/>
       <c r="AL16" s="10"/>
       <c r="AM16" s="11">
-        <v>50.08</v>
+        <v>50.14</v>
       </c>
       <c r="AN16" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="AO16" s="13">
+        <v>4.29</v>
+      </c>
+      <c r="AP16" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="AQ16" s="13">
+        <v>3.55</v>
+      </c>
+      <c r="AR16" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="AO16" s="13">
-        <v>6.47</v>
-      </c>
-      <c r="AP16" s="13" t="s">
-        <v>510</v>
-      </c>
-      <c r="AQ16" s="13">
-        <v>5.64</v>
-      </c>
-      <c r="AR16" s="13" t="s">
-        <v>583</v>
-      </c>
       <c r="AS16" s="34">
-        <v>4.48</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="17" ht="11.5" customHeight="1" spans="1:45">
@@ -8021,116 +8025,112 @@
       <c r="I17" s="33">
         <v>3.19</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="K17" s="4">
-        <v>4</v>
-      </c>
-      <c r="L17" s="5"/>
+      <c r="J17" s="26" t="s">
+        <v>437</v>
+      </c>
+      <c r="K17" s="27">
+        <v>6</v>
+      </c>
+      <c r="L17" s="5">
+        <v>50.66</v>
+      </c>
       <c r="M17" s="6" t="s">
-        <v>535</v>
+        <v>497</v>
       </c>
       <c r="N17" s="7">
-        <v>5.14</v>
+        <v>5.59</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>548</v>
+        <v>498</v>
       </c>
       <c r="P17" s="8">
-        <v>4.58</v>
+        <v>5.56</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>549</v>
+        <v>583</v>
       </c>
       <c r="R17" s="33">
-        <v>4.77</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="T17" s="4"/>
+        <v>5.48</v>
+      </c>
+      <c r="S17" s="40" t="s">
+        <v>577</v>
+      </c>
+      <c r="T17" s="41"/>
       <c r="U17" s="5">
-        <v>50.67</v>
+        <v>51.91</v>
       </c>
       <c r="V17" s="6" t="s">
-        <v>548</v>
+        <v>502</v>
       </c>
       <c r="W17" s="7">
-        <v>4.86</v>
+        <v>5.15</v>
       </c>
       <c r="X17" s="8" t="s">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="Y17" s="8">
-        <v>4.83</v>
+        <v>4.856</v>
       </c>
       <c r="Z17" s="8" t="s">
-        <v>497</v>
+        <v>600</v>
       </c>
       <c r="AA17" s="33">
-        <v>3.58</v>
-      </c>
-      <c r="AB17" s="35" t="s">
-        <v>588</v>
-      </c>
-      <c r="AC17" s="36">
-        <v>4</v>
-      </c>
+        <v>4.798</v>
+      </c>
+      <c r="AB17" s="40" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC17" s="41"/>
       <c r="AD17" s="5">
-        <v>50.63</v>
+        <v>50.53</v>
       </c>
       <c r="AE17" s="6" t="s">
-        <v>456</v>
+        <v>527</v>
       </c>
       <c r="AF17" s="7">
-        <v>8.12</v>
+        <v>5.93</v>
       </c>
       <c r="AG17" s="8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AH17" s="8">
-        <v>4.01</v>
+        <v>5.52</v>
       </c>
       <c r="AI17" s="8" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="AJ17" s="33">
-        <v>3.34</v>
-      </c>
-      <c r="AK17" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="AL17" s="4">
-        <v>7</v>
-      </c>
-      <c r="AM17" s="5">
-        <v>51.94</v>
-      </c>
+        <v>3.83</v>
+      </c>
+      <c r="AK17" s="36" t="s">
+        <v>517</v>
+      </c>
+      <c r="AL17" s="37"/>
+      <c r="AM17" s="5"/>
       <c r="AN17" s="6" t="s">
-        <v>443</v>
+        <v>538</v>
       </c>
       <c r="AO17" s="7">
-        <v>3</v>
+        <v>5.95</v>
       </c>
       <c r="AP17" s="8" t="s">
-        <v>575</v>
+        <v>543</v>
       </c>
       <c r="AQ17" s="8">
-        <v>2.57</v>
+        <v>3.3</v>
       </c>
       <c r="AR17" s="8" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="AS17" s="33">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="18" ht="11.5" customHeight="1" spans="1:45">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="11">
-        <v>50.88</v>
+        <v>50.77</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>601</v>
@@ -8150,95 +8150,97 @@
       <c r="I18" s="34">
         <v>2.94</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="10"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="29"/>
       <c r="L18" s="11">
-        <v>51.88</v>
+        <v>51.61</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>536</v>
+        <v>600</v>
       </c>
       <c r="N18" s="13">
-        <v>8.01</v>
+        <v>7.26</v>
       </c>
       <c r="O18" s="13" t="s">
-        <v>522</v>
+        <v>453</v>
       </c>
       <c r="P18" s="13">
-        <v>5.99</v>
+        <v>5.68</v>
       </c>
       <c r="Q18" s="13" t="s">
-        <v>433</v>
+        <v>547</v>
       </c>
       <c r="R18" s="34">
-        <v>5.83</v>
-      </c>
-      <c r="S18" s="9"/>
-      <c r="T18" s="10"/>
+        <v>3.89</v>
+      </c>
+      <c r="S18" s="42"/>
+      <c r="T18" s="43"/>
       <c r="U18" s="11">
-        <v>51.01</v>
+        <v>50.73</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>547</v>
+        <v>495</v>
       </c>
       <c r="W18" s="13">
-        <v>3.46</v>
+        <v>7.83</v>
       </c>
       <c r="X18" s="13" t="s">
-        <v>433</v>
+        <v>520</v>
       </c>
       <c r="Y18" s="13">
-        <v>3.42</v>
+        <v>7.05</v>
       </c>
       <c r="Z18" s="13" t="s">
-        <v>522</v>
+        <v>589</v>
       </c>
       <c r="AA18" s="34">
-        <v>3.01</v>
-      </c>
-      <c r="AB18" s="37"/>
-      <c r="AC18" s="38"/>
+        <v>4.78</v>
+      </c>
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="43"/>
       <c r="AD18" s="11">
-        <v>50.32</v>
+        <v>50.41</v>
       </c>
       <c r="AE18" s="12" t="s">
-        <v>561</v>
+        <v>598</v>
       </c>
       <c r="AF18" s="13">
-        <v>4.43</v>
+        <v>4.27</v>
       </c>
       <c r="AG18" s="13" t="s">
-        <v>498</v>
+        <v>577</v>
       </c>
       <c r="AH18" s="13">
-        <v>3.47</v>
+        <v>3.21</v>
       </c>
       <c r="AI18" s="13" t="s">
-        <v>535</v>
+        <v>589</v>
       </c>
       <c r="AJ18" s="34">
-        <v>3.14</v>
-      </c>
-      <c r="AK18" s="9"/>
-      <c r="AL18" s="10"/>
-      <c r="AM18" s="11"/>
+        <v>3.1</v>
+      </c>
+      <c r="AK18" s="38"/>
+      <c r="AL18" s="39"/>
+      <c r="AM18" s="11">
+        <v>50.08</v>
+      </c>
       <c r="AN18" s="12" t="s">
-        <v>590</v>
+        <v>552</v>
       </c>
       <c r="AO18" s="13">
-        <v>4.29</v>
+        <v>2.6</v>
       </c>
       <c r="AP18" s="13" t="s">
-        <v>135</v>
+        <v>454</v>
       </c>
       <c r="AQ18" s="13">
-        <v>3.55</v>
+        <v>2.57</v>
       </c>
       <c r="AR18" s="13" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AS18" s="34">
-        <v>3.52</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="19" ht="11.5" customHeight="1" spans="1:45">
@@ -8265,57 +8267,55 @@
       <c r="I19" s="33">
         <v>3.13</v>
       </c>
-      <c r="J19" s="26" t="s">
-        <v>437</v>
-      </c>
-      <c r="K19" s="27">
-        <v>6</v>
-      </c>
-      <c r="L19" s="5">
-        <v>51</v>
-      </c>
+      <c r="J19" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="K19" s="4">
+        <v>4</v>
+      </c>
+      <c r="L19" s="5"/>
       <c r="M19" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="N19" s="7">
+        <v>5.14</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="P19" s="8">
+        <v>4.58</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="R19" s="33">
+        <v>4.77</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="T19" s="4"/>
+      <c r="U19" s="5">
+        <v>50.14</v>
+      </c>
+      <c r="V19" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="W19" s="7">
+        <v>4.86</v>
+      </c>
+      <c r="X19" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y19" s="8">
+        <v>4.83</v>
+      </c>
+      <c r="Z19" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="N19" s="7">
-        <v>5.59</v>
-      </c>
-      <c r="O19" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="P19" s="8">
-        <v>5.56</v>
-      </c>
-      <c r="Q19" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="R19" s="33">
-        <v>5.48</v>
-      </c>
-      <c r="S19" s="40" t="s">
-        <v>577</v>
-      </c>
-      <c r="T19" s="41"/>
-      <c r="U19" s="5">
-        <v>51.77</v>
-      </c>
-      <c r="V19" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="W19" s="7">
-        <v>5.15</v>
-      </c>
-      <c r="X19" s="8" t="s">
-        <v>510</v>
-      </c>
-      <c r="Y19" s="8">
-        <v>4.856</v>
-      </c>
-      <c r="Z19" s="8" t="s">
-        <v>600</v>
-      </c>
       <c r="AA19" s="33">
-        <v>4.798</v>
+        <v>3.58</v>
       </c>
       <c r="AB19" s="3" t="s">
         <v>593</v>
@@ -8349,7 +8349,7 @@
         <v>4</v>
       </c>
       <c r="AM19" s="5">
-        <v>50.75</v>
+        <v>50.97</v>
       </c>
       <c r="AN19" s="6" t="s">
         <v>590</v>
@@ -8374,7 +8374,7 @@
       <c r="A20" s="9"/>
       <c r="B20" s="10"/>
       <c r="C20" s="11">
-        <v>50.79</v>
+        <v>50.68</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>520</v>
@@ -8394,56 +8394,56 @@
       <c r="I20" s="34">
         <v>3.64</v>
       </c>
-      <c r="J20" s="28"/>
-      <c r="K20" s="29"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="10"/>
       <c r="L20" s="11">
-        <v>51.63</v>
+        <v>51.57</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>600</v>
+        <v>536</v>
       </c>
       <c r="N20" s="13">
-        <v>7.26</v>
+        <v>8.01</v>
       </c>
       <c r="O20" s="13" t="s">
-        <v>453</v>
+        <v>522</v>
       </c>
       <c r="P20" s="13">
-        <v>5.68</v>
+        <v>5.99</v>
       </c>
       <c r="Q20" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="R20" s="34">
+        <v>5.83</v>
+      </c>
+      <c r="S20" s="9"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="11">
+        <v>50.67</v>
+      </c>
+      <c r="V20" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="R20" s="34">
-        <v>3.89</v>
-      </c>
-      <c r="S20" s="42"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="11">
-        <v>50.8</v>
-      </c>
-      <c r="V20" s="12" t="s">
-        <v>495</v>
-      </c>
       <c r="W20" s="13">
-        <v>7.83</v>
+        <v>3.46</v>
       </c>
       <c r="X20" s="13" t="s">
-        <v>520</v>
+        <v>433</v>
       </c>
       <c r="Y20" s="13">
-        <v>7.05</v>
+        <v>3.42</v>
       </c>
       <c r="Z20" s="13" t="s">
-        <v>589</v>
+        <v>522</v>
       </c>
       <c r="AA20" s="34">
-        <v>4.78</v>
+        <v>3.01</v>
       </c>
       <c r="AB20" s="9"/>
       <c r="AC20" s="10"/>
       <c r="AD20" s="11">
-        <v>50.28</v>
+        <v>50.3</v>
       </c>
       <c r="AE20" s="12" t="s">
         <v>456</v>
@@ -8513,55 +8513,53 @@
       <c r="I21" s="33">
         <v>2.35</v>
       </c>
-      <c r="J21" s="26" t="s">
-        <v>574</v>
-      </c>
-      <c r="K21" s="27">
-        <v>5</v>
-      </c>
+      <c r="J21" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="K21" s="4"/>
       <c r="L21" s="5">
-        <v>51.44</v>
+        <v>51.46</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>536</v>
+        <v>456</v>
       </c>
       <c r="N21" s="7">
-        <v>6.57</v>
+        <v>8.64</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>434</v>
+        <v>510</v>
       </c>
       <c r="P21" s="8">
-        <v>5.14</v>
+        <v>7.87</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="R21" s="33">
-        <v>4.49</v>
+        <v>6.05</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>546</v>
+        <v>507</v>
       </c>
       <c r="T21" s="4"/>
       <c r="U21" s="5"/>
       <c r="V21" s="6" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="W21" s="7">
-        <v>5.14</v>
+        <v>10.32</v>
       </c>
       <c r="X21" s="8" t="s">
-        <v>443</v>
+        <v>581</v>
       </c>
       <c r="Y21" s="8">
-        <v>4.75</v>
+        <v>5.54</v>
       </c>
       <c r="Z21" s="8" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="AA21" s="33">
-        <v>4.24</v>
+        <v>5.22</v>
       </c>
       <c r="AB21" s="3" t="s">
         <v>568</v>
@@ -8588,35 +8586,37 @@
       <c r="AJ21" s="33">
         <v>5.83</v>
       </c>
-      <c r="AK21" s="26" t="s">
-        <v>518</v>
-      </c>
-      <c r="AL21" s="27"/>
+      <c r="AK21" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="AL21" s="4">
+        <v>5</v>
+      </c>
       <c r="AM21" s="5"/>
       <c r="AN21" s="6" t="s">
         <v>434</v>
       </c>
       <c r="AO21" s="7">
-        <v>10.04</v>
+        <v>10.98</v>
       </c>
       <c r="AP21" s="8" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AQ21" s="8">
-        <v>4.41</v>
+        <v>4.93</v>
       </c>
       <c r="AR21" s="8" t="s">
-        <v>536</v>
+        <v>435</v>
       </c>
       <c r="AS21" s="33">
-        <v>2.99</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="22" ht="11.5" customHeight="1" spans="1:45">
       <c r="A22" s="20"/>
       <c r="B22" s="21"/>
       <c r="C22" s="11">
-        <v>50.26</v>
+        <v>50.39</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>456</v>
@@ -8636,51 +8636,51 @@
       <c r="I22" s="34">
         <v>3</v>
       </c>
-      <c r="J22" s="28"/>
-      <c r="K22" s="29"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="10"/>
       <c r="L22" s="11">
-        <v>51.59</v>
+        <v>51.57</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>590</v>
+        <v>536</v>
       </c>
       <c r="N22" s="13">
-        <v>5.16</v>
+        <v>10.32</v>
       </c>
       <c r="O22" s="13" t="s">
-        <v>495</v>
+        <v>602</v>
       </c>
       <c r="P22" s="13">
-        <v>4.65</v>
+        <v>7.23</v>
       </c>
       <c r="Q22" s="13" t="s">
-        <v>541</v>
+        <v>494</v>
       </c>
       <c r="R22" s="34">
-        <v>3.64</v>
+        <v>6.33</v>
       </c>
       <c r="S22" s="9"/>
       <c r="T22" s="10"/>
       <c r="U22" s="11">
-        <v>50.69</v>
+        <v>50.33</v>
       </c>
       <c r="V22" s="12" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="W22" s="13">
-        <v>4.28</v>
+        <v>5.97</v>
       </c>
       <c r="X22" s="13" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="Y22" s="13">
-        <v>3.99</v>
+        <v>4</v>
       </c>
       <c r="Z22" s="13" t="s">
-        <v>565</v>
+        <v>447</v>
       </c>
       <c r="AA22" s="34">
-        <v>3.53</v>
+        <v>3.44</v>
       </c>
       <c r="AB22" s="9"/>
       <c r="AC22" s="10"/>
@@ -8703,105 +8703,105 @@
       <c r="AJ22" s="34">
         <v>4.89</v>
       </c>
-      <c r="AK22" s="28"/>
-      <c r="AL22" s="29"/>
+      <c r="AK22" s="9"/>
+      <c r="AL22" s="10"/>
       <c r="AM22" s="11"/>
       <c r="AN22" s="12" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="AO22" s="13">
-        <v>3.23</v>
+        <v>6.47</v>
       </c>
       <c r="AP22" s="13" t="s">
-        <v>552</v>
+        <v>510</v>
       </c>
       <c r="AQ22" s="13">
-        <v>3.22</v>
+        <v>5.64</v>
       </c>
       <c r="AR22" s="13" t="s">
-        <v>497</v>
+        <v>583</v>
       </c>
       <c r="AS22" s="34">
-        <v>2.6</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="23" ht="11.5" customHeight="1" spans="1:45">
-      <c r="A23" s="22" t="s">
-        <v>516</v>
-      </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="5">
-        <v>51.12</v>
-      </c>
+      <c r="A23" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B23" s="4">
+        <v>7</v>
+      </c>
+      <c r="C23" s="5"/>
       <c r="D23" s="6" t="s">
-        <v>456</v>
+        <v>498</v>
       </c>
       <c r="E23" s="7">
-        <v>5.67</v>
+        <v>4.89</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>536</v>
+        <v>601</v>
       </c>
       <c r="G23" s="8">
-        <v>4.41</v>
+        <v>4.01</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>565</v>
+        <v>591</v>
       </c>
       <c r="I23" s="33">
-        <v>2.69</v>
+        <v>3.88</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="K23" s="4"/>
+        <v>548</v>
+      </c>
+      <c r="K23" s="4">
+        <v>9</v>
+      </c>
       <c r="L23" s="5">
         <v>51.28</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>456</v>
+        <v>552</v>
       </c>
       <c r="N23" s="7">
-        <v>8.64</v>
+        <v>5.62</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>510</v>
+        <v>484</v>
       </c>
       <c r="P23" s="8">
-        <v>7.87</v>
+        <v>4.19</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>568</v>
+        <v>539</v>
       </c>
       <c r="R23" s="33">
-        <v>6.05</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="T23" s="4">
-        <v>3</v>
-      </c>
+        <v>4.03</v>
+      </c>
+      <c r="S23" s="40" t="s">
+        <v>474</v>
+      </c>
+      <c r="T23" s="41"/>
       <c r="U23" s="5">
-        <v>51.68</v>
+        <v>50.05</v>
       </c>
       <c r="V23" s="6" t="s">
-        <v>497</v>
+        <v>587</v>
       </c>
       <c r="W23" s="7">
-        <v>6.54</v>
+        <v>2.48</v>
       </c>
       <c r="X23" s="8" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
       <c r="Y23" s="8">
-        <v>5.39</v>
+        <v>2.34</v>
       </c>
       <c r="Z23" s="8" t="s">
-        <v>452</v>
+        <v>594</v>
       </c>
       <c r="AA23" s="33">
-        <v>5.3</v>
+        <v>2.32</v>
       </c>
       <c r="AB23" s="3" t="s">
         <v>592</v>
@@ -8828,99 +8828,101 @@
       <c r="AJ23" s="33">
         <v>4.27</v>
       </c>
-      <c r="AK23" s="35" t="s">
-        <v>517</v>
-      </c>
-      <c r="AL23" s="36"/>
+      <c r="AK23" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="AL23" s="4">
+        <v>9</v>
+      </c>
       <c r="AM23" s="5"/>
       <c r="AN23" s="6" t="s">
-        <v>538</v>
+        <v>561</v>
       </c>
       <c r="AO23" s="7">
-        <v>5.95</v>
+        <v>6.12</v>
       </c>
       <c r="AP23" s="8" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="AQ23" s="8">
-        <v>3.3</v>
+        <v>5.99</v>
       </c>
       <c r="AR23" s="8" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="AS23" s="33">
-        <v>3.1</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="24" ht="11.5" customHeight="1" spans="1:45">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="11">
-        <v>50.13</v>
+        <v>50.25</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="E24" s="13">
-        <v>4.15</v>
+        <v>4.23</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>447</v>
+        <v>494</v>
       </c>
       <c r="G24" s="13">
-        <v>3.91</v>
+        <v>3.56</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>135</v>
+        <v>576</v>
       </c>
       <c r="I24" s="34">
-        <v>3.61</v>
+        <v>3.19</v>
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="10"/>
       <c r="L24" s="11">
-        <v>51.4</v>
+        <v>51.52</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="N24" s="13">
-        <v>10.32</v>
+        <v>7.15</v>
       </c>
       <c r="O24" s="13" t="s">
-        <v>602</v>
+        <v>568</v>
       </c>
       <c r="P24" s="13">
-        <v>7.23</v>
+        <v>6.19</v>
       </c>
       <c r="Q24" s="13" t="s">
-        <v>494</v>
+        <v>437</v>
       </c>
       <c r="R24" s="34">
-        <v>6.33</v>
-      </c>
-      <c r="S24" s="9"/>
-      <c r="T24" s="10"/>
+        <v>5.23</v>
+      </c>
+      <c r="S24" s="42"/>
+      <c r="T24" s="43"/>
       <c r="U24" s="11">
-        <v>50.38</v>
+        <v>50.26</v>
       </c>
       <c r="V24" s="12" t="s">
-        <v>542</v>
+        <v>433</v>
       </c>
       <c r="W24" s="13">
-        <v>5.94</v>
+        <v>3.03</v>
       </c>
       <c r="X24" s="13" t="s">
-        <v>540</v>
+        <v>599</v>
       </c>
       <c r="Y24" s="13">
-        <v>5.04</v>
+        <v>2.24</v>
       </c>
       <c r="Z24" s="13" t="s">
-        <v>566</v>
+        <v>523</v>
       </c>
       <c r="AA24" s="34">
-        <v>3.14</v>
+        <v>2.21</v>
       </c>
       <c r="AB24" s="9"/>
       <c r="AC24" s="10"/>
@@ -8943,107 +8945,103 @@
       <c r="AJ24" s="34">
         <v>5.45</v>
       </c>
-      <c r="AK24" s="37"/>
-      <c r="AL24" s="38"/>
+      <c r="AK24" s="9"/>
+      <c r="AL24" s="10"/>
       <c r="AM24" s="11"/>
       <c r="AN24" s="12" t="s">
-        <v>552</v>
+        <v>572</v>
       </c>
       <c r="AO24" s="13">
-        <v>2.6</v>
+        <v>5.6</v>
       </c>
       <c r="AP24" s="13" t="s">
-        <v>454</v>
+        <v>574</v>
       </c>
       <c r="AQ24" s="13">
-        <v>2.57</v>
+        <v>4.34</v>
       </c>
       <c r="AR24" s="13" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="AS24" s="34">
-        <v>2.22</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="25" ht="11.5" customHeight="1" spans="1:45">
-      <c r="A25" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="B25" s="27">
-        <v>8</v>
-      </c>
+      <c r="A25" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="B25" s="23"/>
       <c r="C25" s="5">
-        <v>50.14</v>
+        <v>51.29</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>494</v>
+        <v>456</v>
       </c>
       <c r="E25" s="7">
-        <v>4.65</v>
+        <v>5.67</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>135</v>
+        <v>536</v>
       </c>
       <c r="G25" s="8">
-        <v>3.83</v>
+        <v>4.41</v>
       </c>
       <c r="H25" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="I25" s="33">
+        <v>2.69</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>574</v>
+      </c>
+      <c r="K25" s="27">
+        <v>5</v>
+      </c>
+      <c r="L25" s="5">
+        <v>51.6</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="N25" s="7">
+        <v>6.57</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="P25" s="8">
+        <v>5.14</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="R25" s="33">
+        <v>4.49</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="T25" s="4"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="W25" s="7">
+        <v>5.14</v>
+      </c>
+      <c r="X25" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="I25" s="33">
-        <v>3.72</v>
-      </c>
-      <c r="J25" s="26" t="s">
-        <v>535</v>
-      </c>
-      <c r="K25" s="27">
-        <v>11</v>
-      </c>
-      <c r="L25" s="5">
-        <v>51.87</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>588</v>
-      </c>
-      <c r="N25" s="7">
-        <v>3.14</v>
-      </c>
-      <c r="O25" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="P25" s="8">
-        <v>3.13</v>
-      </c>
-      <c r="Q25" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="R25" s="33">
-        <v>3.08</v>
-      </c>
-      <c r="S25" s="40" t="s">
-        <v>474</v>
-      </c>
-      <c r="T25" s="41"/>
-      <c r="U25" s="5">
-        <v>50.41</v>
-      </c>
-      <c r="V25" s="6" t="s">
-        <v>587</v>
-      </c>
-      <c r="W25" s="7">
-        <v>2.48</v>
-      </c>
-      <c r="X25" s="8" t="s">
-        <v>531</v>
-      </c>
       <c r="Y25" s="8">
-        <v>2.34</v>
+        <v>4.75</v>
       </c>
       <c r="Z25" s="8" t="s">
         <v>594</v>
       </c>
       <c r="AA25" s="33">
-        <v>2.32</v>
+        <v>4.24</v>
       </c>
       <c r="AB25" s="40" t="s">
         <v>567</v>
@@ -9093,72 +9091,74 @@
       </c>
     </row>
     <row r="26" ht="11.5" customHeight="1" spans="1:45">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="11"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="11">
+        <v>50.2</v>
+      </c>
       <c r="D26" s="12" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="E26" s="13">
-        <v>5.15</v>
+        <v>4.15</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="G26" s="13">
-        <v>4.48</v>
+        <v>3.91</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>598</v>
+        <v>135</v>
       </c>
       <c r="I26" s="34">
-        <v>4.25</v>
+        <v>3.61</v>
       </c>
       <c r="J26" s="28"/>
       <c r="K26" s="29"/>
       <c r="L26" s="11">
-        <v>50.88</v>
+        <v>51.36</v>
       </c>
       <c r="M26" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="N26" s="13">
+        <v>5.16</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="P26" s="13">
+        <v>4.65</v>
+      </c>
+      <c r="Q26" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="R26" s="34">
+        <v>3.64</v>
+      </c>
+      <c r="S26" s="9"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="11">
+        <v>50.17</v>
+      </c>
+      <c r="V26" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="W26" s="13">
+        <v>4.28</v>
+      </c>
+      <c r="X26" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y26" s="13">
+        <v>3.99</v>
+      </c>
+      <c r="Z26" s="13" t="s">
         <v>565</v>
       </c>
-      <c r="N26" s="13">
-        <v>6.96</v>
-      </c>
-      <c r="O26" s="13" t="s">
-        <v>568</v>
-      </c>
-      <c r="P26" s="13">
-        <v>5.83</v>
-      </c>
-      <c r="Q26" s="13" t="s">
-        <v>523</v>
-      </c>
-      <c r="R26" s="34">
-        <v>5.14</v>
-      </c>
-      <c r="S26" s="42"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="11">
-        <v>50.22</v>
-      </c>
-      <c r="V26" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="W26" s="13">
-        <v>3.03</v>
-      </c>
-      <c r="X26" s="13" t="s">
-        <v>599</v>
-      </c>
-      <c r="Y26" s="13">
-        <v>2.24</v>
-      </c>
-      <c r="Z26" s="13" t="s">
-        <v>523</v>
-      </c>
       <c r="AA26" s="34">
-        <v>2.21</v>
+        <v>3.53</v>
       </c>
       <c r="AB26" s="42"/>
       <c r="AC26" s="43"/>
@@ -9204,37 +9204,39 @@
       </c>
     </row>
     <row r="27" ht="11.5" customHeight="1" spans="1:45">
-      <c r="A27" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="B27" s="4">
-        <v>7</v>
-      </c>
-      <c r="C27" s="5"/>
+      <c r="A27" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="B27" s="27">
+        <v>8</v>
+      </c>
+      <c r="C27" s="5">
+        <v>50.02</v>
+      </c>
       <c r="D27" s="6" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E27" s="7">
-        <v>4.89</v>
+        <v>4.65</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>601</v>
+        <v>135</v>
       </c>
       <c r="G27" s="8">
-        <v>4.01</v>
+        <v>3.83</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>591</v>
+        <v>443</v>
       </c>
       <c r="I27" s="33">
-        <v>3.88</v>
+        <v>3.72</v>
       </c>
       <c r="J27" s="14" t="s">
         <v>521</v>
       </c>
       <c r="K27" s="15"/>
       <c r="L27" s="5">
-        <v>51.25</v>
+        <v>51.31</v>
       </c>
       <c r="M27" s="6" t="s">
         <v>456</v>
@@ -9255,31 +9257,31 @@
         <v>2.68</v>
       </c>
       <c r="S27" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="T27" s="4">
+        <v>3</v>
+      </c>
+      <c r="U27" s="5">
+        <v>51.47</v>
+      </c>
+      <c r="V27" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="W27" s="7">
+        <v>6.54</v>
+      </c>
+      <c r="X27" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="T27" s="4">
-        <v>1</v>
-      </c>
-      <c r="U27" s="5">
-        <v>51.64</v>
-      </c>
-      <c r="V27" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="W27" s="7">
-        <v>3.86</v>
-      </c>
-      <c r="X27" s="8" t="s">
-        <v>557</v>
-      </c>
       <c r="Y27" s="8">
-        <v>3.52</v>
+        <v>5.39</v>
       </c>
       <c r="Z27" s="8" t="s">
-        <v>577</v>
+        <v>452</v>
       </c>
       <c r="AA27" s="33">
-        <v>3.39</v>
+        <v>5.3</v>
       </c>
       <c r="AK27" s="3" t="s">
         <v>515</v>
@@ -9308,31 +9310,31 @@
       </c>
     </row>
     <row r="28" ht="11.5" customHeight="1" spans="1:45">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="11"/>
       <c r="D28" s="12" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="E28" s="13">
-        <v>4.23</v>
+        <v>5.15</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>494</v>
+        <v>456</v>
       </c>
       <c r="G28" s="13">
-        <v>3.56</v>
+        <v>4.48</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>576</v>
+        <v>598</v>
       </c>
       <c r="I28" s="34">
-        <v>3.19</v>
+        <v>4.25</v>
       </c>
       <c r="J28" s="20"/>
       <c r="K28" s="21"/>
       <c r="L28" s="11">
-        <v>50.52</v>
+        <v>50.25</v>
       </c>
       <c r="M28" s="12" t="s">
         <v>434</v>
@@ -9354,24 +9356,26 @@
       </c>
       <c r="S28" s="9"/>
       <c r="T28" s="10"/>
-      <c r="U28" s="11"/>
+      <c r="U28" s="11">
+        <v>50.04</v>
+      </c>
       <c r="V28" s="12" t="s">
-        <v>601</v>
+        <v>542</v>
       </c>
       <c r="W28" s="13">
-        <v>7.35</v>
+        <v>5.94</v>
       </c>
       <c r="X28" s="13" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="Y28" s="13">
-        <v>5.62</v>
+        <v>5.04</v>
       </c>
       <c r="Z28" s="13" t="s">
-        <v>135</v>
+        <v>566</v>
       </c>
       <c r="AA28" s="34">
-        <v>5.45</v>
+        <v>3.14</v>
       </c>
       <c r="AK28" s="9"/>
       <c r="AL28" s="10"/>
@@ -9426,7 +9430,7 @@
         <v>10</v>
       </c>
       <c r="L29" s="5">
-        <v>52.63</v>
+        <v>52.33</v>
       </c>
       <c r="M29" s="6" t="s">
         <v>447</v>
@@ -9447,52 +9451,54 @@
         <v>3.73</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="T29" s="4"/>
+        <v>552</v>
+      </c>
+      <c r="T29" s="4">
+        <v>1</v>
+      </c>
       <c r="U29" s="5">
-        <v>51.04</v>
+        <v>51.27</v>
       </c>
       <c r="V29" s="6" t="s">
-        <v>587</v>
+        <v>433</v>
       </c>
       <c r="W29" s="7">
-        <v>5.39</v>
+        <v>3.86</v>
       </c>
       <c r="X29" s="8" t="s">
-        <v>497</v>
+        <v>557</v>
       </c>
       <c r="Y29" s="8">
-        <v>4.06</v>
+        <v>3.52</v>
       </c>
       <c r="Z29" s="8" t="s">
-        <v>552</v>
+        <v>577</v>
       </c>
       <c r="AA29" s="33">
-        <v>3.96</v>
-      </c>
-      <c r="AK29" s="14" t="s">
-        <v>557</v>
-      </c>
-      <c r="AL29" s="15"/>
+        <v>3.39</v>
+      </c>
+      <c r="AK29" s="26" t="s">
+        <v>558</v>
+      </c>
+      <c r="AL29" s="27"/>
       <c r="AM29" s="5"/>
       <c r="AN29" s="6" t="s">
-        <v>598</v>
+        <v>530</v>
       </c>
       <c r="AO29" s="7">
-        <v>3.91</v>
+        <v>5.3</v>
       </c>
       <c r="AP29" s="8" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="AQ29" s="8">
-        <v>3.53</v>
+        <v>3.64</v>
       </c>
       <c r="AR29" s="8" t="s">
-        <v>541</v>
+        <v>590</v>
       </c>
       <c r="AS29" s="33">
-        <v>3.32</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="30" ht="11.5" customHeight="1" spans="1:45">
@@ -9542,43 +9548,43 @@
       <c r="T30" s="10"/>
       <c r="U30" s="11"/>
       <c r="V30" s="12" t="s">
-        <v>434</v>
+        <v>601</v>
       </c>
       <c r="W30" s="13">
-        <v>6.41</v>
+        <v>7.35</v>
       </c>
       <c r="X30" s="13" t="s">
-        <v>508</v>
+        <v>548</v>
       </c>
       <c r="Y30" s="13">
-        <v>4.35</v>
+        <v>5.62</v>
       </c>
       <c r="Z30" s="13" t="s">
-        <v>456</v>
+        <v>135</v>
       </c>
       <c r="AA30" s="34">
-        <v>4.05</v>
-      </c>
-      <c r="AK30" s="20"/>
-      <c r="AL30" s="21"/>
+        <v>5.45</v>
+      </c>
+      <c r="AK30" s="28"/>
+      <c r="AL30" s="29"/>
       <c r="AM30" s="11"/>
       <c r="AN30" s="12" t="s">
-        <v>510</v>
+        <v>456</v>
       </c>
       <c r="AO30" s="13">
-        <v>5.42</v>
+        <v>2.79</v>
       </c>
       <c r="AP30" s="13" t="s">
-        <v>601</v>
+        <v>434</v>
       </c>
       <c r="AQ30" s="13">
-        <v>3.69</v>
+        <v>2.17</v>
       </c>
       <c r="AR30" s="13" t="s">
-        <v>552</v>
+        <v>434</v>
       </c>
       <c r="AS30" s="34">
-        <v>3.52</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="31" ht="11.5" customHeight="1" spans="1:45">
@@ -9612,7 +9618,7 @@
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="5">
-        <v>51.13</v>
+        <v>51.28</v>
       </c>
       <c r="M31" s="6" t="s">
         <v>447</v>
@@ -9632,53 +9638,53 @@
       <c r="R31" s="33">
         <v>4.64</v>
       </c>
-      <c r="S31" s="40" t="s">
-        <v>528</v>
-      </c>
-      <c r="T31" s="41"/>
+      <c r="S31" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="T31" s="4"/>
       <c r="U31" s="5">
-        <v>50.56</v>
+        <v>50.9</v>
       </c>
       <c r="V31" s="6" t="s">
-        <v>542</v>
+        <v>587</v>
       </c>
       <c r="W31" s="7">
-        <v>3.09</v>
+        <v>5.39</v>
       </c>
       <c r="X31" s="8" t="s">
-        <v>577</v>
+        <v>497</v>
       </c>
       <c r="Y31" s="8">
-        <v>2.59</v>
+        <v>4.06</v>
       </c>
       <c r="Z31" s="8" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="AA31" s="33">
-        <v>2.49</v>
+        <v>3.96</v>
       </c>
       <c r="AK31" s="3" t="s">
-        <v>538</v>
+        <v>433</v>
       </c>
       <c r="AL31" s="4"/>
       <c r="AM31" s="5"/>
       <c r="AN31" s="6" t="s">
-        <v>497</v>
+        <v>523</v>
       </c>
       <c r="AO31" s="7">
-        <v>4.46</v>
+        <v>5.83</v>
       </c>
       <c r="AP31" s="8" t="s">
-        <v>495</v>
+        <v>568</v>
       </c>
       <c r="AQ31" s="8">
-        <v>3.64</v>
+        <v>5.45</v>
       </c>
       <c r="AR31" s="8" t="s">
-        <v>590</v>
+        <v>540</v>
       </c>
       <c r="AS31" s="33">
-        <v>3.26</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="32" ht="11.5" customHeight="1" spans="1:45">
@@ -9724,47 +9730,47 @@
       <c r="R32" s="34">
         <v>5.15</v>
       </c>
-      <c r="S32" s="42"/>
-      <c r="T32" s="43"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="10"/>
       <c r="U32" s="11"/>
       <c r="V32" s="12" t="s">
-        <v>135</v>
+        <v>434</v>
       </c>
       <c r="W32" s="13">
-        <v>3.57</v>
+        <v>6.41</v>
       </c>
       <c r="X32" s="13" t="s">
-        <v>452</v>
+        <v>508</v>
       </c>
       <c r="Y32" s="13">
-        <v>3.25</v>
+        <v>4.35</v>
       </c>
       <c r="Z32" s="13" t="s">
-        <v>510</v>
+        <v>456</v>
       </c>
       <c r="AA32" s="34">
-        <v>2.87</v>
+        <v>4.05</v>
       </c>
       <c r="AK32" s="9"/>
       <c r="AL32" s="10"/>
       <c r="AM32" s="11"/>
       <c r="AN32" s="12" t="s">
-        <v>517</v>
+        <v>552</v>
       </c>
       <c r="AO32" s="13">
-        <v>5.95</v>
+        <v>3.86</v>
       </c>
       <c r="AP32" s="13" t="s">
-        <v>542</v>
+        <v>484</v>
       </c>
       <c r="AQ32" s="13">
-        <v>3.77</v>
+        <v>2.39</v>
       </c>
       <c r="AR32" s="13" t="s">
-        <v>600</v>
+        <v>458</v>
       </c>
       <c r="AS32" s="34">
-        <v>3.44</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="33" ht="11.5" customHeight="1" spans="1:45">
@@ -9796,7 +9802,7 @@
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="5">
-        <v>50.25</v>
+        <v>50.24</v>
       </c>
       <c r="M33" s="6" t="s">
         <v>542</v>
@@ -9816,53 +9822,53 @@
       <c r="R33" s="33">
         <v>6.01</v>
       </c>
-      <c r="S33" s="35" t="s">
-        <v>529</v>
-      </c>
-      <c r="T33" s="36"/>
+      <c r="S33" s="40" t="s">
+        <v>528</v>
+      </c>
+      <c r="T33" s="41"/>
       <c r="U33" s="5">
-        <v>50.47</v>
+        <v>50.56</v>
       </c>
       <c r="V33" s="6" t="s">
-        <v>484</v>
+        <v>542</v>
       </c>
       <c r="W33" s="7">
-        <v>2.66</v>
+        <v>3.09</v>
       </c>
       <c r="X33" s="8" t="s">
-        <v>459</v>
+        <v>577</v>
       </c>
       <c r="Y33" s="8">
-        <v>2.58</v>
+        <v>2.59</v>
       </c>
       <c r="Z33" s="8" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="AA33" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="AK33" s="26" t="s">
-        <v>558</v>
-      </c>
-      <c r="AL33" s="27"/>
+        <v>2.49</v>
+      </c>
+      <c r="AK33" s="22" t="s">
+        <v>455</v>
+      </c>
+      <c r="AL33" s="30"/>
       <c r="AM33" s="5"/>
       <c r="AN33" s="6" t="s">
-        <v>530</v>
+        <v>590</v>
       </c>
       <c r="AO33" s="7">
-        <v>5.3</v>
+        <v>4.93</v>
       </c>
       <c r="AP33" s="8" t="s">
-        <v>583</v>
+        <v>454</v>
       </c>
       <c r="AQ33" s="8">
-        <v>3.64</v>
+        <v>3</v>
       </c>
       <c r="AR33" s="8" t="s">
-        <v>590</v>
+        <v>568</v>
       </c>
       <c r="AS33" s="33">
-        <v>3.41</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="34" ht="11.5" customHeight="1" spans="1:45">
@@ -9908,47 +9914,47 @@
       <c r="R34" s="34">
         <v>6.57</v>
       </c>
-      <c r="S34" s="37"/>
-      <c r="T34" s="38"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="43"/>
       <c r="U34" s="11"/>
       <c r="V34" s="12" t="s">
-        <v>446</v>
+        <v>135</v>
       </c>
       <c r="W34" s="13">
-        <v>3.12</v>
+        <v>3.57</v>
       </c>
       <c r="X34" s="13" t="s">
-        <v>507</v>
+        <v>452</v>
       </c>
       <c r="Y34" s="13">
-        <v>2.99</v>
+        <v>3.25</v>
       </c>
       <c r="Z34" s="13" t="s">
-        <v>602</v>
+        <v>510</v>
       </c>
       <c r="AA34" s="34">
-        <v>2.86</v>
-      </c>
-      <c r="AK34" s="28"/>
-      <c r="AL34" s="29"/>
+        <v>2.87</v>
+      </c>
+      <c r="AK34" s="24"/>
+      <c r="AL34" s="31"/>
       <c r="AM34" s="11"/>
       <c r="AN34" s="12" t="s">
-        <v>456</v>
+        <v>548</v>
       </c>
       <c r="AO34" s="13">
-        <v>2.79</v>
+        <v>3.86</v>
       </c>
       <c r="AP34" s="13" t="s">
-        <v>434</v>
+        <v>587</v>
       </c>
       <c r="AQ34" s="13">
-        <v>2.17</v>
+        <v>3.32</v>
       </c>
       <c r="AR34" s="13" t="s">
-        <v>434</v>
+        <v>598</v>
       </c>
       <c r="AS34" s="34">
-        <v>2.12</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="35" ht="11.5" customHeight="1" spans="1:45">
@@ -9980,7 +9986,7 @@
       </c>
       <c r="K35" s="27"/>
       <c r="L35" s="5">
-        <v>50.11</v>
+        <v>50</v>
       </c>
       <c r="M35" s="6" t="s">
         <v>456</v>
@@ -10007,7 +10013,7 @@
         <v>6</v>
       </c>
       <c r="U35" s="5">
-        <v>50.3</v>
+        <v>50.43</v>
       </c>
       <c r="V35" s="6" t="s">
         <v>135</v>
@@ -10027,28 +10033,28 @@
       <c r="AA35" s="33">
         <v>3.4</v>
       </c>
-      <c r="AK35" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="AL35" s="4"/>
+      <c r="AK35" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="AL35" s="15"/>
       <c r="AM35" s="5"/>
       <c r="AN35" s="6" t="s">
         <v>598</v>
       </c>
       <c r="AO35" s="7">
-        <v>4.26</v>
+        <v>3.91</v>
       </c>
       <c r="AP35" s="8" t="s">
-        <v>522</v>
+        <v>577</v>
       </c>
       <c r="AQ35" s="8">
-        <v>3.63</v>
+        <v>3.53</v>
       </c>
       <c r="AR35" s="8" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
       <c r="AS35" s="33">
-        <v>3.28</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="36" ht="11.5" customHeight="1" spans="1:45">
@@ -10115,26 +10121,26 @@
       <c r="AA36" s="34">
         <v>4.87</v>
       </c>
-      <c r="AK36" s="9"/>
-      <c r="AL36" s="10"/>
+      <c r="AK36" s="20"/>
+      <c r="AL36" s="21"/>
       <c r="AM36" s="11"/>
       <c r="AN36" s="12" t="s">
-        <v>582</v>
+        <v>510</v>
       </c>
       <c r="AO36" s="13">
-        <v>3.64</v>
+        <v>5.42</v>
       </c>
       <c r="AP36" s="13" t="s">
-        <v>447</v>
+        <v>601</v>
       </c>
       <c r="AQ36" s="13">
-        <v>3.6</v>
+        <v>3.69</v>
       </c>
       <c r="AR36" s="13" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="AS36" s="34">
-        <v>3.58</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="37" ht="11.5" customHeight="1" spans="1:45">
@@ -10184,51 +10190,53 @@
       <c r="R37" s="33">
         <v>7.15</v>
       </c>
-      <c r="S37" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="T37" s="4"/>
-      <c r="U37" s="5"/>
+      <c r="S37" s="36" t="s">
+        <v>529</v>
+      </c>
+      <c r="T37" s="37"/>
+      <c r="U37" s="5">
+        <v>50.4</v>
+      </c>
       <c r="V37" s="6" t="s">
-        <v>543</v>
+        <v>484</v>
       </c>
       <c r="W37" s="7">
-        <v>10.32</v>
+        <v>2.66</v>
       </c>
       <c r="X37" s="8" t="s">
-        <v>581</v>
+        <v>459</v>
       </c>
       <c r="Y37" s="8">
-        <v>5.54</v>
+        <v>2.58</v>
       </c>
       <c r="Z37" s="8" t="s">
-        <v>590</v>
+        <v>535</v>
       </c>
       <c r="AA37" s="33">
-        <v>5.22</v>
-      </c>
-      <c r="AK37" s="22" t="s">
-        <v>455</v>
-      </c>
-      <c r="AL37" s="30"/>
+        <v>2.5</v>
+      </c>
+      <c r="AK37" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="AL37" s="4"/>
       <c r="AM37" s="5"/>
       <c r="AN37" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="AO37" s="7">
+        <v>4.46</v>
+      </c>
+      <c r="AP37" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="AQ37" s="8">
+        <v>3.64</v>
+      </c>
+      <c r="AR37" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="AO37" s="7">
-        <v>4.93</v>
-      </c>
-      <c r="AP37" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="AQ37" s="8">
-        <v>3</v>
-      </c>
-      <c r="AR37" s="8" t="s">
-        <v>568</v>
-      </c>
       <c r="AS37" s="33">
-        <v>2.57</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="38" ht="11.5" customHeight="1" spans="1:45">
@@ -10274,120 +10282,120 @@
       <c r="R38" s="34">
         <v>5.39</v>
       </c>
-      <c r="S38" s="9"/>
-      <c r="T38" s="10"/>
+      <c r="S38" s="38"/>
+      <c r="T38" s="39"/>
       <c r="U38" s="11"/>
       <c r="V38" s="12" t="s">
-        <v>586</v>
+        <v>446</v>
       </c>
       <c r="W38" s="13">
-        <v>5.97</v>
+        <v>3.12</v>
       </c>
       <c r="X38" s="13" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="Y38" s="13">
-        <v>4</v>
+        <v>2.99</v>
       </c>
       <c r="Z38" s="13" t="s">
-        <v>447</v>
+        <v>602</v>
       </c>
       <c r="AA38" s="34">
-        <v>3.44</v>
-      </c>
-      <c r="AK38" s="24"/>
-      <c r="AL38" s="31"/>
+        <v>2.86</v>
+      </c>
+      <c r="AK38" s="9"/>
+      <c r="AL38" s="10"/>
       <c r="AM38" s="11"/>
       <c r="AN38" s="12" t="s">
-        <v>548</v>
+        <v>517</v>
       </c>
       <c r="AO38" s="13">
-        <v>3.86</v>
+        <v>5.95</v>
       </c>
       <c r="AP38" s="13" t="s">
-        <v>587</v>
+        <v>542</v>
       </c>
       <c r="AQ38" s="13">
-        <v>3.32</v>
+        <v>3.77</v>
       </c>
       <c r="AR38" s="13" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="AS38" s="34">
-        <v>2.96</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="39" ht="11.5" customHeight="1" spans="10:45">
       <c r="J39" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="K39" s="4"/>
+        <v>510</v>
+      </c>
+      <c r="K39" s="4">
+        <v>3</v>
+      </c>
       <c r="L39" s="5"/>
       <c r="M39" s="6" t="s">
-        <v>456</v>
+        <v>572</v>
       </c>
       <c r="N39" s="7">
-        <v>12.67</v>
+        <v>7.44</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="P39" s="8">
-        <v>7.05</v>
+        <v>7.24</v>
       </c>
       <c r="Q39" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="R39" s="44">
-        <v>4.18</v>
-      </c>
-      <c r="S39" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="T39" s="4">
-        <v>2</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="R39" s="33">
+        <v>7.09</v>
+      </c>
+      <c r="S39" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="T39" s="15"/>
       <c r="U39" s="5"/>
       <c r="V39" s="6" t="s">
-        <v>530</v>
+        <v>497</v>
       </c>
       <c r="W39" s="7">
-        <v>5.24</v>
+        <v>3.45</v>
       </c>
       <c r="X39" s="8" t="s">
-        <v>494</v>
+        <v>437</v>
       </c>
       <c r="Y39" s="8">
-        <v>4.17</v>
+        <v>3.28</v>
       </c>
       <c r="Z39" s="8" t="s">
-        <v>528</v>
+        <v>604</v>
       </c>
       <c r="AA39" s="33">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="AK39" s="3" t="s">
-        <v>433</v>
+        <v>458</v>
       </c>
       <c r="AL39" s="4"/>
       <c r="AM39" s="5"/>
       <c r="AN39" s="6" t="s">
-        <v>523</v>
+        <v>598</v>
       </c>
       <c r="AO39" s="7">
-        <v>5.83</v>
+        <v>4.26</v>
       </c>
       <c r="AP39" s="8" t="s">
-        <v>568</v>
+        <v>522</v>
       </c>
       <c r="AQ39" s="8">
-        <v>5.45</v>
+        <v>3.63</v>
       </c>
       <c r="AR39" s="8" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="AS39" s="33">
-        <v>4.49</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="40" ht="11.5" customHeight="1" spans="10:45">
@@ -10395,139 +10403,137 @@
       <c r="K40" s="10"/>
       <c r="L40" s="11"/>
       <c r="M40" s="12" t="s">
-        <v>498</v>
+        <v>456</v>
       </c>
       <c r="N40" s="13">
-        <v>5.03</v>
+        <v>12.44</v>
       </c>
       <c r="O40" s="13" t="s">
-        <v>583</v>
+        <v>542</v>
       </c>
       <c r="P40" s="13">
-        <v>3.07</v>
+        <v>7.87</v>
       </c>
       <c r="Q40" s="13" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
       <c r="R40" s="34">
-        <v>2.36</v>
-      </c>
-      <c r="S40" s="9"/>
-      <c r="T40" s="10"/>
+        <v>4.79</v>
+      </c>
+      <c r="S40" s="20"/>
+      <c r="T40" s="21"/>
       <c r="U40" s="11"/>
       <c r="V40" s="12" t="s">
-        <v>492</v>
+        <v>590</v>
       </c>
       <c r="W40" s="13">
-        <v>5.3</v>
+        <v>4.01</v>
       </c>
       <c r="X40" s="13" t="s">
-        <v>437</v>
+        <v>539</v>
       </c>
       <c r="Y40" s="13">
-        <v>5.17</v>
+        <v>3.91</v>
       </c>
       <c r="Z40" s="13" t="s">
-        <v>510</v>
+        <v>542</v>
       </c>
       <c r="AA40" s="34">
-        <v>3.7</v>
+        <v>3.51</v>
       </c>
       <c r="AK40" s="9"/>
       <c r="AL40" s="10"/>
       <c r="AM40" s="11"/>
       <c r="AN40" s="12" t="s">
-        <v>552</v>
+        <v>582</v>
       </c>
       <c r="AO40" s="13">
-        <v>3.86</v>
+        <v>3.64</v>
       </c>
       <c r="AP40" s="13" t="s">
-        <v>484</v>
+        <v>447</v>
       </c>
       <c r="AQ40" s="13">
-        <v>2.39</v>
+        <v>3.6</v>
       </c>
       <c r="AR40" s="13" t="s">
-        <v>458</v>
+        <v>574</v>
       </c>
       <c r="AS40" s="34">
-        <v>2.28</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="41" ht="11.5" customHeight="1" spans="10:45">
       <c r="J41" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="K41" s="4">
-        <v>3</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="K41" s="4"/>
       <c r="L41" s="5"/>
       <c r="M41" s="6" t="s">
-        <v>572</v>
+        <v>456</v>
       </c>
       <c r="N41" s="7">
-        <v>7.44</v>
+        <v>12.67</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="P41" s="8">
-        <v>7.24</v>
+        <v>7.05</v>
       </c>
       <c r="Q41" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="R41" s="33">
-        <v>7.09</v>
+        <v>532</v>
+      </c>
+      <c r="R41" s="44">
+        <v>4.18</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="T41" s="4"/>
+        <v>452</v>
+      </c>
+      <c r="T41" s="4">
+        <v>2</v>
+      </c>
       <c r="U41" s="5"/>
       <c r="V41" s="6" t="s">
-        <v>598</v>
+        <v>530</v>
       </c>
       <c r="W41" s="7">
-        <v>7.45</v>
+        <v>5.24</v>
       </c>
       <c r="X41" s="8" t="s">
-        <v>542</v>
+        <v>494</v>
       </c>
       <c r="Y41" s="8">
-        <v>5.17</v>
+        <v>4.17</v>
       </c>
       <c r="Z41" s="8" t="s">
-        <v>599</v>
+        <v>528</v>
       </c>
       <c r="AA41" s="33">
-        <v>4.03</v>
+        <v>3.25</v>
       </c>
       <c r="AK41" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="AL41" s="4">
-        <v>6</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="AL41" s="4"/>
       <c r="AM41" s="5"/>
       <c r="AN41" s="6" t="s">
-        <v>582</v>
+        <v>484</v>
       </c>
       <c r="AO41" s="7">
-        <v>8.56</v>
+        <v>3.67</v>
       </c>
       <c r="AP41" s="8" t="s">
-        <v>572</v>
+        <v>459</v>
       </c>
       <c r="AQ41" s="8">
-        <v>6.66</v>
+        <v>3.61</v>
       </c>
       <c r="AR41" s="8" t="s">
-        <v>454</v>
+        <v>601</v>
       </c>
       <c r="AS41" s="33">
-        <v>4.14</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="42" ht="11.5" customHeight="1" spans="10:45">
@@ -10535,64 +10541,64 @@
       <c r="K42" s="10"/>
       <c r="L42" s="11"/>
       <c r="M42" s="12" t="s">
-        <v>456</v>
+        <v>498</v>
       </c>
       <c r="N42" s="13">
-        <v>12.44</v>
+        <v>5.03</v>
       </c>
       <c r="O42" s="13" t="s">
-        <v>542</v>
+        <v>583</v>
       </c>
       <c r="P42" s="13">
-        <v>7.87</v>
+        <v>3.07</v>
       </c>
       <c r="Q42" s="13" t="s">
-        <v>577</v>
+        <v>558</v>
       </c>
       <c r="R42" s="34">
-        <v>4.79</v>
+        <v>2.36</v>
       </c>
       <c r="S42" s="9"/>
       <c r="T42" s="10"/>
       <c r="U42" s="11"/>
       <c r="V42" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="W42" s="13">
+        <v>5.3</v>
+      </c>
+      <c r="X42" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y42" s="13">
+        <v>5.17</v>
+      </c>
+      <c r="Z42" s="13" t="s">
         <v>510</v>
       </c>
-      <c r="W42" s="13">
-        <v>7.44</v>
-      </c>
-      <c r="X42" s="13" t="s">
-        <v>567</v>
-      </c>
-      <c r="Y42" s="13">
-        <v>6.01</v>
-      </c>
-      <c r="Z42" s="13" t="s">
-        <v>527</v>
-      </c>
       <c r="AA42" s="34">
-        <v>5.18</v>
+        <v>3.7</v>
       </c>
       <c r="AK42" s="9"/>
       <c r="AL42" s="10"/>
       <c r="AM42" s="11"/>
       <c r="AN42" s="12" t="s">
-        <v>583</v>
+        <v>447</v>
       </c>
       <c r="AO42" s="13">
-        <v>6.36</v>
+        <v>5.22</v>
       </c>
       <c r="AP42" s="13" t="s">
-        <v>531</v>
+        <v>454</v>
       </c>
       <c r="AQ42" s="13">
-        <v>5.39</v>
+        <v>4.59</v>
       </c>
       <c r="AR42" s="13" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="AS42" s="34">
-        <v>4.44</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="43" ht="11.5" customHeight="1" spans="10:45">
@@ -10621,51 +10627,53 @@
       <c r="R43" s="33">
         <v>3.89</v>
       </c>
-      <c r="S43" s="14" t="s">
-        <v>475</v>
-      </c>
-      <c r="T43" s="15"/>
+      <c r="S43" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="T43" s="4"/>
       <c r="U43" s="5"/>
       <c r="V43" s="6" t="s">
-        <v>497</v>
+        <v>598</v>
       </c>
       <c r="W43" s="7">
-        <v>3.45</v>
+        <v>7.45</v>
       </c>
       <c r="X43" s="8" t="s">
-        <v>437</v>
+        <v>542</v>
       </c>
       <c r="Y43" s="8">
-        <v>3.28</v>
+        <v>5.17</v>
       </c>
       <c r="Z43" s="8" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="AA43" s="33">
-        <v>3.15</v>
+        <v>4.03</v>
       </c>
       <c r="AK43" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="AL43" s="4"/>
+        <v>587</v>
+      </c>
+      <c r="AL43" s="4">
+        <v>6</v>
+      </c>
       <c r="AM43" s="5"/>
       <c r="AN43" s="6" t="s">
-        <v>484</v>
+        <v>582</v>
       </c>
       <c r="AO43" s="7">
-        <v>3.67</v>
+        <v>8.56</v>
       </c>
       <c r="AP43" s="8" t="s">
-        <v>459</v>
+        <v>572</v>
       </c>
       <c r="AQ43" s="8">
-        <v>3.61</v>
+        <v>6.66</v>
       </c>
       <c r="AR43" s="8" t="s">
-        <v>601</v>
+        <v>454</v>
       </c>
       <c r="AS43" s="33">
-        <v>3.11</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="44" ht="11.5" customHeight="1" spans="10:45">
@@ -10690,47 +10698,47 @@
       <c r="R44" s="34">
         <v>3.67</v>
       </c>
-      <c r="S44" s="20"/>
-      <c r="T44" s="21"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="10"/>
       <c r="U44" s="11"/>
       <c r="V44" s="12" t="s">
-        <v>590</v>
+        <v>510</v>
       </c>
       <c r="W44" s="13">
-        <v>4.01</v>
+        <v>7.44</v>
       </c>
       <c r="X44" s="13" t="s">
-        <v>539</v>
+        <v>567</v>
       </c>
       <c r="Y44" s="13">
-        <v>3.91</v>
+        <v>6.01</v>
       </c>
       <c r="Z44" s="13" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="AA44" s="34">
-        <v>3.51</v>
+        <v>5.18</v>
       </c>
       <c r="AK44" s="9"/>
       <c r="AL44" s="10"/>
       <c r="AM44" s="11"/>
       <c r="AN44" s="12" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="AO44" s="13">
-        <v>5.22</v>
+        <v>6.36</v>
       </c>
       <c r="AP44" s="13" t="s">
-        <v>454</v>
+        <v>531</v>
       </c>
       <c r="AQ44" s="13">
-        <v>4.59</v>
+        <v>5.39</v>
       </c>
       <c r="AR44" s="13" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="AS44" s="34">
-        <v>3.95</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="45" ht="11.5" customHeight="1" spans="10:18">
@@ -19361,7 +19369,7 @@
   <sheetPr/>
   <dimension ref="A1:AF55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>

--- a/logs/OMG.xlsx
+++ b/logs/OMG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14340" windowHeight="11940" firstSheet="7" activeTab="9"/>
+    <workbookView windowWidth="28800" windowHeight="12690" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Dota" sheetId="10" r:id="rId1"/>
@@ -2630,12 +2630,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2703,6 +2697,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2959,7 +2959,7 @@
     <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="70" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="69" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2977,7 +2977,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2992,7 +2992,7 @@
     <xf numFmtId="0" fontId="0" fillId="62" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3013,13 +3013,13 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="61" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -3031,7 +3031,7 @@
     <xf numFmtId="0" fontId="27" fillId="52" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3043,13 +3043,13 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3061,7 +3061,7 @@
     <xf numFmtId="0" fontId="26" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3073,7 +3073,7 @@
     <xf numFmtId="0" fontId="34" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3085,7 +3085,7 @@
     <xf numFmtId="0" fontId="26" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3094,7 +3094,7 @@
     <xf numFmtId="0" fontId="26" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5970,7 +5970,7 @@
   <dimension ref="A1:AS52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -5994,7 +5994,7 @@
     <col min="17" max="17" width="6.625" style="1" customWidth="1"/>
     <col min="18" max="18" width="4.125" style="1" customWidth="1"/>
     <col min="19" max="19" width="6.625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="1.625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="2.125" style="1" customWidth="1"/>
     <col min="21" max="21" width="4.625" style="1" customWidth="1"/>
     <col min="22" max="22" width="6.625" style="1" customWidth="1"/>
     <col min="23" max="23" width="4.125" style="1" customWidth="1"/>
@@ -6027,9 +6027,7 @@
       <c r="A1" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="B1" s="4">
-        <v>4</v>
-      </c>
+      <c r="B1" s="4"/>
       <c r="C1" s="5">
         <v>51.2</v>
       </c>
@@ -6055,7 +6053,7 @@
         <v>541</v>
       </c>
       <c r="K1" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L1" s="5">
         <v>51.12</v>
@@ -6133,7 +6131,9 @@
       <c r="AK1" s="46" t="s">
         <v>600</v>
       </c>
-      <c r="AL1" s="47"/>
+      <c r="AL1" s="47">
+        <v>6</v>
+      </c>
       <c r="AM1" s="5"/>
       <c r="AN1" s="6" t="s">
         <v>437</v>
@@ -6275,9 +6275,7 @@
       <c r="A3" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="B3" s="4">
-        <v>9</v>
-      </c>
+      <c r="B3" s="4"/>
       <c r="C3" s="5">
         <v>51.26</v>
       </c>
@@ -6327,9 +6325,7 @@
       <c r="S3" s="14" t="s">
         <v>530</v>
       </c>
-      <c r="T3" s="15">
-        <v>7</v>
-      </c>
+      <c r="T3" s="15"/>
       <c r="U3" s="5">
         <v>52.8</v>
       </c>
@@ -6355,7 +6351,7 @@
         <v>599</v>
       </c>
       <c r="AC3" s="41">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AD3" s="5">
         <v>50.33</v>
@@ -6526,7 +6522,7 @@
         <v>540</v>
       </c>
       <c r="B5" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="5">
         <v>53.51</v>
@@ -6553,7 +6549,7 @@
         <v>555</v>
       </c>
       <c r="K5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="6" t="s">
@@ -6578,7 +6574,7 @@
         <v>564</v>
       </c>
       <c r="T5" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U5" s="5">
         <v>51.71</v>
@@ -6605,7 +6601,7 @@
         <v>598</v>
       </c>
       <c r="AC5" s="27">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AD5" s="5">
         <v>52.85</v>
@@ -6801,7 +6797,7 @@
         <v>543</v>
       </c>
       <c r="K7" s="15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L7" s="5">
         <v>50.2</v>
@@ -6851,7 +6847,7 @@
         <v>589</v>
       </c>
       <c r="AC7" s="4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AD7" s="5">
         <v>51.3</v>
@@ -7020,7 +7016,7 @@
         <v>445</v>
       </c>
       <c r="B9" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6" t="s">
@@ -7044,7 +7040,9 @@
       <c r="J9" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="K9" s="4"/>
+      <c r="K9" s="4">
+        <v>8</v>
+      </c>
       <c r="L9" s="5"/>
       <c r="M9" s="6" t="s">
         <v>434</v>
@@ -7067,7 +7065,9 @@
       <c r="S9" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="T9" s="15"/>
+      <c r="T9" s="15">
+        <v>2</v>
+      </c>
       <c r="U9" s="5"/>
       <c r="V9" s="6" t="s">
         <v>598</v>
@@ -7114,7 +7114,7 @@
         <v>590</v>
       </c>
       <c r="AL9" s="41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM9" s="5">
         <v>51.39</v>
@@ -7259,7 +7259,9 @@
       <c r="A11" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="15">
+        <v>9</v>
+      </c>
       <c r="C11" s="16">
         <v>52.11</v>
       </c>
@@ -7285,7 +7287,7 @@
         <v>539</v>
       </c>
       <c r="K11" s="37">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="6" t="s">
@@ -7309,7 +7311,9 @@
       <c r="S11" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="T11" s="4"/>
+      <c r="T11" s="4">
+        <v>6</v>
+      </c>
       <c r="U11" s="5">
         <v>52.49</v>
       </c>
@@ -7334,9 +7338,7 @@
       <c r="AB11" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="AC11" s="4">
-        <v>8</v>
-      </c>
+      <c r="AC11" s="4"/>
       <c r="AD11" s="5">
         <v>51.71</v>
       </c>
@@ -7504,7 +7506,7 @@
         <v>477</v>
       </c>
       <c r="B13" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C13" s="5">
         <v>50.51</v>
@@ -7530,9 +7532,7 @@
       <c r="J13" s="26" t="s">
         <v>535</v>
       </c>
-      <c r="K13" s="27">
-        <v>11</v>
-      </c>
+      <c r="K13" s="27"/>
       <c r="L13" s="5">
         <v>51.33</v>
       </c>
@@ -7557,9 +7557,7 @@
       <c r="S13" s="26" t="s">
         <v>601</v>
       </c>
-      <c r="T13" s="27">
-        <v>5</v>
-      </c>
+      <c r="T13" s="27"/>
       <c r="U13" s="5">
         <v>51.89</v>
       </c>
@@ -7585,7 +7583,7 @@
         <v>527</v>
       </c>
       <c r="AC13" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AD13" s="5">
         <v>50.56</v>
@@ -7611,9 +7609,7 @@
       <c r="AK13" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="AL13" s="4">
-        <v>2</v>
-      </c>
+      <c r="AL13" s="4"/>
       <c r="AM13" s="5">
         <v>52.24</v>
       </c>
@@ -7757,7 +7753,9 @@
       <c r="A15" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="4">
+        <v>2</v>
+      </c>
       <c r="C15" s="5">
         <v>52.68</v>
       </c>
@@ -7807,7 +7805,9 @@
       <c r="S15" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="T15" s="4"/>
+      <c r="T15" s="4">
+        <v>10</v>
+      </c>
       <c r="U15" s="5">
         <v>50.85</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>468</v>
       </c>
       <c r="AL15" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM15" s="5">
         <v>51.53</v>
@@ -8029,7 +8029,7 @@
         <v>437</v>
       </c>
       <c r="K17" s="27">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L17" s="5">
         <v>50.66</v>
@@ -8055,7 +8055,9 @@
       <c r="S17" s="40" t="s">
         <v>577</v>
       </c>
-      <c r="T17" s="41"/>
+      <c r="T17" s="41">
+        <v>8</v>
+      </c>
       <c r="U17" s="5">
         <v>51.91</v>
       </c>
@@ -8247,7 +8249,9 @@
       <c r="A19" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="4">
+        <v>7</v>
+      </c>
       <c r="C19" s="5"/>
       <c r="D19" s="6" t="s">
         <v>543</v>
@@ -8295,7 +8299,9 @@
       <c r="S19" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="T19" s="4"/>
+      <c r="T19" s="4">
+        <v>4</v>
+      </c>
       <c r="U19" s="5">
         <v>50.14</v>
       </c>
@@ -8321,7 +8327,7 @@
         <v>593</v>
       </c>
       <c r="AC19" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AD19" s="5"/>
       <c r="AE19" s="6" t="s">
@@ -8490,7 +8496,7 @@
         <v>603</v>
       </c>
       <c r="B21" s="15">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C21" s="5">
         <v>51.23</v>
@@ -8516,7 +8522,9 @@
       <c r="J21" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="K21" s="4"/>
+      <c r="K21" s="4">
+        <v>11</v>
+      </c>
       <c r="L21" s="5">
         <v>51.46</v>
       </c>
@@ -8565,7 +8573,7 @@
         <v>568</v>
       </c>
       <c r="AC21" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD21" s="5"/>
       <c r="AE21" s="6" t="s">
@@ -8590,7 +8598,7 @@
         <v>454</v>
       </c>
       <c r="AL21" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM21" s="5"/>
       <c r="AN21" s="6" t="s">
@@ -8729,9 +8737,7 @@
       <c r="A23" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="B23" s="4">
-        <v>7</v>
-      </c>
+      <c r="B23" s="4"/>
       <c r="C23" s="5"/>
       <c r="D23" s="6" t="s">
         <v>498</v>
@@ -8754,9 +8760,7 @@
       <c r="J23" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="K23" s="4">
-        <v>9</v>
-      </c>
+      <c r="K23" s="4"/>
       <c r="L23" s="5">
         <v>51.28</v>
       </c>
@@ -8807,7 +8811,7 @@
         <v>592</v>
       </c>
       <c r="AC23" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AD23" s="5"/>
       <c r="AE23" s="6" t="s">
@@ -8831,9 +8835,7 @@
       <c r="AK23" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="AL23" s="4">
-        <v>9</v>
-      </c>
+      <c r="AL23" s="4"/>
       <c r="AM23" s="5"/>
       <c r="AN23" s="6" t="s">
         <v>561</v>
@@ -8996,9 +8998,7 @@
       <c r="J25" s="26" t="s">
         <v>574</v>
       </c>
-      <c r="K25" s="27">
-        <v>5</v>
-      </c>
+      <c r="K25" s="27"/>
       <c r="L25" s="5">
         <v>51.6</v>
       </c>
@@ -9023,7 +9023,9 @@
       <c r="S25" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="T25" s="4"/>
+      <c r="T25" s="4">
+        <v>7</v>
+      </c>
       <c r="U25" s="5"/>
       <c r="V25" s="6" t="s">
         <v>530</v>
@@ -9046,7 +9048,9 @@
       <c r="AB25" s="40" t="s">
         <v>567</v>
       </c>
-      <c r="AC25" s="41"/>
+      <c r="AC25" s="41">
+        <v>9</v>
+      </c>
       <c r="AD25" s="5"/>
       <c r="AE25" s="6" t="s">
         <v>436</v>
@@ -9208,7 +9212,7 @@
         <v>502</v>
       </c>
       <c r="B27" s="27">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C27" s="5">
         <v>50.02</v>
@@ -9234,7 +9238,9 @@
       <c r="J27" s="14" t="s">
         <v>521</v>
       </c>
-      <c r="K27" s="15"/>
+      <c r="K27" s="15">
+        <v>9</v>
+      </c>
       <c r="L27" s="5">
         <v>51.31</v>
       </c>
@@ -9286,9 +9292,7 @@
       <c r="AK27" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="AL27" s="4">
-        <v>8</v>
-      </c>
+      <c r="AL27" s="4"/>
       <c r="AM27" s="5"/>
       <c r="AN27" s="6" t="s">
         <v>540</v>
@@ -9426,9 +9430,7 @@
       <c r="J29" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="K29" s="4">
-        <v>10</v>
-      </c>
+      <c r="K29" s="4"/>
       <c r="L29" s="5">
         <v>52.33</v>
       </c>
@@ -9453,9 +9455,7 @@
       <c r="S29" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="T29" s="4">
-        <v>1</v>
-      </c>
+      <c r="T29" s="4"/>
       <c r="U29" s="5">
         <v>51.27</v>
       </c>
@@ -9591,9 +9591,7 @@
       <c r="A31" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="B31" s="4">
-        <v>6</v>
-      </c>
+      <c r="B31" s="4"/>
       <c r="C31" s="5"/>
       <c r="D31" s="32" t="s">
         <v>510</v>
@@ -9641,7 +9639,9 @@
       <c r="S31" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="T31" s="4"/>
+      <c r="T31" s="4">
+        <v>9</v>
+      </c>
       <c r="U31" s="5">
         <v>50.9</v>
       </c>
@@ -9666,7 +9666,9 @@
       <c r="AK31" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="AL31" s="4"/>
+      <c r="AL31" s="4">
+        <v>5</v>
+      </c>
       <c r="AM31" s="5"/>
       <c r="AN31" s="6" t="s">
         <v>523</v>
@@ -9777,7 +9779,9 @@
       <c r="A33" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="B33" s="4"/>
+      <c r="B33" s="4">
+        <v>4</v>
+      </c>
       <c r="C33" s="5"/>
       <c r="D33" s="6" t="s">
         <v>495</v>
@@ -9984,7 +9988,9 @@
       <c r="J35" s="26" t="s">
         <v>495</v>
       </c>
-      <c r="K35" s="27"/>
+      <c r="K35" s="27">
+        <v>10</v>
+      </c>
       <c r="L35" s="5">
         <v>50</v>
       </c>
@@ -10009,9 +10015,7 @@
       <c r="S35" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="T35" s="4">
-        <v>6</v>
-      </c>
+      <c r="T35" s="4"/>
       <c r="U35" s="5">
         <v>50.43</v>
       </c>
@@ -10330,7 +10334,7 @@
         <v>510</v>
       </c>
       <c r="K39" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L39" s="5"/>
       <c r="M39" s="6" t="s">
@@ -10491,7 +10495,7 @@
         <v>452</v>
       </c>
       <c r="T41" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U41" s="5"/>
       <c r="V41" s="6" t="s">
@@ -10605,9 +10609,7 @@
       <c r="J43" s="14" t="s">
         <v>547</v>
       </c>
-      <c r="K43" s="15">
-        <v>12</v>
-      </c>
+      <c r="K43" s="15"/>
       <c r="L43" s="5"/>
       <c r="M43" s="6" t="s">
         <v>447</v>
@@ -10653,9 +10655,7 @@
       <c r="AK43" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="AL43" s="4">
-        <v>6</v>
-      </c>
+      <c r="AL43" s="4"/>
       <c r="AM43" s="5"/>
       <c r="AN43" s="6" t="s">
         <v>582</v>

--- a/logs/OMG.xlsx
+++ b/logs/OMG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690" firstSheet="7" activeTab="9"/>
+    <workbookView windowWidth="12495" windowHeight="10230" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Dota" sheetId="10" r:id="rId1"/>
@@ -1908,11 +1908,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="45">
     <font>
@@ -2094,7 +2094,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2117,85 +2155,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2227,6 +2187,46 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2534,25 +2534,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2582,49 +2564,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2660,6 +2624,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2673,6 +2643,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2697,12 +2703,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2853,6 +2853,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2873,56 +2888,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2950,16 +2915,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="69" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="63" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2968,133 +2968,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="65" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="65" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="57" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="61" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="61" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="52" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5970,7 +5970,7 @@
   <dimension ref="A1:AS52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -6029,7 +6029,7 @@
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5">
-        <v>51.2</v>
+        <v>51.02</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>581</v>
@@ -6056,7 +6056,7 @@
         <v>7</v>
       </c>
       <c r="L1" s="5">
-        <v>51.12</v>
+        <v>51.4</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>565</v>
@@ -6081,7 +6081,7 @@
       </c>
       <c r="T1" s="37"/>
       <c r="U1" s="5">
-        <v>51.02</v>
+        <v>51.29</v>
       </c>
       <c r="V1" s="6" t="s">
         <v>542</v>
@@ -6108,7 +6108,7 @@
         <v>1</v>
       </c>
       <c r="AD1" s="5">
-        <v>52.33</v>
+        <v>52.45</v>
       </c>
       <c r="AE1" s="6" t="s">
         <v>561</v>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5">
-        <v>51.26</v>
+        <v>51.31</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>601</v>
@@ -6302,7 +6302,7 @@
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="5">
-        <v>53.49</v>
+        <v>53.38</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>542</v>
@@ -6327,7 +6327,7 @@
       </c>
       <c r="T3" s="15"/>
       <c r="U3" s="5">
-        <v>52.8</v>
+        <v>52.83</v>
       </c>
       <c r="V3" s="6" t="s">
         <v>581</v>
@@ -6525,7 +6525,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="5">
-        <v>53.51</v>
+        <v>53.37</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>492</v>
@@ -6577,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="U5" s="5">
-        <v>51.71</v>
+        <v>51.92</v>
       </c>
       <c r="V5" s="6" t="s">
         <v>498</v>
@@ -6604,7 +6604,7 @@
         <v>8</v>
       </c>
       <c r="AD5" s="5">
-        <v>52.85</v>
+        <v>52.86</v>
       </c>
       <c r="AE5" s="6" t="s">
         <v>572</v>
@@ -6629,7 +6629,7 @@
       </c>
       <c r="AL5" s="4"/>
       <c r="AM5" s="5">
-        <v>51.12</v>
+        <v>50.87</v>
       </c>
       <c r="AN5" s="6" t="s">
         <v>561</v>
@@ -6773,7 +6773,7 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="5">
-        <v>52.9</v>
+        <v>52.95</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>456</v>
@@ -6800,7 +6800,7 @@
         <v>6</v>
       </c>
       <c r="L7" s="5">
-        <v>50.2</v>
+        <v>50.14</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>573</v>
@@ -6850,7 +6850,7 @@
         <v>10</v>
       </c>
       <c r="AD7" s="5">
-        <v>51.3</v>
+        <v>51.26</v>
       </c>
       <c r="AE7" s="6" t="s">
         <v>456</v>
@@ -7117,7 +7117,7 @@
         <v>2</v>
       </c>
       <c r="AM9" s="5">
-        <v>51.39</v>
+        <v>51.36</v>
       </c>
       <c r="AN9" s="6" t="s">
         <v>443</v>
@@ -7263,7 +7263,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="16">
-        <v>52.11</v>
+        <v>52.13</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>522</v>
@@ -7315,7 +7315,7 @@
         <v>6</v>
       </c>
       <c r="U11" s="5">
-        <v>52.49</v>
+        <v>52.61</v>
       </c>
       <c r="V11" s="6" t="s">
         <v>497</v>
@@ -7340,7 +7340,7 @@
       </c>
       <c r="AC11" s="4"/>
       <c r="AD11" s="5">
-        <v>51.71</v>
+        <v>51.61</v>
       </c>
       <c r="AE11" s="6" t="s">
         <v>581</v>
@@ -7509,7 +7509,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="5">
-        <v>50.51</v>
+        <v>50.63</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>484</v>
@@ -7534,7 +7534,7 @@
       </c>
       <c r="K13" s="27"/>
       <c r="L13" s="5">
-        <v>51.33</v>
+        <v>51.6</v>
       </c>
       <c r="M13" s="6" t="s">
         <v>588</v>
@@ -7559,7 +7559,7 @@
       </c>
       <c r="T13" s="27"/>
       <c r="U13" s="5">
-        <v>51.89</v>
+        <v>52</v>
       </c>
       <c r="V13" s="6" t="s">
         <v>552</v>
@@ -7586,7 +7586,7 @@
         <v>7</v>
       </c>
       <c r="AD13" s="5">
-        <v>50.56</v>
+        <v>50.53</v>
       </c>
       <c r="AE13" s="6" t="s">
         <v>436</v>
@@ -7611,7 +7611,7 @@
       </c>
       <c r="AL13" s="4"/>
       <c r="AM13" s="5">
-        <v>52.24</v>
+        <v>52.4</v>
       </c>
       <c r="AN13" s="6" t="s">
         <v>497</v>
@@ -7782,7 +7782,7 @@
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="5">
-        <v>50.42</v>
+        <v>50.64</v>
       </c>
       <c r="M15" s="6" t="s">
         <v>536</v>
@@ -7809,7 +7809,7 @@
         <v>10</v>
       </c>
       <c r="U15" s="5">
-        <v>50.85</v>
+        <v>50.82</v>
       </c>
       <c r="V15" s="6" t="s">
         <v>498</v>
@@ -7836,7 +7836,7 @@
         <v>4</v>
       </c>
       <c r="AD15" s="5">
-        <v>50.84</v>
+        <v>50.7</v>
       </c>
       <c r="AE15" s="6" t="s">
         <v>456</v>
@@ -7863,7 +7863,7 @@
         <v>6</v>
       </c>
       <c r="AM15" s="5">
-        <v>51.53</v>
+        <v>51.49</v>
       </c>
       <c r="AN15" s="6" t="s">
         <v>443</v>
@@ -8032,7 +8032,7 @@
         <v>3</v>
       </c>
       <c r="L17" s="5">
-        <v>50.66</v>
+        <v>50.74</v>
       </c>
       <c r="M17" s="6" t="s">
         <v>497</v>
@@ -8084,7 +8084,7 @@
       </c>
       <c r="AC17" s="41"/>
       <c r="AD17" s="5">
-        <v>50.53</v>
+        <v>50.62</v>
       </c>
       <c r="AE17" s="6" t="s">
         <v>527</v>
@@ -8303,7 +8303,7 @@
         <v>4</v>
       </c>
       <c r="U19" s="5">
-        <v>50.14</v>
+        <v>50.1</v>
       </c>
       <c r="V19" s="6" t="s">
         <v>548</v>
@@ -8355,7 +8355,7 @@
         <v>4</v>
       </c>
       <c r="AM19" s="5">
-        <v>50.97</v>
+        <v>50.93</v>
       </c>
       <c r="AN19" s="6" t="s">
         <v>590</v>
@@ -8499,7 +8499,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="5">
-        <v>51.23</v>
+        <v>51.3</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>432</v>
@@ -8526,7 +8526,7 @@
         <v>11</v>
       </c>
       <c r="L21" s="5">
-        <v>51.46</v>
+        <v>51.42</v>
       </c>
       <c r="M21" s="6" t="s">
         <v>456</v>
@@ -8762,7 +8762,7 @@
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="5">
-        <v>51.28</v>
+        <v>51.46</v>
       </c>
       <c r="M23" s="6" t="s">
         <v>552</v>
@@ -8787,7 +8787,7 @@
       </c>
       <c r="T23" s="41"/>
       <c r="U23" s="5">
-        <v>50.05</v>
+        <v>50.04</v>
       </c>
       <c r="V23" s="6" t="s">
         <v>587</v>
@@ -8975,7 +8975,7 @@
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="5">
-        <v>51.29</v>
+        <v>51.17</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>456</v>
@@ -9000,7 +9000,7 @@
       </c>
       <c r="K25" s="27"/>
       <c r="L25" s="5">
-        <v>51.6</v>
+        <v>51.5</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>536</v>
@@ -9215,7 +9215,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="5">
-        <v>50.02</v>
+        <v>50.07</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>494</v>
@@ -9242,7 +9242,7 @@
         <v>9</v>
       </c>
       <c r="L27" s="5">
-        <v>51.31</v>
+        <v>51.36</v>
       </c>
       <c r="M27" s="6" t="s">
         <v>456</v>
@@ -9269,7 +9269,7 @@
         <v>3</v>
       </c>
       <c r="U27" s="5">
-        <v>51.47</v>
+        <v>51.75</v>
       </c>
       <c r="V27" s="6" t="s">
         <v>497</v>
@@ -9432,7 +9432,7 @@
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="5">
-        <v>52.33</v>
+        <v>52.43</v>
       </c>
       <c r="M29" s="6" t="s">
         <v>447</v>
@@ -9457,7 +9457,7 @@
       </c>
       <c r="T29" s="4"/>
       <c r="U29" s="5">
-        <v>51.27</v>
+        <v>51.32</v>
       </c>
       <c r="V29" s="6" t="s">
         <v>433</v>
@@ -9616,7 +9616,7 @@
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="5">
-        <v>51.28</v>
+        <v>51.21</v>
       </c>
       <c r="M31" s="6" t="s">
         <v>447</v>
@@ -9643,7 +9643,7 @@
         <v>9</v>
       </c>
       <c r="U31" s="5">
-        <v>50.9</v>
+        <v>50.95</v>
       </c>
       <c r="V31" s="6" t="s">
         <v>587</v>
@@ -9806,7 +9806,7 @@
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="5">
-        <v>50.24</v>
+        <v>50.22</v>
       </c>
       <c r="M33" s="6" t="s">
         <v>542</v>
@@ -9831,7 +9831,7 @@
       </c>
       <c r="T33" s="41"/>
       <c r="U33" s="5">
-        <v>50.56</v>
+        <v>50.52</v>
       </c>
       <c r="V33" s="6" t="s">
         <v>542</v>
@@ -9992,7 +9992,7 @@
         <v>10</v>
       </c>
       <c r="L35" s="5">
-        <v>50</v>
+        <v>50.04</v>
       </c>
       <c r="M35" s="6" t="s">
         <v>456</v>
@@ -10012,30 +10012,30 @@
       <c r="R35" s="33">
         <v>4.67</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="T35" s="4"/>
+      <c r="S35" s="36" t="s">
+        <v>529</v>
+      </c>
+      <c r="T35" s="37"/>
       <c r="U35" s="5">
-        <v>50.43</v>
+        <v>50.42</v>
       </c>
       <c r="V35" s="6" t="s">
-        <v>135</v>
+        <v>484</v>
       </c>
       <c r="W35" s="7">
-        <v>3.51</v>
+        <v>2.66</v>
       </c>
       <c r="X35" s="8" t="s">
-        <v>510</v>
+        <v>459</v>
       </c>
       <c r="Y35" s="8">
-        <v>3.47</v>
+        <v>2.58</v>
       </c>
       <c r="Z35" s="8" t="s">
-        <v>498</v>
+        <v>535</v>
       </c>
       <c r="AA35" s="33">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="AK35" s="14" t="s">
         <v>557</v>
@@ -10104,26 +10104,26 @@
       <c r="R36" s="34">
         <v>4.16</v>
       </c>
-      <c r="S36" s="9"/>
-      <c r="T36" s="10"/>
+      <c r="S36" s="38"/>
+      <c r="T36" s="39"/>
       <c r="U36" s="11"/>
       <c r="V36" s="12" t="s">
-        <v>530</v>
+        <v>446</v>
       </c>
       <c r="W36" s="13">
-        <v>6.58</v>
+        <v>3.12</v>
       </c>
       <c r="X36" s="13" t="s">
         <v>507</v>
       </c>
       <c r="Y36" s="13">
-        <v>5.54</v>
+        <v>2.99</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>513</v>
+        <v>602</v>
       </c>
       <c r="AA36" s="34">
-        <v>4.87</v>
+        <v>2.86</v>
       </c>
       <c r="AK36" s="20"/>
       <c r="AL36" s="21"/>
@@ -10194,30 +10194,30 @@
       <c r="R37" s="33">
         <v>7.15</v>
       </c>
-      <c r="S37" s="36" t="s">
-        <v>529</v>
-      </c>
-      <c r="T37" s="37"/>
+      <c r="S37" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="T37" s="4"/>
       <c r="U37" s="5">
-        <v>50.4</v>
+        <v>50.38</v>
       </c>
       <c r="V37" s="6" t="s">
-        <v>484</v>
+        <v>135</v>
       </c>
       <c r="W37" s="7">
-        <v>2.66</v>
+        <v>3.51</v>
       </c>
       <c r="X37" s="8" t="s">
-        <v>459</v>
+        <v>510</v>
       </c>
       <c r="Y37" s="8">
-        <v>2.58</v>
+        <v>3.47</v>
       </c>
       <c r="Z37" s="8" t="s">
-        <v>535</v>
+        <v>498</v>
       </c>
       <c r="AA37" s="33">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="AK37" s="3" t="s">
         <v>538</v>
@@ -10286,26 +10286,26 @@
       <c r="R38" s="34">
         <v>5.39</v>
       </c>
-      <c r="S38" s="38"/>
-      <c r="T38" s="39"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="10"/>
       <c r="U38" s="11"/>
       <c r="V38" s="12" t="s">
-        <v>446</v>
+        <v>530</v>
       </c>
       <c r="W38" s="13">
-        <v>3.12</v>
+        <v>6.58</v>
       </c>
       <c r="X38" s="13" t="s">
         <v>507</v>
       </c>
       <c r="Y38" s="13">
-        <v>2.99</v>
+        <v>5.54</v>
       </c>
       <c r="Z38" s="13" t="s">
-        <v>602</v>
+        <v>513</v>
       </c>
       <c r="AA38" s="34">
-        <v>2.86</v>
+        <v>4.87</v>
       </c>
       <c r="AK38" s="9"/>
       <c r="AL38" s="10"/>

--- a/logs/OMG.xlsx
+++ b/logs/OMG.xlsx
@@ -1908,11 +1908,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="45">
     <font>
@@ -2094,45 +2094,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2155,7 +2117,85 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2187,46 +2227,6 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2534,7 +2534,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2564,25 +2582,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2624,12 +2666,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2643,42 +2679,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2853,21 +2853,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2888,6 +2873,56 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2915,51 +2950,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="63" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="70" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2968,133 +2968,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="61" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="61" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="52" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="65" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="65" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="57" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5970,7 +5970,7 @@
   <dimension ref="A1:AS52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -6028,9 +6028,7 @@
         <v>513</v>
       </c>
       <c r="B1" s="4"/>
-      <c r="C1" s="5">
-        <v>51.02</v>
-      </c>
+      <c r="C1" s="5"/>
       <c r="D1" s="6" t="s">
         <v>581</v>
       </c>
@@ -6050,38 +6048,36 @@
         <v>3.16</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>541</v>
+        <v>572</v>
       </c>
       <c r="K1" s="4">
-        <v>7</v>
-      </c>
-      <c r="L1" s="5">
-        <v>51.4</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="L1" s="5"/>
       <c r="M1" s="6" t="s">
-        <v>565</v>
+        <v>434</v>
       </c>
       <c r="N1" s="7">
-        <v>7.13</v>
+        <v>7.01</v>
       </c>
       <c r="O1" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="P1" s="8">
+        <v>6.95</v>
+      </c>
+      <c r="Q1" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="P1" s="8">
-        <v>7.04</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>477</v>
-      </c>
       <c r="R1" s="33">
-        <v>6.53</v>
+        <v>6.8</v>
       </c>
       <c r="S1" s="36" t="s">
         <v>602</v>
       </c>
       <c r="T1" s="37"/>
       <c r="U1" s="5">
-        <v>51.29</v>
+        <v>51.98</v>
       </c>
       <c r="V1" s="6" t="s">
         <v>542</v>
@@ -6101,32 +6097,32 @@
       <c r="AA1" s="33">
         <v>6.02</v>
       </c>
-      <c r="AB1" s="26" t="s">
-        <v>591</v>
-      </c>
-      <c r="AC1" s="27">
-        <v>1</v>
+      <c r="AB1" s="40" t="s">
+        <v>599</v>
+      </c>
+      <c r="AC1" s="41">
+        <v>3</v>
       </c>
       <c r="AD1" s="5">
-        <v>52.45</v>
+        <v>50.15</v>
       </c>
       <c r="AE1" s="6" t="s">
-        <v>561</v>
+        <v>600</v>
       </c>
       <c r="AF1" s="7">
-        <v>3.07</v>
+        <v>5.58</v>
       </c>
       <c r="AG1" s="8" t="s">
-        <v>552</v>
+        <v>446</v>
       </c>
       <c r="AH1" s="8">
-        <v>2.65</v>
+        <v>5.29</v>
       </c>
       <c r="AI1" s="8" t="s">
-        <v>502</v>
+        <v>555</v>
       </c>
       <c r="AJ1" s="33">
-        <v>2.65</v>
+        <v>5.06</v>
       </c>
       <c r="AK1" s="46" t="s">
         <v>600</v>
@@ -6157,9 +6153,7 @@
     <row r="2" ht="11.5" customHeight="1" spans="1:45">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
-      <c r="C2" s="11">
-        <v>52.57</v>
-      </c>
+      <c r="C2" s="11"/>
       <c r="D2" s="12" t="s">
         <v>447</v>
       </c>
@@ -6181,30 +6175,30 @@
       <c r="J2" s="9"/>
       <c r="K2" s="10"/>
       <c r="L2" s="11">
-        <v>53.69</v>
+        <v>53.37</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="N2" s="13">
-        <v>5.93</v>
+        <v>14.43</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>536</v>
+        <v>510</v>
       </c>
       <c r="P2" s="13">
-        <v>5.57</v>
+        <v>7.24</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>539</v>
+        <v>587</v>
       </c>
       <c r="R2" s="34">
-        <v>4.27</v>
+        <v>6.66</v>
       </c>
       <c r="S2" s="38"/>
       <c r="T2" s="39"/>
       <c r="U2" s="11">
-        <v>57.09</v>
+        <v>57.66</v>
       </c>
       <c r="V2" s="12" t="s">
         <v>497</v>
@@ -6224,33 +6218,33 @@
       <c r="AA2" s="34">
         <v>4.9</v>
       </c>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="29"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="43"/>
       <c r="AD2" s="11">
-        <v>52.96</v>
+        <v>52.91</v>
       </c>
       <c r="AE2" s="12" t="s">
-        <v>599</v>
+        <v>497</v>
       </c>
       <c r="AF2" s="13">
-        <v>4.1</v>
+        <v>4.23</v>
       </c>
       <c r="AG2" s="13" t="s">
-        <v>589</v>
+        <v>436</v>
       </c>
       <c r="AH2" s="13">
-        <v>4.08</v>
+        <v>4.03</v>
       </c>
       <c r="AI2" s="13" t="s">
-        <v>602</v>
+        <v>495</v>
       </c>
       <c r="AJ2" s="34">
-        <v>4.08</v>
+        <v>3.48</v>
       </c>
       <c r="AK2" s="48"/>
       <c r="AL2" s="49"/>
       <c r="AM2" s="11">
-        <v>52.55</v>
+        <v>52.28</v>
       </c>
       <c r="AN2" s="12" t="s">
         <v>572</v>
@@ -6276,9 +6270,7 @@
         <v>446</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="5">
-        <v>51.31</v>
-      </c>
+      <c r="C3" s="5"/>
       <c r="D3" s="6" t="s">
         <v>601</v>
       </c>
@@ -6297,37 +6289,39 @@
       <c r="I3" s="33">
         <v>3.16</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="K3" s="4"/>
+      <c r="J3" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="K3" s="15">
+        <v>6</v>
+      </c>
       <c r="L3" s="5">
-        <v>53.38</v>
+        <v>50.05</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>542</v>
+        <v>573</v>
       </c>
       <c r="N3" s="7">
-        <v>6.33</v>
+        <v>10</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>536</v>
+        <v>498</v>
       </c>
       <c r="P3" s="8">
-        <v>6.09</v>
+        <v>5.96</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>590</v>
+        <v>477</v>
       </c>
       <c r="R3" s="33">
-        <v>4.09</v>
+        <v>5.13</v>
       </c>
       <c r="S3" s="14" t="s">
         <v>530</v>
       </c>
       <c r="T3" s="15"/>
       <c r="U3" s="5">
-        <v>52.83</v>
+        <v>52.76</v>
       </c>
       <c r="V3" s="6" t="s">
         <v>581</v>
@@ -6347,65 +6341,63 @@
       <c r="AA3" s="33">
         <v>3.86</v>
       </c>
-      <c r="AB3" s="40" t="s">
-        <v>599</v>
-      </c>
-      <c r="AC3" s="41">
-        <v>3</v>
+      <c r="AB3" s="26" t="s">
+        <v>591</v>
+      </c>
+      <c r="AC3" s="27">
+        <v>1</v>
       </c>
       <c r="AD3" s="5">
-        <v>50.33</v>
+        <v>52.44</v>
       </c>
       <c r="AE3" s="6" t="s">
-        <v>600</v>
+        <v>561</v>
       </c>
       <c r="AF3" s="7">
-        <v>5.58</v>
+        <v>3.07</v>
       </c>
       <c r="AG3" s="8" t="s">
-        <v>446</v>
+        <v>552</v>
       </c>
       <c r="AH3" s="8">
-        <v>5.29</v>
+        <v>2.65</v>
       </c>
       <c r="AI3" s="8" t="s">
-        <v>555</v>
+        <v>502</v>
       </c>
       <c r="AJ3" s="33">
-        <v>5.06</v>
+        <v>2.65</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="AL3" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM3" s="5"/>
+        <v>434</v>
+      </c>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="5">
+        <v>50.72</v>
+      </c>
       <c r="AN3" s="6" t="s">
-        <v>443</v>
+        <v>561</v>
       </c>
       <c r="AO3" s="7">
-        <v>6.49</v>
+        <v>7.58</v>
       </c>
       <c r="AP3" s="8" t="s">
-        <v>454</v>
+        <v>531</v>
       </c>
       <c r="AQ3" s="8">
-        <v>6.47</v>
+        <v>6.41</v>
       </c>
       <c r="AR3" s="8" t="s">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="AS3" s="33">
-        <v>5.44</v>
+        <v>5.91</v>
       </c>
     </row>
     <row r="4" ht="11.5" customHeight="1" spans="1:45">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="11">
-        <v>52.56</v>
-      </c>
+      <c r="C4" s="11"/>
       <c r="D4" s="12" t="s">
         <v>599</v>
       </c>
@@ -6424,33 +6416,33 @@
       <c r="I4" s="34">
         <v>4.58</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="21"/>
       <c r="L4" s="11">
-        <v>52.69</v>
+        <v>52.7</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>550</v>
+        <v>507</v>
       </c>
       <c r="N4" s="13">
-        <v>8.21</v>
+        <v>10.42</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="P4" s="13">
-        <v>5.38</v>
+        <v>7.09</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>583</v>
-      </c>
-      <c r="R4" s="34">
-        <v>4.7</v>
+        <v>541</v>
+      </c>
+      <c r="R4" s="13">
+        <v>6.99</v>
       </c>
       <c r="S4" s="20"/>
       <c r="T4" s="21"/>
       <c r="U4" s="11">
-        <v>54.11</v>
+        <v>54.56</v>
       </c>
       <c r="V4" s="12" t="s">
         <v>598</v>
@@ -6470,132 +6462,128 @@
       <c r="AA4" s="34">
         <v>5.54</v>
       </c>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="43"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="29"/>
       <c r="AD4" s="11">
-        <v>52.72</v>
+        <v>52.88</v>
       </c>
       <c r="AE4" s="12" t="s">
-        <v>497</v>
+        <v>599</v>
       </c>
       <c r="AF4" s="13">
-        <v>4.23</v>
+        <v>4.1</v>
       </c>
       <c r="AG4" s="13" t="s">
-        <v>436</v>
+        <v>589</v>
       </c>
       <c r="AH4" s="13">
-        <v>4.03</v>
+        <v>4.08</v>
       </c>
       <c r="AI4" s="13" t="s">
-        <v>495</v>
+        <v>602</v>
       </c>
       <c r="AJ4" s="34">
-        <v>3.48</v>
+        <v>4.08</v>
       </c>
       <c r="AK4" s="9"/>
       <c r="AL4" s="10"/>
       <c r="AM4" s="11">
-        <v>52.09</v>
+        <v>52.05</v>
       </c>
       <c r="AN4" s="12" t="s">
-        <v>587</v>
+        <v>454</v>
       </c>
       <c r="AO4" s="13">
-        <v>8.56</v>
+        <v>10.98</v>
       </c>
       <c r="AP4" s="13" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="AQ4" s="13">
-        <v>3.1</v>
+        <v>10.04</v>
       </c>
       <c r="AR4" s="13" t="s">
-        <v>590</v>
+        <v>135</v>
       </c>
       <c r="AS4" s="34">
-        <v>2.54</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="5" ht="11.5" customHeight="1" spans="1:45">
       <c r="A5" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="B5" s="4">
-        <v>3</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="B5" s="4"/>
       <c r="C5" s="5">
-        <v>53.37</v>
+        <v>52.91</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>492</v>
+        <v>456</v>
       </c>
       <c r="E5" s="7">
-        <v>5.04</v>
+        <v>6.26</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="G5" s="8">
-        <v>3.43</v>
+        <v>5.73</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>590</v>
+        <v>459</v>
       </c>
       <c r="I5" s="33">
-        <v>3.36</v>
+        <v>3.09</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="K5" s="4">
-        <v>2</v>
-      </c>
-      <c r="L5" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="L5" s="5">
+        <v>51.31</v>
+      </c>
       <c r="M5" s="6" t="s">
-        <v>601</v>
+        <v>565</v>
       </c>
       <c r="N5" s="7">
-        <v>4.31</v>
+        <v>7.13</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>432</v>
+        <v>543</v>
       </c>
       <c r="P5" s="8">
-        <v>4.21</v>
+        <v>7.04</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>561</v>
+        <v>477</v>
       </c>
       <c r="R5" s="33">
-        <v>3.93</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="T5" s="4">
-        <v>1</v>
-      </c>
-      <c r="U5" s="5">
-        <v>51.92</v>
-      </c>
+        <v>6.53</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="T5" s="15"/>
+      <c r="U5" s="5"/>
       <c r="V5" s="6" t="s">
-        <v>498</v>
+        <v>434</v>
       </c>
       <c r="W5" s="7">
-        <v>3.33</v>
+        <v>7.75</v>
       </c>
       <c r="X5" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="Y5" s="8">
-        <v>2.97</v>
+        <v>552</v>
+      </c>
+      <c r="Y5" s="45">
+        <v>6.17</v>
       </c>
       <c r="Z5" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="AA5" s="8">
-        <v>2.66</v>
+      <c r="AA5" s="33">
+        <v>5.1</v>
       </c>
       <c r="AB5" s="26" t="s">
         <v>598</v>
@@ -6604,7 +6592,7 @@
         <v>8</v>
       </c>
       <c r="AD5" s="5">
-        <v>52.86</v>
+        <v>52.8</v>
       </c>
       <c r="AE5" s="6" t="s">
         <v>572</v>
@@ -6625,29 +6613,27 @@
         <v>6.03</v>
       </c>
       <c r="AK5" s="3" t="s">
-        <v>434</v>
+        <v>583</v>
       </c>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="5">
-        <v>50.87</v>
-      </c>
+      <c r="AM5" s="5"/>
       <c r="AN5" s="6" t="s">
-        <v>561</v>
+        <v>587</v>
       </c>
       <c r="AO5" s="7">
-        <v>7.58</v>
+        <v>6.36</v>
       </c>
       <c r="AP5" s="8" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="AQ5" s="8">
-        <v>6.41</v>
+        <v>4.97</v>
       </c>
       <c r="AR5" s="8" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="AS5" s="33">
-        <v>5.91</v>
+        <v>4.89</v>
       </c>
     </row>
     <row r="6" ht="11.5" customHeight="1" spans="1:45">
@@ -6657,73 +6643,73 @@
         <v>52.33</v>
       </c>
       <c r="D6" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="E6" s="13">
+        <v>5.19</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="G6" s="13">
+        <v>3.83</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>602</v>
       </c>
-      <c r="E6" s="13">
-        <v>5.94</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="G6" s="13">
-        <v>4.49</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>515</v>
-      </c>
       <c r="I6" s="34">
-        <v>4.47</v>
+        <v>3.8</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="10"/>
       <c r="L6" s="11">
-        <v>52.57</v>
+        <v>52.56</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="N6" s="13">
-        <v>5.06</v>
+        <v>5.93</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>602</v>
+        <v>536</v>
       </c>
       <c r="P6" s="13">
-        <v>3.92</v>
+        <v>5.57</v>
       </c>
       <c r="Q6" s="13" t="s">
         <v>539</v>
       </c>
       <c r="R6" s="34">
-        <v>3.71</v>
-      </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="10"/>
+        <v>4.27</v>
+      </c>
+      <c r="S6" s="20"/>
+      <c r="T6" s="21"/>
       <c r="U6" s="11">
-        <v>53.03</v>
+        <v>53.51</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>598</v>
+        <v>522</v>
       </c>
       <c r="W6" s="13">
-        <v>6.16</v>
+        <v>4.86</v>
       </c>
       <c r="X6" s="13" t="s">
-        <v>599</v>
+        <v>568</v>
       </c>
       <c r="Y6" s="13">
-        <v>3.96</v>
+        <v>4.73</v>
       </c>
       <c r="Z6" s="13" t="s">
-        <v>546</v>
+        <v>445</v>
       </c>
       <c r="AA6" s="34">
-        <v>3.27</v>
+        <v>4.69</v>
       </c>
       <c r="AB6" s="28"/>
       <c r="AC6" s="29"/>
       <c r="AD6" s="11">
-        <v>52.15</v>
+        <v>52.38</v>
       </c>
       <c r="AE6" s="12" t="s">
         <v>436</v>
@@ -6746,102 +6732,106 @@
       <c r="AK6" s="9"/>
       <c r="AL6" s="10"/>
       <c r="AM6" s="11">
-        <v>51.95</v>
+        <v>51.49</v>
       </c>
       <c r="AN6" s="12" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="AO6" s="13">
-        <v>10.98</v>
+        <v>5.48</v>
       </c>
       <c r="AP6" s="13" t="s">
-        <v>518</v>
+        <v>453</v>
       </c>
       <c r="AQ6" s="13">
-        <v>10.04</v>
+        <v>5.35</v>
       </c>
       <c r="AR6" s="13" t="s">
-        <v>135</v>
+        <v>582</v>
       </c>
       <c r="AS6" s="34">
-        <v>7.46</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="7" ht="11.5" customHeight="1" spans="1:45">
       <c r="A7" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="B7" s="4"/>
+        <v>540</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
       <c r="C7" s="5">
-        <v>52.95</v>
+        <v>52.91</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>456</v>
+        <v>492</v>
       </c>
       <c r="E7" s="7">
-        <v>6.26</v>
+        <v>5.04</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="G7" s="8">
-        <v>5.73</v>
+        <v>3.43</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>459</v>
+        <v>590</v>
       </c>
       <c r="I7" s="33">
-        <v>3.09</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>543</v>
-      </c>
-      <c r="K7" s="15">
-        <v>6</v>
-      </c>
+        <v>3.36</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="K7" s="4"/>
       <c r="L7" s="5">
-        <v>50.14</v>
+        <v>53.23</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>573</v>
+        <v>542</v>
       </c>
       <c r="N7" s="7">
-        <v>10</v>
+        <v>6.33</v>
       </c>
       <c r="O7" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="P7" s="8">
+        <v>6.09</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="R7" s="33">
+        <v>4.09</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="T7" s="4">
+        <v>1</v>
+      </c>
+      <c r="U7" s="5">
+        <v>51.84</v>
+      </c>
+      <c r="V7" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="P7" s="8">
-        <v>5.96</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="R7" s="33">
-        <v>5.13</v>
-      </c>
-      <c r="S7" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="T7" s="15"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="6" t="s">
-        <v>434</v>
-      </c>
       <c r="W7" s="7">
-        <v>7.75</v>
+        <v>3.33</v>
       </c>
       <c r="X7" s="8" t="s">
-        <v>552</v>
-      </c>
-      <c r="Y7" s="45">
-        <v>6.17</v>
+        <v>437</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>2.97</v>
       </c>
       <c r="Z7" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="AA7" s="33">
-        <v>5.1</v>
+      <c r="AA7" s="8">
+        <v>2.66</v>
       </c>
       <c r="AB7" s="3" t="s">
         <v>589</v>
@@ -6850,7 +6840,7 @@
         <v>10</v>
       </c>
       <c r="AD7" s="5">
-        <v>51.26</v>
+        <v>51.19</v>
       </c>
       <c r="AE7" s="6" t="s">
         <v>456</v>
@@ -6871,103 +6861,105 @@
         <v>4.57</v>
       </c>
       <c r="AK7" s="3" t="s">
-        <v>583</v>
+        <v>443</v>
       </c>
       <c r="AL7" s="4"/>
-      <c r="AM7" s="5"/>
+      <c r="AM7" s="5">
+        <v>52.64</v>
+      </c>
       <c r="AN7" s="6" t="s">
-        <v>587</v>
+        <v>497</v>
       </c>
       <c r="AO7" s="7">
-        <v>6.36</v>
+        <v>5.39</v>
       </c>
       <c r="AP7" s="8" t="s">
-        <v>539</v>
+        <v>436</v>
       </c>
       <c r="AQ7" s="8">
-        <v>4.97</v>
+        <v>4.04</v>
       </c>
       <c r="AR7" s="8" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="AS7" s="33">
-        <v>4.89</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="8" ht="11.5" customHeight="1" spans="1:45">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11">
-        <v>52.03</v>
+        <v>52.07</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>447</v>
+        <v>602</v>
       </c>
       <c r="E8" s="13">
-        <v>5.19</v>
+        <v>5.94</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>576</v>
+        <v>433</v>
       </c>
       <c r="G8" s="13">
-        <v>3.83</v>
+        <v>4.49</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>602</v>
+        <v>515</v>
       </c>
       <c r="I8" s="34">
-        <v>3.8</v>
-      </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21"/>
+        <v>4.47</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="10"/>
       <c r="L8" s="11">
-        <v>52.53</v>
+        <v>52.44</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>507</v>
+        <v>550</v>
       </c>
       <c r="N8" s="13">
-        <v>10.42</v>
+        <v>8.21</v>
       </c>
       <c r="O8" s="13" t="s">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="P8" s="13">
-        <v>7.09</v>
+        <v>5.38</v>
       </c>
       <c r="Q8" s="13" t="s">
-        <v>541</v>
-      </c>
-      <c r="R8" s="13">
-        <v>6.99</v>
-      </c>
-      <c r="S8" s="20"/>
-      <c r="T8" s="21"/>
+        <v>583</v>
+      </c>
+      <c r="R8" s="34">
+        <v>4.7</v>
+      </c>
+      <c r="S8" s="9"/>
+      <c r="T8" s="10"/>
       <c r="U8" s="11">
-        <v>52.64</v>
+        <v>53.19</v>
       </c>
       <c r="V8" s="12" t="s">
-        <v>522</v>
+        <v>598</v>
       </c>
       <c r="W8" s="13">
-        <v>4.86</v>
+        <v>6.16</v>
       </c>
       <c r="X8" s="13" t="s">
-        <v>568</v>
+        <v>599</v>
       </c>
       <c r="Y8" s="13">
-        <v>4.73</v>
+        <v>3.96</v>
       </c>
       <c r="Z8" s="13" t="s">
-        <v>445</v>
+        <v>546</v>
       </c>
       <c r="AA8" s="34">
-        <v>4.69</v>
+        <v>3.27</v>
       </c>
       <c r="AB8" s="9"/>
       <c r="AC8" s="10"/>
       <c r="AD8" s="11">
-        <v>51.63</v>
+        <v>51.9</v>
       </c>
       <c r="AE8" s="12" t="s">
         <v>442</v>
@@ -6990,25 +6982,25 @@
       <c r="AK8" s="9"/>
       <c r="AL8" s="10"/>
       <c r="AM8" s="11">
-        <v>51.92</v>
+        <v>51.04</v>
       </c>
       <c r="AN8" s="12" t="s">
-        <v>437</v>
+        <v>590</v>
       </c>
       <c r="AO8" s="13">
-        <v>5.48</v>
+        <v>5.97</v>
       </c>
       <c r="AP8" s="13" t="s">
-        <v>453</v>
+        <v>555</v>
       </c>
       <c r="AQ8" s="13">
-        <v>5.35</v>
+        <v>5.51</v>
       </c>
       <c r="AR8" s="13" t="s">
         <v>582</v>
       </c>
       <c r="AS8" s="34">
-        <v>4.61</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="9" ht="11.5" customHeight="1" spans="1:45">
@@ -7038,29 +7030,29 @@
         <v>4.16</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="K9" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="6" t="s">
-        <v>434</v>
+        <v>601</v>
       </c>
       <c r="N9" s="7">
-        <v>7.01</v>
+        <v>4.31</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>550</v>
+        <v>432</v>
       </c>
       <c r="P9" s="8">
-        <v>6.95</v>
+        <v>4.21</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="R9" s="33">
-        <v>6.8</v>
+        <v>3.93</v>
       </c>
       <c r="S9" s="14" t="s">
         <v>573</v>
@@ -7110,40 +7102,38 @@
       <c r="AJ9" s="33">
         <v>5.38</v>
       </c>
-      <c r="AK9" s="40" t="s">
-        <v>590</v>
-      </c>
-      <c r="AL9" s="41">
-        <v>2</v>
+      <c r="AK9" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="AL9" s="4">
+        <v>6</v>
       </c>
       <c r="AM9" s="5">
-        <v>51.36</v>
+        <v>52.17</v>
       </c>
       <c r="AN9" s="6" t="s">
         <v>443</v>
       </c>
       <c r="AO9" s="7">
-        <v>6.12</v>
+        <v>3</v>
       </c>
       <c r="AP9" s="8" t="s">
-        <v>543</v>
+        <v>575</v>
       </c>
       <c r="AQ9" s="8">
-        <v>5.17</v>
+        <v>2.57</v>
       </c>
       <c r="AR9" s="8" t="s">
-        <v>574</v>
+        <v>447</v>
       </c>
       <c r="AS9" s="33">
-        <v>5.16</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="10" ht="11.5" customHeight="1" spans="1:45">
       <c r="A10" s="9"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="11">
-        <v>51.78</v>
-      </c>
+      <c r="C10" s="11"/>
       <c r="D10" s="12" t="s">
         <v>565</v>
       </c>
@@ -7165,30 +7155,30 @@
       <c r="J10" s="9"/>
       <c r="K10" s="10"/>
       <c r="L10" s="11">
-        <v>52.32</v>
+        <v>52.38</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="N10" s="13">
-        <v>14.43</v>
+        <v>5.06</v>
       </c>
       <c r="O10" s="13" t="s">
-        <v>510</v>
+        <v>602</v>
       </c>
       <c r="P10" s="13">
-        <v>7.24</v>
+        <v>3.92</v>
       </c>
       <c r="Q10" s="13" t="s">
-        <v>587</v>
+        <v>539</v>
       </c>
       <c r="R10" s="34">
-        <v>6.66</v>
+        <v>3.71</v>
       </c>
       <c r="S10" s="20"/>
       <c r="T10" s="21"/>
       <c r="U10" s="11">
-        <v>52.39</v>
+        <v>53.03</v>
       </c>
       <c r="V10" s="12" t="s">
         <v>543</v>
@@ -7211,7 +7201,7 @@
       <c r="AB10" s="9"/>
       <c r="AC10" s="10"/>
       <c r="AD10" s="11">
-        <v>51.36</v>
+        <v>51.55</v>
       </c>
       <c r="AE10" s="12" t="s">
         <v>135</v>
@@ -7231,28 +7221,28 @@
       <c r="AJ10" s="34">
         <v>4.27</v>
       </c>
-      <c r="AK10" s="42"/>
-      <c r="AL10" s="43"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="10"/>
       <c r="AM10" s="11">
-        <v>50.74</v>
+        <v>50.82</v>
       </c>
       <c r="AN10" s="12" t="s">
-        <v>536</v>
+        <v>590</v>
       </c>
       <c r="AO10" s="13">
-        <v>5.27</v>
+        <v>4.29</v>
       </c>
       <c r="AP10" s="13" t="s">
-        <v>507</v>
+        <v>135</v>
       </c>
       <c r="AQ10" s="13">
-        <v>5.22</v>
+        <v>3.55</v>
       </c>
       <c r="AR10" s="13" t="s">
-        <v>455</v>
+        <v>582</v>
       </c>
       <c r="AS10" s="34">
-        <v>4.93</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="11" ht="11.5" customHeight="1" spans="1:45">
@@ -7262,9 +7252,7 @@
       <c r="B11" s="15">
         <v>9</v>
       </c>
-      <c r="C11" s="16">
-        <v>52.13</v>
-      </c>
+      <c r="C11" s="16"/>
       <c r="D11" s="17" t="s">
         <v>522</v>
       </c>
@@ -7283,30 +7271,32 @@
       <c r="I11" s="35">
         <v>2.89</v>
       </c>
-      <c r="J11" s="36" t="s">
-        <v>539</v>
-      </c>
-      <c r="K11" s="37">
-        <v>1</v>
-      </c>
-      <c r="L11" s="5"/>
+      <c r="J11" s="26" t="s">
+        <v>437</v>
+      </c>
+      <c r="K11" s="27">
+        <v>3</v>
+      </c>
+      <c r="L11" s="5">
+        <v>51.52</v>
+      </c>
       <c r="M11" s="6" t="s">
-        <v>547</v>
+        <v>497</v>
       </c>
       <c r="N11" s="7">
-        <v>6.09</v>
+        <v>5.59</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>550</v>
+        <v>498</v>
       </c>
       <c r="P11" s="8">
-        <v>5.39</v>
+        <v>5.56</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="R11" s="33">
-        <v>5</v>
+        <v>5.48</v>
       </c>
       <c r="S11" s="3" t="s">
         <v>594</v>
@@ -7315,7 +7305,7 @@
         <v>6</v>
       </c>
       <c r="U11" s="5">
-        <v>52.61</v>
+        <v>52.99</v>
       </c>
       <c r="V11" s="6" t="s">
         <v>497</v>
@@ -7340,7 +7330,7 @@
       </c>
       <c r="AC11" s="4"/>
       <c r="AD11" s="5">
-        <v>51.61</v>
+        <v>51.33</v>
       </c>
       <c r="AE11" s="6" t="s">
         <v>581</v>
@@ -7360,36 +7350,36 @@
       <c r="AJ11" s="33">
         <v>2.64</v>
       </c>
-      <c r="AK11" s="26" t="s">
-        <v>518</v>
-      </c>
-      <c r="AL11" s="27"/>
+      <c r="AK11" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="AL11" s="4">
+        <v>1</v>
+      </c>
       <c r="AM11" s="5"/>
       <c r="AN11" s="6" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="AO11" s="7">
-        <v>10.04</v>
+        <v>6.49</v>
       </c>
       <c r="AP11" s="8" t="s">
         <v>454</v>
       </c>
       <c r="AQ11" s="8">
-        <v>4.41</v>
+        <v>6.47</v>
       </c>
       <c r="AR11" s="8" t="s">
-        <v>536</v>
+        <v>434</v>
       </c>
       <c r="AS11" s="33">
-        <v>2.99</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="12" ht="11.5" customHeight="1" spans="1:45">
       <c r="A12" s="20"/>
       <c r="B12" s="21"/>
-      <c r="C12" s="11">
-        <v>51.31</v>
-      </c>
+      <c r="C12" s="11"/>
       <c r="D12" s="12" t="s">
         <v>548</v>
       </c>
@@ -7408,33 +7398,33 @@
       <c r="I12" s="34">
         <v>3.59</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="39"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="29"/>
       <c r="L12" s="11">
-        <v>52.12</v>
+        <v>51.81</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>583</v>
+        <v>600</v>
       </c>
       <c r="N12" s="13">
-        <v>4.97</v>
+        <v>7.26</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>498</v>
+        <v>453</v>
       </c>
       <c r="P12" s="13">
-        <v>4.47</v>
+        <v>5.68</v>
       </c>
       <c r="Q12" s="13" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="R12" s="34">
-        <v>4.03</v>
+        <v>3.89</v>
       </c>
       <c r="S12" s="9"/>
       <c r="T12" s="10"/>
       <c r="U12" s="11">
-        <v>52.35</v>
+        <v>52.28</v>
       </c>
       <c r="V12" s="12" t="s">
         <v>600</v>
@@ -7457,7 +7447,7 @@
       <c r="AB12" s="9"/>
       <c r="AC12" s="10"/>
       <c r="AD12" s="11">
-        <v>51.3</v>
+        <v>50.77</v>
       </c>
       <c r="AE12" s="12" t="s">
         <v>602</v>
@@ -7477,28 +7467,28 @@
       <c r="AJ12" s="34">
         <v>2.94</v>
       </c>
-      <c r="AK12" s="28"/>
-      <c r="AL12" s="29"/>
+      <c r="AK12" s="9"/>
+      <c r="AL12" s="10"/>
       <c r="AM12" s="11">
-        <v>50.19</v>
+        <v>50.76</v>
       </c>
       <c r="AN12" s="12" t="s">
         <v>587</v>
       </c>
       <c r="AO12" s="13">
-        <v>3.23</v>
+        <v>8.56</v>
       </c>
       <c r="AP12" s="13" t="s">
-        <v>552</v>
+        <v>510</v>
       </c>
       <c r="AQ12" s="13">
-        <v>3.22</v>
+        <v>3.1</v>
       </c>
       <c r="AR12" s="13" t="s">
-        <v>497</v>
+        <v>590</v>
       </c>
       <c r="AS12" s="34">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="13" ht="11.5" customHeight="1" spans="1:45">
@@ -7508,9 +7498,7 @@
       <c r="B13" s="4">
         <v>6</v>
       </c>
-      <c r="C13" s="5">
-        <v>50.63</v>
-      </c>
+      <c r="C13" s="5"/>
       <c r="D13" s="6" t="s">
         <v>484</v>
       </c>
@@ -7529,37 +7517,37 @@
       <c r="I13" s="33">
         <v>3.11</v>
       </c>
-      <c r="J13" s="26" t="s">
-        <v>535</v>
-      </c>
-      <c r="K13" s="27"/>
+      <c r="J13" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="K13" s="4"/>
       <c r="L13" s="5">
-        <v>51.6</v>
+        <v>51.29</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>588</v>
+        <v>536</v>
       </c>
       <c r="N13" s="7">
-        <v>3.14</v>
+        <v>6.78</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>514</v>
+        <v>561</v>
       </c>
       <c r="P13" s="8">
-        <v>3.13</v>
+        <v>5.53</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>492</v>
+        <v>447</v>
       </c>
       <c r="R13" s="33">
-        <v>3.08</v>
+        <v>5.44</v>
       </c>
       <c r="S13" s="26" t="s">
         <v>601</v>
       </c>
       <c r="T13" s="27"/>
       <c r="U13" s="5">
-        <v>52</v>
+        <v>52.39</v>
       </c>
       <c r="V13" s="6" t="s">
         <v>552</v>
@@ -7586,7 +7574,7 @@
         <v>7</v>
       </c>
       <c r="AD13" s="5">
-        <v>50.53</v>
+        <v>50.42</v>
       </c>
       <c r="AE13" s="6" t="s">
         <v>436</v>
@@ -7606,38 +7594,38 @@
       <c r="AJ13" s="33">
         <v>4.34</v>
       </c>
-      <c r="AK13" s="3" t="s">
+      <c r="AK13" s="40" t="s">
+        <v>590</v>
+      </c>
+      <c r="AL13" s="41">
+        <v>2</v>
+      </c>
+      <c r="AM13" s="5">
+        <v>50.99</v>
+      </c>
+      <c r="AN13" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="AL13" s="4"/>
-      <c r="AM13" s="5">
-        <v>52.4</v>
-      </c>
-      <c r="AN13" s="6" t="s">
-        <v>497</v>
-      </c>
       <c r="AO13" s="7">
-        <v>5.39</v>
+        <v>6.12</v>
       </c>
       <c r="AP13" s="8" t="s">
-        <v>436</v>
+        <v>543</v>
       </c>
       <c r="AQ13" s="8">
-        <v>4.04</v>
+        <v>5.17</v>
       </c>
       <c r="AR13" s="8" t="s">
-        <v>447</v>
+        <v>574</v>
       </c>
       <c r="AS13" s="33">
-        <v>3.02</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="14" ht="11.5" customHeight="1" spans="1:45">
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="11">
-        <v>51.29</v>
-      </c>
+      <c r="C14" s="11"/>
       <c r="D14" s="12" t="s">
         <v>541</v>
       </c>
@@ -7656,33 +7644,33 @@
       <c r="I14" s="34">
         <v>4.9</v>
       </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="29"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="10"/>
       <c r="L14" s="11">
-        <v>51.67</v>
+        <v>51.77</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="N14" s="13">
-        <v>6.96</v>
+        <v>9.2</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>568</v>
+        <v>456</v>
       </c>
       <c r="P14" s="13">
-        <v>5.83</v>
+        <v>8.84</v>
       </c>
       <c r="Q14" s="13" t="s">
-        <v>523</v>
+        <v>542</v>
       </c>
       <c r="R14" s="34">
-        <v>5.14</v>
+        <v>5.39</v>
       </c>
       <c r="S14" s="28"/>
       <c r="T14" s="29"/>
       <c r="U14" s="11">
-        <v>51.19</v>
+        <v>51.67</v>
       </c>
       <c r="V14" s="12" t="s">
         <v>576</v>
@@ -7705,7 +7693,7 @@
       <c r="AB14" s="9"/>
       <c r="AC14" s="10"/>
       <c r="AD14" s="11">
-        <v>50.9</v>
+        <v>50.66</v>
       </c>
       <c r="AE14" s="12" t="s">
         <v>456</v>
@@ -7725,28 +7713,28 @@
       <c r="AJ14" s="34">
         <v>4.3</v>
       </c>
-      <c r="AK14" s="9"/>
-      <c r="AL14" s="10"/>
+      <c r="AK14" s="42"/>
+      <c r="AL14" s="43"/>
       <c r="AM14" s="11">
-        <v>50.16</v>
+        <v>50.71</v>
       </c>
       <c r="AN14" s="12" t="s">
-        <v>590</v>
+        <v>536</v>
       </c>
       <c r="AO14" s="13">
-        <v>5.97</v>
+        <v>5.27</v>
       </c>
       <c r="AP14" s="13" t="s">
-        <v>555</v>
+        <v>507</v>
       </c>
       <c r="AQ14" s="13">
-        <v>5.51</v>
+        <v>5.22</v>
       </c>
       <c r="AR14" s="13" t="s">
-        <v>582</v>
+        <v>455</v>
       </c>
       <c r="AS14" s="34">
-        <v>5.38</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="15" ht="11.5" customHeight="1" spans="1:45">
@@ -7756,9 +7744,7 @@
       <c r="B15" s="4">
         <v>2</v>
       </c>
-      <c r="C15" s="5">
-        <v>52.68</v>
-      </c>
+      <c r="C15" s="5"/>
       <c r="D15" s="6" t="s">
         <v>536</v>
       </c>
@@ -7778,29 +7764,29 @@
         <v>3.67</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="5">
-        <v>50.64</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="K15" s="4">
+        <v>4</v>
+      </c>
+      <c r="L15" s="5"/>
       <c r="M15" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="N15" s="7">
-        <v>6.78</v>
+        <v>5.14</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="P15" s="8">
-        <v>5.53</v>
+        <v>4.58</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>447</v>
+        <v>549</v>
       </c>
       <c r="R15" s="33">
-        <v>5.44</v>
+        <v>4.77</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>466</v>
@@ -7809,7 +7795,7 @@
         <v>10</v>
       </c>
       <c r="U15" s="5">
-        <v>50.82</v>
+        <v>50.98</v>
       </c>
       <c r="V15" s="6" t="s">
         <v>498</v>
@@ -7829,67 +7815,59 @@
       <c r="AA15" s="33">
         <v>2.95</v>
       </c>
-      <c r="AB15" s="36" t="s">
-        <v>588</v>
-      </c>
-      <c r="AC15" s="37">
-        <v>4</v>
-      </c>
+      <c r="AB15" s="40" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC15" s="41"/>
       <c r="AD15" s="5">
-        <v>50.7</v>
+        <v>50.5</v>
       </c>
       <c r="AE15" s="6" t="s">
-        <v>456</v>
+        <v>527</v>
       </c>
       <c r="AF15" s="7">
-        <v>8.12</v>
+        <v>5.93</v>
       </c>
       <c r="AG15" s="8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AH15" s="8">
-        <v>4.01</v>
+        <v>5.52</v>
       </c>
       <c r="AI15" s="8" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="AJ15" s="33">
-        <v>3.34</v>
-      </c>
-      <c r="AK15" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="AL15" s="4">
-        <v>6</v>
-      </c>
-      <c r="AM15" s="5">
-        <v>51.49</v>
-      </c>
+        <v>3.83</v>
+      </c>
+      <c r="AK15" s="36" t="s">
+        <v>517</v>
+      </c>
+      <c r="AL15" s="37"/>
+      <c r="AM15" s="5"/>
       <c r="AN15" s="6" t="s">
-        <v>443</v>
+        <v>538</v>
       </c>
       <c r="AO15" s="7">
-        <v>3</v>
+        <v>5.95</v>
       </c>
       <c r="AP15" s="8" t="s">
-        <v>575</v>
+        <v>543</v>
       </c>
       <c r="AQ15" s="8">
-        <v>2.57</v>
+        <v>3.3</v>
       </c>
       <c r="AR15" s="8" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="AS15" s="33">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="16" ht="11.5" customHeight="1" spans="1:45">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="11">
-        <v>51.1</v>
-      </c>
+      <c r="C16" s="11"/>
       <c r="D16" s="12" t="s">
         <v>456</v>
       </c>
@@ -7911,30 +7889,30 @@
       <c r="J16" s="9"/>
       <c r="K16" s="10"/>
       <c r="L16" s="11">
-        <v>51.64</v>
+        <v>51.69</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>568</v>
+        <v>536</v>
       </c>
       <c r="N16" s="13">
-        <v>9.2</v>
+        <v>8.01</v>
       </c>
       <c r="O16" s="13" t="s">
-        <v>456</v>
+        <v>522</v>
       </c>
       <c r="P16" s="13">
-        <v>8.84</v>
+        <v>5.99</v>
       </c>
       <c r="Q16" s="13" t="s">
-        <v>542</v>
+        <v>433</v>
       </c>
       <c r="R16" s="34">
-        <v>5.39</v>
+        <v>5.83</v>
       </c>
       <c r="S16" s="9"/>
       <c r="T16" s="10"/>
       <c r="U16" s="11">
-        <v>51.17</v>
+        <v>51.44</v>
       </c>
       <c r="V16" s="12" t="s">
         <v>568</v>
@@ -7954,51 +7932,51 @@
       <c r="AA16" s="34">
         <v>3.47</v>
       </c>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="39"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="43"/>
       <c r="AD16" s="11">
-        <v>50.72</v>
+        <v>50.38</v>
       </c>
       <c r="AE16" s="12" t="s">
-        <v>561</v>
+        <v>598</v>
       </c>
       <c r="AF16" s="13">
-        <v>4.43</v>
+        <v>4.27</v>
       </c>
       <c r="AG16" s="13" t="s">
-        <v>498</v>
+        <v>577</v>
       </c>
       <c r="AH16" s="13">
-        <v>3.47</v>
+        <v>3.21</v>
       </c>
       <c r="AI16" s="13" t="s">
-        <v>535</v>
+        <v>589</v>
       </c>
       <c r="AJ16" s="34">
-        <v>3.14</v>
-      </c>
-      <c r="AK16" s="9"/>
-      <c r="AL16" s="10"/>
+        <v>3.1</v>
+      </c>
+      <c r="AK16" s="38"/>
+      <c r="AL16" s="39"/>
       <c r="AM16" s="11">
-        <v>50.14</v>
+        <v>50.26</v>
       </c>
       <c r="AN16" s="12" t="s">
-        <v>590</v>
+        <v>552</v>
       </c>
       <c r="AO16" s="13">
-        <v>4.29</v>
+        <v>2.6</v>
       </c>
       <c r="AP16" s="13" t="s">
-        <v>135</v>
+        <v>454</v>
       </c>
       <c r="AQ16" s="13">
-        <v>3.55</v>
+        <v>2.57</v>
       </c>
       <c r="AR16" s="13" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AS16" s="34">
-        <v>3.52</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="17" ht="11.5" customHeight="1" spans="1:45">
@@ -8025,115 +8003,111 @@
       <c r="I17" s="33">
         <v>3.19</v>
       </c>
-      <c r="J17" s="26" t="s">
-        <v>437</v>
-      </c>
-      <c r="K17" s="27">
-        <v>3</v>
-      </c>
-      <c r="L17" s="5">
-        <v>50.74</v>
-      </c>
+      <c r="J17" s="36" t="s">
+        <v>539</v>
+      </c>
+      <c r="K17" s="37">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5"/>
       <c r="M17" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6.09</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="P17" s="8">
+        <v>5.39</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="R17" s="33">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="T17" s="4">
+        <v>4</v>
+      </c>
+      <c r="U17" s="5">
+        <v>50.52</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="W17" s="7">
+        <v>4.86</v>
+      </c>
+      <c r="X17" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y17" s="8">
+        <v>4.83</v>
+      </c>
+      <c r="Z17" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="N17" s="7">
-        <v>5.59</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="P17" s="8">
-        <v>5.56</v>
-      </c>
-      <c r="Q17" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="R17" s="33">
-        <v>5.48</v>
-      </c>
-      <c r="S17" s="40" t="s">
-        <v>577</v>
-      </c>
-      <c r="T17" s="41">
-        <v>8</v>
-      </c>
-      <c r="U17" s="5">
-        <v>51.91</v>
-      </c>
-      <c r="V17" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="W17" s="7">
-        <v>5.15</v>
-      </c>
-      <c r="X17" s="8" t="s">
-        <v>510</v>
-      </c>
-      <c r="Y17" s="8">
-        <v>4.856</v>
-      </c>
-      <c r="Z17" s="8" t="s">
-        <v>600</v>
-      </c>
       <c r="AA17" s="33">
-        <v>4.798</v>
-      </c>
-      <c r="AB17" s="40" t="s">
-        <v>576</v>
-      </c>
-      <c r="AC17" s="41"/>
-      <c r="AD17" s="5">
-        <v>50.62</v>
-      </c>
+        <v>3.58</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="AC17" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD17" s="5"/>
       <c r="AE17" s="6" t="s">
-        <v>527</v>
+        <v>587</v>
       </c>
       <c r="AF17" s="7">
-        <v>5.93</v>
+        <v>2.2</v>
       </c>
       <c r="AG17" s="8" t="s">
         <v>601</v>
       </c>
       <c r="AH17" s="8">
-        <v>5.52</v>
+        <v>2.12</v>
       </c>
       <c r="AI17" s="8" t="s">
-        <v>442</v>
+        <v>535</v>
       </c>
       <c r="AJ17" s="33">
-        <v>3.83</v>
-      </c>
-      <c r="AK17" s="36" t="s">
-        <v>517</v>
-      </c>
-      <c r="AL17" s="37"/>
+        <v>2.09</v>
+      </c>
+      <c r="AK17" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="AL17" s="27"/>
       <c r="AM17" s="5"/>
       <c r="AN17" s="6" t="s">
-        <v>538</v>
+        <v>434</v>
       </c>
       <c r="AO17" s="7">
-        <v>5.95</v>
+        <v>10.04</v>
       </c>
       <c r="AP17" s="8" t="s">
-        <v>543</v>
+        <v>454</v>
       </c>
       <c r="AQ17" s="8">
-        <v>3.3</v>
+        <v>4.41</v>
       </c>
       <c r="AR17" s="8" t="s">
-        <v>453</v>
+        <v>536</v>
       </c>
       <c r="AS17" s="33">
-        <v>3.1</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="18" ht="11.5" customHeight="1" spans="1:45">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="11">
-        <v>50.77</v>
-      </c>
+      <c r="C18" s="11"/>
       <c r="D18" s="12" t="s">
         <v>601</v>
       </c>
@@ -8152,97 +8126,97 @@
       <c r="I18" s="34">
         <v>2.94</v>
       </c>
-      <c r="J18" s="28"/>
-      <c r="K18" s="29"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="39"/>
       <c r="L18" s="11">
-        <v>51.61</v>
+        <v>51.5</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="N18" s="13">
-        <v>7.26</v>
+        <v>4.97</v>
       </c>
       <c r="O18" s="13" t="s">
-        <v>453</v>
+        <v>498</v>
       </c>
       <c r="P18" s="13">
-        <v>5.68</v>
+        <v>4.47</v>
       </c>
       <c r="Q18" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="R18" s="34">
+        <v>4.03</v>
+      </c>
+      <c r="S18" s="9"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="11">
+        <v>50.92</v>
+      </c>
+      <c r="V18" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="R18" s="34">
-        <v>3.89</v>
-      </c>
-      <c r="S18" s="42"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="11">
-        <v>50.73</v>
-      </c>
-      <c r="V18" s="12" t="s">
-        <v>495</v>
-      </c>
       <c r="W18" s="13">
-        <v>7.83</v>
+        <v>3.46</v>
       </c>
       <c r="X18" s="13" t="s">
-        <v>520</v>
+        <v>433</v>
       </c>
       <c r="Y18" s="13">
-        <v>7.05</v>
+        <v>3.42</v>
       </c>
       <c r="Z18" s="13" t="s">
-        <v>589</v>
+        <v>522</v>
       </c>
       <c r="AA18" s="34">
-        <v>4.78</v>
-      </c>
-      <c r="AB18" s="42"/>
-      <c r="AC18" s="43"/>
+        <v>3.01</v>
+      </c>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="10"/>
       <c r="AD18" s="11">
-        <v>50.41</v>
+        <v>50.28</v>
       </c>
       <c r="AE18" s="12" t="s">
-        <v>598</v>
+        <v>456</v>
       </c>
       <c r="AF18" s="13">
-        <v>4.27</v>
+        <v>4.16</v>
       </c>
       <c r="AG18" s="13" t="s">
-        <v>577</v>
+        <v>536</v>
       </c>
       <c r="AH18" s="13">
-        <v>3.21</v>
+        <v>2.76</v>
       </c>
       <c r="AI18" s="13" t="s">
-        <v>589</v>
+        <v>433</v>
       </c>
       <c r="AJ18" s="34">
-        <v>3.1</v>
-      </c>
-      <c r="AK18" s="38"/>
-      <c r="AL18" s="39"/>
+        <v>2.11</v>
+      </c>
+      <c r="AK18" s="28"/>
+      <c r="AL18" s="29"/>
       <c r="AM18" s="11">
-        <v>50.08</v>
+        <v>50.26</v>
       </c>
       <c r="AN18" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="AO18" s="13">
+        <v>3.23</v>
+      </c>
+      <c r="AP18" s="13" t="s">
         <v>552</v>
       </c>
-      <c r="AO18" s="13">
+      <c r="AQ18" s="13">
+        <v>3.22</v>
+      </c>
+      <c r="AR18" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="AS18" s="34">
         <v>2.6</v>
-      </c>
-      <c r="AP18" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="AQ18" s="13">
-        <v>2.57</v>
-      </c>
-      <c r="AR18" s="13" t="s">
-        <v>583</v>
-      </c>
-      <c r="AS18" s="34">
-        <v>2.22</v>
       </c>
     </row>
     <row r="19" ht="11.5" customHeight="1" spans="1:45">
@@ -8272,115 +8246,113 @@
         <v>3.13</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="K19" s="4">
+        <v>548</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="5">
+        <v>51.88</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="N19" s="7">
+        <v>5.62</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="P19" s="8">
+        <v>4.19</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="R19" s="33">
+        <v>4.03</v>
+      </c>
+      <c r="S19" s="40" t="s">
+        <v>577</v>
+      </c>
+      <c r="T19" s="41">
+        <v>8</v>
+      </c>
+      <c r="U19" s="5">
+        <v>51.74</v>
+      </c>
+      <c r="V19" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="W19" s="7">
+        <v>5.15</v>
+      </c>
+      <c r="X19" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y19" s="8">
+        <v>4.856</v>
+      </c>
+      <c r="Z19" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="AA19" s="33">
+        <v>4.798</v>
+      </c>
+      <c r="AB19" s="36" t="s">
+        <v>588</v>
+      </c>
+      <c r="AC19" s="37">
         <v>4</v>
       </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5.14</v>
-      </c>
-      <c r="O19" s="8" t="s">
-        <v>548</v>
-      </c>
-      <c r="P19" s="8">
-        <v>4.58</v>
-      </c>
-      <c r="Q19" s="8" t="s">
+      <c r="AD19" s="5">
+        <v>50.47</v>
+      </c>
+      <c r="AE19" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AF19" s="7">
+        <v>8.12</v>
+      </c>
+      <c r="AG19" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="AH19" s="8">
+        <v>4.01</v>
+      </c>
+      <c r="AI19" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="AJ19" s="33">
+        <v>3.34</v>
+      </c>
+      <c r="AK19" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="AO19" s="7">
+        <v>6.12</v>
+      </c>
+      <c r="AP19" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="R19" s="33">
-        <v>4.77</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="T19" s="4">
-        <v>4</v>
-      </c>
-      <c r="U19" s="5">
-        <v>50.1</v>
-      </c>
-      <c r="V19" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="W19" s="7">
-        <v>4.86</v>
-      </c>
-      <c r="X19" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="Y19" s="8">
-        <v>4.83</v>
-      </c>
-      <c r="Z19" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="AA19" s="33">
-        <v>3.58</v>
-      </c>
-      <c r="AB19" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="AC19" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="6" t="s">
-        <v>587</v>
-      </c>
-      <c r="AF19" s="7">
-        <v>2.2</v>
-      </c>
-      <c r="AG19" s="8" t="s">
-        <v>601</v>
-      </c>
-      <c r="AH19" s="8">
-        <v>2.12</v>
-      </c>
-      <c r="AI19" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="AJ19" s="33">
-        <v>2.09</v>
-      </c>
-      <c r="AK19" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="AL19" s="4">
-        <v>4</v>
-      </c>
-      <c r="AM19" s="5">
-        <v>50.93</v>
-      </c>
-      <c r="AN19" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="AO19" s="7">
-        <v>3.25</v>
-      </c>
-      <c r="AP19" s="8" t="s">
-        <v>574</v>
-      </c>
       <c r="AQ19" s="8">
-        <v>2.92</v>
+        <v>5.99</v>
       </c>
       <c r="AR19" s="8" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="AS19" s="33">
-        <v>2.59</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="20" ht="11.5" customHeight="1" spans="1:45">
       <c r="A20" s="9"/>
       <c r="B20" s="10"/>
       <c r="C20" s="11">
-        <v>50.68</v>
+        <v>50.04</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>520</v>
@@ -8403,92 +8375,94 @@
       <c r="J20" s="9"/>
       <c r="K20" s="10"/>
       <c r="L20" s="11">
-        <v>51.57</v>
+        <v>51.41</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="N20" s="13">
-        <v>8.01</v>
+        <v>7.15</v>
       </c>
       <c r="O20" s="13" t="s">
-        <v>522</v>
+        <v>568</v>
       </c>
       <c r="P20" s="13">
-        <v>5.99</v>
+        <v>6.19</v>
       </c>
       <c r="Q20" s="13" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="R20" s="34">
-        <v>5.83</v>
-      </c>
-      <c r="S20" s="9"/>
-      <c r="T20" s="10"/>
+        <v>5.23</v>
+      </c>
+      <c r="S20" s="42"/>
+      <c r="T20" s="43"/>
       <c r="U20" s="11">
-        <v>50.67</v>
+        <v>50.8</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>547</v>
+        <v>495</v>
       </c>
       <c r="W20" s="13">
-        <v>3.46</v>
+        <v>7.83</v>
       </c>
       <c r="X20" s="13" t="s">
-        <v>433</v>
+        <v>520</v>
       </c>
       <c r="Y20" s="13">
-        <v>3.42</v>
+        <v>7.05</v>
       </c>
       <c r="Z20" s="13" t="s">
-        <v>522</v>
+        <v>589</v>
       </c>
       <c r="AA20" s="34">
-        <v>3.01</v>
-      </c>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="10"/>
+        <v>4.78</v>
+      </c>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="39"/>
       <c r="AD20" s="11">
-        <v>50.3</v>
+        <v>50.11</v>
       </c>
       <c r="AE20" s="12" t="s">
-        <v>456</v>
+        <v>561</v>
       </c>
       <c r="AF20" s="13">
-        <v>4.16</v>
+        <v>4.43</v>
       </c>
       <c r="AG20" s="13" t="s">
-        <v>536</v>
+        <v>498</v>
       </c>
       <c r="AH20" s="13">
-        <v>2.76</v>
+        <v>3.47</v>
       </c>
       <c r="AI20" s="13" t="s">
-        <v>433</v>
+        <v>535</v>
       </c>
       <c r="AJ20" s="34">
-        <v>2.11</v>
+        <v>3.14</v>
       </c>
       <c r="AK20" s="9"/>
       <c r="AL20" s="10"/>
-      <c r="AM20" s="11"/>
+      <c r="AM20" s="11">
+        <v>50.2</v>
+      </c>
       <c r="AN20" s="12" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="AO20" s="13">
-        <v>4.36</v>
+        <v>5.6</v>
       </c>
       <c r="AP20" s="13" t="s">
-        <v>498</v>
+        <v>574</v>
       </c>
       <c r="AQ20" s="13">
-        <v>3.98</v>
+        <v>4.34</v>
       </c>
       <c r="AR20" s="13" t="s">
-        <v>535</v>
+        <v>507</v>
       </c>
       <c r="AS20" s="34">
-        <v>3.4</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="21" ht="11.5" customHeight="1" spans="1:45">
@@ -8498,9 +8472,7 @@
       <c r="B21" s="15">
         <v>8</v>
       </c>
-      <c r="C21" s="5">
-        <v>51.3</v>
-      </c>
+      <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
         <v>432</v>
       </c>
@@ -8519,32 +8491,30 @@
       <c r="I21" s="33">
         <v>2.35</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="K21" s="4">
-        <v>11</v>
-      </c>
+      <c r="J21" s="26" t="s">
+        <v>535</v>
+      </c>
+      <c r="K21" s="27"/>
       <c r="L21" s="5">
-        <v>51.42</v>
+        <v>52.08</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>456</v>
+        <v>588</v>
       </c>
       <c r="N21" s="7">
-        <v>8.64</v>
+        <v>3.14</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="P21" s="8">
-        <v>7.87</v>
+        <v>3.13</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>568</v>
+        <v>492</v>
       </c>
       <c r="R21" s="33">
-        <v>6.05</v>
+        <v>3.08</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>507</v>
@@ -8595,37 +8565,37 @@
         <v>5.83</v>
       </c>
       <c r="AK21" s="3" t="s">
-        <v>454</v>
+        <v>514</v>
       </c>
       <c r="AL21" s="4">
-        <v>3</v>
-      </c>
-      <c r="AM21" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="AM21" s="5">
+        <v>50.71</v>
+      </c>
       <c r="AN21" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="AO21" s="7">
+        <v>3.25</v>
+      </c>
+      <c r="AP21" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="AQ21" s="8">
+        <v>2.92</v>
+      </c>
+      <c r="AR21" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="AO21" s="7">
-        <v>10.98</v>
-      </c>
-      <c r="AP21" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="AQ21" s="8">
-        <v>4.93</v>
-      </c>
-      <c r="AR21" s="8" t="s">
-        <v>435</v>
-      </c>
       <c r="AS21" s="33">
-        <v>4.63</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="22" ht="11.5" customHeight="1" spans="1:45">
       <c r="A22" s="20"/>
       <c r="B22" s="21"/>
-      <c r="C22" s="11">
-        <v>50.39</v>
-      </c>
+      <c r="C22" s="11"/>
       <c r="D22" s="12" t="s">
         <v>456</v>
       </c>
@@ -8644,33 +8614,33 @@
       <c r="I22" s="34">
         <v>3</v>
       </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="10"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="29"/>
       <c r="L22" s="11">
-        <v>51.57</v>
+        <v>51.33</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>536</v>
+        <v>565</v>
       </c>
       <c r="N22" s="13">
-        <v>10.32</v>
+        <v>6.96</v>
       </c>
       <c r="O22" s="13" t="s">
-        <v>602</v>
+        <v>568</v>
       </c>
       <c r="P22" s="13">
-        <v>7.23</v>
+        <v>5.83</v>
       </c>
       <c r="Q22" s="13" t="s">
-        <v>494</v>
+        <v>523</v>
       </c>
       <c r="R22" s="34">
-        <v>6.33</v>
+        <v>5.14</v>
       </c>
       <c r="S22" s="9"/>
       <c r="T22" s="10"/>
       <c r="U22" s="11">
-        <v>50.33</v>
+        <v>50.67</v>
       </c>
       <c r="V22" s="12" t="s">
         <v>586</v>
@@ -8715,22 +8685,22 @@
       <c r="AL22" s="10"/>
       <c r="AM22" s="11"/>
       <c r="AN22" s="12" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AO22" s="13">
-        <v>6.47</v>
+        <v>4.36</v>
       </c>
       <c r="AP22" s="13" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="AQ22" s="13">
-        <v>5.64</v>
+        <v>3.98</v>
       </c>
       <c r="AR22" s="13" t="s">
-        <v>583</v>
+        <v>535</v>
       </c>
       <c r="AS22" s="34">
-        <v>4.48</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="23" ht="11.5" customHeight="1" spans="1:45">
@@ -8757,55 +8727,55 @@
       <c r="I23" s="33">
         <v>3.88</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="K23" s="4"/>
+      <c r="J23" s="26" t="s">
+        <v>574</v>
+      </c>
+      <c r="K23" s="27"/>
       <c r="L23" s="5">
-        <v>51.46</v>
+        <v>51.42</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="N23" s="7">
-        <v>5.62</v>
+        <v>6.57</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>484</v>
+        <v>434</v>
       </c>
       <c r="P23" s="8">
-        <v>4.19</v>
+        <v>5.14</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>539</v>
+        <v>565</v>
       </c>
       <c r="R23" s="33">
-        <v>4.03</v>
-      </c>
-      <c r="S23" s="40" t="s">
-        <v>474</v>
-      </c>
-      <c r="T23" s="41"/>
-      <c r="U23" s="5">
-        <v>50.04</v>
-      </c>
+        <v>4.49</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="T23" s="4">
+        <v>7</v>
+      </c>
+      <c r="U23" s="5"/>
       <c r="V23" s="6" t="s">
-        <v>587</v>
+        <v>530</v>
       </c>
       <c r="W23" s="7">
-        <v>2.48</v>
+        <v>5.14</v>
       </c>
       <c r="X23" s="8" t="s">
-        <v>531</v>
+        <v>443</v>
       </c>
       <c r="Y23" s="8">
-        <v>2.34</v>
+        <v>4.75</v>
       </c>
       <c r="Z23" s="8" t="s">
         <v>594</v>
       </c>
       <c r="AA23" s="33">
-        <v>2.32</v>
+        <v>4.24</v>
       </c>
       <c r="AB23" s="3" t="s">
         <v>592</v>
@@ -8833,35 +8803,35 @@
         <v>4.27</v>
       </c>
       <c r="AK23" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="AL23" s="4"/>
+        <v>454</v>
+      </c>
+      <c r="AL23" s="4">
+        <v>3</v>
+      </c>
       <c r="AM23" s="5"/>
       <c r="AN23" s="6" t="s">
-        <v>561</v>
+        <v>434</v>
       </c>
       <c r="AO23" s="7">
-        <v>6.12</v>
+        <v>10.98</v>
       </c>
       <c r="AP23" s="8" t="s">
-        <v>549</v>
+        <v>456</v>
       </c>
       <c r="AQ23" s="8">
-        <v>5.99</v>
+        <v>4.93</v>
       </c>
       <c r="AR23" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AS23" s="33">
-        <v>5.68</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="24" ht="11.5" customHeight="1" spans="1:45">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
-      <c r="C24" s="11">
-        <v>50.25</v>
-      </c>
+      <c r="C24" s="11"/>
       <c r="D24" s="12" t="s">
         <v>574</v>
       </c>
@@ -8880,51 +8850,51 @@
       <c r="I24" s="34">
         <v>3.19</v>
       </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="10"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="29"/>
       <c r="L24" s="11">
-        <v>51.52</v>
+        <v>51.26</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>550</v>
+        <v>590</v>
       </c>
       <c r="N24" s="13">
-        <v>7.15</v>
+        <v>5.16</v>
       </c>
       <c r="O24" s="13" t="s">
-        <v>568</v>
+        <v>495</v>
       </c>
       <c r="P24" s="13">
-        <v>6.19</v>
+        <v>4.65</v>
       </c>
       <c r="Q24" s="13" t="s">
-        <v>437</v>
+        <v>541</v>
       </c>
       <c r="R24" s="34">
-        <v>5.23</v>
-      </c>
-      <c r="S24" s="42"/>
-      <c r="T24" s="43"/>
+        <v>3.64</v>
+      </c>
+      <c r="S24" s="9"/>
+      <c r="T24" s="10"/>
       <c r="U24" s="11">
-        <v>50.26</v>
+        <v>50.25</v>
       </c>
       <c r="V24" s="12" t="s">
-        <v>433</v>
+        <v>599</v>
       </c>
       <c r="W24" s="13">
-        <v>3.03</v>
+        <v>4.28</v>
       </c>
       <c r="X24" s="13" t="s">
-        <v>599</v>
+        <v>536</v>
       </c>
       <c r="Y24" s="13">
-        <v>2.24</v>
+        <v>3.99</v>
       </c>
       <c r="Z24" s="13" t="s">
-        <v>523</v>
+        <v>565</v>
       </c>
       <c r="AA24" s="34">
-        <v>2.21</v>
+        <v>3.53</v>
       </c>
       <c r="AB24" s="9"/>
       <c r="AC24" s="10"/>
@@ -8951,22 +8921,22 @@
       <c r="AL24" s="10"/>
       <c r="AM24" s="11"/>
       <c r="AN24" s="12" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="AO24" s="13">
-        <v>5.6</v>
+        <v>6.47</v>
       </c>
       <c r="AP24" s="13" t="s">
-        <v>574</v>
+        <v>510</v>
       </c>
       <c r="AQ24" s="13">
-        <v>4.34</v>
+        <v>5.64</v>
       </c>
       <c r="AR24" s="13" t="s">
-        <v>507</v>
+        <v>583</v>
       </c>
       <c r="AS24" s="34">
-        <v>3.73</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="25" ht="11.5" customHeight="1" spans="1:45">
@@ -8974,9 +8944,7 @@
         <v>516</v>
       </c>
       <c r="B25" s="23"/>
-      <c r="C25" s="5">
-        <v>51.17</v>
-      </c>
+      <c r="C25" s="5"/>
       <c r="D25" s="6" t="s">
         <v>456</v>
       </c>
@@ -8995,55 +8963,59 @@
       <c r="I25" s="33">
         <v>2.69</v>
       </c>
-      <c r="J25" s="26" t="s">
-        <v>574</v>
-      </c>
-      <c r="K25" s="27"/>
+      <c r="J25" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="K25" s="4">
+        <v>11</v>
+      </c>
       <c r="L25" s="5">
-        <v>51.5</v>
+        <v>51.25</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>536</v>
+        <v>456</v>
       </c>
       <c r="N25" s="7">
-        <v>6.57</v>
+        <v>8.64</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>434</v>
+        <v>510</v>
       </c>
       <c r="P25" s="8">
-        <v>5.14</v>
+        <v>7.87</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="R25" s="33">
-        <v>4.49</v>
+        <v>6.05</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>546</v>
+        <v>492</v>
       </c>
       <c r="T25" s="4">
-        <v>7</v>
-      </c>
-      <c r="U25" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="U25" s="5">
+        <v>52.23</v>
+      </c>
       <c r="V25" s="6" t="s">
-        <v>530</v>
+        <v>497</v>
       </c>
       <c r="W25" s="7">
-        <v>5.14</v>
+        <v>6.54</v>
       </c>
       <c r="X25" s="8" t="s">
-        <v>443</v>
+        <v>552</v>
       </c>
       <c r="Y25" s="8">
-        <v>4.75</v>
+        <v>5.39</v>
       </c>
       <c r="Z25" s="8" t="s">
-        <v>594</v>
+        <v>452</v>
       </c>
       <c r="AA25" s="33">
-        <v>4.24</v>
+        <v>5.3</v>
       </c>
       <c r="AB25" s="40" t="s">
         <v>567</v>
@@ -9097,9 +9069,7 @@
     <row r="26" ht="11.5" customHeight="1" spans="1:45">
       <c r="A26" s="24"/>
       <c r="B26" s="25"/>
-      <c r="C26" s="11">
-        <v>50.2</v>
-      </c>
+      <c r="C26" s="11"/>
       <c r="D26" s="12" t="s">
         <v>583</v>
       </c>
@@ -9118,51 +9088,51 @@
       <c r="I26" s="34">
         <v>3.61</v>
       </c>
-      <c r="J26" s="28"/>
-      <c r="K26" s="29"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="10"/>
       <c r="L26" s="11">
-        <v>51.36</v>
+        <v>51.16</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>590</v>
+        <v>536</v>
       </c>
       <c r="N26" s="13">
-        <v>5.16</v>
+        <v>10.32</v>
       </c>
       <c r="O26" s="13" t="s">
-        <v>495</v>
+        <v>602</v>
       </c>
       <c r="P26" s="13">
-        <v>4.65</v>
+        <v>7.23</v>
       </c>
       <c r="Q26" s="13" t="s">
-        <v>541</v>
+        <v>494</v>
       </c>
       <c r="R26" s="34">
-        <v>3.64</v>
+        <v>6.33</v>
       </c>
       <c r="S26" s="9"/>
       <c r="T26" s="10"/>
       <c r="U26" s="11">
-        <v>50.17</v>
+        <v>50.24</v>
       </c>
       <c r="V26" s="12" t="s">
-        <v>599</v>
+        <v>542</v>
       </c>
       <c r="W26" s="13">
-        <v>4.28</v>
+        <v>5.94</v>
       </c>
       <c r="X26" s="13" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="Y26" s="13">
-        <v>3.99</v>
+        <v>5.04</v>
       </c>
       <c r="Z26" s="13" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AA26" s="34">
-        <v>3.53</v>
+        <v>3.14</v>
       </c>
       <c r="AB26" s="42"/>
       <c r="AC26" s="43"/>
@@ -9214,9 +9184,7 @@
       <c r="B27" s="27">
         <v>5</v>
       </c>
-      <c r="C27" s="5">
-        <v>50.07</v>
-      </c>
+      <c r="C27" s="5"/>
       <c r="D27" s="6" t="s">
         <v>494</v>
       </c>
@@ -9242,7 +9210,7 @@
         <v>9</v>
       </c>
       <c r="L27" s="5">
-        <v>51.36</v>
+        <v>51.29</v>
       </c>
       <c r="M27" s="6" t="s">
         <v>456</v>
@@ -9262,32 +9230,30 @@
       <c r="R27" s="33">
         <v>2.68</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="T27" s="4">
-        <v>3</v>
-      </c>
+      <c r="S27" s="40" t="s">
+        <v>474</v>
+      </c>
+      <c r="T27" s="41"/>
       <c r="U27" s="5">
-        <v>51.75</v>
+        <v>50.17</v>
       </c>
       <c r="V27" s="6" t="s">
-        <v>497</v>
+        <v>587</v>
       </c>
       <c r="W27" s="7">
-        <v>6.54</v>
+        <v>2.48</v>
       </c>
       <c r="X27" s="8" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
       <c r="Y27" s="8">
-        <v>5.39</v>
+        <v>2.34</v>
       </c>
       <c r="Z27" s="8" t="s">
-        <v>452</v>
+        <v>594</v>
       </c>
       <c r="AA27" s="33">
-        <v>5.3</v>
+        <v>2.32</v>
       </c>
       <c r="AK27" s="3" t="s">
         <v>515</v>
@@ -9338,7 +9304,7 @@
       <c r="J28" s="20"/>
       <c r="K28" s="21"/>
       <c r="L28" s="11">
-        <v>50.25</v>
+        <v>50.29</v>
       </c>
       <c r="M28" s="12" t="s">
         <v>434</v>
@@ -9358,28 +9324,28 @@
       <c r="R28" s="34">
         <v>2.64</v>
       </c>
-      <c r="S28" s="9"/>
-      <c r="T28" s="10"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="43"/>
       <c r="U28" s="11">
-        <v>50.04</v>
+        <v>50.2</v>
       </c>
       <c r="V28" s="12" t="s">
-        <v>542</v>
+        <v>433</v>
       </c>
       <c r="W28" s="13">
-        <v>5.94</v>
+        <v>3.03</v>
       </c>
       <c r="X28" s="13" t="s">
-        <v>540</v>
+        <v>599</v>
       </c>
       <c r="Y28" s="13">
-        <v>5.04</v>
+        <v>2.24</v>
       </c>
       <c r="Z28" s="13" t="s">
-        <v>566</v>
+        <v>523</v>
       </c>
       <c r="AA28" s="34">
-        <v>3.14</v>
+        <v>2.21</v>
       </c>
       <c r="AK28" s="9"/>
       <c r="AL28" s="10"/>
@@ -9432,7 +9398,7 @@
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="5">
-        <v>52.43</v>
+        <v>52.52</v>
       </c>
       <c r="M29" s="6" t="s">
         <v>447</v>
@@ -9457,7 +9423,7 @@
       </c>
       <c r="T29" s="4"/>
       <c r="U29" s="5">
-        <v>51.32</v>
+        <v>51.54</v>
       </c>
       <c r="V29" s="6" t="s">
         <v>433</v>
@@ -9477,28 +9443,28 @@
       <c r="AA29" s="33">
         <v>3.39</v>
       </c>
-      <c r="AK29" s="26" t="s">
-        <v>558</v>
-      </c>
-      <c r="AL29" s="27"/>
+      <c r="AK29" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="AL29" s="15"/>
       <c r="AM29" s="5"/>
       <c r="AN29" s="6" t="s">
-        <v>530</v>
+        <v>598</v>
       </c>
       <c r="AO29" s="7">
-        <v>5.3</v>
+        <v>3.91</v>
       </c>
       <c r="AP29" s="8" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="AQ29" s="8">
-        <v>3.64</v>
+        <v>3.53</v>
       </c>
       <c r="AR29" s="8" t="s">
-        <v>590</v>
+        <v>541</v>
       </c>
       <c r="AS29" s="33">
-        <v>3.41</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="30" ht="11.5" customHeight="1" spans="1:45">
@@ -9525,7 +9491,9 @@
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="10"/>
-      <c r="L30" s="11"/>
+      <c r="L30" s="11">
+        <v>50.26</v>
+      </c>
       <c r="M30" s="12" t="s">
         <v>434</v>
       </c>
@@ -9565,26 +9533,26 @@
       <c r="AA30" s="34">
         <v>5.45</v>
       </c>
-      <c r="AK30" s="28"/>
-      <c r="AL30" s="29"/>
+      <c r="AK30" s="20"/>
+      <c r="AL30" s="21"/>
       <c r="AM30" s="11"/>
       <c r="AN30" s="12" t="s">
-        <v>456</v>
+        <v>510</v>
       </c>
       <c r="AO30" s="13">
-        <v>2.79</v>
+        <v>5.42</v>
       </c>
       <c r="AP30" s="13" t="s">
-        <v>434</v>
+        <v>601</v>
       </c>
       <c r="AQ30" s="13">
-        <v>2.17</v>
+        <v>3.69</v>
       </c>
       <c r="AR30" s="13" t="s">
-        <v>434</v>
+        <v>552</v>
       </c>
       <c r="AS30" s="34">
-        <v>2.12</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="31" ht="11.5" customHeight="1" spans="1:45">
@@ -9616,7 +9584,7 @@
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="5">
-        <v>51.21</v>
+        <v>51.19</v>
       </c>
       <c r="M31" s="6" t="s">
         <v>447</v>
@@ -9643,7 +9611,7 @@
         <v>9</v>
       </c>
       <c r="U31" s="5">
-        <v>50.95</v>
+        <v>51.17</v>
       </c>
       <c r="V31" s="6" t="s">
         <v>587</v>
@@ -9664,29 +9632,27 @@
         <v>3.96</v>
       </c>
       <c r="AK31" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="AL31" s="4">
-        <v>5</v>
-      </c>
+        <v>538</v>
+      </c>
+      <c r="AL31" s="4"/>
       <c r="AM31" s="5"/>
       <c r="AN31" s="6" t="s">
-        <v>523</v>
+        <v>497</v>
       </c>
       <c r="AO31" s="7">
-        <v>5.83</v>
+        <v>4.46</v>
       </c>
       <c r="AP31" s="8" t="s">
-        <v>568</v>
+        <v>495</v>
       </c>
       <c r="AQ31" s="8">
-        <v>5.45</v>
+        <v>3.64</v>
       </c>
       <c r="AR31" s="8" t="s">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="AS31" s="33">
-        <v>4.49</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="32" ht="11.5" customHeight="1" spans="1:45">
@@ -9757,22 +9723,22 @@
       <c r="AL32" s="10"/>
       <c r="AM32" s="11"/>
       <c r="AN32" s="12" t="s">
-        <v>552</v>
+        <v>517</v>
       </c>
       <c r="AO32" s="13">
-        <v>3.86</v>
+        <v>5.95</v>
       </c>
       <c r="AP32" s="13" t="s">
-        <v>484</v>
+        <v>542</v>
       </c>
       <c r="AQ32" s="13">
-        <v>2.39</v>
+        <v>3.77</v>
       </c>
       <c r="AR32" s="13" t="s">
-        <v>458</v>
+        <v>600</v>
       </c>
       <c r="AS32" s="34">
-        <v>2.28</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="33" ht="11.5" customHeight="1" spans="1:45">
@@ -9806,7 +9772,7 @@
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="5">
-        <v>50.22</v>
+        <v>50.15</v>
       </c>
       <c r="M33" s="6" t="s">
         <v>542</v>
@@ -9826,53 +9792,53 @@
       <c r="R33" s="33">
         <v>6.01</v>
       </c>
-      <c r="S33" s="40" t="s">
-        <v>528</v>
-      </c>
-      <c r="T33" s="41"/>
+      <c r="S33" s="36" t="s">
+        <v>529</v>
+      </c>
+      <c r="T33" s="37"/>
       <c r="U33" s="5">
         <v>50.52</v>
       </c>
       <c r="V33" s="6" t="s">
-        <v>542</v>
+        <v>484</v>
       </c>
       <c r="W33" s="7">
-        <v>3.09</v>
+        <v>2.66</v>
       </c>
       <c r="X33" s="8" t="s">
-        <v>577</v>
+        <v>459</v>
       </c>
       <c r="Y33" s="8">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="Z33" s="8" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="AA33" s="33">
-        <v>2.49</v>
-      </c>
-      <c r="AK33" s="22" t="s">
-        <v>455</v>
-      </c>
-      <c r="AL33" s="30"/>
+        <v>2.5</v>
+      </c>
+      <c r="AK33" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL33" s="4"/>
       <c r="AM33" s="5"/>
       <c r="AN33" s="6" t="s">
-        <v>590</v>
+        <v>484</v>
       </c>
       <c r="AO33" s="7">
-        <v>4.93</v>
+        <v>3.67</v>
       </c>
       <c r="AP33" s="8" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="AQ33" s="8">
-        <v>3</v>
+        <v>3.61</v>
       </c>
       <c r="AR33" s="8" t="s">
-        <v>568</v>
+        <v>601</v>
       </c>
       <c r="AS33" s="33">
-        <v>2.57</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="34" ht="11.5" customHeight="1" spans="1:45">
@@ -9918,47 +9884,47 @@
       <c r="R34" s="34">
         <v>6.57</v>
       </c>
-      <c r="S34" s="42"/>
-      <c r="T34" s="43"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="39"/>
       <c r="U34" s="11"/>
       <c r="V34" s="12" t="s">
-        <v>135</v>
+        <v>446</v>
       </c>
       <c r="W34" s="13">
-        <v>3.57</v>
+        <v>3.12</v>
       </c>
       <c r="X34" s="13" t="s">
-        <v>452</v>
+        <v>507</v>
       </c>
       <c r="Y34" s="13">
-        <v>3.25</v>
+        <v>2.99</v>
       </c>
       <c r="Z34" s="13" t="s">
-        <v>510</v>
+        <v>602</v>
       </c>
       <c r="AA34" s="34">
-        <v>2.87</v>
-      </c>
-      <c r="AK34" s="24"/>
-      <c r="AL34" s="31"/>
+        <v>2.86</v>
+      </c>
+      <c r="AK34" s="9"/>
+      <c r="AL34" s="10"/>
       <c r="AM34" s="11"/>
       <c r="AN34" s="12" t="s">
-        <v>548</v>
+        <v>447</v>
       </c>
       <c r="AO34" s="13">
-        <v>3.86</v>
+        <v>5.22</v>
       </c>
       <c r="AP34" s="13" t="s">
-        <v>587</v>
+        <v>454</v>
       </c>
       <c r="AQ34" s="13">
-        <v>3.32</v>
+        <v>4.59</v>
       </c>
       <c r="AR34" s="13" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="AS34" s="34">
-        <v>2.96</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="35" ht="11.5" customHeight="1" spans="1:45">
@@ -9992,7 +9958,7 @@
         <v>10</v>
       </c>
       <c r="L35" s="5">
-        <v>50.04</v>
+        <v>50.1</v>
       </c>
       <c r="M35" s="6" t="s">
         <v>456</v>
@@ -10012,53 +9978,53 @@
       <c r="R35" s="33">
         <v>4.67</v>
       </c>
-      <c r="S35" s="36" t="s">
-        <v>529</v>
-      </c>
-      <c r="T35" s="37"/>
+      <c r="S35" s="40" t="s">
+        <v>528</v>
+      </c>
+      <c r="T35" s="41"/>
       <c r="U35" s="5">
-        <v>50.42</v>
+        <v>50.45</v>
       </c>
       <c r="V35" s="6" t="s">
-        <v>484</v>
+        <v>542</v>
       </c>
       <c r="W35" s="7">
-        <v>2.66</v>
+        <v>3.09</v>
       </c>
       <c r="X35" s="8" t="s">
-        <v>459</v>
+        <v>577</v>
       </c>
       <c r="Y35" s="8">
-        <v>2.58</v>
+        <v>2.59</v>
       </c>
       <c r="Z35" s="8" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="AA35" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="AK35" s="14" t="s">
-        <v>557</v>
-      </c>
-      <c r="AL35" s="15"/>
+        <v>2.49</v>
+      </c>
+      <c r="AK35" s="26" t="s">
+        <v>558</v>
+      </c>
+      <c r="AL35" s="27"/>
       <c r="AM35" s="5"/>
       <c r="AN35" s="6" t="s">
-        <v>598</v>
+        <v>530</v>
       </c>
       <c r="AO35" s="7">
-        <v>3.91</v>
+        <v>5.3</v>
       </c>
       <c r="AP35" s="8" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="AQ35" s="8">
-        <v>3.53</v>
+        <v>3.64</v>
       </c>
       <c r="AR35" s="8" t="s">
-        <v>541</v>
+        <v>590</v>
       </c>
       <c r="AS35" s="33">
-        <v>3.32</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="36" ht="11.5" customHeight="1" spans="1:45">
@@ -10104,47 +10070,47 @@
       <c r="R36" s="34">
         <v>4.16</v>
       </c>
-      <c r="S36" s="38"/>
-      <c r="T36" s="39"/>
+      <c r="S36" s="42"/>
+      <c r="T36" s="43"/>
       <c r="U36" s="11"/>
       <c r="V36" s="12" t="s">
-        <v>446</v>
+        <v>135</v>
       </c>
       <c r="W36" s="13">
-        <v>3.12</v>
+        <v>3.57</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>507</v>
+        <v>452</v>
       </c>
       <c r="Y36" s="13">
-        <v>2.99</v>
+        <v>3.25</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>602</v>
+        <v>510</v>
       </c>
       <c r="AA36" s="34">
-        <v>2.86</v>
-      </c>
-      <c r="AK36" s="20"/>
-      <c r="AL36" s="21"/>
+        <v>2.87</v>
+      </c>
+      <c r="AK36" s="28"/>
+      <c r="AL36" s="29"/>
       <c r="AM36" s="11"/>
       <c r="AN36" s="12" t="s">
-        <v>510</v>
+        <v>456</v>
       </c>
       <c r="AO36" s="13">
-        <v>5.42</v>
+        <v>2.79</v>
       </c>
       <c r="AP36" s="13" t="s">
-        <v>601</v>
+        <v>434</v>
       </c>
       <c r="AQ36" s="13">
-        <v>3.69</v>
+        <v>2.17</v>
       </c>
       <c r="AR36" s="13" t="s">
-        <v>552</v>
+        <v>434</v>
       </c>
       <c r="AS36" s="34">
-        <v>3.52</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="37" ht="11.5" customHeight="1" spans="1:45">
@@ -10199,7 +10165,7 @@
       </c>
       <c r="T37" s="4"/>
       <c r="U37" s="5">
-        <v>50.38</v>
+        <v>50.15</v>
       </c>
       <c r="V37" s="6" t="s">
         <v>135</v>
@@ -10220,27 +10186,29 @@
         <v>3.4</v>
       </c>
       <c r="AK37" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="AL37" s="4"/>
+        <v>433</v>
+      </c>
+      <c r="AL37" s="4">
+        <v>5</v>
+      </c>
       <c r="AM37" s="5"/>
       <c r="AN37" s="6" t="s">
-        <v>497</v>
+        <v>523</v>
       </c>
       <c r="AO37" s="7">
-        <v>4.46</v>
+        <v>5.83</v>
       </c>
       <c r="AP37" s="8" t="s">
-        <v>495</v>
+        <v>568</v>
       </c>
       <c r="AQ37" s="8">
-        <v>3.64</v>
+        <v>5.45</v>
       </c>
       <c r="AR37" s="8" t="s">
-        <v>590</v>
+        <v>540</v>
       </c>
       <c r="AS37" s="33">
-        <v>3.26</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="38" ht="11.5" customHeight="1" spans="1:45">
@@ -10311,95 +10279,95 @@
       <c r="AL38" s="10"/>
       <c r="AM38" s="11"/>
       <c r="AN38" s="12" t="s">
-        <v>517</v>
+        <v>552</v>
       </c>
       <c r="AO38" s="13">
-        <v>5.95</v>
+        <v>3.86</v>
       </c>
       <c r="AP38" s="13" t="s">
-        <v>542</v>
+        <v>484</v>
       </c>
       <c r="AQ38" s="13">
-        <v>3.77</v>
+        <v>2.39</v>
       </c>
       <c r="AR38" s="13" t="s">
-        <v>600</v>
+        <v>458</v>
       </c>
       <c r="AS38" s="34">
-        <v>3.44</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="39" ht="11.5" customHeight="1" spans="10:45">
       <c r="J39" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="K39" s="4">
-        <v>5</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="K39" s="4"/>
       <c r="L39" s="5"/>
       <c r="M39" s="6" t="s">
-        <v>572</v>
+        <v>456</v>
       </c>
       <c r="N39" s="7">
-        <v>7.44</v>
+        <v>12.67</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="P39" s="8">
-        <v>7.24</v>
+        <v>7.05</v>
       </c>
       <c r="Q39" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="R39" s="33">
-        <v>7.09</v>
-      </c>
-      <c r="S39" s="14" t="s">
-        <v>475</v>
-      </c>
-      <c r="T39" s="15"/>
+        <v>532</v>
+      </c>
+      <c r="R39" s="44">
+        <v>4.18</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="T39" s="4">
+        <v>5</v>
+      </c>
       <c r="U39" s="5"/>
       <c r="V39" s="6" t="s">
-        <v>497</v>
+        <v>530</v>
       </c>
       <c r="W39" s="7">
-        <v>3.45</v>
+        <v>5.24</v>
       </c>
       <c r="X39" s="8" t="s">
-        <v>437</v>
+        <v>494</v>
       </c>
       <c r="Y39" s="8">
-        <v>3.28</v>
+        <v>4.17</v>
       </c>
       <c r="Z39" s="8" t="s">
-        <v>604</v>
+        <v>528</v>
       </c>
       <c r="AA39" s="33">
-        <v>3.15</v>
-      </c>
-      <c r="AK39" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="AL39" s="4"/>
+        <v>3.25</v>
+      </c>
+      <c r="AK39" s="22" t="s">
+        <v>455</v>
+      </c>
+      <c r="AL39" s="30"/>
       <c r="AM39" s="5"/>
       <c r="AN39" s="6" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="AO39" s="7">
-        <v>4.26</v>
+        <v>4.93</v>
       </c>
       <c r="AP39" s="8" t="s">
-        <v>522</v>
+        <v>454</v>
       </c>
       <c r="AQ39" s="8">
-        <v>3.63</v>
+        <v>3</v>
       </c>
       <c r="AR39" s="8" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="AS39" s="33">
-        <v>3.28</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="40" ht="11.5" customHeight="1" spans="10:45">
@@ -10407,137 +10375,137 @@
       <c r="K40" s="10"/>
       <c r="L40" s="11"/>
       <c r="M40" s="12" t="s">
-        <v>456</v>
+        <v>498</v>
       </c>
       <c r="N40" s="13">
-        <v>12.44</v>
+        <v>5.03</v>
       </c>
       <c r="O40" s="13" t="s">
-        <v>542</v>
+        <v>583</v>
       </c>
       <c r="P40" s="13">
-        <v>7.87</v>
+        <v>3.07</v>
       </c>
       <c r="Q40" s="13" t="s">
-        <v>577</v>
+        <v>558</v>
       </c>
       <c r="R40" s="34">
-        <v>4.79</v>
-      </c>
-      <c r="S40" s="20"/>
-      <c r="T40" s="21"/>
+        <v>2.36</v>
+      </c>
+      <c r="S40" s="9"/>
+      <c r="T40" s="10"/>
       <c r="U40" s="11"/>
       <c r="V40" s="12" t="s">
-        <v>590</v>
+        <v>492</v>
       </c>
       <c r="W40" s="13">
-        <v>4.01</v>
+        <v>5.3</v>
       </c>
       <c r="X40" s="13" t="s">
-        <v>539</v>
+        <v>437</v>
       </c>
       <c r="Y40" s="13">
-        <v>3.91</v>
+        <v>5.17</v>
       </c>
       <c r="Z40" s="13" t="s">
-        <v>542</v>
+        <v>510</v>
       </c>
       <c r="AA40" s="34">
-        <v>3.51</v>
-      </c>
-      <c r="AK40" s="9"/>
-      <c r="AL40" s="10"/>
+        <v>3.7</v>
+      </c>
+      <c r="AK40" s="24"/>
+      <c r="AL40" s="31"/>
       <c r="AM40" s="11"/>
       <c r="AN40" s="12" t="s">
-        <v>582</v>
+        <v>548</v>
       </c>
       <c r="AO40" s="13">
-        <v>3.64</v>
+        <v>3.86</v>
       </c>
       <c r="AP40" s="13" t="s">
-        <v>447</v>
+        <v>587</v>
       </c>
       <c r="AQ40" s="13">
-        <v>3.6</v>
+        <v>3.32</v>
       </c>
       <c r="AR40" s="13" t="s">
-        <v>574</v>
+        <v>598</v>
       </c>
       <c r="AS40" s="34">
-        <v>3.58</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="41" ht="11.5" customHeight="1" spans="10:45">
       <c r="J41" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="K41" s="4"/>
+        <v>510</v>
+      </c>
+      <c r="K41" s="4">
+        <v>5</v>
+      </c>
       <c r="L41" s="5"/>
       <c r="M41" s="6" t="s">
-        <v>456</v>
+        <v>572</v>
       </c>
       <c r="N41" s="7">
-        <v>12.67</v>
+        <v>7.44</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="P41" s="8">
-        <v>7.05</v>
+        <v>7.24</v>
       </c>
       <c r="Q41" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="R41" s="44">
-        <v>4.18</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="T41" s="4">
-        <v>5</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="R41" s="33">
+        <v>7.09</v>
+      </c>
+      <c r="S41" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="T41" s="15"/>
       <c r="U41" s="5"/>
       <c r="V41" s="6" t="s">
-        <v>530</v>
+        <v>497</v>
       </c>
       <c r="W41" s="7">
-        <v>5.24</v>
+        <v>3.45</v>
       </c>
       <c r="X41" s="8" t="s">
-        <v>494</v>
+        <v>437</v>
       </c>
       <c r="Y41" s="8">
-        <v>4.17</v>
+        <v>3.28</v>
       </c>
       <c r="Z41" s="8" t="s">
-        <v>528</v>
+        <v>604</v>
       </c>
       <c r="AA41" s="33">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="AK41" s="3" t="s">
-        <v>435</v>
+        <v>458</v>
       </c>
       <c r="AL41" s="4"/>
       <c r="AM41" s="5"/>
       <c r="AN41" s="6" t="s">
-        <v>484</v>
+        <v>598</v>
       </c>
       <c r="AO41" s="7">
-        <v>3.67</v>
+        <v>4.26</v>
       </c>
       <c r="AP41" s="8" t="s">
-        <v>459</v>
+        <v>522</v>
       </c>
       <c r="AQ41" s="8">
-        <v>3.61</v>
+        <v>3.63</v>
       </c>
       <c r="AR41" s="8" t="s">
-        <v>601</v>
+        <v>565</v>
       </c>
       <c r="AS41" s="33">
-        <v>3.11</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="42" ht="11.5" customHeight="1" spans="10:45">
@@ -10545,64 +10513,64 @@
       <c r="K42" s="10"/>
       <c r="L42" s="11"/>
       <c r="M42" s="12" t="s">
-        <v>498</v>
+        <v>456</v>
       </c>
       <c r="N42" s="13">
-        <v>5.03</v>
+        <v>12.44</v>
       </c>
       <c r="O42" s="13" t="s">
-        <v>583</v>
+        <v>542</v>
       </c>
       <c r="P42" s="13">
-        <v>3.07</v>
+        <v>7.87</v>
       </c>
       <c r="Q42" s="13" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
       <c r="R42" s="34">
-        <v>2.36</v>
-      </c>
-      <c r="S42" s="9"/>
-      <c r="T42" s="10"/>
+        <v>4.79</v>
+      </c>
+      <c r="S42" s="20"/>
+      <c r="T42" s="21"/>
       <c r="U42" s="11"/>
       <c r="V42" s="12" t="s">
-        <v>492</v>
+        <v>590</v>
       </c>
       <c r="W42" s="13">
-        <v>5.3</v>
+        <v>4.01</v>
       </c>
       <c r="X42" s="13" t="s">
-        <v>437</v>
+        <v>539</v>
       </c>
       <c r="Y42" s="13">
-        <v>5.17</v>
+        <v>3.91</v>
       </c>
       <c r="Z42" s="13" t="s">
-        <v>510</v>
+        <v>542</v>
       </c>
       <c r="AA42" s="34">
-        <v>3.7</v>
+        <v>3.51</v>
       </c>
       <c r="AK42" s="9"/>
       <c r="AL42" s="10"/>
       <c r="AM42" s="11"/>
       <c r="AN42" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="AO42" s="13">
+        <v>3.64</v>
+      </c>
+      <c r="AP42" s="13" t="s">
         <v>447</v>
       </c>
-      <c r="AO42" s="13">
-        <v>5.22</v>
-      </c>
-      <c r="AP42" s="13" t="s">
-        <v>454</v>
-      </c>
       <c r="AQ42" s="13">
-        <v>4.59</v>
+        <v>3.6</v>
       </c>
       <c r="AR42" s="13" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="AS42" s="34">
-        <v>3.95</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="43" ht="11.5" customHeight="1" spans="10:45">
